--- a/我的创作/炒股/交易运行状态/新化股份.xlsx
+++ b/我的创作/炒股/交易运行状态/新化股份.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>日期</t>
   </si>
@@ -25,7 +28,10 @@
     <t>当前止损线</t>
   </si>
   <si>
-    <t>预期移动止损线</t>
+    <t>预期止损线</t>
+  </si>
+  <si>
+    <t>预期移动止损线股价</t>
   </si>
   <si>
     <t>当日收盘价是否小于20日均线
@@ -60,10 +66,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,17 +81,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,8 +109,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,9 +132,70 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,75 +214,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,7 +239,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,19 +263,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,13 +341,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,13 +353,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,37 +377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,25 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,31 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,8 +430,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,11 +460,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,17 +490,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,19 +519,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,124 +529,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,31 +655,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,8 +690,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -743,6 +752,673 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="入场指标"/>
+      <sheetName val="账户动态"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>000001</v>
+          </cell>
+          <cell r="B4">
+            <v>44517</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>003040(楚天龙)</v>
+          </cell>
+          <cell r="D4">
+            <v>22.15</v>
+          </cell>
+          <cell r="E4">
+            <v>23.55</v>
+          </cell>
+          <cell r="F4">
+            <v>24.52</v>
+          </cell>
+          <cell r="G4">
+            <v>25.7</v>
+          </cell>
+          <cell r="H4">
+            <v>5.46</v>
+          </cell>
+          <cell r="I4">
+            <v>46.33</v>
+          </cell>
+          <cell r="J4">
+            <v>3.70695970695971</v>
+          </cell>
+          <cell r="K4">
+            <v>0.445283833369307</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="M4">
+            <v>20.79</v>
+          </cell>
+          <cell r="N4">
+            <v>29.8</v>
+          </cell>
+          <cell r="O4">
+            <v>21.88</v>
+          </cell>
+          <cell r="P4">
+            <v>25.14</v>
+          </cell>
+          <cell r="Q4">
+            <v>22.1</v>
+          </cell>
+          <cell r="R4">
+            <v>26.4</v>
+          </cell>
+          <cell r="S4">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="X4" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Y4">
+            <v>0.551262680768401</v>
+          </cell>
+          <cell r="Z4">
+            <v>0.265771812080537</v>
+          </cell>
+          <cell r="AA4">
+            <v>0.120922832140016</v>
+          </cell>
+          <cell r="AB4">
+            <v>0.0909090909090909</v>
+          </cell>
+          <cell r="AC4" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AE4" t="str">
+            <v>4T</v>
+          </cell>
+          <cell r="AF4" t="str">
+            <v>减少不明显，空头依然较强</v>
+          </cell>
+          <cell r="AG4" t="str">
+            <v>形态清晰</v>
+          </cell>
+          <cell r="AH4" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AI4">
+            <v>28.15</v>
+          </cell>
+          <cell r="AJ4">
+            <v>21.87</v>
+          </cell>
+          <cell r="AK4">
+            <v>6.28</v>
+          </cell>
+          <cell r="AL4">
+            <v>26.2</v>
+          </cell>
+          <cell r="AM4">
+            <v>24.68</v>
+          </cell>
+          <cell r="AN4">
+            <v>32.49</v>
+          </cell>
+          <cell r="AO4">
+            <v>152</v>
+          </cell>
+          <cell r="AP4">
+            <v>100</v>
+          </cell>
+          <cell r="AQ4">
+            <v>4.13815789473685</v>
+          </cell>
+          <cell r="AR4">
+            <v>0.0580152671755725</v>
+          </cell>
+          <cell r="AS4">
+            <v>0.240076335877863</v>
+          </cell>
+          <cell r="AT4">
+            <v>150.88</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>000002</v>
+          </cell>
+          <cell r="B5">
+            <v>44517</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>600085(同仁堂)</v>
+          </cell>
+          <cell r="D5">
+            <v>31.92</v>
+          </cell>
+          <cell r="E5">
+            <v>32.63</v>
+          </cell>
+          <cell r="F5">
+            <v>33.17</v>
+          </cell>
+          <cell r="G5">
+            <v>33.73</v>
+          </cell>
+          <cell r="H5">
+            <v>22.98</v>
+          </cell>
+          <cell r="I5">
+            <v>44.42</v>
+          </cell>
+          <cell r="J5">
+            <v>0.467798085291558</v>
+          </cell>
+          <cell r="K5">
+            <v>0.240657361548852</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>30.78</v>
+          </cell>
+          <cell r="N5">
+            <v>35</v>
+          </cell>
+          <cell r="O5">
+            <v>31.27</v>
+          </cell>
+          <cell r="P5">
+            <v>34.82</v>
+          </cell>
+          <cell r="Q5">
+            <v>32.12</v>
+          </cell>
+          <cell r="R5">
+            <v>34.11</v>
+          </cell>
+          <cell r="S5">
+            <v>32.53</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="X5" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Y5">
+            <v>0.307068887888339</v>
+          </cell>
+          <cell r="Z5">
+            <v>0.106571428571429</v>
+          </cell>
+          <cell r="AA5">
+            <v>0.077541642734061</v>
+          </cell>
+          <cell r="AB5">
+            <v>0.0463207270595133</v>
+          </cell>
+          <cell r="AC5" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AE5" t="str">
+            <v>4T</v>
+          </cell>
+          <cell r="AF5" t="str">
+            <v>减少一般，空头仍然较强</v>
+          </cell>
+          <cell r="AG5" t="str">
+            <v>不是很清晰</v>
+          </cell>
+          <cell r="AH5" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AI5">
+            <v>35.48</v>
+          </cell>
+          <cell r="AJ5">
+            <v>31.36</v>
+          </cell>
+          <cell r="AK5">
+            <v>4.12</v>
+          </cell>
+          <cell r="AL5">
+            <v>34.12</v>
+          </cell>
+          <cell r="AM5">
+            <v>32.53</v>
+          </cell>
+          <cell r="AN5">
+            <v>39.33</v>
+          </cell>
+          <cell r="AO5">
+            <v>159</v>
+          </cell>
+          <cell r="AP5">
+            <v>100</v>
+          </cell>
+          <cell r="AQ5">
+            <v>3.27672955974844</v>
+          </cell>
+          <cell r="AR5">
+            <v>0.0466002344665884</v>
+          </cell>
+          <cell r="AS5">
+            <v>0.152696365767878</v>
+          </cell>
+          <cell r="AT5">
+            <v>37.41</v>
+          </cell>
+          <cell r="AU5">
+            <v>44523</v>
+          </cell>
+          <cell r="AV5">
+            <v>33.73</v>
+          </cell>
+          <cell r="AW5">
+            <v>5</v>
+          </cell>
+          <cell r="AX5">
+            <v>0.06746</v>
+          </cell>
+          <cell r="AY5">
+            <v>3378.06746</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>000003</v>
+          </cell>
+          <cell r="B6">
+            <v>44519</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>603867(新化股份)</v>
+          </cell>
+          <cell r="D6">
+            <v>28.2</v>
+          </cell>
+          <cell r="E6">
+            <v>29.15</v>
+          </cell>
+          <cell r="F6">
+            <v>31.53</v>
+          </cell>
+          <cell r="G6">
+            <v>32.57</v>
+          </cell>
+          <cell r="H6">
+            <v>20.61</v>
+          </cell>
+          <cell r="I6">
+            <v>41.5</v>
+          </cell>
+          <cell r="J6">
+            <v>0.58030082484231</v>
+          </cell>
+          <cell r="K6">
+            <v>0.215180722891566</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>28.42</v>
+          </cell>
+          <cell r="N6">
+            <v>34.7</v>
+          </cell>
+          <cell r="O6">
+            <v>29</v>
+          </cell>
+          <cell r="P6">
+            <v>35.27</v>
+          </cell>
+          <cell r="Q6">
+            <v>30.89</v>
+          </cell>
+          <cell r="R6">
+            <v>32.65</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="X6" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Y6">
+            <v>0.315180722891566</v>
+          </cell>
+          <cell r="Z6">
+            <v>0.164265129682997</v>
+          </cell>
+          <cell r="AA6">
+            <v>0.124184859654097</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AC6" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AE6" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF6" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+          <cell r="AG6" t="str">
+            <v>不是很清晰</v>
+          </cell>
+          <cell r="AH6" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AI6">
+            <v>36.21</v>
+          </cell>
+          <cell r="AJ6">
+            <v>27.35</v>
+          </cell>
+          <cell r="AK6">
+            <v>8.86</v>
+          </cell>
+          <cell r="AL6">
+            <v>32.65</v>
+          </cell>
+          <cell r="AM6">
+            <v>30.89</v>
+          </cell>
+          <cell r="AN6">
+            <v>36.22</v>
+          </cell>
+          <cell r="AO6">
+            <v>176</v>
+          </cell>
+          <cell r="AP6">
+            <v>100</v>
+          </cell>
+          <cell r="AQ6">
+            <v>2.02840909090909</v>
+          </cell>
+          <cell r="AR6">
+            <v>0.0539050535987748</v>
+          </cell>
+          <cell r="AS6">
+            <v>0.109341500765697</v>
+          </cell>
+          <cell r="AT6">
+            <v>28.82</v>
+          </cell>
+          <cell r="AU6">
+            <v>44522</v>
+          </cell>
+          <cell r="AV6">
+            <v>32.7</v>
+          </cell>
+          <cell r="AW6">
+            <v>5</v>
+          </cell>
+          <cell r="AX6">
+            <v>0.0654</v>
+          </cell>
+          <cell r="AY6">
+            <v>3275.0654</v>
+          </cell>
+          <cell r="AZ6">
+            <v>33.9</v>
+          </cell>
+          <cell r="BA6">
+            <v>32.49</v>
+          </cell>
+          <cell r="BB6">
+            <v>0.851063829787233</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>000005</v>
+          </cell>
+          <cell r="B7">
+            <v>44522</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>605016(百农创园)</v>
+          </cell>
+          <cell r="D7">
+            <v>28.37</v>
+          </cell>
+          <cell r="E7">
+            <v>29.06</v>
+          </cell>
+          <cell r="F7">
+            <v>29.49</v>
+          </cell>
+          <cell r="G7">
+            <v>29.69</v>
+          </cell>
+          <cell r="H7">
+            <v>17.54</v>
+          </cell>
+          <cell r="I7">
+            <v>48.5</v>
+          </cell>
+          <cell r="J7">
+            <v>0.692702394526796</v>
+          </cell>
+          <cell r="K7">
+            <v>0.387835051546392</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="M7">
+            <v>24.11</v>
+          </cell>
+          <cell r="N7">
+            <v>38.16</v>
+          </cell>
+          <cell r="O7">
+            <v>25.12</v>
+          </cell>
+          <cell r="P7">
+            <v>30.9</v>
+          </cell>
+          <cell r="Q7">
+            <v>29.2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="X7" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Y7">
+            <v>0.502886597938144</v>
+          </cell>
+          <cell r="Z7">
+            <v>0.341719077568134</v>
+          </cell>
+          <cell r="AA7">
+            <v>0.0550161812297734</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AE7" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF7" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+          <cell r="AG7" t="str">
+            <v>清晰</v>
+          </cell>
+          <cell r="AH7" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AI7">
+            <v>32.43</v>
+          </cell>
+          <cell r="AJ7">
+            <v>26.16</v>
+          </cell>
+          <cell r="AK7">
+            <v>6.27</v>
+          </cell>
+          <cell r="AL7">
+            <v>30.9</v>
+          </cell>
+          <cell r="AM7">
+            <v>29.35</v>
+          </cell>
+          <cell r="AN7">
+            <v>38.71</v>
+          </cell>
+          <cell r="AO7">
+            <v>155</v>
+          </cell>
+          <cell r="AP7">
+            <v>200</v>
+          </cell>
+          <cell r="AQ7">
+            <v>5.03870967741937</v>
+          </cell>
+          <cell r="AR7">
+            <v>0.0501618122977345</v>
+          </cell>
+          <cell r="AS7">
+            <v>0.252750809061489</v>
+          </cell>
+          <cell r="AT7">
+            <v>38.46</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>000006</v>
+          </cell>
+          <cell r="B8">
+            <v>44522</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>000722(湖南发展)</v>
+          </cell>
+          <cell r="D8">
+            <v>7.01</v>
+          </cell>
+          <cell r="E8">
+            <v>7.12</v>
+          </cell>
+          <cell r="F8">
+            <v>7.44</v>
+          </cell>
+          <cell r="G8">
+            <v>7.74</v>
+          </cell>
+          <cell r="H8">
+            <v>5.47</v>
+          </cell>
+          <cell r="I8">
+            <v>9.59</v>
+          </cell>
+          <cell r="J8">
+            <v>0.414990859232176</v>
+          </cell>
+          <cell r="K8">
+            <v>0.192909280500521</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="M8">
+            <v>6.06</v>
+          </cell>
+          <cell r="N8">
+            <v>8.34</v>
+          </cell>
+          <cell r="O8">
+            <v>6.68</v>
+          </cell>
+          <cell r="P8">
+            <v>7.95</v>
+          </cell>
+          <cell r="Q8">
+            <v>7.31</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="X8" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Y8">
+            <v>0.368091762252346</v>
+          </cell>
+          <cell r="Z8">
+            <v>0.199040767386091</v>
+          </cell>
+          <cell r="AA8">
+            <v>0.0805031446540881</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AE8" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF8" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+          <cell r="AG8" t="str">
+            <v>略清晰</v>
+          </cell>
+          <cell r="AH8" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AI8">
+            <v>8.43</v>
+          </cell>
+          <cell r="AJ8">
+            <v>6.78</v>
+          </cell>
+          <cell r="AK8">
+            <v>1.65</v>
+          </cell>
+          <cell r="AL8">
+            <v>8.08</v>
+          </cell>
+          <cell r="AM8">
+            <v>7.66</v>
+          </cell>
+          <cell r="AN8">
+            <v>9.31</v>
+          </cell>
+          <cell r="AO8">
+            <v>42</v>
+          </cell>
+          <cell r="AP8">
+            <v>700</v>
+          </cell>
+          <cell r="AQ8">
+            <v>2.92857142857143</v>
+          </cell>
+          <cell r="AR8">
+            <v>0.051980198019802</v>
+          </cell>
+          <cell r="AS8">
+            <v>0.152227722772277</v>
+          </cell>
+          <cell r="AT8">
+            <v>32.3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1003,29 +1679,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P500"/>
+  <dimension ref="A1:Q500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="2" width="14.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="20.6785714285714" customWidth="1"/>
-    <col min="4" max="4" width="19.7857142857143" customWidth="1"/>
-    <col min="5" max="5" width="30.0625" customWidth="1"/>
-    <col min="6" max="6" width="40.4732142857143" customWidth="1"/>
-    <col min="7" max="7" width="25.4464285714286" customWidth="1"/>
-    <col min="8" max="8" width="28.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="30.0625" customWidth="1"/>
+    <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="16.3571428571429" customWidth="1"/>
+    <col min="3" max="4" width="20.6785714285714" customWidth="1"/>
+    <col min="5" max="5" width="19.7857142857143" customWidth="1"/>
+    <col min="6" max="6" width="30.0625" customWidth="1"/>
+    <col min="7" max="7" width="40.4732142857143" customWidth="1"/>
+    <col min="8" max="8" width="25.4464285714286" customWidth="1"/>
+    <col min="9" max="9" width="28.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="30.0625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" spans="1:16">
+    <row r="1" ht="36" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1034,67 +1711,75 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="2">
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="3">
         <v>44522</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>33.6</v>
       </c>
       <c r="C2" s="1">
         <v>30.89</v>
       </c>
       <c r="D2" s="1">
-        <v>36.18</v>
+        <f>C2/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL10000,44,FALSE))</f>
+        <v>32.65</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
+      <c r="E2" s="5">
+        <f>D2+D2*VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL1000,44,FALSE)*2</f>
+        <v>36.17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="2">
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="3">
         <v>44523</v>
       </c>
       <c r="B3" s="1"/>
@@ -1112,9 +1797,10 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="2">
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="3">
         <v>44524</v>
       </c>
       <c r="B4" s="1"/>
@@ -1132,9 +1818,10 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="2">
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="3">
         <v>44525</v>
       </c>
       <c r="B5" s="1"/>
@@ -1152,9 +1839,10 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="2">
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="3">
         <v>44526</v>
       </c>
       <c r="B6" s="1"/>
@@ -1172,9 +1860,10 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="2">
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="3">
         <v>44527</v>
       </c>
       <c r="B7" s="1"/>
@@ -1192,9 +1881,10 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="2">
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="3">
         <v>44528</v>
       </c>
       <c r="B8" s="1"/>
@@ -1212,9 +1902,10 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="2">
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="3">
         <v>44529</v>
       </c>
       <c r="B9" s="1"/>
@@ -1232,9 +1923,10 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="2">
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="3">
         <v>44530</v>
       </c>
       <c r="B10" s="1"/>
@@ -1252,9 +1944,10 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="2">
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="3">
         <v>44531</v>
       </c>
       <c r="B11" s="1"/>
@@ -1272,9 +1965,10 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="2">
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="3">
         <v>44532</v>
       </c>
       <c r="B12" s="1"/>
@@ -1292,9 +1986,10 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="2">
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="3">
         <v>44533</v>
       </c>
       <c r="B13" s="1"/>
@@ -1312,9 +2007,10 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="2">
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="3">
         <v>44534</v>
       </c>
       <c r="B14" s="1"/>
@@ -1332,9 +2028,10 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="2">
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="3">
         <v>44535</v>
       </c>
       <c r="B15" s="1"/>
@@ -1352,9 +2049,10 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="2">
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="3">
         <v>44536</v>
       </c>
       <c r="B16" s="1"/>
@@ -1372,9 +2070,10 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="2">
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="3">
         <v>44537</v>
       </c>
       <c r="B17" s="1"/>
@@ -1392,9 +2091,10 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="2">
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="3">
         <v>44538</v>
       </c>
       <c r="B18" s="1"/>
@@ -1412,9 +2112,10 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="2">
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="3">
         <v>44539</v>
       </c>
       <c r="B19" s="1"/>
@@ -1432,9 +2133,10 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="2">
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="3">
         <v>44540</v>
       </c>
       <c r="B20" s="1"/>
@@ -1452,9 +2154,10 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="2">
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="3">
         <v>44541</v>
       </c>
       <c r="B21" s="1"/>
@@ -1472,9 +2175,10 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="2">
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="3">
         <v>44542</v>
       </c>
       <c r="B22" s="1"/>
@@ -1492,9 +2196,10 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="2">
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="3">
         <v>44543</v>
       </c>
       <c r="B23" s="1"/>
@@ -1512,9 +2217,10 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="2">
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="3">
         <v>44544</v>
       </c>
       <c r="B24" s="1"/>
@@ -1532,9 +2238,10 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="2">
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="3">
         <v>44545</v>
       </c>
       <c r="B25" s="1"/>
@@ -1552,9 +2259,10 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="2">
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="3">
         <v>44546</v>
       </c>
       <c r="B26" s="1"/>
@@ -1572,9 +2280,10 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="2">
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="3">
         <v>44547</v>
       </c>
       <c r="B27" s="1"/>
@@ -1592,9 +2301,10 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="2">
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="3">
         <v>44548</v>
       </c>
       <c r="B28" s="1"/>
@@ -1612,9 +2322,10 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="2">
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="3">
         <v>44549</v>
       </c>
       <c r="B29" s="1"/>
@@ -1632,9 +2343,10 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="2">
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="3">
         <v>44550</v>
       </c>
       <c r="B30" s="1"/>
@@ -1652,9 +2364,10 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="2">
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="3">
         <v>44551</v>
       </c>
       <c r="B31" s="1"/>
@@ -1672,9 +2385,10 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="2">
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="3">
         <v>44552</v>
       </c>
       <c r="B32" s="1"/>
@@ -1692,9 +2406,10 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="2">
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="3">
         <v>44553</v>
       </c>
       <c r="B33" s="1"/>
@@ -1712,9 +2427,10 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="2">
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="3">
         <v>44554</v>
       </c>
       <c r="B34" s="1"/>
@@ -1732,9 +2448,10 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="2">
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="3">
         <v>44555</v>
       </c>
       <c r="B35" s="1"/>
@@ -1752,9 +2469,10 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="2">
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="3">
         <v>44556</v>
       </c>
       <c r="B36" s="1"/>
@@ -1772,9 +2490,10 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="2">
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="3">
         <v>44557</v>
       </c>
       <c r="B37" s="1"/>
@@ -1792,9 +2511,10 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="2">
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="3">
         <v>44558</v>
       </c>
       <c r="B38" s="1"/>
@@ -1812,8 +2532,9 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1830,8 +2551,9 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1848,8 +2570,9 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1866,8 +2589,9 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1884,8 +2608,9 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1902,8 +2627,9 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1920,8 +2646,9 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1938,8 +2665,9 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1956,8 +2684,9 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1974,8 +2703,9 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1992,8 +2722,9 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2010,8 +2741,9 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2028,8 +2760,9 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2046,8 +2779,9 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2064,8 +2798,9 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2082,8 +2817,9 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2100,8 +2836,9 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2118,8 +2855,9 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2136,8 +2874,9 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2154,8 +2893,9 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57" s="1"/>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2172,8 +2912,9 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2190,8 +2931,9 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2208,8 +2950,9 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60" s="1"/>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2226,8 +2969,9 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2244,8 +2988,9 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2262,8 +3007,9 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2280,8 +3026,9 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64" s="1"/>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2298,8 +3045,9 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2316,8 +3064,9 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2334,8 +3083,9 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67" s="1"/>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2352,8 +3102,9 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="Q68" s="1"/>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2370,8 +3121,9 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="Q69" s="1"/>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2388,8 +3140,9 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="Q70" s="1"/>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2406,8 +3159,9 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="Q71" s="1"/>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2424,8 +3178,9 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="Q72" s="1"/>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2442,8 +3197,9 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="Q73" s="1"/>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2460,8 +3216,9 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="Q74" s="1"/>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2478,8 +3235,9 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="Q75" s="1"/>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2496,8 +3254,9 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="Q76" s="1"/>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2514,8 +3273,9 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="Q77" s="1"/>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2532,8 +3292,9 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="Q78" s="1"/>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2550,8 +3311,9 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="Q79" s="1"/>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2568,8 +3330,9 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="Q80" s="1"/>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2586,8 +3349,9 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="Q81" s="1"/>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2604,8 +3368,9 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="Q82" s="1"/>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2622,8 +3387,9 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="Q83" s="1"/>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2640,8 +3406,9 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="Q84" s="1"/>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2658,8 +3425,9 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="Q85" s="1"/>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2676,8 +3444,9 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="Q86" s="1"/>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2694,8 +3463,9 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="Q87" s="1"/>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2712,8 +3482,9 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="Q88" s="1"/>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2730,8 +3501,9 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="Q89" s="1"/>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2748,8 +3520,9 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="Q90" s="1"/>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2766,8 +3539,9 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="Q91" s="1"/>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2784,8 +3558,9 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="Q92" s="1"/>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2802,8 +3577,9 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="Q93" s="1"/>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2820,8 +3596,9 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="Q94" s="1"/>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2838,8 +3615,9 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="Q95" s="1"/>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2856,8 +3634,9 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="Q96" s="1"/>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2874,8 +3653,9 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="Q97" s="1"/>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2892,8 +3672,9 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
-    </row>
-    <row r="99" spans="1:16">
+      <c r="Q98" s="1"/>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2910,8 +3691,9 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
-    </row>
-    <row r="100" spans="1:16">
+      <c r="Q99" s="1"/>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2928,8 +3710,9 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
-    </row>
-    <row r="101" spans="1:16">
+      <c r="Q100" s="1"/>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2946,8 +3729,9 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
-    </row>
-    <row r="102" spans="1:16">
+      <c r="Q101" s="1"/>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2964,8 +3748,9 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
-    </row>
-    <row r="103" spans="1:16">
+      <c r="Q102" s="1"/>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2982,8 +3767,9 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
-    </row>
-    <row r="104" spans="1:16">
+      <c r="Q103" s="1"/>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3000,8 +3786,9 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
-    </row>
-    <row r="105" spans="1:16">
+      <c r="Q104" s="1"/>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3018,8 +3805,9 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
-    </row>
-    <row r="106" spans="1:16">
+      <c r="Q105" s="1"/>
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3036,8 +3824,9 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
-    </row>
-    <row r="107" spans="1:16">
+      <c r="Q106" s="1"/>
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3054,8 +3843,9 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
-    </row>
-    <row r="108" spans="1:16">
+      <c r="Q107" s="1"/>
+    </row>
+    <row r="108" spans="1:17">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3072,8 +3862,9 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
-    </row>
-    <row r="109" spans="1:16">
+      <c r="Q108" s="1"/>
+    </row>
+    <row r="109" spans="1:17">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3090,8 +3881,9 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
-    </row>
-    <row r="110" spans="1:16">
+      <c r="Q109" s="1"/>
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3108,8 +3900,9 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
-    </row>
-    <row r="111" spans="1:16">
+      <c r="Q110" s="1"/>
+    </row>
+    <row r="111" spans="1:17">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3126,8 +3919,9 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
-    </row>
-    <row r="112" spans="1:16">
+      <c r="Q111" s="1"/>
+    </row>
+    <row r="112" spans="1:17">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3144,8 +3938,9 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
-    </row>
-    <row r="113" spans="1:16">
+      <c r="Q112" s="1"/>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3162,8 +3957,9 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
-    </row>
-    <row r="114" spans="1:16">
+      <c r="Q113" s="1"/>
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3180,8 +3976,9 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
-    </row>
-    <row r="115" spans="1:16">
+      <c r="Q114" s="1"/>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3198,8 +3995,9 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
-    </row>
-    <row r="116" spans="1:16">
+      <c r="Q115" s="1"/>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3216,8 +4014,9 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
-    </row>
-    <row r="117" spans="1:16">
+      <c r="Q116" s="1"/>
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3234,8 +4033,9 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
-    </row>
-    <row r="118" spans="1:16">
+      <c r="Q117" s="1"/>
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3252,8 +4052,9 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
-    </row>
-    <row r="119" spans="1:16">
+      <c r="Q118" s="1"/>
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3270,8 +4071,9 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
-    </row>
-    <row r="120" spans="1:16">
+      <c r="Q119" s="1"/>
+    </row>
+    <row r="120" spans="1:17">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3288,8 +4090,9 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
-    </row>
-    <row r="121" spans="1:16">
+      <c r="Q120" s="1"/>
+    </row>
+    <row r="121" spans="1:17">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3306,8 +4109,9 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
-    </row>
-    <row r="122" spans="1:16">
+      <c r="Q121" s="1"/>
+    </row>
+    <row r="122" spans="1:17">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3324,8 +4128,9 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
-    </row>
-    <row r="123" spans="1:16">
+      <c r="Q122" s="1"/>
+    </row>
+    <row r="123" spans="1:17">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3342,8 +4147,9 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
-    </row>
-    <row r="124" spans="1:16">
+      <c r="Q123" s="1"/>
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3360,8 +4166,9 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
-    </row>
-    <row r="125" spans="1:16">
+      <c r="Q124" s="1"/>
+    </row>
+    <row r="125" spans="1:17">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3378,8 +4185,9 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
-    </row>
-    <row r="126" spans="1:16">
+      <c r="Q125" s="1"/>
+    </row>
+    <row r="126" spans="1:17">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3396,8 +4204,9 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
-    </row>
-    <row r="127" spans="1:16">
+      <c r="Q126" s="1"/>
+    </row>
+    <row r="127" spans="1:17">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3414,8 +4223,9 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
-    </row>
-    <row r="128" spans="1:16">
+      <c r="Q127" s="1"/>
+    </row>
+    <row r="128" spans="1:17">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3432,8 +4242,9 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
-    </row>
-    <row r="129" spans="1:16">
+      <c r="Q128" s="1"/>
+    </row>
+    <row r="129" spans="1:17">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3450,8 +4261,9 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
-    </row>
-    <row r="130" spans="1:16">
+      <c r="Q129" s="1"/>
+    </row>
+    <row r="130" spans="1:17">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3468,8 +4280,9 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
-    </row>
-    <row r="131" spans="1:16">
+      <c r="Q130" s="1"/>
+    </row>
+    <row r="131" spans="1:17">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3486,8 +4299,9 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
-    </row>
-    <row r="132" spans="1:16">
+      <c r="Q131" s="1"/>
+    </row>
+    <row r="132" spans="1:17">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3504,8 +4318,9 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
-    </row>
-    <row r="133" spans="1:16">
+      <c r="Q132" s="1"/>
+    </row>
+    <row r="133" spans="1:17">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3522,8 +4337,9 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
-    </row>
-    <row r="134" spans="1:16">
+      <c r="Q133" s="1"/>
+    </row>
+    <row r="134" spans="1:17">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3540,8 +4356,9 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
-    </row>
-    <row r="135" spans="1:16">
+      <c r="Q134" s="1"/>
+    </row>
+    <row r="135" spans="1:17">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3558,8 +4375,9 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
-    </row>
-    <row r="136" spans="1:16">
+      <c r="Q135" s="1"/>
+    </row>
+    <row r="136" spans="1:17">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3576,8 +4394,9 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
-    </row>
-    <row r="137" spans="1:16">
+      <c r="Q136" s="1"/>
+    </row>
+    <row r="137" spans="1:17">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3594,8 +4413,9 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
-    </row>
-    <row r="138" spans="1:16">
+      <c r="Q137" s="1"/>
+    </row>
+    <row r="138" spans="1:17">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3612,8 +4432,9 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
-    </row>
-    <row r="139" spans="1:16">
+      <c r="Q138" s="1"/>
+    </row>
+    <row r="139" spans="1:17">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3630,8 +4451,9 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
-    </row>
-    <row r="140" spans="1:16">
+      <c r="Q139" s="1"/>
+    </row>
+    <row r="140" spans="1:17">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3648,8 +4470,9 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
-    </row>
-    <row r="141" spans="1:16">
+      <c r="Q140" s="1"/>
+    </row>
+    <row r="141" spans="1:17">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3666,8 +4489,9 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
-    </row>
-    <row r="142" spans="1:16">
+      <c r="Q141" s="1"/>
+    </row>
+    <row r="142" spans="1:17">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3684,8 +4508,9 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
-    </row>
-    <row r="143" spans="1:16">
+      <c r="Q142" s="1"/>
+    </row>
+    <row r="143" spans="1:17">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3702,8 +4527,9 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
-    </row>
-    <row r="144" spans="1:16">
+      <c r="Q143" s="1"/>
+    </row>
+    <row r="144" spans="1:17">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3720,8 +4546,9 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
-    </row>
-    <row r="145" spans="1:16">
+      <c r="Q144" s="1"/>
+    </row>
+    <row r="145" spans="1:17">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3738,8 +4565,9 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
-    </row>
-    <row r="146" spans="1:16">
+      <c r="Q145" s="1"/>
+    </row>
+    <row r="146" spans="1:17">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3756,8 +4584,9 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
-    </row>
-    <row r="147" spans="1:16">
+      <c r="Q146" s="1"/>
+    </row>
+    <row r="147" spans="1:17">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3774,8 +4603,9 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
-    </row>
-    <row r="148" spans="1:16">
+      <c r="Q147" s="1"/>
+    </row>
+    <row r="148" spans="1:17">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3792,8 +4622,9 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
-    </row>
-    <row r="149" spans="1:16">
+      <c r="Q148" s="1"/>
+    </row>
+    <row r="149" spans="1:17">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3810,8 +4641,9 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
-    </row>
-    <row r="150" spans="1:16">
+      <c r="Q149" s="1"/>
+    </row>
+    <row r="150" spans="1:17">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3828,8 +4660,9 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
-    </row>
-    <row r="151" spans="1:16">
+      <c r="Q150" s="1"/>
+    </row>
+    <row r="151" spans="1:17">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3846,8 +4679,9 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
-    </row>
-    <row r="152" spans="1:16">
+      <c r="Q151" s="1"/>
+    </row>
+    <row r="152" spans="1:17">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3864,8 +4698,9 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
-    </row>
-    <row r="153" spans="1:16">
+      <c r="Q152" s="1"/>
+    </row>
+    <row r="153" spans="1:17">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3882,8 +4717,9 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
-    </row>
-    <row r="154" spans="1:16">
+      <c r="Q153" s="1"/>
+    </row>
+    <row r="154" spans="1:17">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3900,8 +4736,9 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
-    </row>
-    <row r="155" spans="1:16">
+      <c r="Q154" s="1"/>
+    </row>
+    <row r="155" spans="1:17">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3918,8 +4755,9 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
-    </row>
-    <row r="156" spans="1:16">
+      <c r="Q155" s="1"/>
+    </row>
+    <row r="156" spans="1:17">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3936,8 +4774,9 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
-    </row>
-    <row r="157" spans="1:16">
+      <c r="Q156" s="1"/>
+    </row>
+    <row r="157" spans="1:17">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3954,8 +4793,9 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
-    </row>
-    <row r="158" spans="1:16">
+      <c r="Q157" s="1"/>
+    </row>
+    <row r="158" spans="1:17">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -3972,8 +4812,9 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
-    </row>
-    <row r="159" spans="1:16">
+      <c r="Q158" s="1"/>
+    </row>
+    <row r="159" spans="1:17">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -3990,8 +4831,9 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
-    </row>
-    <row r="160" spans="1:16">
+      <c r="Q159" s="1"/>
+    </row>
+    <row r="160" spans="1:17">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4008,8 +4850,9 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
-    </row>
-    <row r="161" spans="1:16">
+      <c r="Q160" s="1"/>
+    </row>
+    <row r="161" spans="1:17">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4026,8 +4869,9 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
-    </row>
-    <row r="162" spans="1:16">
+      <c r="Q161" s="1"/>
+    </row>
+    <row r="162" spans="1:17">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4044,8 +4888,9 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
-    </row>
-    <row r="163" spans="1:16">
+      <c r="Q162" s="1"/>
+    </row>
+    <row r="163" spans="1:17">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4062,8 +4907,9 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
-    </row>
-    <row r="164" spans="1:16">
+      <c r="Q163" s="1"/>
+    </row>
+    <row r="164" spans="1:17">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4080,8 +4926,9 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
-    </row>
-    <row r="165" spans="1:16">
+      <c r="Q164" s="1"/>
+    </row>
+    <row r="165" spans="1:17">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4098,8 +4945,9 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
-    </row>
-    <row r="166" spans="1:16">
+      <c r="Q165" s="1"/>
+    </row>
+    <row r="166" spans="1:17">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4116,8 +4964,9 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
-    </row>
-    <row r="167" spans="1:16">
+      <c r="Q166" s="1"/>
+    </row>
+    <row r="167" spans="1:17">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4134,8 +4983,9 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
-    </row>
-    <row r="168" spans="1:16">
+      <c r="Q167" s="1"/>
+    </row>
+    <row r="168" spans="1:17">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4152,8 +5002,9 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
-    </row>
-    <row r="169" spans="1:16">
+      <c r="Q168" s="1"/>
+    </row>
+    <row r="169" spans="1:17">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4170,8 +5021,9 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
-    </row>
-    <row r="170" spans="1:16">
+      <c r="Q169" s="1"/>
+    </row>
+    <row r="170" spans="1:17">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4188,8 +5040,9 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
-    </row>
-    <row r="171" spans="1:16">
+      <c r="Q170" s="1"/>
+    </row>
+    <row r="171" spans="1:17">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4206,8 +5059,9 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
-    </row>
-    <row r="172" spans="1:16">
+      <c r="Q171" s="1"/>
+    </row>
+    <row r="172" spans="1:17">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4224,8 +5078,9 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
-    </row>
-    <row r="173" spans="1:16">
+      <c r="Q172" s="1"/>
+    </row>
+    <row r="173" spans="1:17">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4242,8 +5097,9 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
-    </row>
-    <row r="174" spans="1:16">
+      <c r="Q173" s="1"/>
+    </row>
+    <row r="174" spans="1:17">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4260,8 +5116,9 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
-    </row>
-    <row r="175" spans="1:16">
+      <c r="Q174" s="1"/>
+    </row>
+    <row r="175" spans="1:17">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4278,8 +5135,9 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
-    </row>
-    <row r="176" spans="1:16">
+      <c r="Q175" s="1"/>
+    </row>
+    <row r="176" spans="1:17">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4296,8 +5154,9 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
-    </row>
-    <row r="177" spans="1:16">
+      <c r="Q176" s="1"/>
+    </row>
+    <row r="177" spans="1:17">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4314,8 +5173,9 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
-    </row>
-    <row r="178" spans="1:16">
+      <c r="Q177" s="1"/>
+    </row>
+    <row r="178" spans="1:17">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4332,8 +5192,9 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
-    </row>
-    <row r="179" spans="1:16">
+      <c r="Q178" s="1"/>
+    </row>
+    <row r="179" spans="1:17">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4350,8 +5211,9 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
-    </row>
-    <row r="180" spans="1:16">
+      <c r="Q179" s="1"/>
+    </row>
+    <row r="180" spans="1:17">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4368,8 +5230,9 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
-    </row>
-    <row r="181" spans="1:16">
+      <c r="Q180" s="1"/>
+    </row>
+    <row r="181" spans="1:17">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4386,8 +5249,9 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
-    </row>
-    <row r="182" spans="1:16">
+      <c r="Q181" s="1"/>
+    </row>
+    <row r="182" spans="1:17">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4404,8 +5268,9 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
-    </row>
-    <row r="183" spans="1:16">
+      <c r="Q182" s="1"/>
+    </row>
+    <row r="183" spans="1:17">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4422,8 +5287,9 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
-    </row>
-    <row r="184" spans="1:16">
+      <c r="Q183" s="1"/>
+    </row>
+    <row r="184" spans="1:17">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4440,8 +5306,9 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
-    </row>
-    <row r="185" spans="1:16">
+      <c r="Q184" s="1"/>
+    </row>
+    <row r="185" spans="1:17">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4458,8 +5325,9 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
-    </row>
-    <row r="186" spans="1:16">
+      <c r="Q185" s="1"/>
+    </row>
+    <row r="186" spans="1:17">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4476,8 +5344,9 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
-    </row>
-    <row r="187" spans="1:16">
+      <c r="Q186" s="1"/>
+    </row>
+    <row r="187" spans="1:17">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4494,8 +5363,9 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
-    </row>
-    <row r="188" spans="1:16">
+      <c r="Q187" s="1"/>
+    </row>
+    <row r="188" spans="1:17">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4512,8 +5382,9 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
-    </row>
-    <row r="189" spans="1:16">
+      <c r="Q188" s="1"/>
+    </row>
+    <row r="189" spans="1:17">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4530,8 +5401,9 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
-    </row>
-    <row r="190" spans="1:16">
+      <c r="Q189" s="1"/>
+    </row>
+    <row r="190" spans="1:17">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4548,8 +5420,9 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
-    </row>
-    <row r="191" spans="1:16">
+      <c r="Q190" s="1"/>
+    </row>
+    <row r="191" spans="1:17">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4566,8 +5439,9 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
-    </row>
-    <row r="192" spans="1:16">
+      <c r="Q191" s="1"/>
+    </row>
+    <row r="192" spans="1:17">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4584,8 +5458,9 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
-    </row>
-    <row r="193" spans="1:16">
+      <c r="Q192" s="1"/>
+    </row>
+    <row r="193" spans="1:17">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -4602,8 +5477,9 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
-    </row>
-    <row r="194" spans="1:16">
+      <c r="Q193" s="1"/>
+    </row>
+    <row r="194" spans="1:17">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -4620,8 +5496,9 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
-    </row>
-    <row r="195" spans="1:16">
+      <c r="Q194" s="1"/>
+    </row>
+    <row r="195" spans="1:17">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -4638,8 +5515,9 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
-    </row>
-    <row r="196" spans="1:16">
+      <c r="Q195" s="1"/>
+    </row>
+    <row r="196" spans="1:17">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -4656,8 +5534,9 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
-    </row>
-    <row r="197" spans="1:16">
+      <c r="Q196" s="1"/>
+    </row>
+    <row r="197" spans="1:17">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -4674,8 +5553,9 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
-    </row>
-    <row r="198" spans="1:16">
+      <c r="Q197" s="1"/>
+    </row>
+    <row r="198" spans="1:17">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -4692,8 +5572,9 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
-    </row>
-    <row r="199" spans="1:16">
+      <c r="Q198" s="1"/>
+    </row>
+    <row r="199" spans="1:17">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -4710,8 +5591,9 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
-    </row>
-    <row r="200" spans="1:16">
+      <c r="Q199" s="1"/>
+    </row>
+    <row r="200" spans="1:17">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -4728,8 +5610,9 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
-    </row>
-    <row r="201" spans="1:16">
+      <c r="Q200" s="1"/>
+    </row>
+    <row r="201" spans="1:17">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -4746,8 +5629,9 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
-    </row>
-    <row r="202" spans="1:16">
+      <c r="Q201" s="1"/>
+    </row>
+    <row r="202" spans="1:17">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -4764,8 +5648,9 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
-    </row>
-    <row r="203" spans="1:16">
+      <c r="Q202" s="1"/>
+    </row>
+    <row r="203" spans="1:17">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -4782,8 +5667,9 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
-    </row>
-    <row r="204" spans="1:16">
+      <c r="Q203" s="1"/>
+    </row>
+    <row r="204" spans="1:17">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -4800,8 +5686,9 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
-    </row>
-    <row r="205" spans="1:16">
+      <c r="Q204" s="1"/>
+    </row>
+    <row r="205" spans="1:17">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -4818,8 +5705,9 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
-    </row>
-    <row r="206" spans="1:16">
+      <c r="Q205" s="1"/>
+    </row>
+    <row r="206" spans="1:17">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -4836,8 +5724,9 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
-    </row>
-    <row r="207" spans="1:16">
+      <c r="Q206" s="1"/>
+    </row>
+    <row r="207" spans="1:17">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -4854,8 +5743,9 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
-    </row>
-    <row r="208" spans="1:16">
+      <c r="Q207" s="1"/>
+    </row>
+    <row r="208" spans="1:17">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -4872,8 +5762,9 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
-    </row>
-    <row r="209" spans="1:16">
+      <c r="Q208" s="1"/>
+    </row>
+    <row r="209" spans="1:17">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -4890,8 +5781,9 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
-    </row>
-    <row r="210" spans="1:16">
+      <c r="Q209" s="1"/>
+    </row>
+    <row r="210" spans="1:17">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -4908,8 +5800,9 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
-    </row>
-    <row r="211" spans="1:16">
+      <c r="Q210" s="1"/>
+    </row>
+    <row r="211" spans="1:17">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -4926,8 +5819,9 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
-    </row>
-    <row r="212" spans="1:16">
+      <c r="Q211" s="1"/>
+    </row>
+    <row r="212" spans="1:17">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -4944,8 +5838,9 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
-    </row>
-    <row r="213" spans="1:16">
+      <c r="Q212" s="1"/>
+    </row>
+    <row r="213" spans="1:17">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -4962,8 +5857,9 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
-    </row>
-    <row r="214" spans="1:16">
+      <c r="Q213" s="1"/>
+    </row>
+    <row r="214" spans="1:17">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -4980,8 +5876,9 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
-    </row>
-    <row r="215" spans="1:16">
+      <c r="Q214" s="1"/>
+    </row>
+    <row r="215" spans="1:17">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -4998,8 +5895,9 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
-    </row>
-    <row r="216" spans="1:16">
+      <c r="Q215" s="1"/>
+    </row>
+    <row r="216" spans="1:17">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -5016,8 +5914,9 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
-    </row>
-    <row r="217" spans="1:16">
+      <c r="Q216" s="1"/>
+    </row>
+    <row r="217" spans="1:17">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -5034,8 +5933,9 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
-    </row>
-    <row r="218" spans="1:16">
+      <c r="Q217" s="1"/>
+    </row>
+    <row r="218" spans="1:17">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -5052,8 +5952,9 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
-    </row>
-    <row r="219" spans="1:16">
+      <c r="Q218" s="1"/>
+    </row>
+    <row r="219" spans="1:17">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -5070,8 +5971,9 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
-    </row>
-    <row r="220" spans="1:16">
+      <c r="Q219" s="1"/>
+    </row>
+    <row r="220" spans="1:17">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -5088,8 +5990,9 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
-    </row>
-    <row r="221" spans="1:16">
+      <c r="Q220" s="1"/>
+    </row>
+    <row r="221" spans="1:17">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -5106,8 +6009,9 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
-    </row>
-    <row r="222" spans="1:16">
+      <c r="Q221" s="1"/>
+    </row>
+    <row r="222" spans="1:17">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -5124,8 +6028,9 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
-    </row>
-    <row r="223" spans="1:16">
+      <c r="Q222" s="1"/>
+    </row>
+    <row r="223" spans="1:17">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -5142,8 +6047,9 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
-    </row>
-    <row r="224" spans="1:16">
+      <c r="Q223" s="1"/>
+    </row>
+    <row r="224" spans="1:17">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -5160,8 +6066,9 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
       <c r="P224" s="1"/>
-    </row>
-    <row r="225" spans="1:16">
+      <c r="Q224" s="1"/>
+    </row>
+    <row r="225" spans="1:17">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -5178,8 +6085,9 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
       <c r="P225" s="1"/>
-    </row>
-    <row r="226" spans="1:16">
+      <c r="Q225" s="1"/>
+    </row>
+    <row r="226" spans="1:17">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -5196,8 +6104,9 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
       <c r="P226" s="1"/>
-    </row>
-    <row r="227" spans="1:16">
+      <c r="Q226" s="1"/>
+    </row>
+    <row r="227" spans="1:17">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -5214,8 +6123,9 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
       <c r="P227" s="1"/>
-    </row>
-    <row r="228" spans="1:16">
+      <c r="Q227" s="1"/>
+    </row>
+    <row r="228" spans="1:17">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -5232,8 +6142,9 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
-    </row>
-    <row r="229" spans="1:16">
+      <c r="Q228" s="1"/>
+    </row>
+    <row r="229" spans="1:17">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -5250,8 +6161,9 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
-    </row>
-    <row r="230" spans="1:16">
+      <c r="Q229" s="1"/>
+    </row>
+    <row r="230" spans="1:17">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -5268,8 +6180,9 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
-    </row>
-    <row r="231" spans="1:16">
+      <c r="Q230" s="1"/>
+    </row>
+    <row r="231" spans="1:17">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -5286,8 +6199,9 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
-    </row>
-    <row r="232" spans="1:16">
+      <c r="Q231" s="1"/>
+    </row>
+    <row r="232" spans="1:17">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -5304,8 +6218,9 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
       <c r="P232" s="1"/>
-    </row>
-    <row r="233" spans="1:16">
+      <c r="Q232" s="1"/>
+    </row>
+    <row r="233" spans="1:17">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -5322,8 +6237,9 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
       <c r="P233" s="1"/>
-    </row>
-    <row r="234" spans="1:16">
+      <c r="Q233" s="1"/>
+    </row>
+    <row r="234" spans="1:17">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -5340,8 +6256,9 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
-    </row>
-    <row r="235" spans="1:16">
+      <c r="Q234" s="1"/>
+    </row>
+    <row r="235" spans="1:17">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -5358,8 +6275,9 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
       <c r="P235" s="1"/>
-    </row>
-    <row r="236" spans="1:16">
+      <c r="Q235" s="1"/>
+    </row>
+    <row r="236" spans="1:17">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -5376,8 +6294,9 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
       <c r="P236" s="1"/>
-    </row>
-    <row r="237" spans="1:16">
+      <c r="Q236" s="1"/>
+    </row>
+    <row r="237" spans="1:17">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -5394,8 +6313,9 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
       <c r="P237" s="1"/>
-    </row>
-    <row r="238" spans="1:16">
+      <c r="Q237" s="1"/>
+    </row>
+    <row r="238" spans="1:17">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -5412,8 +6332,9 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
-    </row>
-    <row r="239" spans="1:16">
+      <c r="Q238" s="1"/>
+    </row>
+    <row r="239" spans="1:17">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -5430,8 +6351,9 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
-    </row>
-    <row r="240" spans="1:16">
+      <c r="Q239" s="1"/>
+    </row>
+    <row r="240" spans="1:17">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -5448,8 +6370,9 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
       <c r="P240" s="1"/>
-    </row>
-    <row r="241" spans="1:16">
+      <c r="Q240" s="1"/>
+    </row>
+    <row r="241" spans="1:17">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -5466,8 +6389,9 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
-    </row>
-    <row r="242" spans="1:16">
+      <c r="Q241" s="1"/>
+    </row>
+    <row r="242" spans="1:17">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -5484,8 +6408,9 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
       <c r="P242" s="1"/>
-    </row>
-    <row r="243" spans="1:16">
+      <c r="Q242" s="1"/>
+    </row>
+    <row r="243" spans="1:17">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -5502,8 +6427,9 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
       <c r="P243" s="1"/>
-    </row>
-    <row r="244" spans="1:16">
+      <c r="Q243" s="1"/>
+    </row>
+    <row r="244" spans="1:17">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -5520,8 +6446,9 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
-    </row>
-    <row r="245" spans="1:16">
+      <c r="Q244" s="1"/>
+    </row>
+    <row r="245" spans="1:17">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -5538,8 +6465,9 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
       <c r="P245" s="1"/>
-    </row>
-    <row r="246" spans="1:16">
+      <c r="Q245" s="1"/>
+    </row>
+    <row r="246" spans="1:17">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -5556,8 +6484,9 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
       <c r="P246" s="1"/>
-    </row>
-    <row r="247" spans="1:16">
+      <c r="Q246" s="1"/>
+    </row>
+    <row r="247" spans="1:17">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -5574,8 +6503,9 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
-    </row>
-    <row r="248" spans="1:16">
+      <c r="Q247" s="1"/>
+    </row>
+    <row r="248" spans="1:17">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -5592,8 +6522,9 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
       <c r="P248" s="1"/>
-    </row>
-    <row r="249" spans="1:16">
+      <c r="Q248" s="1"/>
+    </row>
+    <row r="249" spans="1:17">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -5610,8 +6541,9 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
       <c r="P249" s="1"/>
-    </row>
-    <row r="250" spans="1:16">
+      <c r="Q249" s="1"/>
+    </row>
+    <row r="250" spans="1:17">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -5628,8 +6560,9 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
       <c r="P250" s="1"/>
-    </row>
-    <row r="251" spans="1:16">
+      <c r="Q250" s="1"/>
+    </row>
+    <row r="251" spans="1:17">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -5646,8 +6579,9 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
-    </row>
-    <row r="252" spans="1:16">
+      <c r="Q251" s="1"/>
+    </row>
+    <row r="252" spans="1:17">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -5664,8 +6598,9 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
-    </row>
-    <row r="253" spans="1:16">
+      <c r="Q252" s="1"/>
+    </row>
+    <row r="253" spans="1:17">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -5682,8 +6617,9 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
-    </row>
-    <row r="254" spans="1:16">
+      <c r="Q253" s="1"/>
+    </row>
+    <row r="254" spans="1:17">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -5700,8 +6636,9 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
-    </row>
-    <row r="255" spans="1:16">
+      <c r="Q254" s="1"/>
+    </row>
+    <row r="255" spans="1:17">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -5718,8 +6655,9 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
-    </row>
-    <row r="256" spans="1:16">
+      <c r="Q255" s="1"/>
+    </row>
+    <row r="256" spans="1:17">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -5736,8 +6674,9 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
-    </row>
-    <row r="257" spans="1:16">
+      <c r="Q256" s="1"/>
+    </row>
+    <row r="257" spans="1:17">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -5754,8 +6693,9 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
-    </row>
-    <row r="258" spans="1:16">
+      <c r="Q257" s="1"/>
+    </row>
+    <row r="258" spans="1:17">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -5772,8 +6712,9 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
-    </row>
-    <row r="259" spans="1:16">
+      <c r="Q258" s="1"/>
+    </row>
+    <row r="259" spans="1:17">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -5790,8 +6731,9 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
-    </row>
-    <row r="260" spans="1:16">
+      <c r="Q259" s="1"/>
+    </row>
+    <row r="260" spans="1:17">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -5808,8 +6750,9 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
-    </row>
-    <row r="261" spans="1:16">
+      <c r="Q260" s="1"/>
+    </row>
+    <row r="261" spans="1:17">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -5826,8 +6769,9 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
-    </row>
-    <row r="262" spans="1:16">
+      <c r="Q261" s="1"/>
+    </row>
+    <row r="262" spans="1:17">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -5844,8 +6788,9 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
       <c r="P262" s="1"/>
-    </row>
-    <row r="263" spans="1:16">
+      <c r="Q262" s="1"/>
+    </row>
+    <row r="263" spans="1:17">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -5862,8 +6807,9 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
       <c r="P263" s="1"/>
-    </row>
-    <row r="264" spans="1:16">
+      <c r="Q263" s="1"/>
+    </row>
+    <row r="264" spans="1:17">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -5880,8 +6826,9 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
       <c r="P264" s="1"/>
-    </row>
-    <row r="265" spans="1:16">
+      <c r="Q264" s="1"/>
+    </row>
+    <row r="265" spans="1:17">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -5898,8 +6845,9 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
       <c r="P265" s="1"/>
-    </row>
-    <row r="266" spans="1:16">
+      <c r="Q265" s="1"/>
+    </row>
+    <row r="266" spans="1:17">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -5916,8 +6864,9 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
       <c r="P266" s="1"/>
-    </row>
-    <row r="267" spans="1:16">
+      <c r="Q266" s="1"/>
+    </row>
+    <row r="267" spans="1:17">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -5934,8 +6883,9 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
-    </row>
-    <row r="268" spans="1:16">
+      <c r="Q267" s="1"/>
+    </row>
+    <row r="268" spans="1:17">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -5952,8 +6902,9 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
       <c r="P268" s="1"/>
-    </row>
-    <row r="269" spans="1:16">
+      <c r="Q268" s="1"/>
+    </row>
+    <row r="269" spans="1:17">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -5970,8 +6921,9 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
       <c r="P269" s="1"/>
-    </row>
-    <row r="270" spans="1:16">
+      <c r="Q269" s="1"/>
+    </row>
+    <row r="270" spans="1:17">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -5988,8 +6940,9 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
       <c r="P270" s="1"/>
-    </row>
-    <row r="271" spans="1:16">
+      <c r="Q270" s="1"/>
+    </row>
+    <row r="271" spans="1:17">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -6006,8 +6959,9 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
       <c r="P271" s="1"/>
-    </row>
-    <row r="272" spans="1:16">
+      <c r="Q271" s="1"/>
+    </row>
+    <row r="272" spans="1:17">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -6024,8 +6978,9 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
       <c r="P272" s="1"/>
-    </row>
-    <row r="273" spans="1:16">
+      <c r="Q272" s="1"/>
+    </row>
+    <row r="273" spans="1:17">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -6042,8 +6997,9 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
       <c r="P273" s="1"/>
-    </row>
-    <row r="274" spans="1:16">
+      <c r="Q273" s="1"/>
+    </row>
+    <row r="274" spans="1:17">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -6060,8 +7016,9 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
       <c r="P274" s="1"/>
-    </row>
-    <row r="275" spans="1:16">
+      <c r="Q274" s="1"/>
+    </row>
+    <row r="275" spans="1:17">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -6078,8 +7035,9 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
       <c r="P275" s="1"/>
-    </row>
-    <row r="276" spans="1:16">
+      <c r="Q275" s="1"/>
+    </row>
+    <row r="276" spans="1:17">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -6096,8 +7054,9 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
       <c r="P276" s="1"/>
-    </row>
-    <row r="277" spans="1:16">
+      <c r="Q276" s="1"/>
+    </row>
+    <row r="277" spans="1:17">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -6114,8 +7073,9 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
       <c r="P277" s="1"/>
-    </row>
-    <row r="278" spans="1:16">
+      <c r="Q277" s="1"/>
+    </row>
+    <row r="278" spans="1:17">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -6132,8 +7092,9 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
       <c r="P278" s="1"/>
-    </row>
-    <row r="279" spans="1:16">
+      <c r="Q278" s="1"/>
+    </row>
+    <row r="279" spans="1:17">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -6150,8 +7111,9 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
       <c r="P279" s="1"/>
-    </row>
-    <row r="280" spans="1:16">
+      <c r="Q279" s="1"/>
+    </row>
+    <row r="280" spans="1:17">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -6168,8 +7130,9 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
       <c r="P280" s="1"/>
-    </row>
-    <row r="281" spans="1:16">
+      <c r="Q280" s="1"/>
+    </row>
+    <row r="281" spans="1:17">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -6186,8 +7149,9 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
       <c r="P281" s="1"/>
-    </row>
-    <row r="282" spans="1:16">
+      <c r="Q281" s="1"/>
+    </row>
+    <row r="282" spans="1:17">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -6204,8 +7168,9 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
       <c r="P282" s="1"/>
-    </row>
-    <row r="283" spans="1:16">
+      <c r="Q282" s="1"/>
+    </row>
+    <row r="283" spans="1:17">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -6222,8 +7187,9 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
       <c r="P283" s="1"/>
-    </row>
-    <row r="284" spans="1:16">
+      <c r="Q283" s="1"/>
+    </row>
+    <row r="284" spans="1:17">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -6240,8 +7206,9 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
       <c r="P284" s="1"/>
-    </row>
-    <row r="285" spans="1:16">
+      <c r="Q284" s="1"/>
+    </row>
+    <row r="285" spans="1:17">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -6258,8 +7225,9 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
       <c r="P285" s="1"/>
-    </row>
-    <row r="286" spans="1:16">
+      <c r="Q285" s="1"/>
+    </row>
+    <row r="286" spans="1:17">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -6276,8 +7244,9 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
       <c r="P286" s="1"/>
-    </row>
-    <row r="287" spans="1:16">
+      <c r="Q286" s="1"/>
+    </row>
+    <row r="287" spans="1:17">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -6294,8 +7263,9 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
       <c r="P287" s="1"/>
-    </row>
-    <row r="288" spans="1:16">
+      <c r="Q287" s="1"/>
+    </row>
+    <row r="288" spans="1:17">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -6312,8 +7282,9 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
       <c r="P288" s="1"/>
-    </row>
-    <row r="289" spans="1:16">
+      <c r="Q288" s="1"/>
+    </row>
+    <row r="289" spans="1:17">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -6330,8 +7301,9 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
       <c r="P289" s="1"/>
-    </row>
-    <row r="290" spans="1:16">
+      <c r="Q289" s="1"/>
+    </row>
+    <row r="290" spans="1:17">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -6348,8 +7320,9 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
       <c r="P290" s="1"/>
-    </row>
-    <row r="291" spans="1:16">
+      <c r="Q290" s="1"/>
+    </row>
+    <row r="291" spans="1:17">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -6366,8 +7339,9 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
       <c r="P291" s="1"/>
-    </row>
-    <row r="292" spans="1:16">
+      <c r="Q291" s="1"/>
+    </row>
+    <row r="292" spans="1:17">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -6384,8 +7358,9 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
       <c r="P292" s="1"/>
-    </row>
-    <row r="293" spans="1:16">
+      <c r="Q292" s="1"/>
+    </row>
+    <row r="293" spans="1:17">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -6402,8 +7377,9 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
       <c r="P293" s="1"/>
-    </row>
-    <row r="294" spans="1:16">
+      <c r="Q293" s="1"/>
+    </row>
+    <row r="294" spans="1:17">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -6420,8 +7396,9 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
       <c r="P294" s="1"/>
-    </row>
-    <row r="295" spans="1:16">
+      <c r="Q294" s="1"/>
+    </row>
+    <row r="295" spans="1:17">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -6438,8 +7415,9 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
       <c r="P295" s="1"/>
-    </row>
-    <row r="296" spans="1:16">
+      <c r="Q295" s="1"/>
+    </row>
+    <row r="296" spans="1:17">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -6456,8 +7434,9 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
       <c r="P296" s="1"/>
-    </row>
-    <row r="297" spans="1:16">
+      <c r="Q296" s="1"/>
+    </row>
+    <row r="297" spans="1:17">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -6474,8 +7453,9 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
       <c r="P297" s="1"/>
-    </row>
-    <row r="298" spans="1:16">
+      <c r="Q297" s="1"/>
+    </row>
+    <row r="298" spans="1:17">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -6492,8 +7472,9 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
       <c r="P298" s="1"/>
-    </row>
-    <row r="299" spans="1:16">
+      <c r="Q298" s="1"/>
+    </row>
+    <row r="299" spans="1:17">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -6510,8 +7491,9 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
       <c r="P299" s="1"/>
-    </row>
-    <row r="300" spans="1:16">
+      <c r="Q299" s="1"/>
+    </row>
+    <row r="300" spans="1:17">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -6528,8 +7510,9 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
       <c r="P300" s="1"/>
-    </row>
-    <row r="301" spans="1:16">
+      <c r="Q300" s="1"/>
+    </row>
+    <row r="301" spans="1:17">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -6546,8 +7529,9 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
       <c r="P301" s="1"/>
-    </row>
-    <row r="302" spans="1:16">
+      <c r="Q301" s="1"/>
+    </row>
+    <row r="302" spans="1:17">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -6564,8 +7548,9 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
       <c r="P302" s="1"/>
-    </row>
-    <row r="303" spans="1:16">
+      <c r="Q302" s="1"/>
+    </row>
+    <row r="303" spans="1:17">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -6582,8 +7567,9 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
       <c r="P303" s="1"/>
-    </row>
-    <row r="304" spans="1:16">
+      <c r="Q303" s="1"/>
+    </row>
+    <row r="304" spans="1:17">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -6600,8 +7586,9 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
       <c r="P304" s="1"/>
-    </row>
-    <row r="305" spans="1:16">
+      <c r="Q304" s="1"/>
+    </row>
+    <row r="305" spans="1:17">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -6618,8 +7605,9 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
       <c r="P305" s="1"/>
-    </row>
-    <row r="306" spans="1:16">
+      <c r="Q305" s="1"/>
+    </row>
+    <row r="306" spans="1:17">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -6636,8 +7624,9 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
       <c r="P306" s="1"/>
-    </row>
-    <row r="307" spans="1:16">
+      <c r="Q306" s="1"/>
+    </row>
+    <row r="307" spans="1:17">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -6654,8 +7643,9 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
       <c r="P307" s="1"/>
-    </row>
-    <row r="308" spans="1:16">
+      <c r="Q307" s="1"/>
+    </row>
+    <row r="308" spans="1:17">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -6672,8 +7662,9 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
       <c r="P308" s="1"/>
-    </row>
-    <row r="309" spans="1:16">
+      <c r="Q308" s="1"/>
+    </row>
+    <row r="309" spans="1:17">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -6690,8 +7681,9 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
       <c r="P309" s="1"/>
-    </row>
-    <row r="310" spans="1:16">
+      <c r="Q309" s="1"/>
+    </row>
+    <row r="310" spans="1:17">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -6708,8 +7700,9 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
       <c r="P310" s="1"/>
-    </row>
-    <row r="311" spans="1:16">
+      <c r="Q310" s="1"/>
+    </row>
+    <row r="311" spans="1:17">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -6726,8 +7719,9 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
       <c r="P311" s="1"/>
-    </row>
-    <row r="312" spans="1:16">
+      <c r="Q311" s="1"/>
+    </row>
+    <row r="312" spans="1:17">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -6744,8 +7738,9 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
       <c r="P312" s="1"/>
-    </row>
-    <row r="313" spans="1:16">
+      <c r="Q312" s="1"/>
+    </row>
+    <row r="313" spans="1:17">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -6762,8 +7757,9 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
       <c r="P313" s="1"/>
-    </row>
-    <row r="314" spans="1:16">
+      <c r="Q313" s="1"/>
+    </row>
+    <row r="314" spans="1:17">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -6780,8 +7776,9 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
       <c r="P314" s="1"/>
-    </row>
-    <row r="315" spans="1:16">
+      <c r="Q314" s="1"/>
+    </row>
+    <row r="315" spans="1:17">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -6798,8 +7795,9 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
       <c r="P315" s="1"/>
-    </row>
-    <row r="316" spans="1:16">
+      <c r="Q315" s="1"/>
+    </row>
+    <row r="316" spans="1:17">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -6816,8 +7814,9 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
       <c r="P316" s="1"/>
-    </row>
-    <row r="317" spans="1:16">
+      <c r="Q316" s="1"/>
+    </row>
+    <row r="317" spans="1:17">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -6834,8 +7833,9 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
       <c r="P317" s="1"/>
-    </row>
-    <row r="318" spans="1:16">
+      <c r="Q317" s="1"/>
+    </row>
+    <row r="318" spans="1:17">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -6852,8 +7852,9 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
-    </row>
-    <row r="319" spans="1:16">
+      <c r="Q318" s="1"/>
+    </row>
+    <row r="319" spans="1:17">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -6870,8 +7871,9 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
       <c r="P319" s="1"/>
-    </row>
-    <row r="320" spans="1:16">
+      <c r="Q319" s="1"/>
+    </row>
+    <row r="320" spans="1:17">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -6888,8 +7890,9 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
       <c r="P320" s="1"/>
-    </row>
-    <row r="321" spans="1:16">
+      <c r="Q320" s="1"/>
+    </row>
+    <row r="321" spans="1:17">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -6906,8 +7909,9 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
       <c r="P321" s="1"/>
-    </row>
-    <row r="322" spans="1:16">
+      <c r="Q321" s="1"/>
+    </row>
+    <row r="322" spans="1:17">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -6924,8 +7928,9 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
       <c r="P322" s="1"/>
-    </row>
-    <row r="323" spans="1:16">
+      <c r="Q322" s="1"/>
+    </row>
+    <row r="323" spans="1:17">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -6942,8 +7947,9 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
       <c r="P323" s="1"/>
-    </row>
-    <row r="324" spans="1:16">
+      <c r="Q323" s="1"/>
+    </row>
+    <row r="324" spans="1:17">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -6960,8 +7966,9 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
       <c r="P324" s="1"/>
-    </row>
-    <row r="325" spans="1:16">
+      <c r="Q324" s="1"/>
+    </row>
+    <row r="325" spans="1:17">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -6978,8 +7985,9 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
       <c r="P325" s="1"/>
-    </row>
-    <row r="326" spans="1:16">
+      <c r="Q325" s="1"/>
+    </row>
+    <row r="326" spans="1:17">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -6996,8 +8004,9 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
       <c r="P326" s="1"/>
-    </row>
-    <row r="327" spans="1:16">
+      <c r="Q326" s="1"/>
+    </row>
+    <row r="327" spans="1:17">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -7014,8 +8023,9 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
       <c r="P327" s="1"/>
-    </row>
-    <row r="328" spans="1:16">
+      <c r="Q327" s="1"/>
+    </row>
+    <row r="328" spans="1:17">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -7032,8 +8042,9 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
       <c r="P328" s="1"/>
-    </row>
-    <row r="329" spans="1:16">
+      <c r="Q328" s="1"/>
+    </row>
+    <row r="329" spans="1:17">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -7050,8 +8061,9 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
       <c r="P329" s="1"/>
-    </row>
-    <row r="330" spans="1:16">
+      <c r="Q329" s="1"/>
+    </row>
+    <row r="330" spans="1:17">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -7068,8 +8080,9 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
       <c r="P330" s="1"/>
-    </row>
-    <row r="331" spans="1:16">
+      <c r="Q330" s="1"/>
+    </row>
+    <row r="331" spans="1:17">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -7086,8 +8099,9 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
       <c r="P331" s="1"/>
-    </row>
-    <row r="332" spans="1:16">
+      <c r="Q331" s="1"/>
+    </row>
+    <row r="332" spans="1:17">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -7104,8 +8118,9 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
       <c r="P332" s="1"/>
-    </row>
-    <row r="333" spans="1:16">
+      <c r="Q332" s="1"/>
+    </row>
+    <row r="333" spans="1:17">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -7122,8 +8137,9 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
       <c r="P333" s="1"/>
-    </row>
-    <row r="334" spans="1:16">
+      <c r="Q333" s="1"/>
+    </row>
+    <row r="334" spans="1:17">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -7140,8 +8156,9 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
       <c r="P334" s="1"/>
-    </row>
-    <row r="335" spans="1:16">
+      <c r="Q334" s="1"/>
+    </row>
+    <row r="335" spans="1:17">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -7158,8 +8175,9 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
       <c r="P335" s="1"/>
-    </row>
-    <row r="336" spans="1:16">
+      <c r="Q335" s="1"/>
+    </row>
+    <row r="336" spans="1:17">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -7176,8 +8194,9 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
       <c r="P336" s="1"/>
-    </row>
-    <row r="337" spans="1:16">
+      <c r="Q336" s="1"/>
+    </row>
+    <row r="337" spans="1:17">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -7194,8 +8213,9 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
       <c r="P337" s="1"/>
-    </row>
-    <row r="338" spans="1:16">
+      <c r="Q337" s="1"/>
+    </row>
+    <row r="338" spans="1:17">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -7212,8 +8232,9 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
       <c r="P338" s="1"/>
-    </row>
-    <row r="339" spans="1:16">
+      <c r="Q338" s="1"/>
+    </row>
+    <row r="339" spans="1:17">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -7230,8 +8251,9 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
       <c r="P339" s="1"/>
-    </row>
-    <row r="340" spans="1:16">
+      <c r="Q339" s="1"/>
+    </row>
+    <row r="340" spans="1:17">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -7248,8 +8270,9 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
       <c r="P340" s="1"/>
-    </row>
-    <row r="341" spans="1:16">
+      <c r="Q340" s="1"/>
+    </row>
+    <row r="341" spans="1:17">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -7266,8 +8289,9 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
       <c r="P341" s="1"/>
-    </row>
-    <row r="342" spans="1:16">
+      <c r="Q341" s="1"/>
+    </row>
+    <row r="342" spans="1:17">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -7284,8 +8308,9 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
-    </row>
-    <row r="343" spans="1:16">
+      <c r="Q342" s="1"/>
+    </row>
+    <row r="343" spans="1:17">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -7302,8 +8327,9 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
-    </row>
-    <row r="344" spans="1:16">
+      <c r="Q343" s="1"/>
+    </row>
+    <row r="344" spans="1:17">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -7320,8 +8346,9 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
       <c r="P344" s="1"/>
-    </row>
-    <row r="345" spans="1:16">
+      <c r="Q344" s="1"/>
+    </row>
+    <row r="345" spans="1:17">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -7338,8 +8365,9 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
       <c r="P345" s="1"/>
-    </row>
-    <row r="346" spans="1:16">
+      <c r="Q345" s="1"/>
+    </row>
+    <row r="346" spans="1:17">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -7356,8 +8384,9 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
       <c r="P346" s="1"/>
-    </row>
-    <row r="347" spans="1:16">
+      <c r="Q346" s="1"/>
+    </row>
+    <row r="347" spans="1:17">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -7374,8 +8403,9 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
       <c r="P347" s="1"/>
-    </row>
-    <row r="348" spans="1:16">
+      <c r="Q347" s="1"/>
+    </row>
+    <row r="348" spans="1:17">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -7392,8 +8422,9 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
       <c r="P348" s="1"/>
-    </row>
-    <row r="349" spans="1:16">
+      <c r="Q348" s="1"/>
+    </row>
+    <row r="349" spans="1:17">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -7410,8 +8441,9 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
       <c r="P349" s="1"/>
-    </row>
-    <row r="350" spans="1:16">
+      <c r="Q349" s="1"/>
+    </row>
+    <row r="350" spans="1:17">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -7428,8 +8460,9 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
       <c r="P350" s="1"/>
-    </row>
-    <row r="351" spans="1:16">
+      <c r="Q350" s="1"/>
+    </row>
+    <row r="351" spans="1:17">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -7446,8 +8479,9 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
       <c r="P351" s="1"/>
-    </row>
-    <row r="352" spans="1:16">
+      <c r="Q351" s="1"/>
+    </row>
+    <row r="352" spans="1:17">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -7464,8 +8498,9 @@
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
       <c r="P352" s="1"/>
-    </row>
-    <row r="353" spans="1:16">
+      <c r="Q352" s="1"/>
+    </row>
+    <row r="353" spans="1:17">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -7482,8 +8517,9 @@
       <c r="N353" s="1"/>
       <c r="O353" s="1"/>
       <c r="P353" s="1"/>
-    </row>
-    <row r="354" spans="1:16">
+      <c r="Q353" s="1"/>
+    </row>
+    <row r="354" spans="1:17">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -7500,8 +8536,9 @@
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
       <c r="P354" s="1"/>
-    </row>
-    <row r="355" spans="1:16">
+      <c r="Q354" s="1"/>
+    </row>
+    <row r="355" spans="1:17">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -7518,8 +8555,9 @@
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
       <c r="P355" s="1"/>
-    </row>
-    <row r="356" spans="1:16">
+      <c r="Q355" s="1"/>
+    </row>
+    <row r="356" spans="1:17">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -7536,8 +8574,9 @@
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
       <c r="P356" s="1"/>
-    </row>
-    <row r="357" spans="1:16">
+      <c r="Q356" s="1"/>
+    </row>
+    <row r="357" spans="1:17">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -7554,8 +8593,9 @@
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
       <c r="P357" s="1"/>
-    </row>
-    <row r="358" spans="1:16">
+      <c r="Q357" s="1"/>
+    </row>
+    <row r="358" spans="1:17">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -7572,8 +8612,9 @@
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
       <c r="P358" s="1"/>
-    </row>
-    <row r="359" spans="1:16">
+      <c r="Q358" s="1"/>
+    </row>
+    <row r="359" spans="1:17">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -7590,8 +8631,9 @@
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
       <c r="P359" s="1"/>
-    </row>
-    <row r="360" spans="1:16">
+      <c r="Q359" s="1"/>
+    </row>
+    <row r="360" spans="1:17">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -7608,8 +8650,9 @@
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
       <c r="P360" s="1"/>
-    </row>
-    <row r="361" spans="1:16">
+      <c r="Q360" s="1"/>
+    </row>
+    <row r="361" spans="1:17">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -7626,8 +8669,9 @@
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
       <c r="P361" s="1"/>
-    </row>
-    <row r="362" spans="1:16">
+      <c r="Q361" s="1"/>
+    </row>
+    <row r="362" spans="1:17">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -7644,8 +8688,9 @@
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
       <c r="P362" s="1"/>
-    </row>
-    <row r="363" spans="1:16">
+      <c r="Q362" s="1"/>
+    </row>
+    <row r="363" spans="1:17">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -7662,8 +8707,9 @@
       <c r="N363" s="1"/>
       <c r="O363" s="1"/>
       <c r="P363" s="1"/>
-    </row>
-    <row r="364" spans="1:16">
+      <c r="Q363" s="1"/>
+    </row>
+    <row r="364" spans="1:17">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -7680,8 +8726,9 @@
       <c r="N364" s="1"/>
       <c r="O364" s="1"/>
       <c r="P364" s="1"/>
-    </row>
-    <row r="365" spans="1:16">
+      <c r="Q364" s="1"/>
+    </row>
+    <row r="365" spans="1:17">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -7698,8 +8745,9 @@
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
       <c r="P365" s="1"/>
-    </row>
-    <row r="366" spans="1:16">
+      <c r="Q365" s="1"/>
+    </row>
+    <row r="366" spans="1:17">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -7716,8 +8764,9 @@
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
       <c r="P366" s="1"/>
-    </row>
-    <row r="367" spans="1:16">
+      <c r="Q366" s="1"/>
+    </row>
+    <row r="367" spans="1:17">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -7734,8 +8783,9 @@
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
       <c r="P367" s="1"/>
-    </row>
-    <row r="368" spans="1:16">
+      <c r="Q367" s="1"/>
+    </row>
+    <row r="368" spans="1:17">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -7752,8 +8802,9 @@
       <c r="N368" s="1"/>
       <c r="O368" s="1"/>
       <c r="P368" s="1"/>
-    </row>
-    <row r="369" spans="1:16">
+      <c r="Q368" s="1"/>
+    </row>
+    <row r="369" spans="1:17">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -7770,8 +8821,9 @@
       <c r="N369" s="1"/>
       <c r="O369" s="1"/>
       <c r="P369" s="1"/>
-    </row>
-    <row r="370" spans="1:16">
+      <c r="Q369" s="1"/>
+    </row>
+    <row r="370" spans="1:17">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -7788,8 +8840,9 @@
       <c r="N370" s="1"/>
       <c r="O370" s="1"/>
       <c r="P370" s="1"/>
-    </row>
-    <row r="371" spans="1:16">
+      <c r="Q370" s="1"/>
+    </row>
+    <row r="371" spans="1:17">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -7806,8 +8859,9 @@
       <c r="N371" s="1"/>
       <c r="O371" s="1"/>
       <c r="P371" s="1"/>
-    </row>
-    <row r="372" spans="1:16">
+      <c r="Q371" s="1"/>
+    </row>
+    <row r="372" spans="1:17">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -7824,8 +8878,9 @@
       <c r="N372" s="1"/>
       <c r="O372" s="1"/>
       <c r="P372" s="1"/>
-    </row>
-    <row r="373" spans="1:16">
+      <c r="Q372" s="1"/>
+    </row>
+    <row r="373" spans="1:17">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -7842,8 +8897,9 @@
       <c r="N373" s="1"/>
       <c r="O373" s="1"/>
       <c r="P373" s="1"/>
-    </row>
-    <row r="374" spans="1:16">
+      <c r="Q373" s="1"/>
+    </row>
+    <row r="374" spans="1:17">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -7860,8 +8916,9 @@
       <c r="N374" s="1"/>
       <c r="O374" s="1"/>
       <c r="P374" s="1"/>
-    </row>
-    <row r="375" spans="1:16">
+      <c r="Q374" s="1"/>
+    </row>
+    <row r="375" spans="1:17">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -7878,8 +8935,9 @@
       <c r="N375" s="1"/>
       <c r="O375" s="1"/>
       <c r="P375" s="1"/>
-    </row>
-    <row r="376" spans="1:16">
+      <c r="Q375" s="1"/>
+    </row>
+    <row r="376" spans="1:17">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -7896,8 +8954,9 @@
       <c r="N376" s="1"/>
       <c r="O376" s="1"/>
       <c r="P376" s="1"/>
-    </row>
-    <row r="377" spans="1:16">
+      <c r="Q376" s="1"/>
+    </row>
+    <row r="377" spans="1:17">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -7914,8 +8973,9 @@
       <c r="N377" s="1"/>
       <c r="O377" s="1"/>
       <c r="P377" s="1"/>
-    </row>
-    <row r="378" spans="1:16">
+      <c r="Q377" s="1"/>
+    </row>
+    <row r="378" spans="1:17">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -7932,8 +8992,9 @@
       <c r="N378" s="1"/>
       <c r="O378" s="1"/>
       <c r="P378" s="1"/>
-    </row>
-    <row r="379" spans="1:16">
+      <c r="Q378" s="1"/>
+    </row>
+    <row r="379" spans="1:17">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -7950,8 +9011,9 @@
       <c r="N379" s="1"/>
       <c r="O379" s="1"/>
       <c r="P379" s="1"/>
-    </row>
-    <row r="380" spans="1:16">
+      <c r="Q379" s="1"/>
+    </row>
+    <row r="380" spans="1:17">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -7968,8 +9030,9 @@
       <c r="N380" s="1"/>
       <c r="O380" s="1"/>
       <c r="P380" s="1"/>
-    </row>
-    <row r="381" spans="1:16">
+      <c r="Q380" s="1"/>
+    </row>
+    <row r="381" spans="1:17">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -7986,8 +9049,9 @@
       <c r="N381" s="1"/>
       <c r="O381" s="1"/>
       <c r="P381" s="1"/>
-    </row>
-    <row r="382" spans="1:16">
+      <c r="Q381" s="1"/>
+    </row>
+    <row r="382" spans="1:17">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -8004,8 +9068,9 @@
       <c r="N382" s="1"/>
       <c r="O382" s="1"/>
       <c r="P382" s="1"/>
-    </row>
-    <row r="383" spans="1:16">
+      <c r="Q382" s="1"/>
+    </row>
+    <row r="383" spans="1:17">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -8022,8 +9087,9 @@
       <c r="N383" s="1"/>
       <c r="O383" s="1"/>
       <c r="P383" s="1"/>
-    </row>
-    <row r="384" spans="1:16">
+      <c r="Q383" s="1"/>
+    </row>
+    <row r="384" spans="1:17">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -8040,8 +9106,9 @@
       <c r="N384" s="1"/>
       <c r="O384" s="1"/>
       <c r="P384" s="1"/>
-    </row>
-    <row r="385" spans="1:16">
+      <c r="Q384" s="1"/>
+    </row>
+    <row r="385" spans="1:17">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -8058,8 +9125,9 @@
       <c r="N385" s="1"/>
       <c r="O385" s="1"/>
       <c r="P385" s="1"/>
-    </row>
-    <row r="386" spans="1:16">
+      <c r="Q385" s="1"/>
+    </row>
+    <row r="386" spans="1:17">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -8076,8 +9144,9 @@
       <c r="N386" s="1"/>
       <c r="O386" s="1"/>
       <c r="P386" s="1"/>
-    </row>
-    <row r="387" spans="1:16">
+      <c r="Q386" s="1"/>
+    </row>
+    <row r="387" spans="1:17">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -8094,8 +9163,9 @@
       <c r="N387" s="1"/>
       <c r="O387" s="1"/>
       <c r="P387" s="1"/>
-    </row>
-    <row r="388" spans="1:16">
+      <c r="Q387" s="1"/>
+    </row>
+    <row r="388" spans="1:17">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -8112,8 +9182,9 @@
       <c r="N388" s="1"/>
       <c r="O388" s="1"/>
       <c r="P388" s="1"/>
-    </row>
-    <row r="389" spans="1:16">
+      <c r="Q388" s="1"/>
+    </row>
+    <row r="389" spans="1:17">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -8130,8 +9201,9 @@
       <c r="N389" s="1"/>
       <c r="O389" s="1"/>
       <c r="P389" s="1"/>
-    </row>
-    <row r="390" spans="1:16">
+      <c r="Q389" s="1"/>
+    </row>
+    <row r="390" spans="1:17">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -8148,8 +9220,9 @@
       <c r="N390" s="1"/>
       <c r="O390" s="1"/>
       <c r="P390" s="1"/>
-    </row>
-    <row r="391" spans="1:16">
+      <c r="Q390" s="1"/>
+    </row>
+    <row r="391" spans="1:17">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -8166,8 +9239,9 @@
       <c r="N391" s="1"/>
       <c r="O391" s="1"/>
       <c r="P391" s="1"/>
-    </row>
-    <row r="392" spans="1:16">
+      <c r="Q391" s="1"/>
+    </row>
+    <row r="392" spans="1:17">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -8184,8 +9258,9 @@
       <c r="N392" s="1"/>
       <c r="O392" s="1"/>
       <c r="P392" s="1"/>
-    </row>
-    <row r="393" spans="1:16">
+      <c r="Q392" s="1"/>
+    </row>
+    <row r="393" spans="1:17">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -8202,8 +9277,9 @@
       <c r="N393" s="1"/>
       <c r="O393" s="1"/>
       <c r="P393" s="1"/>
-    </row>
-    <row r="394" spans="1:16">
+      <c r="Q393" s="1"/>
+    </row>
+    <row r="394" spans="1:17">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -8220,8 +9296,9 @@
       <c r="N394" s="1"/>
       <c r="O394" s="1"/>
       <c r="P394" s="1"/>
-    </row>
-    <row r="395" spans="1:16">
+      <c r="Q394" s="1"/>
+    </row>
+    <row r="395" spans="1:17">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -8238,8 +9315,9 @@
       <c r="N395" s="1"/>
       <c r="O395" s="1"/>
       <c r="P395" s="1"/>
-    </row>
-    <row r="396" spans="1:16">
+      <c r="Q395" s="1"/>
+    </row>
+    <row r="396" spans="1:17">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -8256,8 +9334,9 @@
       <c r="N396" s="1"/>
       <c r="O396" s="1"/>
       <c r="P396" s="1"/>
-    </row>
-    <row r="397" spans="1:16">
+      <c r="Q396" s="1"/>
+    </row>
+    <row r="397" spans="1:17">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -8274,8 +9353,9 @@
       <c r="N397" s="1"/>
       <c r="O397" s="1"/>
       <c r="P397" s="1"/>
-    </row>
-    <row r="398" spans="1:16">
+      <c r="Q397" s="1"/>
+    </row>
+    <row r="398" spans="1:17">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -8292,8 +9372,9 @@
       <c r="N398" s="1"/>
       <c r="O398" s="1"/>
       <c r="P398" s="1"/>
-    </row>
-    <row r="399" spans="1:16">
+      <c r="Q398" s="1"/>
+    </row>
+    <row r="399" spans="1:17">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -8310,8 +9391,9 @@
       <c r="N399" s="1"/>
       <c r="O399" s="1"/>
       <c r="P399" s="1"/>
-    </row>
-    <row r="400" spans="1:16">
+      <c r="Q399" s="1"/>
+    </row>
+    <row r="400" spans="1:17">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -8328,8 +9410,9 @@
       <c r="N400" s="1"/>
       <c r="O400" s="1"/>
       <c r="P400" s="1"/>
-    </row>
-    <row r="401" spans="1:16">
+      <c r="Q400" s="1"/>
+    </row>
+    <row r="401" spans="1:17">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -8346,8 +9429,9 @@
       <c r="N401" s="1"/>
       <c r="O401" s="1"/>
       <c r="P401" s="1"/>
-    </row>
-    <row r="402" spans="1:16">
+      <c r="Q401" s="1"/>
+    </row>
+    <row r="402" spans="1:17">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -8364,8 +9448,9 @@
       <c r="N402" s="1"/>
       <c r="O402" s="1"/>
       <c r="P402" s="1"/>
-    </row>
-    <row r="403" spans="1:16">
+      <c r="Q402" s="1"/>
+    </row>
+    <row r="403" spans="1:17">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -8382,8 +9467,9 @@
       <c r="N403" s="1"/>
       <c r="O403" s="1"/>
       <c r="P403" s="1"/>
-    </row>
-    <row r="404" spans="1:16">
+      <c r="Q403" s="1"/>
+    </row>
+    <row r="404" spans="1:17">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -8400,8 +9486,9 @@
       <c r="N404" s="1"/>
       <c r="O404" s="1"/>
       <c r="P404" s="1"/>
-    </row>
-    <row r="405" spans="1:16">
+      <c r="Q404" s="1"/>
+    </row>
+    <row r="405" spans="1:17">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -8418,8 +9505,9 @@
       <c r="N405" s="1"/>
       <c r="O405" s="1"/>
       <c r="P405" s="1"/>
-    </row>
-    <row r="406" spans="1:16">
+      <c r="Q405" s="1"/>
+    </row>
+    <row r="406" spans="1:17">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -8436,8 +9524,9 @@
       <c r="N406" s="1"/>
       <c r="O406" s="1"/>
       <c r="P406" s="1"/>
-    </row>
-    <row r="407" spans="1:16">
+      <c r="Q406" s="1"/>
+    </row>
+    <row r="407" spans="1:17">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -8454,8 +9543,9 @@
       <c r="N407" s="1"/>
       <c r="O407" s="1"/>
       <c r="P407" s="1"/>
-    </row>
-    <row r="408" spans="1:16">
+      <c r="Q407" s="1"/>
+    </row>
+    <row r="408" spans="1:17">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -8472,8 +9562,9 @@
       <c r="N408" s="1"/>
       <c r="O408" s="1"/>
       <c r="P408" s="1"/>
-    </row>
-    <row r="409" spans="1:16">
+      <c r="Q408" s="1"/>
+    </row>
+    <row r="409" spans="1:17">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -8490,8 +9581,9 @@
       <c r="N409" s="1"/>
       <c r="O409" s="1"/>
       <c r="P409" s="1"/>
-    </row>
-    <row r="410" spans="1:16">
+      <c r="Q409" s="1"/>
+    </row>
+    <row r="410" spans="1:17">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -8508,8 +9600,9 @@
       <c r="N410" s="1"/>
       <c r="O410" s="1"/>
       <c r="P410" s="1"/>
-    </row>
-    <row r="411" spans="1:16">
+      <c r="Q410" s="1"/>
+    </row>
+    <row r="411" spans="1:17">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -8526,8 +9619,9 @@
       <c r="N411" s="1"/>
       <c r="O411" s="1"/>
       <c r="P411" s="1"/>
-    </row>
-    <row r="412" spans="1:16">
+      <c r="Q411" s="1"/>
+    </row>
+    <row r="412" spans="1:17">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -8544,8 +9638,9 @@
       <c r="N412" s="1"/>
       <c r="O412" s="1"/>
       <c r="P412" s="1"/>
-    </row>
-    <row r="413" spans="1:16">
+      <c r="Q412" s="1"/>
+    </row>
+    <row r="413" spans="1:17">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -8562,8 +9657,9 @@
       <c r="N413" s="1"/>
       <c r="O413" s="1"/>
       <c r="P413" s="1"/>
-    </row>
-    <row r="414" spans="1:16">
+      <c r="Q413" s="1"/>
+    </row>
+    <row r="414" spans="1:17">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -8580,8 +9676,9 @@
       <c r="N414" s="1"/>
       <c r="O414" s="1"/>
       <c r="P414" s="1"/>
-    </row>
-    <row r="415" spans="1:16">
+      <c r="Q414" s="1"/>
+    </row>
+    <row r="415" spans="1:17">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -8598,8 +9695,9 @@
       <c r="N415" s="1"/>
       <c r="O415" s="1"/>
       <c r="P415" s="1"/>
-    </row>
-    <row r="416" spans="1:16">
+      <c r="Q415" s="1"/>
+    </row>
+    <row r="416" spans="1:17">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -8616,8 +9714,9 @@
       <c r="N416" s="1"/>
       <c r="O416" s="1"/>
       <c r="P416" s="1"/>
-    </row>
-    <row r="417" spans="1:16">
+      <c r="Q416" s="1"/>
+    </row>
+    <row r="417" spans="1:17">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -8634,8 +9733,9 @@
       <c r="N417" s="1"/>
       <c r="O417" s="1"/>
       <c r="P417" s="1"/>
-    </row>
-    <row r="418" spans="1:16">
+      <c r="Q417" s="1"/>
+    </row>
+    <row r="418" spans="1:17">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -8652,8 +9752,9 @@
       <c r="N418" s="1"/>
       <c r="O418" s="1"/>
       <c r="P418" s="1"/>
-    </row>
-    <row r="419" spans="1:16">
+      <c r="Q418" s="1"/>
+    </row>
+    <row r="419" spans="1:17">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -8670,8 +9771,9 @@
       <c r="N419" s="1"/>
       <c r="O419" s="1"/>
       <c r="P419" s="1"/>
-    </row>
-    <row r="420" spans="1:16">
+      <c r="Q419" s="1"/>
+    </row>
+    <row r="420" spans="1:17">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -8688,8 +9790,9 @@
       <c r="N420" s="1"/>
       <c r="O420" s="1"/>
       <c r="P420" s="1"/>
-    </row>
-    <row r="421" spans="1:16">
+      <c r="Q420" s="1"/>
+    </row>
+    <row r="421" spans="1:17">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -8706,8 +9809,9 @@
       <c r="N421" s="1"/>
       <c r="O421" s="1"/>
       <c r="P421" s="1"/>
-    </row>
-    <row r="422" spans="1:16">
+      <c r="Q421" s="1"/>
+    </row>
+    <row r="422" spans="1:17">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -8724,8 +9828,9 @@
       <c r="N422" s="1"/>
       <c r="O422" s="1"/>
       <c r="P422" s="1"/>
-    </row>
-    <row r="423" spans="1:16">
+      <c r="Q422" s="1"/>
+    </row>
+    <row r="423" spans="1:17">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -8742,8 +9847,9 @@
       <c r="N423" s="1"/>
       <c r="O423" s="1"/>
       <c r="P423" s="1"/>
-    </row>
-    <row r="424" spans="1:16">
+      <c r="Q423" s="1"/>
+    </row>
+    <row r="424" spans="1:17">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -8760,8 +9866,9 @@
       <c r="N424" s="1"/>
       <c r="O424" s="1"/>
       <c r="P424" s="1"/>
-    </row>
-    <row r="425" spans="1:16">
+      <c r="Q424" s="1"/>
+    </row>
+    <row r="425" spans="1:17">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -8778,8 +9885,9 @@
       <c r="N425" s="1"/>
       <c r="O425" s="1"/>
       <c r="P425" s="1"/>
-    </row>
-    <row r="426" spans="1:16">
+      <c r="Q425" s="1"/>
+    </row>
+    <row r="426" spans="1:17">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -8796,8 +9904,9 @@
       <c r="N426" s="1"/>
       <c r="O426" s="1"/>
       <c r="P426" s="1"/>
-    </row>
-    <row r="427" spans="1:16">
+      <c r="Q426" s="1"/>
+    </row>
+    <row r="427" spans="1:17">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -8814,8 +9923,9 @@
       <c r="N427" s="1"/>
       <c r="O427" s="1"/>
       <c r="P427" s="1"/>
-    </row>
-    <row r="428" spans="1:16">
+      <c r="Q427" s="1"/>
+    </row>
+    <row r="428" spans="1:17">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -8832,8 +9942,9 @@
       <c r="N428" s="1"/>
       <c r="O428" s="1"/>
       <c r="P428" s="1"/>
-    </row>
-    <row r="429" spans="1:16">
+      <c r="Q428" s="1"/>
+    </row>
+    <row r="429" spans="1:17">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -8850,8 +9961,9 @@
       <c r="N429" s="1"/>
       <c r="O429" s="1"/>
       <c r="P429" s="1"/>
-    </row>
-    <row r="430" spans="1:16">
+      <c r="Q429" s="1"/>
+    </row>
+    <row r="430" spans="1:17">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -8868,8 +9980,9 @@
       <c r="N430" s="1"/>
       <c r="O430" s="1"/>
       <c r="P430" s="1"/>
-    </row>
-    <row r="431" spans="1:16">
+      <c r="Q430" s="1"/>
+    </row>
+    <row r="431" spans="1:17">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -8886,8 +9999,9 @@
       <c r="N431" s="1"/>
       <c r="O431" s="1"/>
       <c r="P431" s="1"/>
-    </row>
-    <row r="432" spans="1:16">
+      <c r="Q431" s="1"/>
+    </row>
+    <row r="432" spans="1:17">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -8904,8 +10018,9 @@
       <c r="N432" s="1"/>
       <c r="O432" s="1"/>
       <c r="P432" s="1"/>
-    </row>
-    <row r="433" spans="1:16">
+      <c r="Q432" s="1"/>
+    </row>
+    <row r="433" spans="1:17">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -8922,8 +10037,9 @@
       <c r="N433" s="1"/>
       <c r="O433" s="1"/>
       <c r="P433" s="1"/>
-    </row>
-    <row r="434" spans="1:16">
+      <c r="Q433" s="1"/>
+    </row>
+    <row r="434" spans="1:17">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -8940,8 +10056,9 @@
       <c r="N434" s="1"/>
       <c r="O434" s="1"/>
       <c r="P434" s="1"/>
-    </row>
-    <row r="435" spans="1:16">
+      <c r="Q434" s="1"/>
+    </row>
+    <row r="435" spans="1:17">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -8958,8 +10075,9 @@
       <c r="N435" s="1"/>
       <c r="O435" s="1"/>
       <c r="P435" s="1"/>
-    </row>
-    <row r="436" spans="1:16">
+      <c r="Q435" s="1"/>
+    </row>
+    <row r="436" spans="1:17">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -8976,8 +10094,9 @@
       <c r="N436" s="1"/>
       <c r="O436" s="1"/>
       <c r="P436" s="1"/>
-    </row>
-    <row r="437" spans="1:16">
+      <c r="Q436" s="1"/>
+    </row>
+    <row r="437" spans="1:17">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -8994,8 +10113,9 @@
       <c r="N437" s="1"/>
       <c r="O437" s="1"/>
       <c r="P437" s="1"/>
-    </row>
-    <row r="438" spans="1:16">
+      <c r="Q437" s="1"/>
+    </row>
+    <row r="438" spans="1:17">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -9012,8 +10132,9 @@
       <c r="N438" s="1"/>
       <c r="O438" s="1"/>
       <c r="P438" s="1"/>
-    </row>
-    <row r="439" spans="1:16">
+      <c r="Q438" s="1"/>
+    </row>
+    <row r="439" spans="1:17">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -9030,8 +10151,9 @@
       <c r="N439" s="1"/>
       <c r="O439" s="1"/>
       <c r="P439" s="1"/>
-    </row>
-    <row r="440" spans="1:16">
+      <c r="Q439" s="1"/>
+    </row>
+    <row r="440" spans="1:17">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -9048,8 +10170,9 @@
       <c r="N440" s="1"/>
       <c r="O440" s="1"/>
       <c r="P440" s="1"/>
-    </row>
-    <row r="441" spans="1:16">
+      <c r="Q440" s="1"/>
+    </row>
+    <row r="441" spans="1:17">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -9066,8 +10189,9 @@
       <c r="N441" s="1"/>
       <c r="O441" s="1"/>
       <c r="P441" s="1"/>
-    </row>
-    <row r="442" spans="1:16">
+      <c r="Q441" s="1"/>
+    </row>
+    <row r="442" spans="1:17">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -9084,8 +10208,9 @@
       <c r="N442" s="1"/>
       <c r="O442" s="1"/>
       <c r="P442" s="1"/>
-    </row>
-    <row r="443" spans="1:16">
+      <c r="Q442" s="1"/>
+    </row>
+    <row r="443" spans="1:17">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -9102,8 +10227,9 @@
       <c r="N443" s="1"/>
       <c r="O443" s="1"/>
       <c r="P443" s="1"/>
-    </row>
-    <row r="444" spans="1:16">
+      <c r="Q443" s="1"/>
+    </row>
+    <row r="444" spans="1:17">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -9120,8 +10246,9 @@
       <c r="N444" s="1"/>
       <c r="O444" s="1"/>
       <c r="P444" s="1"/>
-    </row>
-    <row r="445" spans="1:16">
+      <c r="Q444" s="1"/>
+    </row>
+    <row r="445" spans="1:17">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -9138,8 +10265,9 @@
       <c r="N445" s="1"/>
       <c r="O445" s="1"/>
       <c r="P445" s="1"/>
-    </row>
-    <row r="446" spans="1:16">
+      <c r="Q445" s="1"/>
+    </row>
+    <row r="446" spans="1:17">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -9156,8 +10284,9 @@
       <c r="N446" s="1"/>
       <c r="O446" s="1"/>
       <c r="P446" s="1"/>
-    </row>
-    <row r="447" spans="1:16">
+      <c r="Q446" s="1"/>
+    </row>
+    <row r="447" spans="1:17">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -9174,8 +10303,9 @@
       <c r="N447" s="1"/>
       <c r="O447" s="1"/>
       <c r="P447" s="1"/>
-    </row>
-    <row r="448" spans="1:16">
+      <c r="Q447" s="1"/>
+    </row>
+    <row r="448" spans="1:17">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -9192,8 +10322,9 @@
       <c r="N448" s="1"/>
       <c r="O448" s="1"/>
       <c r="P448" s="1"/>
-    </row>
-    <row r="449" spans="1:16">
+      <c r="Q448" s="1"/>
+    </row>
+    <row r="449" spans="1:17">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -9210,8 +10341,9 @@
       <c r="N449" s="1"/>
       <c r="O449" s="1"/>
       <c r="P449" s="1"/>
-    </row>
-    <row r="450" spans="1:16">
+      <c r="Q449" s="1"/>
+    </row>
+    <row r="450" spans="1:17">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -9228,8 +10360,9 @@
       <c r="N450" s="1"/>
       <c r="O450" s="1"/>
       <c r="P450" s="1"/>
-    </row>
-    <row r="451" spans="1:16">
+      <c r="Q450" s="1"/>
+    </row>
+    <row r="451" spans="1:17">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -9246,8 +10379,9 @@
       <c r="N451" s="1"/>
       <c r="O451" s="1"/>
       <c r="P451" s="1"/>
-    </row>
-    <row r="452" spans="1:16">
+      <c r="Q451" s="1"/>
+    </row>
+    <row r="452" spans="1:17">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -9264,8 +10398,9 @@
       <c r="N452" s="1"/>
       <c r="O452" s="1"/>
       <c r="P452" s="1"/>
-    </row>
-    <row r="453" spans="1:16">
+      <c r="Q452" s="1"/>
+    </row>
+    <row r="453" spans="1:17">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -9282,8 +10417,9 @@
       <c r="N453" s="1"/>
       <c r="O453" s="1"/>
       <c r="P453" s="1"/>
-    </row>
-    <row r="454" spans="1:16">
+      <c r="Q453" s="1"/>
+    </row>
+    <row r="454" spans="1:17">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -9300,8 +10436,9 @@
       <c r="N454" s="1"/>
       <c r="O454" s="1"/>
       <c r="P454" s="1"/>
-    </row>
-    <row r="455" spans="1:16">
+      <c r="Q454" s="1"/>
+    </row>
+    <row r="455" spans="1:17">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -9318,8 +10455,9 @@
       <c r="N455" s="1"/>
       <c r="O455" s="1"/>
       <c r="P455" s="1"/>
-    </row>
-    <row r="456" spans="1:16">
+      <c r="Q455" s="1"/>
+    </row>
+    <row r="456" spans="1:17">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -9336,8 +10474,9 @@
       <c r="N456" s="1"/>
       <c r="O456" s="1"/>
       <c r="P456" s="1"/>
-    </row>
-    <row r="457" spans="1:16">
+      <c r="Q456" s="1"/>
+    </row>
+    <row r="457" spans="1:17">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -9354,8 +10493,9 @@
       <c r="N457" s="1"/>
       <c r="O457" s="1"/>
       <c r="P457" s="1"/>
-    </row>
-    <row r="458" spans="1:16">
+      <c r="Q457" s="1"/>
+    </row>
+    <row r="458" spans="1:17">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -9372,8 +10512,9 @@
       <c r="N458" s="1"/>
       <c r="O458" s="1"/>
       <c r="P458" s="1"/>
-    </row>
-    <row r="459" spans="1:16">
+      <c r="Q458" s="1"/>
+    </row>
+    <row r="459" spans="1:17">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -9390,8 +10531,9 @@
       <c r="N459" s="1"/>
       <c r="O459" s="1"/>
       <c r="P459" s="1"/>
-    </row>
-    <row r="460" spans="1:16">
+      <c r="Q459" s="1"/>
+    </row>
+    <row r="460" spans="1:17">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -9408,8 +10550,9 @@
       <c r="N460" s="1"/>
       <c r="O460" s="1"/>
       <c r="P460" s="1"/>
-    </row>
-    <row r="461" spans="1:16">
+      <c r="Q460" s="1"/>
+    </row>
+    <row r="461" spans="1:17">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -9426,8 +10569,9 @@
       <c r="N461" s="1"/>
       <c r="O461" s="1"/>
       <c r="P461" s="1"/>
-    </row>
-    <row r="462" spans="1:16">
+      <c r="Q461" s="1"/>
+    </row>
+    <row r="462" spans="1:17">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -9444,8 +10588,9 @@
       <c r="N462" s="1"/>
       <c r="O462" s="1"/>
       <c r="P462" s="1"/>
-    </row>
-    <row r="463" spans="1:16">
+      <c r="Q462" s="1"/>
+    </row>
+    <row r="463" spans="1:17">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -9462,8 +10607,9 @@
       <c r="N463" s="1"/>
       <c r="O463" s="1"/>
       <c r="P463" s="1"/>
-    </row>
-    <row r="464" spans="1:16">
+      <c r="Q463" s="1"/>
+    </row>
+    <row r="464" spans="1:17">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -9480,8 +10626,9 @@
       <c r="N464" s="1"/>
       <c r="O464" s="1"/>
       <c r="P464" s="1"/>
-    </row>
-    <row r="465" spans="1:16">
+      <c r="Q464" s="1"/>
+    </row>
+    <row r="465" spans="1:17">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -9498,8 +10645,9 @@
       <c r="N465" s="1"/>
       <c r="O465" s="1"/>
       <c r="P465" s="1"/>
-    </row>
-    <row r="466" spans="1:16">
+      <c r="Q465" s="1"/>
+    </row>
+    <row r="466" spans="1:17">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -9516,8 +10664,9 @@
       <c r="N466" s="1"/>
       <c r="O466" s="1"/>
       <c r="P466" s="1"/>
-    </row>
-    <row r="467" spans="1:16">
+      <c r="Q466" s="1"/>
+    </row>
+    <row r="467" spans="1:17">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -9534,8 +10683,9 @@
       <c r="N467" s="1"/>
       <c r="O467" s="1"/>
       <c r="P467" s="1"/>
-    </row>
-    <row r="468" spans="1:16">
+      <c r="Q467" s="1"/>
+    </row>
+    <row r="468" spans="1:17">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -9552,8 +10702,9 @@
       <c r="N468" s="1"/>
       <c r="O468" s="1"/>
       <c r="P468" s="1"/>
-    </row>
-    <row r="469" spans="1:16">
+      <c r="Q468" s="1"/>
+    </row>
+    <row r="469" spans="1:17">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -9570,8 +10721,9 @@
       <c r="N469" s="1"/>
       <c r="O469" s="1"/>
       <c r="P469" s="1"/>
-    </row>
-    <row r="470" spans="1:16">
+      <c r="Q469" s="1"/>
+    </row>
+    <row r="470" spans="1:17">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -9588,8 +10740,9 @@
       <c r="N470" s="1"/>
       <c r="O470" s="1"/>
       <c r="P470" s="1"/>
-    </row>
-    <row r="471" spans="1:16">
+      <c r="Q470" s="1"/>
+    </row>
+    <row r="471" spans="1:17">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -9606,8 +10759,9 @@
       <c r="N471" s="1"/>
       <c r="O471" s="1"/>
       <c r="P471" s="1"/>
-    </row>
-    <row r="472" spans="1:16">
+      <c r="Q471" s="1"/>
+    </row>
+    <row r="472" spans="1:17">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -9624,8 +10778,9 @@
       <c r="N472" s="1"/>
       <c r="O472" s="1"/>
       <c r="P472" s="1"/>
-    </row>
-    <row r="473" spans="1:16">
+      <c r="Q472" s="1"/>
+    </row>
+    <row r="473" spans="1:17">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -9642,8 +10797,9 @@
       <c r="N473" s="1"/>
       <c r="O473" s="1"/>
       <c r="P473" s="1"/>
-    </row>
-    <row r="474" spans="1:16">
+      <c r="Q473" s="1"/>
+    </row>
+    <row r="474" spans="1:17">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -9660,8 +10816,9 @@
       <c r="N474" s="1"/>
       <c r="O474" s="1"/>
       <c r="P474" s="1"/>
-    </row>
-    <row r="475" spans="1:16">
+      <c r="Q474" s="1"/>
+    </row>
+    <row r="475" spans="1:17">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -9678,8 +10835,9 @@
       <c r="N475" s="1"/>
       <c r="O475" s="1"/>
       <c r="P475" s="1"/>
-    </row>
-    <row r="476" spans="1:16">
+      <c r="Q475" s="1"/>
+    </row>
+    <row r="476" spans="1:17">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -9696,8 +10854,9 @@
       <c r="N476" s="1"/>
       <c r="O476" s="1"/>
       <c r="P476" s="1"/>
-    </row>
-    <row r="477" spans="1:16">
+      <c r="Q476" s="1"/>
+    </row>
+    <row r="477" spans="1:17">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -9714,8 +10873,9 @@
       <c r="N477" s="1"/>
       <c r="O477" s="1"/>
       <c r="P477" s="1"/>
-    </row>
-    <row r="478" spans="1:16">
+      <c r="Q477" s="1"/>
+    </row>
+    <row r="478" spans="1:17">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -9732,8 +10892,9 @@
       <c r="N478" s="1"/>
       <c r="O478" s="1"/>
       <c r="P478" s="1"/>
-    </row>
-    <row r="479" spans="1:16">
+      <c r="Q478" s="1"/>
+    </row>
+    <row r="479" spans="1:17">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -9750,8 +10911,9 @@
       <c r="N479" s="1"/>
       <c r="O479" s="1"/>
       <c r="P479" s="1"/>
-    </row>
-    <row r="480" spans="1:16">
+      <c r="Q479" s="1"/>
+    </row>
+    <row r="480" spans="1:17">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -9768,8 +10930,9 @@
       <c r="N480" s="1"/>
       <c r="O480" s="1"/>
       <c r="P480" s="1"/>
-    </row>
-    <row r="481" spans="1:16">
+      <c r="Q480" s="1"/>
+    </row>
+    <row r="481" spans="1:17">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -9786,8 +10949,9 @@
       <c r="N481" s="1"/>
       <c r="O481" s="1"/>
       <c r="P481" s="1"/>
-    </row>
-    <row r="482" spans="1:16">
+      <c r="Q481" s="1"/>
+    </row>
+    <row r="482" spans="1:17">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -9804,8 +10968,9 @@
       <c r="N482" s="1"/>
       <c r="O482" s="1"/>
       <c r="P482" s="1"/>
-    </row>
-    <row r="483" spans="1:16">
+      <c r="Q482" s="1"/>
+    </row>
+    <row r="483" spans="1:17">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -9822,8 +10987,9 @@
       <c r="N483" s="1"/>
       <c r="O483" s="1"/>
       <c r="P483" s="1"/>
-    </row>
-    <row r="484" spans="1:16">
+      <c r="Q483" s="1"/>
+    </row>
+    <row r="484" spans="1:17">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -9840,8 +11006,9 @@
       <c r="N484" s="1"/>
       <c r="O484" s="1"/>
       <c r="P484" s="1"/>
-    </row>
-    <row r="485" spans="1:16">
+      <c r="Q484" s="1"/>
+    </row>
+    <row r="485" spans="1:17">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -9858,8 +11025,9 @@
       <c r="N485" s="1"/>
       <c r="O485" s="1"/>
       <c r="P485" s="1"/>
-    </row>
-    <row r="486" spans="1:16">
+      <c r="Q485" s="1"/>
+    </row>
+    <row r="486" spans="1:17">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -9876,8 +11044,9 @@
       <c r="N486" s="1"/>
       <c r="O486" s="1"/>
       <c r="P486" s="1"/>
-    </row>
-    <row r="487" spans="1:16">
+      <c r="Q486" s="1"/>
+    </row>
+    <row r="487" spans="1:17">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -9894,8 +11063,9 @@
       <c r="N487" s="1"/>
       <c r="O487" s="1"/>
       <c r="P487" s="1"/>
-    </row>
-    <row r="488" spans="1:16">
+      <c r="Q487" s="1"/>
+    </row>
+    <row r="488" spans="1:17">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -9912,8 +11082,9 @@
       <c r="N488" s="1"/>
       <c r="O488" s="1"/>
       <c r="P488" s="1"/>
-    </row>
-    <row r="489" spans="1:16">
+      <c r="Q488" s="1"/>
+    </row>
+    <row r="489" spans="1:17">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -9930,8 +11101,9 @@
       <c r="N489" s="1"/>
       <c r="O489" s="1"/>
       <c r="P489" s="1"/>
-    </row>
-    <row r="490" spans="1:16">
+      <c r="Q489" s="1"/>
+    </row>
+    <row r="490" spans="1:17">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -9948,8 +11120,9 @@
       <c r="N490" s="1"/>
       <c r="O490" s="1"/>
       <c r="P490" s="1"/>
-    </row>
-    <row r="491" spans="1:16">
+      <c r="Q490" s="1"/>
+    </row>
+    <row r="491" spans="1:17">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -9966,8 +11139,9 @@
       <c r="N491" s="1"/>
       <c r="O491" s="1"/>
       <c r="P491" s="1"/>
-    </row>
-    <row r="492" spans="1:16">
+      <c r="Q491" s="1"/>
+    </row>
+    <row r="492" spans="1:17">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -9984,8 +11158,9 @@
       <c r="N492" s="1"/>
       <c r="O492" s="1"/>
       <c r="P492" s="1"/>
-    </row>
-    <row r="493" spans="1:16">
+      <c r="Q492" s="1"/>
+    </row>
+    <row r="493" spans="1:17">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -10002,8 +11177,9 @@
       <c r="N493" s="1"/>
       <c r="O493" s="1"/>
       <c r="P493" s="1"/>
-    </row>
-    <row r="494" spans="1:16">
+      <c r="Q493" s="1"/>
+    </row>
+    <row r="494" spans="1:17">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -10020,8 +11196,9 @@
       <c r="N494" s="1"/>
       <c r="O494" s="1"/>
       <c r="P494" s="1"/>
-    </row>
-    <row r="495" spans="1:16">
+      <c r="Q494" s="1"/>
+    </row>
+    <row r="495" spans="1:17">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -10038,8 +11215,9 @@
       <c r="N495" s="1"/>
       <c r="O495" s="1"/>
       <c r="P495" s="1"/>
-    </row>
-    <row r="496" spans="1:16">
+      <c r="Q495" s="1"/>
+    </row>
+    <row r="496" spans="1:17">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -10056,8 +11234,9 @@
       <c r="N496" s="1"/>
       <c r="O496" s="1"/>
       <c r="P496" s="1"/>
-    </row>
-    <row r="497" spans="1:16">
+      <c r="Q496" s="1"/>
+    </row>
+    <row r="497" spans="1:17">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -10074,8 +11253,9 @@
       <c r="N497" s="1"/>
       <c r="O497" s="1"/>
       <c r="P497" s="1"/>
-    </row>
-    <row r="498" spans="1:16">
+      <c r="Q497" s="1"/>
+    </row>
+    <row r="498" spans="1:17">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -10092,8 +11272,9 @@
       <c r="N498" s="1"/>
       <c r="O498" s="1"/>
       <c r="P498" s="1"/>
-    </row>
-    <row r="499" spans="1:16">
+      <c r="Q498" s="1"/>
+    </row>
+    <row r="499" spans="1:17">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -10110,8 +11291,9 @@
       <c r="N499" s="1"/>
       <c r="O499" s="1"/>
       <c r="P499" s="1"/>
-    </row>
-    <row r="500" spans="1:16">
+      <c r="Q499" s="1"/>
+    </row>
+    <row r="500" spans="1:17">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -10128,6 +11310,7 @@
       <c r="N500" s="1"/>
       <c r="O500" s="1"/>
       <c r="P500" s="1"/>
+      <c r="Q500" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/我的创作/炒股/交易运行状态/新化股份.xlsx
+++ b/我的创作/炒股/交易运行状态/新化股份.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>日期</t>
   </si>
@@ -59,6 +59,9 @@
   <si>
     <t>上部</t>
   </si>
+  <si>
+    <t>中偏上</t>
+  </si>
 </sst>
 </file>
 
@@ -66,10 +69,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,10 +83,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,7 +99,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,115 +220,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,13 +236,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,31 +260,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,79 +290,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +314,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,24 +420,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -424,15 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,6 +469,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -486,17 +491,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +513,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -529,148 +532,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -876,7 +879,7 @@
             <v>152</v>
           </cell>
           <cell r="AP4">
-            <v>100</v>
+            <v>200</v>
           </cell>
           <cell r="AQ4">
             <v>4.13815789473685</v>
@@ -889,6 +892,30 @@
           </cell>
           <cell r="AT4">
             <v>150.88</v>
+          </cell>
+          <cell r="AU4">
+            <v>44523</v>
+          </cell>
+          <cell r="AV4">
+            <v>26.2</v>
+          </cell>
+          <cell r="AW4">
+            <v>5</v>
+          </cell>
+          <cell r="AX4">
+            <v>0.1048</v>
+          </cell>
+          <cell r="AY4">
+            <v>5245.1048</v>
+          </cell>
+          <cell r="AZ4">
+            <v>26.5</v>
+          </cell>
+          <cell r="BA4">
+            <v>25.21</v>
+          </cell>
+          <cell r="BB4">
+            <v>0.232558139534884</v>
           </cell>
         </row>
         <row r="5">
@@ -1032,6 +1059,15 @@
           </cell>
           <cell r="AY5">
             <v>3378.06746</v>
+          </cell>
+          <cell r="AZ5">
+            <v>35.36</v>
+          </cell>
+          <cell r="BA5">
+            <v>33.1</v>
+          </cell>
+          <cell r="BB5">
+            <v>0.721238938053099</v>
           </cell>
         </row>
         <row r="6">
@@ -1682,7 +1718,7 @@
   <dimension ref="A1:Q500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1744,10 +1780,10 @@
       <c r="B2" s="4">
         <v>33.6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>30.89</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <f>C2/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL10000,44,FALSE))</f>
         <v>32.65</v>
       </c>
@@ -1782,15 +1818,35 @@
       <c r="A3" s="3">
         <v>44523</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="B3" s="4">
+        <v>33.84</v>
+      </c>
+      <c r="C3" s="4">
+        <v>30.89</v>
+      </c>
+      <c r="D3" s="4">
+        <f>C3/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL10001,44,FALSE))</f>
+        <v>32.65</v>
+      </c>
+      <c r="E3" s="5">
+        <f>D3+D3*VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL1001,44,FALSE)*2</f>
+        <v>36.17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1803,10 +1859,10 @@
       <c r="A4" s="3">
         <v>44524</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1824,10 +1880,10 @@
       <c r="A5" s="3">
         <v>44525</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1845,10 +1901,10 @@
       <c r="A6" s="3">
         <v>44526</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1866,10 +1922,10 @@
       <c r="A7" s="3">
         <v>44527</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1887,10 +1943,10 @@
       <c r="A8" s="3">
         <v>44528</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1908,10 +1964,10 @@
       <c r="A9" s="3">
         <v>44529</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1929,10 +1985,10 @@
       <c r="A10" s="3">
         <v>44530</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1950,10 +2006,10 @@
       <c r="A11" s="3">
         <v>44531</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1971,10 +2027,10 @@
       <c r="A12" s="3">
         <v>44532</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1992,10 +2048,10 @@
       <c r="A13" s="3">
         <v>44533</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -2013,10 +2069,10 @@
       <c r="A14" s="3">
         <v>44534</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -2034,10 +2090,10 @@
       <c r="A15" s="3">
         <v>44535</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -2055,10 +2111,10 @@
       <c r="A16" s="3">
         <v>44536</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2076,10 +2132,10 @@
       <c r="A17" s="3">
         <v>44537</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -2097,10 +2153,10 @@
       <c r="A18" s="3">
         <v>44538</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -2118,10 +2174,10 @@
       <c r="A19" s="3">
         <v>44539</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -2139,10 +2195,10 @@
       <c r="A20" s="3">
         <v>44540</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2160,10 +2216,10 @@
       <c r="A21" s="3">
         <v>44541</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2181,10 +2237,10 @@
       <c r="A22" s="3">
         <v>44542</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2202,10 +2258,10 @@
       <c r="A23" s="3">
         <v>44543</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -2223,10 +2279,10 @@
       <c r="A24" s="3">
         <v>44544</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2244,10 +2300,10 @@
       <c r="A25" s="3">
         <v>44545</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2265,10 +2321,10 @@
       <c r="A26" s="3">
         <v>44546</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2286,10 +2342,10 @@
       <c r="A27" s="3">
         <v>44547</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2307,10 +2363,10 @@
       <c r="A28" s="3">
         <v>44548</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2328,10 +2384,10 @@
       <c r="A29" s="3">
         <v>44549</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2349,10 +2405,10 @@
       <c r="A30" s="3">
         <v>44550</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2370,10 +2426,10 @@
       <c r="A31" s="3">
         <v>44551</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2391,10 +2447,10 @@
       <c r="A32" s="3">
         <v>44552</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2412,10 +2468,10 @@
       <c r="A33" s="3">
         <v>44553</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2433,10 +2489,10 @@
       <c r="A34" s="3">
         <v>44554</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2454,10 +2510,10 @@
       <c r="A35" s="3">
         <v>44555</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2475,10 +2531,10 @@
       <c r="A36" s="3">
         <v>44556</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2496,10 +2552,10 @@
       <c r="A37" s="3">
         <v>44557</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2517,10 +2573,10 @@
       <c r="A38" s="3">
         <v>44558</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>

--- a/我的创作/炒股/交易运行状态/新化股份.xlsx
+++ b/我的创作/炒股/交易运行状态/新化股份.xlsx
@@ -69,8 +69,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -83,67 +83,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -159,15 +105,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,16 +166,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,24 +197,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,7 +236,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,25 +332,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,19 +344,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,7 +374,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,103 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,8 +433,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,43 +493,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,18 +519,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,148 +532,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1718,7 +1718,7 @@
   <dimension ref="A1:Q500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/我的创作/炒股/交易运行状态/新化股份.xlsx
+++ b/我的创作/炒股/交易运行状态/新化股份.xlsx
@@ -69,10 +69,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,14 +84,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,30 +107,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,6 +123,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,11 +150,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,7 +188,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -190,38 +204,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,7 +242,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,97 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,67 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,47 +433,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,7 +457,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -519,11 +491,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,85 +532,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,40 +619,40 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,19 +661,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -909,12 +909,15 @@
             <v>5245.1048</v>
           </cell>
           <cell r="AZ4">
+            <v>309.1048</v>
+          </cell>
+          <cell r="BA4">
             <v>26.5</v>
           </cell>
-          <cell r="BA4">
+          <cell r="BB4">
             <v>25.21</v>
           </cell>
-          <cell r="BB4">
+          <cell r="BC4">
             <v>0.232558139534884</v>
           </cell>
         </row>
@@ -1061,12 +1064,15 @@
             <v>3378.06746</v>
           </cell>
           <cell r="AZ5">
+            <v>125.06746</v>
+          </cell>
+          <cell r="BA5">
             <v>35.36</v>
           </cell>
-          <cell r="BA5">
+          <cell r="BB5">
             <v>33.1</v>
           </cell>
-          <cell r="BB5">
+          <cell r="BC5">
             <v>0.721238938053099</v>
           </cell>
         </row>
@@ -1209,12 +1215,15 @@
             <v>3275.0654</v>
           </cell>
           <cell r="AZ6">
+            <v>186.0654</v>
+          </cell>
+          <cell r="BA6">
             <v>33.9</v>
           </cell>
-          <cell r="BA6">
+          <cell r="BB6">
             <v>32.49</v>
           </cell>
-          <cell r="BB6">
+          <cell r="BC6">
             <v>0.851063829787233</v>
           </cell>
         </row>
@@ -1307,7 +1316,7 @@
             <v>6.27</v>
           </cell>
           <cell r="AL7">
-            <v>30.9</v>
+            <v>30.66</v>
           </cell>
           <cell r="AM7">
             <v>29.35</v>
@@ -1316,19 +1325,19 @@
             <v>38.71</v>
           </cell>
           <cell r="AO7">
-            <v>155</v>
+            <v>131</v>
           </cell>
           <cell r="AP7">
             <v>200</v>
           </cell>
           <cell r="AQ7">
-            <v>5.03870967741937</v>
+            <v>6.14503816793894</v>
           </cell>
           <cell r="AR7">
-            <v>0.0501618122977345</v>
+            <v>0.042726679712981</v>
           </cell>
           <cell r="AS7">
-            <v>0.252750809061489</v>
+            <v>0.262557077625571</v>
           </cell>
           <cell r="AT7">
             <v>38.46</v>
@@ -1423,7 +1432,7 @@
             <v>1.65</v>
           </cell>
           <cell r="AL8">
-            <v>8.08</v>
+            <v>8.03</v>
           </cell>
           <cell r="AM8">
             <v>7.66</v>
@@ -1432,22 +1441,337 @@
             <v>9.31</v>
           </cell>
           <cell r="AO8">
-            <v>42</v>
+            <v>36.9999999999999</v>
           </cell>
           <cell r="AP8">
-            <v>700</v>
+            <v>800</v>
           </cell>
           <cell r="AQ8">
-            <v>2.92857142857143</v>
+            <v>3.45945945945947</v>
           </cell>
           <cell r="AR8">
-            <v>0.051980198019802</v>
+            <v>0.046077210460772</v>
           </cell>
           <cell r="AS8">
-            <v>0.152227722772277</v>
+            <v>0.159402241594023</v>
           </cell>
           <cell r="AT8">
             <v>32.3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>000007</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>000008</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>000009</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>000010</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>000011</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>000012</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>000013</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>000014</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>000015</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>000016</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>000017</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>000018</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>000019</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>000020</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>000021</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>000022</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>000023</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>000024</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>000025</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>000026</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>000027</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>000028</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>000029</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>000030</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>000031</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>000032</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>000033</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>000034</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>000035</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>000036</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>000037</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>000038</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>000039</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>000040</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>000041</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>000042</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>000043</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>000044</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>000045</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>000046</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>000047</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>000048</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>000049</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>000050</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>000051</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>000052</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>000053</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>000054</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>000055</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>000056</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>000057</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>000058</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>000059</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>000060</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>000061</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>000062</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>000063</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>000064</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>000065</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>000066</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>000067</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>000068</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>000069</v>
           </cell>
         </row>
       </sheetData>

--- a/我的创作/炒股/交易运行状态/新化股份.xlsx
+++ b/我的创作/炒股/交易运行状态/新化股份.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>日期</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>上三分之一</t>
-  </si>
-  <si>
-    <t>波动范围中间值</t>
   </si>
   <si>
     <t>下三分之一</t>
@@ -2120,29 +2117,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:W500"/>
+  <dimension ref="A1:V500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
-    <col min="2" max="5" width="16.3571428571429" customWidth="1"/>
-    <col min="6" max="6" width="29.7678571428571" customWidth="1"/>
-    <col min="7" max="7" width="16.3571428571429" customWidth="1"/>
-    <col min="8" max="8" width="29.7678571428571" customWidth="1"/>
-    <col min="9" max="10" width="20.6785714285714" customWidth="1"/>
-    <col min="11" max="11" width="19.7857142857143" customWidth="1"/>
-    <col min="12" max="12" width="30.0625" customWidth="1"/>
-    <col min="13" max="13" width="40.4732142857143" customWidth="1"/>
-    <col min="14" max="14" width="25.4464285714286" customWidth="1"/>
-    <col min="15" max="15" width="28.7142857142857" customWidth="1"/>
-    <col min="16" max="16" width="30.0625" customWidth="1"/>
+    <col min="2" max="2" width="8.48214285714286" customWidth="1"/>
+    <col min="3" max="3" width="8.91964285714286" customWidth="1"/>
+    <col min="4" max="4" width="7.58035714285714" customWidth="1"/>
+    <col min="5" max="5" width="8.63392857142857" customWidth="1"/>
+    <col min="6" max="6" width="13.3839285714286" customWidth="1"/>
+    <col min="7" max="7" width="12.7946428571429" customWidth="1"/>
+    <col min="8" max="8" width="12.6428571428571" customWidth="1"/>
+    <col min="9" max="9" width="13.0892857142857" customWidth="1"/>
+    <col min="10" max="10" width="19.7857142857143" customWidth="1"/>
+    <col min="11" max="11" width="30.0625" customWidth="1"/>
+    <col min="12" max="12" width="40.4732142857143" customWidth="1"/>
+    <col min="13" max="13" width="25.4464285714286" customWidth="1"/>
+    <col min="14" max="14" width="28.7142857142857" customWidth="1"/>
+    <col min="15" max="15" width="30.0625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" spans="1:23">
+    <row r="1" ht="36" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2164,16 +2164,16 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="8" t="s">
@@ -2188,18 +2188,15 @@
       <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="3">
         <v>44522</v>
       </c>
@@ -2220,48 +2217,44 @@
         <v>33.45</v>
       </c>
       <c r="G2" s="4">
-        <f>D2-(D2-C2)/2</f>
-        <v>33.225</v>
-      </c>
-      <c r="H2" s="4">
         <f>E2+(D2-C2)/3</f>
         <v>32.94</v>
       </c>
-      <c r="I2" s="4">
+      <c r="H2" s="4">
         <v>30.89</v>
       </c>
-      <c r="J2" s="4">
-        <f>I2/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL10000,44,FALSE))</f>
+      <c r="I2" s="4">
+        <f>H2/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL10000,44,FALSE))</f>
         <v>32.65</v>
       </c>
-      <c r="K2" s="9">
-        <f>J2+J2*VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL1000,44,FALSE)*2</f>
+      <c r="J2" s="9">
+        <f>I2+I2*VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL1000,44,FALSE)*2</f>
         <v>36.17</v>
       </c>
+      <c r="K2" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-    </row>
-    <row r="3" spans="1:23">
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="3">
         <v>44523</v>
       </c>
@@ -2282,48 +2275,44 @@
         <v>34.06</v>
       </c>
       <c r="G3" s="4">
-        <f>D3-(D3-C3)/2</f>
-        <v>33.945</v>
-      </c>
-      <c r="H3" s="4">
         <f>E3+(D3-C3)/3</f>
         <v>33.56</v>
       </c>
-      <c r="I3" s="4">
+      <c r="H3" s="4">
         <v>30.89</v>
       </c>
-      <c r="J3" s="4">
-        <f>I3/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL10001,44,FALSE))</f>
+      <c r="I3" s="4">
+        <f>H3/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL10001,44,FALSE))</f>
         <v>32.65</v>
       </c>
-      <c r="K3" s="9">
-        <f>J3+J3*VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL1001,44,FALSE)*2</f>
+      <c r="J3" s="9">
+        <f>I3+I3*VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL1001,44,FALSE)*2</f>
         <v>36.17</v>
       </c>
+      <c r="K3" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-    </row>
-    <row r="4" spans="1:23">
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="3">
         <v>44524</v>
       </c>
@@ -2344,48 +2333,44 @@
         <v>34.44</v>
       </c>
       <c r="G4" s="4">
-        <f>D4-(D4-C4)/2</f>
-        <v>34.33</v>
-      </c>
-      <c r="H4" s="4">
         <f>E4+(D4-C4)/3</f>
         <v>33.48</v>
       </c>
-      <c r="I4" s="4">
+      <c r="H4" s="4">
         <v>30.89</v>
       </c>
-      <c r="J4" s="4">
-        <f>I4/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A5:BL10002,44,FALSE))</f>
+      <c r="I4" s="4">
+        <f>H4/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A5:BL10002,44,FALSE))</f>
         <v>32.65</v>
       </c>
-      <c r="K4" s="9">
-        <f>J4+J4*VLOOKUP([1]入场指标!A6,[1]入场指标!A6:BL1002,44,FALSE)*2</f>
+      <c r="J4" s="9">
+        <f>I4+I4*VLOOKUP([1]入场指标!A6,[1]入场指标!A6:BL1002,44,FALSE)*2</f>
         <v>36.17</v>
       </c>
+      <c r="K4" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-    </row>
-    <row r="5" spans="1:23">
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="3">
         <v>44525</v>
       </c>
@@ -2398,7 +2383,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2410,9 +2395,8 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-    </row>
-    <row r="6" spans="1:23">
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="3">
         <v>44526</v>
       </c>
@@ -2425,7 +2409,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2437,9 +2421,8 @@
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-    </row>
-    <row r="7" spans="1:23">
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="3">
         <v>44527</v>
       </c>
@@ -2452,7 +2435,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -2464,9 +2447,8 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-    </row>
-    <row r="8" spans="1:23">
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="3">
         <v>44528</v>
       </c>
@@ -2479,7 +2461,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -2491,9 +2473,8 @@
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-    </row>
-    <row r="9" spans="1:23">
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="3">
         <v>44529</v>
       </c>
@@ -2506,7 +2487,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -2518,9 +2499,8 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-    </row>
-    <row r="10" spans="1:23">
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="3">
         <v>44530</v>
       </c>
@@ -2533,7 +2513,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -2545,9 +2525,8 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-    </row>
-    <row r="11" spans="1:23">
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="3">
         <v>44531</v>
       </c>
@@ -2560,7 +2539,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -2572,9 +2551,8 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-    </row>
-    <row r="12" spans="1:23">
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="3">
         <v>44532</v>
       </c>
@@ -2587,7 +2565,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -2599,9 +2577,8 @@
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-    </row>
-    <row r="13" spans="1:23">
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="3">
         <v>44533</v>
       </c>
@@ -2614,7 +2591,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -2626,9 +2603,8 @@
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="1:23">
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="3">
         <v>44534</v>
       </c>
@@ -2641,7 +2617,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -2653,9 +2629,8 @@
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-    </row>
-    <row r="15" spans="1:23">
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="3">
         <v>44535</v>
       </c>
@@ -2668,7 +2643,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -2680,9 +2655,8 @@
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="1:23">
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="3">
         <v>44536</v>
       </c>
@@ -2695,7 +2669,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -2707,9 +2681,8 @@
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-    </row>
-    <row r="17" spans="1:23">
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="3">
         <v>44537</v>
       </c>
@@ -2722,7 +2695,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -2734,9 +2707,8 @@
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-    </row>
-    <row r="18" spans="1:23">
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="3">
         <v>44538</v>
       </c>
@@ -2749,7 +2721,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -2761,9 +2733,8 @@
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-    </row>
-    <row r="19" spans="1:23">
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="3">
         <v>44539</v>
       </c>
@@ -2776,7 +2747,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -2788,9 +2759,8 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-    </row>
-    <row r="20" spans="1:23">
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="3">
         <v>44540</v>
       </c>
@@ -2803,7 +2773,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -2815,9 +2785,8 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-    </row>
-    <row r="21" spans="1:23">
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="3">
         <v>44541</v>
       </c>
@@ -2830,7 +2799,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -2842,9 +2811,8 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-    </row>
-    <row r="22" spans="1:23">
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="3">
         <v>44542</v>
       </c>
@@ -2857,7 +2825,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -2869,9 +2837,8 @@
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-    </row>
-    <row r="23" spans="1:23">
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="3">
         <v>44543</v>
       </c>
@@ -2884,7 +2851,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -2896,9 +2863,8 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-    </row>
-    <row r="24" spans="1:23">
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="3">
         <v>44544</v>
       </c>
@@ -2911,7 +2877,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -2923,9 +2889,8 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-    </row>
-    <row r="25" spans="1:23">
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="3">
         <v>44545</v>
       </c>
@@ -2938,7 +2903,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -2950,9 +2915,8 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-    </row>
-    <row r="26" spans="1:23">
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="3">
         <v>44546</v>
       </c>
@@ -2965,7 +2929,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -2977,9 +2941,8 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-    </row>
-    <row r="27" spans="1:23">
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="3">
         <v>44547</v>
       </c>
@@ -2992,7 +2955,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -3004,9 +2967,8 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-    </row>
-    <row r="28" spans="1:23">
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="3">
         <v>44548</v>
       </c>
@@ -3019,7 +2981,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -3031,9 +2993,8 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-    </row>
-    <row r="29" spans="1:23">
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="3">
         <v>44549</v>
       </c>
@@ -3046,7 +3007,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -3058,9 +3019,8 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-    </row>
-    <row r="30" spans="1:23">
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="3">
         <v>44550</v>
       </c>
@@ -3073,7 +3033,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -3085,9 +3045,8 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-    </row>
-    <row r="31" spans="1:23">
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="3">
         <v>44551</v>
       </c>
@@ -3100,7 +3059,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -3112,9 +3071,8 @@
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-    </row>
-    <row r="32" spans="1:23">
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="3">
         <v>44552</v>
       </c>
@@ -3127,7 +3085,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -3139,9 +3097,8 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-    </row>
-    <row r="33" spans="1:23">
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="3">
         <v>44553</v>
       </c>
@@ -3154,7 +3111,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -3166,9 +3123,8 @@
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-    </row>
-    <row r="34" spans="1:23">
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="3">
         <v>44554</v>
       </c>
@@ -3181,7 +3137,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -3193,9 +3149,8 @@
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-    </row>
-    <row r="35" spans="1:23">
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="3">
         <v>44555</v>
       </c>
@@ -3208,7 +3163,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -3220,9 +3175,8 @@
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-    </row>
-    <row r="36" spans="1:23">
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="3">
         <v>44556</v>
       </c>
@@ -3235,7 +3189,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -3247,9 +3201,8 @@
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-    </row>
-    <row r="37" spans="1:23">
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="3">
         <v>44557</v>
       </c>
@@ -3262,7 +3215,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -3274,9 +3227,8 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-    </row>
-    <row r="38" spans="1:23">
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="3">
         <v>44558</v>
       </c>
@@ -3289,7 +3241,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
+      <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -3301,9 +3253,8 @@
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-    </row>
-    <row r="39" spans="1:23">
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -3326,9 +3277,8 @@
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-    </row>
-    <row r="40" spans="1:23">
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3351,9 +3301,8 @@
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-    </row>
-    <row r="41" spans="1:23">
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3376,9 +3325,8 @@
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-    </row>
-    <row r="42" spans="1:23">
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3401,9 +3349,8 @@
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-    </row>
-    <row r="43" spans="1:23">
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -3426,9 +3373,8 @@
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-    </row>
-    <row r="44" spans="1:23">
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3451,9 +3397,8 @@
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-    </row>
-    <row r="45" spans="1:23">
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3476,9 +3421,8 @@
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-    </row>
-    <row r="46" spans="1:23">
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3501,9 +3445,8 @@
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-    </row>
-    <row r="47" spans="1:23">
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3526,9 +3469,8 @@
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-    </row>
-    <row r="48" spans="1:23">
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -3551,9 +3493,8 @@
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-    </row>
-    <row r="49" spans="1:23">
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -3576,9 +3517,8 @@
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-    </row>
-    <row r="50" spans="1:23">
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -3601,9 +3541,8 @@
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-    </row>
-    <row r="51" spans="1:23">
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -3626,9 +3565,8 @@
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-    </row>
-    <row r="52" spans="1:23">
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -3651,9 +3589,8 @@
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-    </row>
-    <row r="53" spans="1:23">
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -3676,9 +3613,8 @@
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-    </row>
-    <row r="54" spans="1:23">
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -3701,9 +3637,8 @@
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-    </row>
-    <row r="55" spans="1:23">
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -3726,9 +3661,8 @@
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-    </row>
-    <row r="56" spans="1:23">
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -3751,9 +3685,8 @@
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-    </row>
-    <row r="57" spans="1:23">
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -3776,9 +3709,8 @@
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
       <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-    </row>
-    <row r="58" spans="1:23">
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -3801,9 +3733,8 @@
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-    </row>
-    <row r="59" spans="1:23">
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -3826,9 +3757,8 @@
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-    </row>
-    <row r="60" spans="1:23">
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -3851,9 +3781,8 @@
       <c r="T60" s="5"/>
       <c r="U60" s="5"/>
       <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-    </row>
-    <row r="61" spans="1:23">
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -3876,9 +3805,8 @@
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-    </row>
-    <row r="62" spans="1:23">
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -3901,9 +3829,8 @@
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-    </row>
-    <row r="63" spans="1:23">
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -3926,9 +3853,8 @@
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
-      <c r="W63" s="5"/>
-    </row>
-    <row r="64" spans="1:23">
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -3951,9 +3877,8 @@
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-    </row>
-    <row r="65" spans="1:23">
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -3976,9 +3901,8 @@
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
       <c r="V65" s="5"/>
-      <c r="W65" s="5"/>
-    </row>
-    <row r="66" spans="1:23">
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -4001,9 +3925,8 @@
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-    </row>
-    <row r="67" spans="1:23">
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -4026,9 +3949,8 @@
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-    </row>
-    <row r="68" spans="1:23">
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -4051,9 +3973,8 @@
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
       <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-    </row>
-    <row r="69" spans="1:23">
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -4076,9 +3997,8 @@
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
       <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-    </row>
-    <row r="70" spans="1:23">
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -4101,9 +4021,8 @@
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
       <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
-    </row>
-    <row r="71" spans="1:23">
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -4126,9 +4045,8 @@
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
       <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-    </row>
-    <row r="72" spans="1:23">
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -4151,9 +4069,8 @@
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
       <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-    </row>
-    <row r="73" spans="1:23">
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -4176,9 +4093,8 @@
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
       <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
-    </row>
-    <row r="74" spans="1:23">
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -4201,9 +4117,8 @@
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
       <c r="V74" s="5"/>
-      <c r="W74" s="5"/>
-    </row>
-    <row r="75" spans="1:23">
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -4226,9 +4141,8 @@
       <c r="T75" s="5"/>
       <c r="U75" s="5"/>
       <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-    </row>
-    <row r="76" spans="1:23">
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -4251,9 +4165,8 @@
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
       <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
-    </row>
-    <row r="77" spans="1:23">
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -4276,9 +4189,8 @@
       <c r="T77" s="5"/>
       <c r="U77" s="5"/>
       <c r="V77" s="5"/>
-      <c r="W77" s="5"/>
-    </row>
-    <row r="78" spans="1:23">
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -4301,9 +4213,8 @@
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
       <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
-    </row>
-    <row r="79" spans="1:23">
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -4326,9 +4237,8 @@
       <c r="T79" s="5"/>
       <c r="U79" s="5"/>
       <c r="V79" s="5"/>
-      <c r="W79" s="5"/>
-    </row>
-    <row r="80" spans="1:23">
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -4351,9 +4261,8 @@
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
       <c r="V80" s="5"/>
-      <c r="W80" s="5"/>
-    </row>
-    <row r="81" spans="1:23">
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -4376,9 +4285,8 @@
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
       <c r="V81" s="5"/>
-      <c r="W81" s="5"/>
-    </row>
-    <row r="82" spans="1:23">
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -4401,9 +4309,8 @@
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
       <c r="V82" s="5"/>
-      <c r="W82" s="5"/>
-    </row>
-    <row r="83" spans="1:23">
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -4426,9 +4333,8 @@
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
       <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-    </row>
-    <row r="84" spans="1:23">
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -4451,9 +4357,8 @@
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
-      <c r="W84" s="5"/>
-    </row>
-    <row r="85" spans="1:23">
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -4476,9 +4381,8 @@
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5"/>
-      <c r="W85" s="5"/>
-    </row>
-    <row r="86" spans="1:23">
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -4501,9 +4405,8 @@
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="5"/>
-      <c r="W86" s="5"/>
-    </row>
-    <row r="87" spans="1:23">
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -4526,9 +4429,8 @@
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
-      <c r="W87" s="5"/>
-    </row>
-    <row r="88" spans="1:23">
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -4551,9 +4453,8 @@
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
-      <c r="W88" s="5"/>
-    </row>
-    <row r="89" spans="1:23">
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -4576,9 +4477,8 @@
       <c r="T89" s="5"/>
       <c r="U89" s="5"/>
       <c r="V89" s="5"/>
-      <c r="W89" s="5"/>
-    </row>
-    <row r="90" spans="1:23">
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -4601,9 +4501,8 @@
       <c r="T90" s="5"/>
       <c r="U90" s="5"/>
       <c r="V90" s="5"/>
-      <c r="W90" s="5"/>
-    </row>
-    <row r="91" spans="1:23">
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -4626,9 +4525,8 @@
       <c r="T91" s="5"/>
       <c r="U91" s="5"/>
       <c r="V91" s="5"/>
-      <c r="W91" s="5"/>
-    </row>
-    <row r="92" spans="1:23">
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -4651,9 +4549,8 @@
       <c r="T92" s="5"/>
       <c r="U92" s="5"/>
       <c r="V92" s="5"/>
-      <c r="W92" s="5"/>
-    </row>
-    <row r="93" spans="1:23">
+    </row>
+    <row r="93" spans="1:22">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -4676,9 +4573,8 @@
       <c r="T93" s="5"/>
       <c r="U93" s="5"/>
       <c r="V93" s="5"/>
-      <c r="W93" s="5"/>
-    </row>
-    <row r="94" spans="1:23">
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -4701,9 +4597,8 @@
       <c r="T94" s="5"/>
       <c r="U94" s="5"/>
       <c r="V94" s="5"/>
-      <c r="W94" s="5"/>
-    </row>
-    <row r="95" spans="1:23">
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -4726,9 +4621,8 @@
       <c r="T95" s="5"/>
       <c r="U95" s="5"/>
       <c r="V95" s="5"/>
-      <c r="W95" s="5"/>
-    </row>
-    <row r="96" spans="1:23">
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -4751,9 +4645,8 @@
       <c r="T96" s="5"/>
       <c r="U96" s="5"/>
       <c r="V96" s="5"/>
-      <c r="W96" s="5"/>
-    </row>
-    <row r="97" spans="1:23">
+    </row>
+    <row r="97" spans="1:22">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -4776,9 +4669,8 @@
       <c r="T97" s="5"/>
       <c r="U97" s="5"/>
       <c r="V97" s="5"/>
-      <c r="W97" s="5"/>
-    </row>
-    <row r="98" spans="1:23">
+    </row>
+    <row r="98" spans="1:22">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -4801,9 +4693,8 @@
       <c r="T98" s="5"/>
       <c r="U98" s="5"/>
       <c r="V98" s="5"/>
-      <c r="W98" s="5"/>
-    </row>
-    <row r="99" spans="1:23">
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -4826,9 +4717,8 @@
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
       <c r="V99" s="5"/>
-      <c r="W99" s="5"/>
-    </row>
-    <row r="100" spans="1:23">
+    </row>
+    <row r="100" spans="1:22">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4851,9 +4741,8 @@
       <c r="T100" s="5"/>
       <c r="U100" s="5"/>
       <c r="V100" s="5"/>
-      <c r="W100" s="5"/>
-    </row>
-    <row r="101" spans="1:23">
+    </row>
+    <row r="101" spans="1:22">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -4876,9 +4765,8 @@
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
       <c r="V101" s="5"/>
-      <c r="W101" s="5"/>
-    </row>
-    <row r="102" spans="1:23">
+    </row>
+    <row r="102" spans="1:22">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -4901,9 +4789,8 @@
       <c r="T102" s="5"/>
       <c r="U102" s="5"/>
       <c r="V102" s="5"/>
-      <c r="W102" s="5"/>
-    </row>
-    <row r="103" spans="1:23">
+    </row>
+    <row r="103" spans="1:22">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -4926,9 +4813,8 @@
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
       <c r="V103" s="5"/>
-      <c r="W103" s="5"/>
-    </row>
-    <row r="104" spans="1:23">
+    </row>
+    <row r="104" spans="1:22">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -4951,9 +4837,8 @@
       <c r="T104" s="5"/>
       <c r="U104" s="5"/>
       <c r="V104" s="5"/>
-      <c r="W104" s="5"/>
-    </row>
-    <row r="105" spans="1:23">
+    </row>
+    <row r="105" spans="1:22">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -4976,9 +4861,8 @@
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
       <c r="V105" s="5"/>
-      <c r="W105" s="5"/>
-    </row>
-    <row r="106" spans="1:23">
+    </row>
+    <row r="106" spans="1:22">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -5001,9 +4885,8 @@
       <c r="T106" s="5"/>
       <c r="U106" s="5"/>
       <c r="V106" s="5"/>
-      <c r="W106" s="5"/>
-    </row>
-    <row r="107" spans="1:23">
+    </row>
+    <row r="107" spans="1:22">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -5026,9 +4909,8 @@
       <c r="T107" s="5"/>
       <c r="U107" s="5"/>
       <c r="V107" s="5"/>
-      <c r="W107" s="5"/>
-    </row>
-    <row r="108" spans="1:23">
+    </row>
+    <row r="108" spans="1:22">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -5051,9 +4933,8 @@
       <c r="T108" s="5"/>
       <c r="U108" s="5"/>
       <c r="V108" s="5"/>
-      <c r="W108" s="5"/>
-    </row>
-    <row r="109" spans="1:23">
+    </row>
+    <row r="109" spans="1:22">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -5076,9 +4957,8 @@
       <c r="T109" s="5"/>
       <c r="U109" s="5"/>
       <c r="V109" s="5"/>
-      <c r="W109" s="5"/>
-    </row>
-    <row r="110" spans="1:23">
+    </row>
+    <row r="110" spans="1:22">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -5101,9 +4981,8 @@
       <c r="T110" s="5"/>
       <c r="U110" s="5"/>
       <c r="V110" s="5"/>
-      <c r="W110" s="5"/>
-    </row>
-    <row r="111" spans="1:23">
+    </row>
+    <row r="111" spans="1:22">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -5126,9 +5005,8 @@
       <c r="T111" s="5"/>
       <c r="U111" s="5"/>
       <c r="V111" s="5"/>
-      <c r="W111" s="5"/>
-    </row>
-    <row r="112" spans="1:23">
+    </row>
+    <row r="112" spans="1:22">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5151,9 +5029,8 @@
       <c r="T112" s="5"/>
       <c r="U112" s="5"/>
       <c r="V112" s="5"/>
-      <c r="W112" s="5"/>
-    </row>
-    <row r="113" spans="1:23">
+    </row>
+    <row r="113" spans="1:22">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -5176,9 +5053,8 @@
       <c r="T113" s="5"/>
       <c r="U113" s="5"/>
       <c r="V113" s="5"/>
-      <c r="W113" s="5"/>
-    </row>
-    <row r="114" spans="1:23">
+    </row>
+    <row r="114" spans="1:22">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -5201,9 +5077,8 @@
       <c r="T114" s="5"/>
       <c r="U114" s="5"/>
       <c r="V114" s="5"/>
-      <c r="W114" s="5"/>
-    </row>
-    <row r="115" spans="1:23">
+    </row>
+    <row r="115" spans="1:22">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -5226,9 +5101,8 @@
       <c r="T115" s="5"/>
       <c r="U115" s="5"/>
       <c r="V115" s="5"/>
-      <c r="W115" s="5"/>
-    </row>
-    <row r="116" spans="1:23">
+    </row>
+    <row r="116" spans="1:22">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5251,9 +5125,8 @@
       <c r="T116" s="5"/>
       <c r="U116" s="5"/>
       <c r="V116" s="5"/>
-      <c r="W116" s="5"/>
-    </row>
-    <row r="117" spans="1:23">
+    </row>
+    <row r="117" spans="1:22">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -5276,9 +5149,8 @@
       <c r="T117" s="5"/>
       <c r="U117" s="5"/>
       <c r="V117" s="5"/>
-      <c r="W117" s="5"/>
-    </row>
-    <row r="118" spans="1:23">
+    </row>
+    <row r="118" spans="1:22">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -5301,9 +5173,8 @@
       <c r="T118" s="5"/>
       <c r="U118" s="5"/>
       <c r="V118" s="5"/>
-      <c r="W118" s="5"/>
-    </row>
-    <row r="119" spans="1:23">
+    </row>
+    <row r="119" spans="1:22">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -5326,9 +5197,8 @@
       <c r="T119" s="5"/>
       <c r="U119" s="5"/>
       <c r="V119" s="5"/>
-      <c r="W119" s="5"/>
-    </row>
-    <row r="120" spans="1:23">
+    </row>
+    <row r="120" spans="1:22">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -5351,9 +5221,8 @@
       <c r="T120" s="5"/>
       <c r="U120" s="5"/>
       <c r="V120" s="5"/>
-      <c r="W120" s="5"/>
-    </row>
-    <row r="121" spans="1:23">
+    </row>
+    <row r="121" spans="1:22">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -5376,9 +5245,8 @@
       <c r="T121" s="5"/>
       <c r="U121" s="5"/>
       <c r="V121" s="5"/>
-      <c r="W121" s="5"/>
-    </row>
-    <row r="122" spans="1:23">
+    </row>
+    <row r="122" spans="1:22">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -5401,9 +5269,8 @@
       <c r="T122" s="5"/>
       <c r="U122" s="5"/>
       <c r="V122" s="5"/>
-      <c r="W122" s="5"/>
-    </row>
-    <row r="123" spans="1:23">
+    </row>
+    <row r="123" spans="1:22">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -5426,9 +5293,8 @@
       <c r="T123" s="5"/>
       <c r="U123" s="5"/>
       <c r="V123" s="5"/>
-      <c r="W123" s="5"/>
-    </row>
-    <row r="124" spans="1:23">
+    </row>
+    <row r="124" spans="1:22">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -5451,9 +5317,8 @@
       <c r="T124" s="5"/>
       <c r="U124" s="5"/>
       <c r="V124" s="5"/>
-      <c r="W124" s="5"/>
-    </row>
-    <row r="125" spans="1:23">
+    </row>
+    <row r="125" spans="1:22">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -5476,9 +5341,8 @@
       <c r="T125" s="5"/>
       <c r="U125" s="5"/>
       <c r="V125" s="5"/>
-      <c r="W125" s="5"/>
-    </row>
-    <row r="126" spans="1:23">
+    </row>
+    <row r="126" spans="1:22">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -5501,9 +5365,8 @@
       <c r="T126" s="5"/>
       <c r="U126" s="5"/>
       <c r="V126" s="5"/>
-      <c r="W126" s="5"/>
-    </row>
-    <row r="127" spans="1:23">
+    </row>
+    <row r="127" spans="1:22">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -5526,9 +5389,8 @@
       <c r="T127" s="5"/>
       <c r="U127" s="5"/>
       <c r="V127" s="5"/>
-      <c r="W127" s="5"/>
-    </row>
-    <row r="128" spans="1:23">
+    </row>
+    <row r="128" spans="1:22">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -5551,9 +5413,8 @@
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
       <c r="V128" s="5"/>
-      <c r="W128" s="5"/>
-    </row>
-    <row r="129" spans="1:23">
+    </row>
+    <row r="129" spans="1:22">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -5576,9 +5437,8 @@
       <c r="T129" s="5"/>
       <c r="U129" s="5"/>
       <c r="V129" s="5"/>
-      <c r="W129" s="5"/>
-    </row>
-    <row r="130" spans="1:23">
+    </row>
+    <row r="130" spans="1:22">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -5601,9 +5461,8 @@
       <c r="T130" s="5"/>
       <c r="U130" s="5"/>
       <c r="V130" s="5"/>
-      <c r="W130" s="5"/>
-    </row>
-    <row r="131" spans="1:23">
+    </row>
+    <row r="131" spans="1:22">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -5626,9 +5485,8 @@
       <c r="T131" s="5"/>
       <c r="U131" s="5"/>
       <c r="V131" s="5"/>
-      <c r="W131" s="5"/>
-    </row>
-    <row r="132" spans="1:23">
+    </row>
+    <row r="132" spans="1:22">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -5651,9 +5509,8 @@
       <c r="T132" s="5"/>
       <c r="U132" s="5"/>
       <c r="V132" s="5"/>
-      <c r="W132" s="5"/>
-    </row>
-    <row r="133" spans="1:23">
+    </row>
+    <row r="133" spans="1:22">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -5676,9 +5533,8 @@
       <c r="T133" s="5"/>
       <c r="U133" s="5"/>
       <c r="V133" s="5"/>
-      <c r="W133" s="5"/>
-    </row>
-    <row r="134" spans="1:23">
+    </row>
+    <row r="134" spans="1:22">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -5701,9 +5557,8 @@
       <c r="T134" s="5"/>
       <c r="U134" s="5"/>
       <c r="V134" s="5"/>
-      <c r="W134" s="5"/>
-    </row>
-    <row r="135" spans="1:23">
+    </row>
+    <row r="135" spans="1:22">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -5726,9 +5581,8 @@
       <c r="T135" s="5"/>
       <c r="U135" s="5"/>
       <c r="V135" s="5"/>
-      <c r="W135" s="5"/>
-    </row>
-    <row r="136" spans="1:23">
+    </row>
+    <row r="136" spans="1:22">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -5751,9 +5605,8 @@
       <c r="T136" s="5"/>
       <c r="U136" s="5"/>
       <c r="V136" s="5"/>
-      <c r="W136" s="5"/>
-    </row>
-    <row r="137" spans="1:23">
+    </row>
+    <row r="137" spans="1:22">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -5776,9 +5629,8 @@
       <c r="T137" s="5"/>
       <c r="U137" s="5"/>
       <c r="V137" s="5"/>
-      <c r="W137" s="5"/>
-    </row>
-    <row r="138" spans="1:23">
+    </row>
+    <row r="138" spans="1:22">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -5801,9 +5653,8 @@
       <c r="T138" s="5"/>
       <c r="U138" s="5"/>
       <c r="V138" s="5"/>
-      <c r="W138" s="5"/>
-    </row>
-    <row r="139" spans="1:23">
+    </row>
+    <row r="139" spans="1:22">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -5826,9 +5677,8 @@
       <c r="T139" s="5"/>
       <c r="U139" s="5"/>
       <c r="V139" s="5"/>
-      <c r="W139" s="5"/>
-    </row>
-    <row r="140" spans="1:23">
+    </row>
+    <row r="140" spans="1:22">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -5851,9 +5701,8 @@
       <c r="T140" s="5"/>
       <c r="U140" s="5"/>
       <c r="V140" s="5"/>
-      <c r="W140" s="5"/>
-    </row>
-    <row r="141" spans="1:23">
+    </row>
+    <row r="141" spans="1:22">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -5876,9 +5725,8 @@
       <c r="T141" s="5"/>
       <c r="U141" s="5"/>
       <c r="V141" s="5"/>
-      <c r="W141" s="5"/>
-    </row>
-    <row r="142" spans="1:23">
+    </row>
+    <row r="142" spans="1:22">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -5901,9 +5749,8 @@
       <c r="T142" s="5"/>
       <c r="U142" s="5"/>
       <c r="V142" s="5"/>
-      <c r="W142" s="5"/>
-    </row>
-    <row r="143" spans="1:23">
+    </row>
+    <row r="143" spans="1:22">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -5926,9 +5773,8 @@
       <c r="T143" s="5"/>
       <c r="U143" s="5"/>
       <c r="V143" s="5"/>
-      <c r="W143" s="5"/>
-    </row>
-    <row r="144" spans="1:23">
+    </row>
+    <row r="144" spans="1:22">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -5951,9 +5797,8 @@
       <c r="T144" s="5"/>
       <c r="U144" s="5"/>
       <c r="V144" s="5"/>
-      <c r="W144" s="5"/>
-    </row>
-    <row r="145" spans="1:23">
+    </row>
+    <row r="145" spans="1:22">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -5976,9 +5821,8 @@
       <c r="T145" s="5"/>
       <c r="U145" s="5"/>
       <c r="V145" s="5"/>
-      <c r="W145" s="5"/>
-    </row>
-    <row r="146" spans="1:23">
+    </row>
+    <row r="146" spans="1:22">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6001,9 +5845,8 @@
       <c r="T146" s="5"/>
       <c r="U146" s="5"/>
       <c r="V146" s="5"/>
-      <c r="W146" s="5"/>
-    </row>
-    <row r="147" spans="1:23">
+    </row>
+    <row r="147" spans="1:22">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -6026,9 +5869,8 @@
       <c r="T147" s="5"/>
       <c r="U147" s="5"/>
       <c r="V147" s="5"/>
-      <c r="W147" s="5"/>
-    </row>
-    <row r="148" spans="1:23">
+    </row>
+    <row r="148" spans="1:22">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -6051,9 +5893,8 @@
       <c r="T148" s="5"/>
       <c r="U148" s="5"/>
       <c r="V148" s="5"/>
-      <c r="W148" s="5"/>
-    </row>
-    <row r="149" spans="1:23">
+    </row>
+    <row r="149" spans="1:22">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -6076,9 +5917,8 @@
       <c r="T149" s="5"/>
       <c r="U149" s="5"/>
       <c r="V149" s="5"/>
-      <c r="W149" s="5"/>
-    </row>
-    <row r="150" spans="1:23">
+    </row>
+    <row r="150" spans="1:22">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -6101,9 +5941,8 @@
       <c r="T150" s="5"/>
       <c r="U150" s="5"/>
       <c r="V150" s="5"/>
-      <c r="W150" s="5"/>
-    </row>
-    <row r="151" spans="1:23">
+    </row>
+    <row r="151" spans="1:22">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -6126,9 +5965,8 @@
       <c r="T151" s="5"/>
       <c r="U151" s="5"/>
       <c r="V151" s="5"/>
-      <c r="W151" s="5"/>
-    </row>
-    <row r="152" spans="1:23">
+    </row>
+    <row r="152" spans="1:22">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -6151,9 +5989,8 @@
       <c r="T152" s="5"/>
       <c r="U152" s="5"/>
       <c r="V152" s="5"/>
-      <c r="W152" s="5"/>
-    </row>
-    <row r="153" spans="1:23">
+    </row>
+    <row r="153" spans="1:22">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -6176,9 +6013,8 @@
       <c r="T153" s="5"/>
       <c r="U153" s="5"/>
       <c r="V153" s="5"/>
-      <c r="W153" s="5"/>
-    </row>
-    <row r="154" spans="1:23">
+    </row>
+    <row r="154" spans="1:22">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -6201,9 +6037,8 @@
       <c r="T154" s="5"/>
       <c r="U154" s="5"/>
       <c r="V154" s="5"/>
-      <c r="W154" s="5"/>
-    </row>
-    <row r="155" spans="1:23">
+    </row>
+    <row r="155" spans="1:22">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -6226,9 +6061,8 @@
       <c r="T155" s="5"/>
       <c r="U155" s="5"/>
       <c r="V155" s="5"/>
-      <c r="W155" s="5"/>
-    </row>
-    <row r="156" spans="1:23">
+    </row>
+    <row r="156" spans="1:22">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -6251,9 +6085,8 @@
       <c r="T156" s="5"/>
       <c r="U156" s="5"/>
       <c r="V156" s="5"/>
-      <c r="W156" s="5"/>
-    </row>
-    <row r="157" spans="1:23">
+    </row>
+    <row r="157" spans="1:22">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -6276,9 +6109,8 @@
       <c r="T157" s="5"/>
       <c r="U157" s="5"/>
       <c r="V157" s="5"/>
-      <c r="W157" s="5"/>
-    </row>
-    <row r="158" spans="1:23">
+    </row>
+    <row r="158" spans="1:22">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -6301,9 +6133,8 @@
       <c r="T158" s="5"/>
       <c r="U158" s="5"/>
       <c r="V158" s="5"/>
-      <c r="W158" s="5"/>
-    </row>
-    <row r="159" spans="1:23">
+    </row>
+    <row r="159" spans="1:22">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -6326,9 +6157,8 @@
       <c r="T159" s="5"/>
       <c r="U159" s="5"/>
       <c r="V159" s="5"/>
-      <c r="W159" s="5"/>
-    </row>
-    <row r="160" spans="1:23">
+    </row>
+    <row r="160" spans="1:22">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -6351,9 +6181,8 @@
       <c r="T160" s="5"/>
       <c r="U160" s="5"/>
       <c r="V160" s="5"/>
-      <c r="W160" s="5"/>
-    </row>
-    <row r="161" spans="1:23">
+    </row>
+    <row r="161" spans="1:22">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -6376,9 +6205,8 @@
       <c r="T161" s="5"/>
       <c r="U161" s="5"/>
       <c r="V161" s="5"/>
-      <c r="W161" s="5"/>
-    </row>
-    <row r="162" spans="1:23">
+    </row>
+    <row r="162" spans="1:22">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -6401,9 +6229,8 @@
       <c r="T162" s="5"/>
       <c r="U162" s="5"/>
       <c r="V162" s="5"/>
-      <c r="W162" s="5"/>
-    </row>
-    <row r="163" spans="1:23">
+    </row>
+    <row r="163" spans="1:22">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -6426,9 +6253,8 @@
       <c r="T163" s="5"/>
       <c r="U163" s="5"/>
       <c r="V163" s="5"/>
-      <c r="W163" s="5"/>
-    </row>
-    <row r="164" spans="1:23">
+    </row>
+    <row r="164" spans="1:22">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -6451,9 +6277,8 @@
       <c r="T164" s="5"/>
       <c r="U164" s="5"/>
       <c r="V164" s="5"/>
-      <c r="W164" s="5"/>
-    </row>
-    <row r="165" spans="1:23">
+    </row>
+    <row r="165" spans="1:22">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -6476,9 +6301,8 @@
       <c r="T165" s="5"/>
       <c r="U165" s="5"/>
       <c r="V165" s="5"/>
-      <c r="W165" s="5"/>
-    </row>
-    <row r="166" spans="1:23">
+    </row>
+    <row r="166" spans="1:22">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -6501,9 +6325,8 @@
       <c r="T166" s="5"/>
       <c r="U166" s="5"/>
       <c r="V166" s="5"/>
-      <c r="W166" s="5"/>
-    </row>
-    <row r="167" spans="1:23">
+    </row>
+    <row r="167" spans="1:22">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -6526,9 +6349,8 @@
       <c r="T167" s="5"/>
       <c r="U167" s="5"/>
       <c r="V167" s="5"/>
-      <c r="W167" s="5"/>
-    </row>
-    <row r="168" spans="1:23">
+    </row>
+    <row r="168" spans="1:22">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -6551,9 +6373,8 @@
       <c r="T168" s="5"/>
       <c r="U168" s="5"/>
       <c r="V168" s="5"/>
-      <c r="W168" s="5"/>
-    </row>
-    <row r="169" spans="1:23">
+    </row>
+    <row r="169" spans="1:22">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -6576,9 +6397,8 @@
       <c r="T169" s="5"/>
       <c r="U169" s="5"/>
       <c r="V169" s="5"/>
-      <c r="W169" s="5"/>
-    </row>
-    <row r="170" spans="1:23">
+    </row>
+    <row r="170" spans="1:22">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -6601,9 +6421,8 @@
       <c r="T170" s="5"/>
       <c r="U170" s="5"/>
       <c r="V170" s="5"/>
-      <c r="W170" s="5"/>
-    </row>
-    <row r="171" spans="1:23">
+    </row>
+    <row r="171" spans="1:22">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -6626,9 +6445,8 @@
       <c r="T171" s="5"/>
       <c r="U171" s="5"/>
       <c r="V171" s="5"/>
-      <c r="W171" s="5"/>
-    </row>
-    <row r="172" spans="1:23">
+    </row>
+    <row r="172" spans="1:22">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -6651,9 +6469,8 @@
       <c r="T172" s="5"/>
       <c r="U172" s="5"/>
       <c r="V172" s="5"/>
-      <c r="W172" s="5"/>
-    </row>
-    <row r="173" spans="1:23">
+    </row>
+    <row r="173" spans="1:22">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -6676,9 +6493,8 @@
       <c r="T173" s="5"/>
       <c r="U173" s="5"/>
       <c r="V173" s="5"/>
-      <c r="W173" s="5"/>
-    </row>
-    <row r="174" spans="1:23">
+    </row>
+    <row r="174" spans="1:22">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -6701,9 +6517,8 @@
       <c r="T174" s="5"/>
       <c r="U174" s="5"/>
       <c r="V174" s="5"/>
-      <c r="W174" s="5"/>
-    </row>
-    <row r="175" spans="1:23">
+    </row>
+    <row r="175" spans="1:22">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -6726,9 +6541,8 @@
       <c r="T175" s="5"/>
       <c r="U175" s="5"/>
       <c r="V175" s="5"/>
-      <c r="W175" s="5"/>
-    </row>
-    <row r="176" spans="1:23">
+    </row>
+    <row r="176" spans="1:22">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -6751,9 +6565,8 @@
       <c r="T176" s="5"/>
       <c r="U176" s="5"/>
       <c r="V176" s="5"/>
-      <c r="W176" s="5"/>
-    </row>
-    <row r="177" spans="1:23">
+    </row>
+    <row r="177" spans="1:22">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -6776,9 +6589,8 @@
       <c r="T177" s="5"/>
       <c r="U177" s="5"/>
       <c r="V177" s="5"/>
-      <c r="W177" s="5"/>
-    </row>
-    <row r="178" spans="1:23">
+    </row>
+    <row r="178" spans="1:22">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -6801,9 +6613,8 @@
       <c r="T178" s="5"/>
       <c r="U178" s="5"/>
       <c r="V178" s="5"/>
-      <c r="W178" s="5"/>
-    </row>
-    <row r="179" spans="1:23">
+    </row>
+    <row r="179" spans="1:22">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -6826,9 +6637,8 @@
       <c r="T179" s="5"/>
       <c r="U179" s="5"/>
       <c r="V179" s="5"/>
-      <c r="W179" s="5"/>
-    </row>
-    <row r="180" spans="1:23">
+    </row>
+    <row r="180" spans="1:22">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -6851,9 +6661,8 @@
       <c r="T180" s="5"/>
       <c r="U180" s="5"/>
       <c r="V180" s="5"/>
-      <c r="W180" s="5"/>
-    </row>
-    <row r="181" spans="1:23">
+    </row>
+    <row r="181" spans="1:22">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -6876,9 +6685,8 @@
       <c r="T181" s="5"/>
       <c r="U181" s="5"/>
       <c r="V181" s="5"/>
-      <c r="W181" s="5"/>
-    </row>
-    <row r="182" spans="1:23">
+    </row>
+    <row r="182" spans="1:22">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -6901,9 +6709,8 @@
       <c r="T182" s="5"/>
       <c r="U182" s="5"/>
       <c r="V182" s="5"/>
-      <c r="W182" s="5"/>
-    </row>
-    <row r="183" spans="1:23">
+    </row>
+    <row r="183" spans="1:22">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -6926,9 +6733,8 @@
       <c r="T183" s="5"/>
       <c r="U183" s="5"/>
       <c r="V183" s="5"/>
-      <c r="W183" s="5"/>
-    </row>
-    <row r="184" spans="1:23">
+    </row>
+    <row r="184" spans="1:22">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -6951,9 +6757,8 @@
       <c r="T184" s="5"/>
       <c r="U184" s="5"/>
       <c r="V184" s="5"/>
-      <c r="W184" s="5"/>
-    </row>
-    <row r="185" spans="1:23">
+    </row>
+    <row r="185" spans="1:22">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -6976,9 +6781,8 @@
       <c r="T185" s="5"/>
       <c r="U185" s="5"/>
       <c r="V185" s="5"/>
-      <c r="W185" s="5"/>
-    </row>
-    <row r="186" spans="1:23">
+    </row>
+    <row r="186" spans="1:22">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -7001,9 +6805,8 @@
       <c r="T186" s="5"/>
       <c r="U186" s="5"/>
       <c r="V186" s="5"/>
-      <c r="W186" s="5"/>
-    </row>
-    <row r="187" spans="1:23">
+    </row>
+    <row r="187" spans="1:22">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -7026,9 +6829,8 @@
       <c r="T187" s="5"/>
       <c r="U187" s="5"/>
       <c r="V187" s="5"/>
-      <c r="W187" s="5"/>
-    </row>
-    <row r="188" spans="1:23">
+    </row>
+    <row r="188" spans="1:22">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -7051,9 +6853,8 @@
       <c r="T188" s="5"/>
       <c r="U188" s="5"/>
       <c r="V188" s="5"/>
-      <c r="W188" s="5"/>
-    </row>
-    <row r="189" spans="1:23">
+    </row>
+    <row r="189" spans="1:22">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -7076,9 +6877,8 @@
       <c r="T189" s="5"/>
       <c r="U189" s="5"/>
       <c r="V189" s="5"/>
-      <c r="W189" s="5"/>
-    </row>
-    <row r="190" spans="1:23">
+    </row>
+    <row r="190" spans="1:22">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -7101,9 +6901,8 @@
       <c r="T190" s="5"/>
       <c r="U190" s="5"/>
       <c r="V190" s="5"/>
-      <c r="W190" s="5"/>
-    </row>
-    <row r="191" spans="1:23">
+    </row>
+    <row r="191" spans="1:22">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -7126,9 +6925,8 @@
       <c r="T191" s="5"/>
       <c r="U191" s="5"/>
       <c r="V191" s="5"/>
-      <c r="W191" s="5"/>
-    </row>
-    <row r="192" spans="1:23">
+    </row>
+    <row r="192" spans="1:22">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -7151,9 +6949,8 @@
       <c r="T192" s="5"/>
       <c r="U192" s="5"/>
       <c r="V192" s="5"/>
-      <c r="W192" s="5"/>
-    </row>
-    <row r="193" spans="1:23">
+    </row>
+    <row r="193" spans="1:22">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -7176,9 +6973,8 @@
       <c r="T193" s="5"/>
       <c r="U193" s="5"/>
       <c r="V193" s="5"/>
-      <c r="W193" s="5"/>
-    </row>
-    <row r="194" spans="1:23">
+    </row>
+    <row r="194" spans="1:22">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -7201,9 +6997,8 @@
       <c r="T194" s="5"/>
       <c r="U194" s="5"/>
       <c r="V194" s="5"/>
-      <c r="W194" s="5"/>
-    </row>
-    <row r="195" spans="1:23">
+    </row>
+    <row r="195" spans="1:22">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -7226,9 +7021,8 @@
       <c r="T195" s="5"/>
       <c r="U195" s="5"/>
       <c r="V195" s="5"/>
-      <c r="W195" s="5"/>
-    </row>
-    <row r="196" spans="1:23">
+    </row>
+    <row r="196" spans="1:22">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -7251,9 +7045,8 @@
       <c r="T196" s="5"/>
       <c r="U196" s="5"/>
       <c r="V196" s="5"/>
-      <c r="W196" s="5"/>
-    </row>
-    <row r="197" spans="1:23">
+    </row>
+    <row r="197" spans="1:22">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -7276,9 +7069,8 @@
       <c r="T197" s="5"/>
       <c r="U197" s="5"/>
       <c r="V197" s="5"/>
-      <c r="W197" s="5"/>
-    </row>
-    <row r="198" spans="1:23">
+    </row>
+    <row r="198" spans="1:22">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -7301,9 +7093,8 @@
       <c r="T198" s="5"/>
       <c r="U198" s="5"/>
       <c r="V198" s="5"/>
-      <c r="W198" s="5"/>
-    </row>
-    <row r="199" spans="1:23">
+    </row>
+    <row r="199" spans="1:22">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -7326,9 +7117,8 @@
       <c r="T199" s="5"/>
       <c r="U199" s="5"/>
       <c r="V199" s="5"/>
-      <c r="W199" s="5"/>
-    </row>
-    <row r="200" spans="1:23">
+    </row>
+    <row r="200" spans="1:22">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -7351,9 +7141,8 @@
       <c r="T200" s="5"/>
       <c r="U200" s="5"/>
       <c r="V200" s="5"/>
-      <c r="W200" s="5"/>
-    </row>
-    <row r="201" spans="1:23">
+    </row>
+    <row r="201" spans="1:22">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -7376,9 +7165,8 @@
       <c r="T201" s="5"/>
       <c r="U201" s="5"/>
       <c r="V201" s="5"/>
-      <c r="W201" s="5"/>
-    </row>
-    <row r="202" spans="1:23">
+    </row>
+    <row r="202" spans="1:22">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -7401,9 +7189,8 @@
       <c r="T202" s="5"/>
       <c r="U202" s="5"/>
       <c r="V202" s="5"/>
-      <c r="W202" s="5"/>
-    </row>
-    <row r="203" spans="1:23">
+    </row>
+    <row r="203" spans="1:22">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -7426,9 +7213,8 @@
       <c r="T203" s="5"/>
       <c r="U203" s="5"/>
       <c r="V203" s="5"/>
-      <c r="W203" s="5"/>
-    </row>
-    <row r="204" spans="1:23">
+    </row>
+    <row r="204" spans="1:22">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -7451,9 +7237,8 @@
       <c r="T204" s="5"/>
       <c r="U204" s="5"/>
       <c r="V204" s="5"/>
-      <c r="W204" s="5"/>
-    </row>
-    <row r="205" spans="1:23">
+    </row>
+    <row r="205" spans="1:22">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -7476,9 +7261,8 @@
       <c r="T205" s="5"/>
       <c r="U205" s="5"/>
       <c r="V205" s="5"/>
-      <c r="W205" s="5"/>
-    </row>
-    <row r="206" spans="1:23">
+    </row>
+    <row r="206" spans="1:22">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -7501,9 +7285,8 @@
       <c r="T206" s="5"/>
       <c r="U206" s="5"/>
       <c r="V206" s="5"/>
-      <c r="W206" s="5"/>
-    </row>
-    <row r="207" spans="1:23">
+    </row>
+    <row r="207" spans="1:22">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -7526,9 +7309,8 @@
       <c r="T207" s="5"/>
       <c r="U207" s="5"/>
       <c r="V207" s="5"/>
-      <c r="W207" s="5"/>
-    </row>
-    <row r="208" spans="1:23">
+    </row>
+    <row r="208" spans="1:22">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -7551,9 +7333,8 @@
       <c r="T208" s="5"/>
       <c r="U208" s="5"/>
       <c r="V208" s="5"/>
-      <c r="W208" s="5"/>
-    </row>
-    <row r="209" spans="1:23">
+    </row>
+    <row r="209" spans="1:22">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -7576,9 +7357,8 @@
       <c r="T209" s="5"/>
       <c r="U209" s="5"/>
       <c r="V209" s="5"/>
-      <c r="W209" s="5"/>
-    </row>
-    <row r="210" spans="1:23">
+    </row>
+    <row r="210" spans="1:22">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -7601,9 +7381,8 @@
       <c r="T210" s="5"/>
       <c r="U210" s="5"/>
       <c r="V210" s="5"/>
-      <c r="W210" s="5"/>
-    </row>
-    <row r="211" spans="1:23">
+    </row>
+    <row r="211" spans="1:22">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -7626,9 +7405,8 @@
       <c r="T211" s="5"/>
       <c r="U211" s="5"/>
       <c r="V211" s="5"/>
-      <c r="W211" s="5"/>
-    </row>
-    <row r="212" spans="1:23">
+    </row>
+    <row r="212" spans="1:22">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -7651,9 +7429,8 @@
       <c r="T212" s="5"/>
       <c r="U212" s="5"/>
       <c r="V212" s="5"/>
-      <c r="W212" s="5"/>
-    </row>
-    <row r="213" spans="1:23">
+    </row>
+    <row r="213" spans="1:22">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -7676,9 +7453,8 @@
       <c r="T213" s="5"/>
       <c r="U213" s="5"/>
       <c r="V213" s="5"/>
-      <c r="W213" s="5"/>
-    </row>
-    <row r="214" spans="1:23">
+    </row>
+    <row r="214" spans="1:22">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -7701,9 +7477,8 @@
       <c r="T214" s="5"/>
       <c r="U214" s="5"/>
       <c r="V214" s="5"/>
-      <c r="W214" s="5"/>
-    </row>
-    <row r="215" spans="1:23">
+    </row>
+    <row r="215" spans="1:22">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -7726,9 +7501,8 @@
       <c r="T215" s="5"/>
       <c r="U215" s="5"/>
       <c r="V215" s="5"/>
-      <c r="W215" s="5"/>
-    </row>
-    <row r="216" spans="1:23">
+    </row>
+    <row r="216" spans="1:22">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -7751,9 +7525,8 @@
       <c r="T216" s="5"/>
       <c r="U216" s="5"/>
       <c r="V216" s="5"/>
-      <c r="W216" s="5"/>
-    </row>
-    <row r="217" spans="1:23">
+    </row>
+    <row r="217" spans="1:22">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -7776,9 +7549,8 @@
       <c r="T217" s="5"/>
       <c r="U217" s="5"/>
       <c r="V217" s="5"/>
-      <c r="W217" s="5"/>
-    </row>
-    <row r="218" spans="1:23">
+    </row>
+    <row r="218" spans="1:22">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -7801,9 +7573,8 @@
       <c r="T218" s="5"/>
       <c r="U218" s="5"/>
       <c r="V218" s="5"/>
-      <c r="W218" s="5"/>
-    </row>
-    <row r="219" spans="1:23">
+    </row>
+    <row r="219" spans="1:22">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -7826,9 +7597,8 @@
       <c r="T219" s="5"/>
       <c r="U219" s="5"/>
       <c r="V219" s="5"/>
-      <c r="W219" s="5"/>
-    </row>
-    <row r="220" spans="1:23">
+    </row>
+    <row r="220" spans="1:22">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -7851,9 +7621,8 @@
       <c r="T220" s="5"/>
       <c r="U220" s="5"/>
       <c r="V220" s="5"/>
-      <c r="W220" s="5"/>
-    </row>
-    <row r="221" spans="1:23">
+    </row>
+    <row r="221" spans="1:22">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -7876,9 +7645,8 @@
       <c r="T221" s="5"/>
       <c r="U221" s="5"/>
       <c r="V221" s="5"/>
-      <c r="W221" s="5"/>
-    </row>
-    <row r="222" spans="1:23">
+    </row>
+    <row r="222" spans="1:22">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -7901,9 +7669,8 @@
       <c r="T222" s="5"/>
       <c r="U222" s="5"/>
       <c r="V222" s="5"/>
-      <c r="W222" s="5"/>
-    </row>
-    <row r="223" spans="1:23">
+    </row>
+    <row r="223" spans="1:22">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -7926,9 +7693,8 @@
       <c r="T223" s="5"/>
       <c r="U223" s="5"/>
       <c r="V223" s="5"/>
-      <c r="W223" s="5"/>
-    </row>
-    <row r="224" spans="1:23">
+    </row>
+    <row r="224" spans="1:22">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -7951,9 +7717,8 @@
       <c r="T224" s="5"/>
       <c r="U224" s="5"/>
       <c r="V224" s="5"/>
-      <c r="W224" s="5"/>
-    </row>
-    <row r="225" spans="1:23">
+    </row>
+    <row r="225" spans="1:22">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -7976,9 +7741,8 @@
       <c r="T225" s="5"/>
       <c r="U225" s="5"/>
       <c r="V225" s="5"/>
-      <c r="W225" s="5"/>
-    </row>
-    <row r="226" spans="1:23">
+    </row>
+    <row r="226" spans="1:22">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -8001,9 +7765,8 @@
       <c r="T226" s="5"/>
       <c r="U226" s="5"/>
       <c r="V226" s="5"/>
-      <c r="W226" s="5"/>
-    </row>
-    <row r="227" spans="1:23">
+    </row>
+    <row r="227" spans="1:22">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -8026,9 +7789,8 @@
       <c r="T227" s="5"/>
       <c r="U227" s="5"/>
       <c r="V227" s="5"/>
-      <c r="W227" s="5"/>
-    </row>
-    <row r="228" spans="1:23">
+    </row>
+    <row r="228" spans="1:22">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -8051,9 +7813,8 @@
       <c r="T228" s="5"/>
       <c r="U228" s="5"/>
       <c r="V228" s="5"/>
-      <c r="W228" s="5"/>
-    </row>
-    <row r="229" spans="1:23">
+    </row>
+    <row r="229" spans="1:22">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -8076,9 +7837,8 @@
       <c r="T229" s="5"/>
       <c r="U229" s="5"/>
       <c r="V229" s="5"/>
-      <c r="W229" s="5"/>
-    </row>
-    <row r="230" spans="1:23">
+    </row>
+    <row r="230" spans="1:22">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -8101,9 +7861,8 @@
       <c r="T230" s="5"/>
       <c r="U230" s="5"/>
       <c r="V230" s="5"/>
-      <c r="W230" s="5"/>
-    </row>
-    <row r="231" spans="1:23">
+    </row>
+    <row r="231" spans="1:22">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -8126,9 +7885,8 @@
       <c r="T231" s="5"/>
       <c r="U231" s="5"/>
       <c r="V231" s="5"/>
-      <c r="W231" s="5"/>
-    </row>
-    <row r="232" spans="1:23">
+    </row>
+    <row r="232" spans="1:22">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -8151,9 +7909,8 @@
       <c r="T232" s="5"/>
       <c r="U232" s="5"/>
       <c r="V232" s="5"/>
-      <c r="W232" s="5"/>
-    </row>
-    <row r="233" spans="1:23">
+    </row>
+    <row r="233" spans="1:22">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -8176,9 +7933,8 @@
       <c r="T233" s="5"/>
       <c r="U233" s="5"/>
       <c r="V233" s="5"/>
-      <c r="W233" s="5"/>
-    </row>
-    <row r="234" spans="1:23">
+    </row>
+    <row r="234" spans="1:22">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -8201,9 +7957,8 @@
       <c r="T234" s="5"/>
       <c r="U234" s="5"/>
       <c r="V234" s="5"/>
-      <c r="W234" s="5"/>
-    </row>
-    <row r="235" spans="1:23">
+    </row>
+    <row r="235" spans="1:22">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -8226,9 +7981,8 @@
       <c r="T235" s="5"/>
       <c r="U235" s="5"/>
       <c r="V235" s="5"/>
-      <c r="W235" s="5"/>
-    </row>
-    <row r="236" spans="1:23">
+    </row>
+    <row r="236" spans="1:22">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -8251,9 +8005,8 @@
       <c r="T236" s="5"/>
       <c r="U236" s="5"/>
       <c r="V236" s="5"/>
-      <c r="W236" s="5"/>
-    </row>
-    <row r="237" spans="1:23">
+    </row>
+    <row r="237" spans="1:22">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -8276,9 +8029,8 @@
       <c r="T237" s="5"/>
       <c r="U237" s="5"/>
       <c r="V237" s="5"/>
-      <c r="W237" s="5"/>
-    </row>
-    <row r="238" spans="1:23">
+    </row>
+    <row r="238" spans="1:22">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -8301,9 +8053,8 @@
       <c r="T238" s="5"/>
       <c r="U238" s="5"/>
       <c r="V238" s="5"/>
-      <c r="W238" s="5"/>
-    </row>
-    <row r="239" spans="1:23">
+    </row>
+    <row r="239" spans="1:22">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -8326,9 +8077,8 @@
       <c r="T239" s="5"/>
       <c r="U239" s="5"/>
       <c r="V239" s="5"/>
-      <c r="W239" s="5"/>
-    </row>
-    <row r="240" spans="1:23">
+    </row>
+    <row r="240" spans="1:22">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -8351,9 +8101,8 @@
       <c r="T240" s="5"/>
       <c r="U240" s="5"/>
       <c r="V240" s="5"/>
-      <c r="W240" s="5"/>
-    </row>
-    <row r="241" spans="1:23">
+    </row>
+    <row r="241" spans="1:22">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -8376,9 +8125,8 @@
       <c r="T241" s="5"/>
       <c r="U241" s="5"/>
       <c r="V241" s="5"/>
-      <c r="W241" s="5"/>
-    </row>
-    <row r="242" spans="1:23">
+    </row>
+    <row r="242" spans="1:22">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -8401,9 +8149,8 @@
       <c r="T242" s="5"/>
       <c r="U242" s="5"/>
       <c r="V242" s="5"/>
-      <c r="W242" s="5"/>
-    </row>
-    <row r="243" spans="1:23">
+    </row>
+    <row r="243" spans="1:22">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -8426,9 +8173,8 @@
       <c r="T243" s="5"/>
       <c r="U243" s="5"/>
       <c r="V243" s="5"/>
-      <c r="W243" s="5"/>
-    </row>
-    <row r="244" spans="1:23">
+    </row>
+    <row r="244" spans="1:22">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -8451,9 +8197,8 @@
       <c r="T244" s="5"/>
       <c r="U244" s="5"/>
       <c r="V244" s="5"/>
-      <c r="W244" s="5"/>
-    </row>
-    <row r="245" spans="1:23">
+    </row>
+    <row r="245" spans="1:22">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -8476,9 +8221,8 @@
       <c r="T245" s="5"/>
       <c r="U245" s="5"/>
       <c r="V245" s="5"/>
-      <c r="W245" s="5"/>
-    </row>
-    <row r="246" spans="1:23">
+    </row>
+    <row r="246" spans="1:22">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -8501,9 +8245,8 @@
       <c r="T246" s="5"/>
       <c r="U246" s="5"/>
       <c r="V246" s="5"/>
-      <c r="W246" s="5"/>
-    </row>
-    <row r="247" spans="1:23">
+    </row>
+    <row r="247" spans="1:22">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -8526,9 +8269,8 @@
       <c r="T247" s="5"/>
       <c r="U247" s="5"/>
       <c r="V247" s="5"/>
-      <c r="W247" s="5"/>
-    </row>
-    <row r="248" spans="1:23">
+    </row>
+    <row r="248" spans="1:22">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -8551,9 +8293,8 @@
       <c r="T248" s="5"/>
       <c r="U248" s="5"/>
       <c r="V248" s="5"/>
-      <c r="W248" s="5"/>
-    </row>
-    <row r="249" spans="1:23">
+    </row>
+    <row r="249" spans="1:22">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -8576,9 +8317,8 @@
       <c r="T249" s="5"/>
       <c r="U249" s="5"/>
       <c r="V249" s="5"/>
-      <c r="W249" s="5"/>
-    </row>
-    <row r="250" spans="1:23">
+    </row>
+    <row r="250" spans="1:22">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -8601,9 +8341,8 @@
       <c r="T250" s="5"/>
       <c r="U250" s="5"/>
       <c r="V250" s="5"/>
-      <c r="W250" s="5"/>
-    </row>
-    <row r="251" spans="1:23">
+    </row>
+    <row r="251" spans="1:22">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -8626,9 +8365,8 @@
       <c r="T251" s="5"/>
       <c r="U251" s="5"/>
       <c r="V251" s="5"/>
-      <c r="W251" s="5"/>
-    </row>
-    <row r="252" spans="1:23">
+    </row>
+    <row r="252" spans="1:22">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -8651,9 +8389,8 @@
       <c r="T252" s="5"/>
       <c r="U252" s="5"/>
       <c r="V252" s="5"/>
-      <c r="W252" s="5"/>
-    </row>
-    <row r="253" spans="1:23">
+    </row>
+    <row r="253" spans="1:22">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -8676,9 +8413,8 @@
       <c r="T253" s="5"/>
       <c r="U253" s="5"/>
       <c r="V253" s="5"/>
-      <c r="W253" s="5"/>
-    </row>
-    <row r="254" spans="1:23">
+    </row>
+    <row r="254" spans="1:22">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -8701,9 +8437,8 @@
       <c r="T254" s="5"/>
       <c r="U254" s="5"/>
       <c r="V254" s="5"/>
-      <c r="W254" s="5"/>
-    </row>
-    <row r="255" spans="1:23">
+    </row>
+    <row r="255" spans="1:22">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -8726,9 +8461,8 @@
       <c r="T255" s="5"/>
       <c r="U255" s="5"/>
       <c r="V255" s="5"/>
-      <c r="W255" s="5"/>
-    </row>
-    <row r="256" spans="1:23">
+    </row>
+    <row r="256" spans="1:22">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -8751,9 +8485,8 @@
       <c r="T256" s="5"/>
       <c r="U256" s="5"/>
       <c r="V256" s="5"/>
-      <c r="W256" s="5"/>
-    </row>
-    <row r="257" spans="1:23">
+    </row>
+    <row r="257" spans="1:22">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -8776,9 +8509,8 @@
       <c r="T257" s="5"/>
       <c r="U257" s="5"/>
       <c r="V257" s="5"/>
-      <c r="W257" s="5"/>
-    </row>
-    <row r="258" spans="1:23">
+    </row>
+    <row r="258" spans="1:22">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -8801,9 +8533,8 @@
       <c r="T258" s="5"/>
       <c r="U258" s="5"/>
       <c r="V258" s="5"/>
-      <c r="W258" s="5"/>
-    </row>
-    <row r="259" spans="1:23">
+    </row>
+    <row r="259" spans="1:22">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -8826,9 +8557,8 @@
       <c r="T259" s="5"/>
       <c r="U259" s="5"/>
       <c r="V259" s="5"/>
-      <c r="W259" s="5"/>
-    </row>
-    <row r="260" spans="1:23">
+    </row>
+    <row r="260" spans="1:22">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -8851,9 +8581,8 @@
       <c r="T260" s="5"/>
       <c r="U260" s="5"/>
       <c r="V260" s="5"/>
-      <c r="W260" s="5"/>
-    </row>
-    <row r="261" spans="1:23">
+    </row>
+    <row r="261" spans="1:22">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -8876,9 +8605,8 @@
       <c r="T261" s="5"/>
       <c r="U261" s="5"/>
       <c r="V261" s="5"/>
-      <c r="W261" s="5"/>
-    </row>
-    <row r="262" spans="1:23">
+    </row>
+    <row r="262" spans="1:22">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -8901,9 +8629,8 @@
       <c r="T262" s="5"/>
       <c r="U262" s="5"/>
       <c r="V262" s="5"/>
-      <c r="W262" s="5"/>
-    </row>
-    <row r="263" spans="1:23">
+    </row>
+    <row r="263" spans="1:22">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -8926,9 +8653,8 @@
       <c r="T263" s="5"/>
       <c r="U263" s="5"/>
       <c r="V263" s="5"/>
-      <c r="W263" s="5"/>
-    </row>
-    <row r="264" spans="1:23">
+    </row>
+    <row r="264" spans="1:22">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -8951,9 +8677,8 @@
       <c r="T264" s="5"/>
       <c r="U264" s="5"/>
       <c r="V264" s="5"/>
-      <c r="W264" s="5"/>
-    </row>
-    <row r="265" spans="1:23">
+    </row>
+    <row r="265" spans="1:22">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -8976,9 +8701,8 @@
       <c r="T265" s="5"/>
       <c r="U265" s="5"/>
       <c r="V265" s="5"/>
-      <c r="W265" s="5"/>
-    </row>
-    <row r="266" spans="1:23">
+    </row>
+    <row r="266" spans="1:22">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -9001,9 +8725,8 @@
       <c r="T266" s="5"/>
       <c r="U266" s="5"/>
       <c r="V266" s="5"/>
-      <c r="W266" s="5"/>
-    </row>
-    <row r="267" spans="1:23">
+    </row>
+    <row r="267" spans="1:22">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -9026,9 +8749,8 @@
       <c r="T267" s="5"/>
       <c r="U267" s="5"/>
       <c r="V267" s="5"/>
-      <c r="W267" s="5"/>
-    </row>
-    <row r="268" spans="1:23">
+    </row>
+    <row r="268" spans="1:22">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -9051,9 +8773,8 @@
       <c r="T268" s="5"/>
       <c r="U268" s="5"/>
       <c r="V268" s="5"/>
-      <c r="W268" s="5"/>
-    </row>
-    <row r="269" spans="1:23">
+    </row>
+    <row r="269" spans="1:22">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -9076,9 +8797,8 @@
       <c r="T269" s="5"/>
       <c r="U269" s="5"/>
       <c r="V269" s="5"/>
-      <c r="W269" s="5"/>
-    </row>
-    <row r="270" spans="1:23">
+    </row>
+    <row r="270" spans="1:22">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -9101,9 +8821,8 @@
       <c r="T270" s="5"/>
       <c r="U270" s="5"/>
       <c r="V270" s="5"/>
-      <c r="W270" s="5"/>
-    </row>
-    <row r="271" spans="1:23">
+    </row>
+    <row r="271" spans="1:22">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -9126,9 +8845,8 @@
       <c r="T271" s="5"/>
       <c r="U271" s="5"/>
       <c r="V271" s="5"/>
-      <c r="W271" s="5"/>
-    </row>
-    <row r="272" spans="1:23">
+    </row>
+    <row r="272" spans="1:22">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -9151,9 +8869,8 @@
       <c r="T272" s="5"/>
       <c r="U272" s="5"/>
       <c r="V272" s="5"/>
-      <c r="W272" s="5"/>
-    </row>
-    <row r="273" spans="1:23">
+    </row>
+    <row r="273" spans="1:22">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -9176,9 +8893,8 @@
       <c r="T273" s="5"/>
       <c r="U273" s="5"/>
       <c r="V273" s="5"/>
-      <c r="W273" s="5"/>
-    </row>
-    <row r="274" spans="1:23">
+    </row>
+    <row r="274" spans="1:22">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -9201,9 +8917,8 @@
       <c r="T274" s="5"/>
       <c r="U274" s="5"/>
       <c r="V274" s="5"/>
-      <c r="W274" s="5"/>
-    </row>
-    <row r="275" spans="1:23">
+    </row>
+    <row r="275" spans="1:22">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -9226,9 +8941,8 @@
       <c r="T275" s="5"/>
       <c r="U275" s="5"/>
       <c r="V275" s="5"/>
-      <c r="W275" s="5"/>
-    </row>
-    <row r="276" spans="1:23">
+    </row>
+    <row r="276" spans="1:22">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -9251,9 +8965,8 @@
       <c r="T276" s="5"/>
       <c r="U276" s="5"/>
       <c r="V276" s="5"/>
-      <c r="W276" s="5"/>
-    </row>
-    <row r="277" spans="1:23">
+    </row>
+    <row r="277" spans="1:22">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -9276,9 +8989,8 @@
       <c r="T277" s="5"/>
       <c r="U277" s="5"/>
       <c r="V277" s="5"/>
-      <c r="W277" s="5"/>
-    </row>
-    <row r="278" spans="1:23">
+    </row>
+    <row r="278" spans="1:22">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -9301,9 +9013,8 @@
       <c r="T278" s="5"/>
       <c r="U278" s="5"/>
       <c r="V278" s="5"/>
-      <c r="W278" s="5"/>
-    </row>
-    <row r="279" spans="1:23">
+    </row>
+    <row r="279" spans="1:22">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -9326,9 +9037,8 @@
       <c r="T279" s="5"/>
       <c r="U279" s="5"/>
       <c r="V279" s="5"/>
-      <c r="W279" s="5"/>
-    </row>
-    <row r="280" spans="1:23">
+    </row>
+    <row r="280" spans="1:22">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -9351,9 +9061,8 @@
       <c r="T280" s="5"/>
       <c r="U280" s="5"/>
       <c r="V280" s="5"/>
-      <c r="W280" s="5"/>
-    </row>
-    <row r="281" spans="1:23">
+    </row>
+    <row r="281" spans="1:22">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -9376,9 +9085,8 @@
       <c r="T281" s="5"/>
       <c r="U281" s="5"/>
       <c r="V281" s="5"/>
-      <c r="W281" s="5"/>
-    </row>
-    <row r="282" spans="1:23">
+    </row>
+    <row r="282" spans="1:22">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -9401,9 +9109,8 @@
       <c r="T282" s="5"/>
       <c r="U282" s="5"/>
       <c r="V282" s="5"/>
-      <c r="W282" s="5"/>
-    </row>
-    <row r="283" spans="1:23">
+    </row>
+    <row r="283" spans="1:22">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -9426,9 +9133,8 @@
       <c r="T283" s="5"/>
       <c r="U283" s="5"/>
       <c r="V283" s="5"/>
-      <c r="W283" s="5"/>
-    </row>
-    <row r="284" spans="1:23">
+    </row>
+    <row r="284" spans="1:22">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -9451,9 +9157,8 @@
       <c r="T284" s="5"/>
       <c r="U284" s="5"/>
       <c r="V284" s="5"/>
-      <c r="W284" s="5"/>
-    </row>
-    <row r="285" spans="1:23">
+    </row>
+    <row r="285" spans="1:22">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -9476,9 +9181,8 @@
       <c r="T285" s="5"/>
       <c r="U285" s="5"/>
       <c r="V285" s="5"/>
-      <c r="W285" s="5"/>
-    </row>
-    <row r="286" spans="1:23">
+    </row>
+    <row r="286" spans="1:22">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -9501,9 +9205,8 @@
       <c r="T286" s="5"/>
       <c r="U286" s="5"/>
       <c r="V286" s="5"/>
-      <c r="W286" s="5"/>
-    </row>
-    <row r="287" spans="1:23">
+    </row>
+    <row r="287" spans="1:22">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -9526,9 +9229,8 @@
       <c r="T287" s="5"/>
       <c r="U287" s="5"/>
       <c r="V287" s="5"/>
-      <c r="W287" s="5"/>
-    </row>
-    <row r="288" spans="1:23">
+    </row>
+    <row r="288" spans="1:22">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -9551,9 +9253,8 @@
       <c r="T288" s="5"/>
       <c r="U288" s="5"/>
       <c r="V288" s="5"/>
-      <c r="W288" s="5"/>
-    </row>
-    <row r="289" spans="1:23">
+    </row>
+    <row r="289" spans="1:22">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -9576,9 +9277,8 @@
       <c r="T289" s="5"/>
       <c r="U289" s="5"/>
       <c r="V289" s="5"/>
-      <c r="W289" s="5"/>
-    </row>
-    <row r="290" spans="1:23">
+    </row>
+    <row r="290" spans="1:22">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -9601,9 +9301,8 @@
       <c r="T290" s="5"/>
       <c r="U290" s="5"/>
       <c r="V290" s="5"/>
-      <c r="W290" s="5"/>
-    </row>
-    <row r="291" spans="1:23">
+    </row>
+    <row r="291" spans="1:22">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -9626,9 +9325,8 @@
       <c r="T291" s="5"/>
       <c r="U291" s="5"/>
       <c r="V291" s="5"/>
-      <c r="W291" s="5"/>
-    </row>
-    <row r="292" spans="1:23">
+    </row>
+    <row r="292" spans="1:22">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -9651,9 +9349,8 @@
       <c r="T292" s="5"/>
       <c r="U292" s="5"/>
       <c r="V292" s="5"/>
-      <c r="W292" s="5"/>
-    </row>
-    <row r="293" spans="1:23">
+    </row>
+    <row r="293" spans="1:22">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -9676,9 +9373,8 @@
       <c r="T293" s="5"/>
       <c r="U293" s="5"/>
       <c r="V293" s="5"/>
-      <c r="W293" s="5"/>
-    </row>
-    <row r="294" spans="1:23">
+    </row>
+    <row r="294" spans="1:22">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -9701,9 +9397,8 @@
       <c r="T294" s="5"/>
       <c r="U294" s="5"/>
       <c r="V294" s="5"/>
-      <c r="W294" s="5"/>
-    </row>
-    <row r="295" spans="1:23">
+    </row>
+    <row r="295" spans="1:22">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -9726,9 +9421,8 @@
       <c r="T295" s="5"/>
       <c r="U295" s="5"/>
       <c r="V295" s="5"/>
-      <c r="W295" s="5"/>
-    </row>
-    <row r="296" spans="1:23">
+    </row>
+    <row r="296" spans="1:22">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -9751,9 +9445,8 @@
       <c r="T296" s="5"/>
       <c r="U296" s="5"/>
       <c r="V296" s="5"/>
-      <c r="W296" s="5"/>
-    </row>
-    <row r="297" spans="1:23">
+    </row>
+    <row r="297" spans="1:22">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -9776,9 +9469,8 @@
       <c r="T297" s="5"/>
       <c r="U297" s="5"/>
       <c r="V297" s="5"/>
-      <c r="W297" s="5"/>
-    </row>
-    <row r="298" spans="1:23">
+    </row>
+    <row r="298" spans="1:22">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -9801,9 +9493,8 @@
       <c r="T298" s="5"/>
       <c r="U298" s="5"/>
       <c r="V298" s="5"/>
-      <c r="W298" s="5"/>
-    </row>
-    <row r="299" spans="1:23">
+    </row>
+    <row r="299" spans="1:22">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -9826,9 +9517,8 @@
       <c r="T299" s="5"/>
       <c r="U299" s="5"/>
       <c r="V299" s="5"/>
-      <c r="W299" s="5"/>
-    </row>
-    <row r="300" spans="1:23">
+    </row>
+    <row r="300" spans="1:22">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -9851,9 +9541,8 @@
       <c r="T300" s="5"/>
       <c r="U300" s="5"/>
       <c r="V300" s="5"/>
-      <c r="W300" s="5"/>
-    </row>
-    <row r="301" spans="1:23">
+    </row>
+    <row r="301" spans="1:22">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -9876,9 +9565,8 @@
       <c r="T301" s="5"/>
       <c r="U301" s="5"/>
       <c r="V301" s="5"/>
-      <c r="W301" s="5"/>
-    </row>
-    <row r="302" spans="1:23">
+    </row>
+    <row r="302" spans="1:22">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -9901,9 +9589,8 @@
       <c r="T302" s="5"/>
       <c r="U302" s="5"/>
       <c r="V302" s="5"/>
-      <c r="W302" s="5"/>
-    </row>
-    <row r="303" spans="1:23">
+    </row>
+    <row r="303" spans="1:22">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -9926,9 +9613,8 @@
       <c r="T303" s="5"/>
       <c r="U303" s="5"/>
       <c r="V303" s="5"/>
-      <c r="W303" s="5"/>
-    </row>
-    <row r="304" spans="1:23">
+    </row>
+    <row r="304" spans="1:22">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -9951,9 +9637,8 @@
       <c r="T304" s="5"/>
       <c r="U304" s="5"/>
       <c r="V304" s="5"/>
-      <c r="W304" s="5"/>
-    </row>
-    <row r="305" spans="1:23">
+    </row>
+    <row r="305" spans="1:22">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -9976,9 +9661,8 @@
       <c r="T305" s="5"/>
       <c r="U305" s="5"/>
       <c r="V305" s="5"/>
-      <c r="W305" s="5"/>
-    </row>
-    <row r="306" spans="1:23">
+    </row>
+    <row r="306" spans="1:22">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -10001,9 +9685,8 @@
       <c r="T306" s="5"/>
       <c r="U306" s="5"/>
       <c r="V306" s="5"/>
-      <c r="W306" s="5"/>
-    </row>
-    <row r="307" spans="1:23">
+    </row>
+    <row r="307" spans="1:22">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -10026,9 +9709,8 @@
       <c r="T307" s="5"/>
       <c r="U307" s="5"/>
       <c r="V307" s="5"/>
-      <c r="W307" s="5"/>
-    </row>
-    <row r="308" spans="1:23">
+    </row>
+    <row r="308" spans="1:22">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -10051,9 +9733,8 @@
       <c r="T308" s="5"/>
       <c r="U308" s="5"/>
       <c r="V308" s="5"/>
-      <c r="W308" s="5"/>
-    </row>
-    <row r="309" spans="1:23">
+    </row>
+    <row r="309" spans="1:22">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -10076,9 +9757,8 @@
       <c r="T309" s="5"/>
       <c r="U309" s="5"/>
       <c r="V309" s="5"/>
-      <c r="W309" s="5"/>
-    </row>
-    <row r="310" spans="1:23">
+    </row>
+    <row r="310" spans="1:22">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -10101,9 +9781,8 @@
       <c r="T310" s="5"/>
       <c r="U310" s="5"/>
       <c r="V310" s="5"/>
-      <c r="W310" s="5"/>
-    </row>
-    <row r="311" spans="1:23">
+    </row>
+    <row r="311" spans="1:22">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -10126,9 +9805,8 @@
       <c r="T311" s="5"/>
       <c r="U311" s="5"/>
       <c r="V311" s="5"/>
-      <c r="W311" s="5"/>
-    </row>
-    <row r="312" spans="1:23">
+    </row>
+    <row r="312" spans="1:22">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -10151,9 +9829,8 @@
       <c r="T312" s="5"/>
       <c r="U312" s="5"/>
       <c r="V312" s="5"/>
-      <c r="W312" s="5"/>
-    </row>
-    <row r="313" spans="1:23">
+    </row>
+    <row r="313" spans="1:22">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -10176,9 +9853,8 @@
       <c r="T313" s="5"/>
       <c r="U313" s="5"/>
       <c r="V313" s="5"/>
-      <c r="W313" s="5"/>
-    </row>
-    <row r="314" spans="1:23">
+    </row>
+    <row r="314" spans="1:22">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -10201,9 +9877,8 @@
       <c r="T314" s="5"/>
       <c r="U314" s="5"/>
       <c r="V314" s="5"/>
-      <c r="W314" s="5"/>
-    </row>
-    <row r="315" spans="1:23">
+    </row>
+    <row r="315" spans="1:22">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -10226,9 +9901,8 @@
       <c r="T315" s="5"/>
       <c r="U315" s="5"/>
       <c r="V315" s="5"/>
-      <c r="W315" s="5"/>
-    </row>
-    <row r="316" spans="1:23">
+    </row>
+    <row r="316" spans="1:22">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -10251,9 +9925,8 @@
       <c r="T316" s="5"/>
       <c r="U316" s="5"/>
       <c r="V316" s="5"/>
-      <c r="W316" s="5"/>
-    </row>
-    <row r="317" spans="1:23">
+    </row>
+    <row r="317" spans="1:22">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -10276,9 +9949,8 @@
       <c r="T317" s="5"/>
       <c r="U317" s="5"/>
       <c r="V317" s="5"/>
-      <c r="W317" s="5"/>
-    </row>
-    <row r="318" spans="1:23">
+    </row>
+    <row r="318" spans="1:22">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -10301,9 +9973,8 @@
       <c r="T318" s="5"/>
       <c r="U318" s="5"/>
       <c r="V318" s="5"/>
-      <c r="W318" s="5"/>
-    </row>
-    <row r="319" spans="1:23">
+    </row>
+    <row r="319" spans="1:22">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -10326,9 +9997,8 @@
       <c r="T319" s="5"/>
       <c r="U319" s="5"/>
       <c r="V319" s="5"/>
-      <c r="W319" s="5"/>
-    </row>
-    <row r="320" spans="1:23">
+    </row>
+    <row r="320" spans="1:22">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -10351,9 +10021,8 @@
       <c r="T320" s="5"/>
       <c r="U320" s="5"/>
       <c r="V320" s="5"/>
-      <c r="W320" s="5"/>
-    </row>
-    <row r="321" spans="1:23">
+    </row>
+    <row r="321" spans="1:22">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -10376,9 +10045,8 @@
       <c r="T321" s="5"/>
       <c r="U321" s="5"/>
       <c r="V321" s="5"/>
-      <c r="W321" s="5"/>
-    </row>
-    <row r="322" spans="1:23">
+    </row>
+    <row r="322" spans="1:22">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -10401,9 +10069,8 @@
       <c r="T322" s="5"/>
       <c r="U322" s="5"/>
       <c r="V322" s="5"/>
-      <c r="W322" s="5"/>
-    </row>
-    <row r="323" spans="1:23">
+    </row>
+    <row r="323" spans="1:22">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -10426,9 +10093,8 @@
       <c r="T323" s="5"/>
       <c r="U323" s="5"/>
       <c r="V323" s="5"/>
-      <c r="W323" s="5"/>
-    </row>
-    <row r="324" spans="1:23">
+    </row>
+    <row r="324" spans="1:22">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -10451,9 +10117,8 @@
       <c r="T324" s="5"/>
       <c r="U324" s="5"/>
       <c r="V324" s="5"/>
-      <c r="W324" s="5"/>
-    </row>
-    <row r="325" spans="1:23">
+    </row>
+    <row r="325" spans="1:22">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -10476,9 +10141,8 @@
       <c r="T325" s="5"/>
       <c r="U325" s="5"/>
       <c r="V325" s="5"/>
-      <c r="W325" s="5"/>
-    </row>
-    <row r="326" spans="1:23">
+    </row>
+    <row r="326" spans="1:22">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -10501,9 +10165,8 @@
       <c r="T326" s="5"/>
       <c r="U326" s="5"/>
       <c r="V326" s="5"/>
-      <c r="W326" s="5"/>
-    </row>
-    <row r="327" spans="1:23">
+    </row>
+    <row r="327" spans="1:22">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -10526,9 +10189,8 @@
       <c r="T327" s="5"/>
       <c r="U327" s="5"/>
       <c r="V327" s="5"/>
-      <c r="W327" s="5"/>
-    </row>
-    <row r="328" spans="1:23">
+    </row>
+    <row r="328" spans="1:22">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -10551,9 +10213,8 @@
       <c r="T328" s="5"/>
       <c r="U328" s="5"/>
       <c r="V328" s="5"/>
-      <c r="W328" s="5"/>
-    </row>
-    <row r="329" spans="1:23">
+    </row>
+    <row r="329" spans="1:22">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -10576,9 +10237,8 @@
       <c r="T329" s="5"/>
       <c r="U329" s="5"/>
       <c r="V329" s="5"/>
-      <c r="W329" s="5"/>
-    </row>
-    <row r="330" spans="1:23">
+    </row>
+    <row r="330" spans="1:22">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -10601,9 +10261,8 @@
       <c r="T330" s="5"/>
       <c r="U330" s="5"/>
       <c r="V330" s="5"/>
-      <c r="W330" s="5"/>
-    </row>
-    <row r="331" spans="1:23">
+    </row>
+    <row r="331" spans="1:22">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -10626,9 +10285,8 @@
       <c r="T331" s="5"/>
       <c r="U331" s="5"/>
       <c r="V331" s="5"/>
-      <c r="W331" s="5"/>
-    </row>
-    <row r="332" spans="1:23">
+    </row>
+    <row r="332" spans="1:22">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -10651,9 +10309,8 @@
       <c r="T332" s="5"/>
       <c r="U332" s="5"/>
       <c r="V332" s="5"/>
-      <c r="W332" s="5"/>
-    </row>
-    <row r="333" spans="1:23">
+    </row>
+    <row r="333" spans="1:22">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -10676,9 +10333,8 @@
       <c r="T333" s="5"/>
       <c r="U333" s="5"/>
       <c r="V333" s="5"/>
-      <c r="W333" s="5"/>
-    </row>
-    <row r="334" spans="1:23">
+    </row>
+    <row r="334" spans="1:22">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -10701,9 +10357,8 @@
       <c r="T334" s="5"/>
       <c r="U334" s="5"/>
       <c r="V334" s="5"/>
-      <c r="W334" s="5"/>
-    </row>
-    <row r="335" spans="1:23">
+    </row>
+    <row r="335" spans="1:22">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -10726,9 +10381,8 @@
       <c r="T335" s="5"/>
       <c r="U335" s="5"/>
       <c r="V335" s="5"/>
-      <c r="W335" s="5"/>
-    </row>
-    <row r="336" spans="1:23">
+    </row>
+    <row r="336" spans="1:22">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -10751,9 +10405,8 @@
       <c r="T336" s="5"/>
       <c r="U336" s="5"/>
       <c r="V336" s="5"/>
-      <c r="W336" s="5"/>
-    </row>
-    <row r="337" spans="1:23">
+    </row>
+    <row r="337" spans="1:22">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -10776,9 +10429,8 @@
       <c r="T337" s="5"/>
       <c r="U337" s="5"/>
       <c r="V337" s="5"/>
-      <c r="W337" s="5"/>
-    </row>
-    <row r="338" spans="1:23">
+    </row>
+    <row r="338" spans="1:22">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -10801,9 +10453,8 @@
       <c r="T338" s="5"/>
       <c r="U338" s="5"/>
       <c r="V338" s="5"/>
-      <c r="W338" s="5"/>
-    </row>
-    <row r="339" spans="1:23">
+    </row>
+    <row r="339" spans="1:22">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -10826,9 +10477,8 @@
       <c r="T339" s="5"/>
       <c r="U339" s="5"/>
       <c r="V339" s="5"/>
-      <c r="W339" s="5"/>
-    </row>
-    <row r="340" spans="1:23">
+    </row>
+    <row r="340" spans="1:22">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -10851,9 +10501,8 @@
       <c r="T340" s="5"/>
       <c r="U340" s="5"/>
       <c r="V340" s="5"/>
-      <c r="W340" s="5"/>
-    </row>
-    <row r="341" spans="1:23">
+    </row>
+    <row r="341" spans="1:22">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -10876,9 +10525,8 @@
       <c r="T341" s="5"/>
       <c r="U341" s="5"/>
       <c r="V341" s="5"/>
-      <c r="W341" s="5"/>
-    </row>
-    <row r="342" spans="1:23">
+    </row>
+    <row r="342" spans="1:22">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -10901,9 +10549,8 @@
       <c r="T342" s="5"/>
       <c r="U342" s="5"/>
       <c r="V342" s="5"/>
-      <c r="W342" s="5"/>
-    </row>
-    <row r="343" spans="1:23">
+    </row>
+    <row r="343" spans="1:22">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -10926,9 +10573,8 @@
       <c r="T343" s="5"/>
       <c r="U343" s="5"/>
       <c r="V343" s="5"/>
-      <c r="W343" s="5"/>
-    </row>
-    <row r="344" spans="1:23">
+    </row>
+    <row r="344" spans="1:22">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -10951,9 +10597,8 @@
       <c r="T344" s="5"/>
       <c r="U344" s="5"/>
       <c r="V344" s="5"/>
-      <c r="W344" s="5"/>
-    </row>
-    <row r="345" spans="1:23">
+    </row>
+    <row r="345" spans="1:22">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -10976,9 +10621,8 @@
       <c r="T345" s="5"/>
       <c r="U345" s="5"/>
       <c r="V345" s="5"/>
-      <c r="W345" s="5"/>
-    </row>
-    <row r="346" spans="1:23">
+    </row>
+    <row r="346" spans="1:22">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -11001,9 +10645,8 @@
       <c r="T346" s="5"/>
       <c r="U346" s="5"/>
       <c r="V346" s="5"/>
-      <c r="W346" s="5"/>
-    </row>
-    <row r="347" spans="1:23">
+    </row>
+    <row r="347" spans="1:22">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -11026,9 +10669,8 @@
       <c r="T347" s="5"/>
       <c r="U347" s="5"/>
       <c r="V347" s="5"/>
-      <c r="W347" s="5"/>
-    </row>
-    <row r="348" spans="1:23">
+    </row>
+    <row r="348" spans="1:22">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -11051,9 +10693,8 @@
       <c r="T348" s="5"/>
       <c r="U348" s="5"/>
       <c r="V348" s="5"/>
-      <c r="W348" s="5"/>
-    </row>
-    <row r="349" spans="1:23">
+    </row>
+    <row r="349" spans="1:22">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -11076,9 +10717,8 @@
       <c r="T349" s="5"/>
       <c r="U349" s="5"/>
       <c r="V349" s="5"/>
-      <c r="W349" s="5"/>
-    </row>
-    <row r="350" spans="1:23">
+    </row>
+    <row r="350" spans="1:22">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -11101,9 +10741,8 @@
       <c r="T350" s="5"/>
       <c r="U350" s="5"/>
       <c r="V350" s="5"/>
-      <c r="W350" s="5"/>
-    </row>
-    <row r="351" spans="1:23">
+    </row>
+    <row r="351" spans="1:22">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -11126,9 +10765,8 @@
       <c r="T351" s="5"/>
       <c r="U351" s="5"/>
       <c r="V351" s="5"/>
-      <c r="W351" s="5"/>
-    </row>
-    <row r="352" spans="1:23">
+    </row>
+    <row r="352" spans="1:22">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -11151,9 +10789,8 @@
       <c r="T352" s="5"/>
       <c r="U352" s="5"/>
       <c r="V352" s="5"/>
-      <c r="W352" s="5"/>
-    </row>
-    <row r="353" spans="1:23">
+    </row>
+    <row r="353" spans="1:22">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -11176,9 +10813,8 @@
       <c r="T353" s="5"/>
       <c r="U353" s="5"/>
       <c r="V353" s="5"/>
-      <c r="W353" s="5"/>
-    </row>
-    <row r="354" spans="1:23">
+    </row>
+    <row r="354" spans="1:22">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -11201,9 +10837,8 @@
       <c r="T354" s="5"/>
       <c r="U354" s="5"/>
       <c r="V354" s="5"/>
-      <c r="W354" s="5"/>
-    </row>
-    <row r="355" spans="1:23">
+    </row>
+    <row r="355" spans="1:22">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -11226,9 +10861,8 @@
       <c r="T355" s="5"/>
       <c r="U355" s="5"/>
       <c r="V355" s="5"/>
-      <c r="W355" s="5"/>
-    </row>
-    <row r="356" spans="1:23">
+    </row>
+    <row r="356" spans="1:22">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -11251,9 +10885,8 @@
       <c r="T356" s="5"/>
       <c r="U356" s="5"/>
       <c r="V356" s="5"/>
-      <c r="W356" s="5"/>
-    </row>
-    <row r="357" spans="1:23">
+    </row>
+    <row r="357" spans="1:22">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -11276,9 +10909,8 @@
       <c r="T357" s="5"/>
       <c r="U357" s="5"/>
       <c r="V357" s="5"/>
-      <c r="W357" s="5"/>
-    </row>
-    <row r="358" spans="1:23">
+    </row>
+    <row r="358" spans="1:22">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -11301,9 +10933,8 @@
       <c r="T358" s="5"/>
       <c r="U358" s="5"/>
       <c r="V358" s="5"/>
-      <c r="W358" s="5"/>
-    </row>
-    <row r="359" spans="1:23">
+    </row>
+    <row r="359" spans="1:22">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -11326,9 +10957,8 @@
       <c r="T359" s="5"/>
       <c r="U359" s="5"/>
       <c r="V359" s="5"/>
-      <c r="W359" s="5"/>
-    </row>
-    <row r="360" spans="1:23">
+    </row>
+    <row r="360" spans="1:22">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -11351,9 +10981,8 @@
       <c r="T360" s="5"/>
       <c r="U360" s="5"/>
       <c r="V360" s="5"/>
-      <c r="W360" s="5"/>
-    </row>
-    <row r="361" spans="1:23">
+    </row>
+    <row r="361" spans="1:22">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -11376,9 +11005,8 @@
       <c r="T361" s="5"/>
       <c r="U361" s="5"/>
       <c r="V361" s="5"/>
-      <c r="W361" s="5"/>
-    </row>
-    <row r="362" spans="1:23">
+    </row>
+    <row r="362" spans="1:22">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -11401,9 +11029,8 @@
       <c r="T362" s="5"/>
       <c r="U362" s="5"/>
       <c r="V362" s="5"/>
-      <c r="W362" s="5"/>
-    </row>
-    <row r="363" spans="1:23">
+    </row>
+    <row r="363" spans="1:22">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -11426,9 +11053,8 @@
       <c r="T363" s="5"/>
       <c r="U363" s="5"/>
       <c r="V363" s="5"/>
-      <c r="W363" s="5"/>
-    </row>
-    <row r="364" spans="1:23">
+    </row>
+    <row r="364" spans="1:22">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -11451,9 +11077,8 @@
       <c r="T364" s="5"/>
       <c r="U364" s="5"/>
       <c r="V364" s="5"/>
-      <c r="W364" s="5"/>
-    </row>
-    <row r="365" spans="1:23">
+    </row>
+    <row r="365" spans="1:22">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -11476,9 +11101,8 @@
       <c r="T365" s="5"/>
       <c r="U365" s="5"/>
       <c r="V365" s="5"/>
-      <c r="W365" s="5"/>
-    </row>
-    <row r="366" spans="1:23">
+    </row>
+    <row r="366" spans="1:22">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -11501,9 +11125,8 @@
       <c r="T366" s="5"/>
       <c r="U366" s="5"/>
       <c r="V366" s="5"/>
-      <c r="W366" s="5"/>
-    </row>
-    <row r="367" spans="1:23">
+    </row>
+    <row r="367" spans="1:22">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -11526,9 +11149,8 @@
       <c r="T367" s="5"/>
       <c r="U367" s="5"/>
       <c r="V367" s="5"/>
-      <c r="W367" s="5"/>
-    </row>
-    <row r="368" spans="1:23">
+    </row>
+    <row r="368" spans="1:22">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -11551,9 +11173,8 @@
       <c r="T368" s="5"/>
       <c r="U368" s="5"/>
       <c r="V368" s="5"/>
-      <c r="W368" s="5"/>
-    </row>
-    <row r="369" spans="1:23">
+    </row>
+    <row r="369" spans="1:22">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -11576,9 +11197,8 @@
       <c r="T369" s="5"/>
       <c r="U369" s="5"/>
       <c r="V369" s="5"/>
-      <c r="W369" s="5"/>
-    </row>
-    <row r="370" spans="1:23">
+    </row>
+    <row r="370" spans="1:22">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -11601,9 +11221,8 @@
       <c r="T370" s="5"/>
       <c r="U370" s="5"/>
       <c r="V370" s="5"/>
-      <c r="W370" s="5"/>
-    </row>
-    <row r="371" spans="1:23">
+    </row>
+    <row r="371" spans="1:22">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -11626,9 +11245,8 @@
       <c r="T371" s="5"/>
       <c r="U371" s="5"/>
       <c r="V371" s="5"/>
-      <c r="W371" s="5"/>
-    </row>
-    <row r="372" spans="1:23">
+    </row>
+    <row r="372" spans="1:22">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -11651,9 +11269,8 @@
       <c r="T372" s="5"/>
       <c r="U372" s="5"/>
       <c r="V372" s="5"/>
-      <c r="W372" s="5"/>
-    </row>
-    <row r="373" spans="1:23">
+    </row>
+    <row r="373" spans="1:22">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -11676,9 +11293,8 @@
       <c r="T373" s="5"/>
       <c r="U373" s="5"/>
       <c r="V373" s="5"/>
-      <c r="W373" s="5"/>
-    </row>
-    <row r="374" spans="1:23">
+    </row>
+    <row r="374" spans="1:22">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -11701,9 +11317,8 @@
       <c r="T374" s="5"/>
       <c r="U374" s="5"/>
       <c r="V374" s="5"/>
-      <c r="W374" s="5"/>
-    </row>
-    <row r="375" spans="1:23">
+    </row>
+    <row r="375" spans="1:22">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -11726,9 +11341,8 @@
       <c r="T375" s="5"/>
       <c r="U375" s="5"/>
       <c r="V375" s="5"/>
-      <c r="W375" s="5"/>
-    </row>
-    <row r="376" spans="1:23">
+    </row>
+    <row r="376" spans="1:22">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -11751,9 +11365,8 @@
       <c r="T376" s="5"/>
       <c r="U376" s="5"/>
       <c r="V376" s="5"/>
-      <c r="W376" s="5"/>
-    </row>
-    <row r="377" spans="1:23">
+    </row>
+    <row r="377" spans="1:22">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -11776,9 +11389,8 @@
       <c r="T377" s="5"/>
       <c r="U377" s="5"/>
       <c r="V377" s="5"/>
-      <c r="W377" s="5"/>
-    </row>
-    <row r="378" spans="1:23">
+    </row>
+    <row r="378" spans="1:22">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -11801,9 +11413,8 @@
       <c r="T378" s="5"/>
       <c r="U378" s="5"/>
       <c r="V378" s="5"/>
-      <c r="W378" s="5"/>
-    </row>
-    <row r="379" spans="1:23">
+    </row>
+    <row r="379" spans="1:22">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -11826,9 +11437,8 @@
       <c r="T379" s="5"/>
       <c r="U379" s="5"/>
       <c r="V379" s="5"/>
-      <c r="W379" s="5"/>
-    </row>
-    <row r="380" spans="1:23">
+    </row>
+    <row r="380" spans="1:22">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -11851,9 +11461,8 @@
       <c r="T380" s="5"/>
       <c r="U380" s="5"/>
       <c r="V380" s="5"/>
-      <c r="W380" s="5"/>
-    </row>
-    <row r="381" spans="1:23">
+    </row>
+    <row r="381" spans="1:22">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -11876,9 +11485,8 @@
       <c r="T381" s="5"/>
       <c r="U381" s="5"/>
       <c r="V381" s="5"/>
-      <c r="W381" s="5"/>
-    </row>
-    <row r="382" spans="1:23">
+    </row>
+    <row r="382" spans="1:22">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -11901,9 +11509,8 @@
       <c r="T382" s="5"/>
       <c r="U382" s="5"/>
       <c r="V382" s="5"/>
-      <c r="W382" s="5"/>
-    </row>
-    <row r="383" spans="1:23">
+    </row>
+    <row r="383" spans="1:22">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -11926,9 +11533,8 @@
       <c r="T383" s="5"/>
       <c r="U383" s="5"/>
       <c r="V383" s="5"/>
-      <c r="W383" s="5"/>
-    </row>
-    <row r="384" spans="1:23">
+    </row>
+    <row r="384" spans="1:22">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -11951,9 +11557,8 @@
       <c r="T384" s="5"/>
       <c r="U384" s="5"/>
       <c r="V384" s="5"/>
-      <c r="W384" s="5"/>
-    </row>
-    <row r="385" spans="1:23">
+    </row>
+    <row r="385" spans="1:22">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -11976,9 +11581,8 @@
       <c r="T385" s="5"/>
       <c r="U385" s="5"/>
       <c r="V385" s="5"/>
-      <c r="W385" s="5"/>
-    </row>
-    <row r="386" spans="1:23">
+    </row>
+    <row r="386" spans="1:22">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -12001,9 +11605,8 @@
       <c r="T386" s="5"/>
       <c r="U386" s="5"/>
       <c r="V386" s="5"/>
-      <c r="W386" s="5"/>
-    </row>
-    <row r="387" spans="1:23">
+    </row>
+    <row r="387" spans="1:22">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -12026,9 +11629,8 @@
       <c r="T387" s="5"/>
       <c r="U387" s="5"/>
       <c r="V387" s="5"/>
-      <c r="W387" s="5"/>
-    </row>
-    <row r="388" spans="1:23">
+    </row>
+    <row r="388" spans="1:22">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -12051,9 +11653,8 @@
       <c r="T388" s="5"/>
       <c r="U388" s="5"/>
       <c r="V388" s="5"/>
-      <c r="W388" s="5"/>
-    </row>
-    <row r="389" spans="1:23">
+    </row>
+    <row r="389" spans="1:22">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -12076,9 +11677,8 @@
       <c r="T389" s="5"/>
       <c r="U389" s="5"/>
       <c r="V389" s="5"/>
-      <c r="W389" s="5"/>
-    </row>
-    <row r="390" spans="1:23">
+    </row>
+    <row r="390" spans="1:22">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -12101,9 +11701,8 @@
       <c r="T390" s="5"/>
       <c r="U390" s="5"/>
       <c r="V390" s="5"/>
-      <c r="W390" s="5"/>
-    </row>
-    <row r="391" spans="1:23">
+    </row>
+    <row r="391" spans="1:22">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -12126,9 +11725,8 @@
       <c r="T391" s="5"/>
       <c r="U391" s="5"/>
       <c r="V391" s="5"/>
-      <c r="W391" s="5"/>
-    </row>
-    <row r="392" spans="1:23">
+    </row>
+    <row r="392" spans="1:22">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -12151,9 +11749,8 @@
       <c r="T392" s="5"/>
       <c r="U392" s="5"/>
       <c r="V392" s="5"/>
-      <c r="W392" s="5"/>
-    </row>
-    <row r="393" spans="1:23">
+    </row>
+    <row r="393" spans="1:22">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -12176,9 +11773,8 @@
       <c r="T393" s="5"/>
       <c r="U393" s="5"/>
       <c r="V393" s="5"/>
-      <c r="W393" s="5"/>
-    </row>
-    <row r="394" spans="1:23">
+    </row>
+    <row r="394" spans="1:22">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -12201,9 +11797,8 @@
       <c r="T394" s="5"/>
       <c r="U394" s="5"/>
       <c r="V394" s="5"/>
-      <c r="W394" s="5"/>
-    </row>
-    <row r="395" spans="1:23">
+    </row>
+    <row r="395" spans="1:22">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -12226,9 +11821,8 @@
       <c r="T395" s="5"/>
       <c r="U395" s="5"/>
       <c r="V395" s="5"/>
-      <c r="W395" s="5"/>
-    </row>
-    <row r="396" spans="1:23">
+    </row>
+    <row r="396" spans="1:22">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -12251,9 +11845,8 @@
       <c r="T396" s="5"/>
       <c r="U396" s="5"/>
       <c r="V396" s="5"/>
-      <c r="W396" s="5"/>
-    </row>
-    <row r="397" spans="1:23">
+    </row>
+    <row r="397" spans="1:22">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -12276,9 +11869,8 @@
       <c r="T397" s="5"/>
       <c r="U397" s="5"/>
       <c r="V397" s="5"/>
-      <c r="W397" s="5"/>
-    </row>
-    <row r="398" spans="1:23">
+    </row>
+    <row r="398" spans="1:22">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -12301,9 +11893,8 @@
       <c r="T398" s="5"/>
       <c r="U398" s="5"/>
       <c r="V398" s="5"/>
-      <c r="W398" s="5"/>
-    </row>
-    <row r="399" spans="1:23">
+    </row>
+    <row r="399" spans="1:22">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -12326,9 +11917,8 @@
       <c r="T399" s="5"/>
       <c r="U399" s="5"/>
       <c r="V399" s="5"/>
-      <c r="W399" s="5"/>
-    </row>
-    <row r="400" spans="1:23">
+    </row>
+    <row r="400" spans="1:22">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -12351,9 +11941,8 @@
       <c r="T400" s="5"/>
       <c r="U400" s="5"/>
       <c r="V400" s="5"/>
-      <c r="W400" s="5"/>
-    </row>
-    <row r="401" spans="1:23">
+    </row>
+    <row r="401" spans="1:22">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -12376,9 +11965,8 @@
       <c r="T401" s="5"/>
       <c r="U401" s="5"/>
       <c r="V401" s="5"/>
-      <c r="W401" s="5"/>
-    </row>
-    <row r="402" spans="1:23">
+    </row>
+    <row r="402" spans="1:22">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -12401,9 +11989,8 @@
       <c r="T402" s="5"/>
       <c r="U402" s="5"/>
       <c r="V402" s="5"/>
-      <c r="W402" s="5"/>
-    </row>
-    <row r="403" spans="1:23">
+    </row>
+    <row r="403" spans="1:22">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -12426,9 +12013,8 @@
       <c r="T403" s="5"/>
       <c r="U403" s="5"/>
       <c r="V403" s="5"/>
-      <c r="W403" s="5"/>
-    </row>
-    <row r="404" spans="1:23">
+    </row>
+    <row r="404" spans="1:22">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -12451,9 +12037,8 @@
       <c r="T404" s="5"/>
       <c r="U404" s="5"/>
       <c r="V404" s="5"/>
-      <c r="W404" s="5"/>
-    </row>
-    <row r="405" spans="1:23">
+    </row>
+    <row r="405" spans="1:22">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -12476,9 +12061,8 @@
       <c r="T405" s="5"/>
       <c r="U405" s="5"/>
       <c r="V405" s="5"/>
-      <c r="W405" s="5"/>
-    </row>
-    <row r="406" spans="1:23">
+    </row>
+    <row r="406" spans="1:22">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -12501,9 +12085,8 @@
       <c r="T406" s="5"/>
       <c r="U406" s="5"/>
       <c r="V406" s="5"/>
-      <c r="W406" s="5"/>
-    </row>
-    <row r="407" spans="1:23">
+    </row>
+    <row r="407" spans="1:22">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -12526,9 +12109,8 @@
       <c r="T407" s="5"/>
       <c r="U407" s="5"/>
       <c r="V407" s="5"/>
-      <c r="W407" s="5"/>
-    </row>
-    <row r="408" spans="1:23">
+    </row>
+    <row r="408" spans="1:22">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -12551,9 +12133,8 @@
       <c r="T408" s="5"/>
       <c r="U408" s="5"/>
       <c r="V408" s="5"/>
-      <c r="W408" s="5"/>
-    </row>
-    <row r="409" spans="1:23">
+    </row>
+    <row r="409" spans="1:22">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -12576,9 +12157,8 @@
       <c r="T409" s="5"/>
       <c r="U409" s="5"/>
       <c r="V409" s="5"/>
-      <c r="W409" s="5"/>
-    </row>
-    <row r="410" spans="1:23">
+    </row>
+    <row r="410" spans="1:22">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -12601,9 +12181,8 @@
       <c r="T410" s="5"/>
       <c r="U410" s="5"/>
       <c r="V410" s="5"/>
-      <c r="W410" s="5"/>
-    </row>
-    <row r="411" spans="1:23">
+    </row>
+    <row r="411" spans="1:22">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -12626,9 +12205,8 @@
       <c r="T411" s="5"/>
       <c r="U411" s="5"/>
       <c r="V411" s="5"/>
-      <c r="W411" s="5"/>
-    </row>
-    <row r="412" spans="1:23">
+    </row>
+    <row r="412" spans="1:22">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -12651,9 +12229,8 @@
       <c r="T412" s="5"/>
       <c r="U412" s="5"/>
       <c r="V412" s="5"/>
-      <c r="W412" s="5"/>
-    </row>
-    <row r="413" spans="1:23">
+    </row>
+    <row r="413" spans="1:22">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -12676,9 +12253,8 @@
       <c r="T413" s="5"/>
       <c r="U413" s="5"/>
       <c r="V413" s="5"/>
-      <c r="W413" s="5"/>
-    </row>
-    <row r="414" spans="1:23">
+    </row>
+    <row r="414" spans="1:22">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -12701,9 +12277,8 @@
       <c r="T414" s="5"/>
       <c r="U414" s="5"/>
       <c r="V414" s="5"/>
-      <c r="W414" s="5"/>
-    </row>
-    <row r="415" spans="1:23">
+    </row>
+    <row r="415" spans="1:22">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -12726,9 +12301,8 @@
       <c r="T415" s="5"/>
       <c r="U415" s="5"/>
       <c r="V415" s="5"/>
-      <c r="W415" s="5"/>
-    </row>
-    <row r="416" spans="1:23">
+    </row>
+    <row r="416" spans="1:22">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -12751,9 +12325,8 @@
       <c r="T416" s="5"/>
       <c r="U416" s="5"/>
       <c r="V416" s="5"/>
-      <c r="W416" s="5"/>
-    </row>
-    <row r="417" spans="1:23">
+    </row>
+    <row r="417" spans="1:22">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -12776,9 +12349,8 @@
       <c r="T417" s="5"/>
       <c r="U417" s="5"/>
       <c r="V417" s="5"/>
-      <c r="W417" s="5"/>
-    </row>
-    <row r="418" spans="1:23">
+    </row>
+    <row r="418" spans="1:22">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -12801,9 +12373,8 @@
       <c r="T418" s="5"/>
       <c r="U418" s="5"/>
       <c r="V418" s="5"/>
-      <c r="W418" s="5"/>
-    </row>
-    <row r="419" spans="1:23">
+    </row>
+    <row r="419" spans="1:22">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -12826,9 +12397,8 @@
       <c r="T419" s="5"/>
       <c r="U419" s="5"/>
       <c r="V419" s="5"/>
-      <c r="W419" s="5"/>
-    </row>
-    <row r="420" spans="1:23">
+    </row>
+    <row r="420" spans="1:22">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -12851,9 +12421,8 @@
       <c r="T420" s="5"/>
       <c r="U420" s="5"/>
       <c r="V420" s="5"/>
-      <c r="W420" s="5"/>
-    </row>
-    <row r="421" spans="1:23">
+    </row>
+    <row r="421" spans="1:22">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -12876,9 +12445,8 @@
       <c r="T421" s="5"/>
       <c r="U421" s="5"/>
       <c r="V421" s="5"/>
-      <c r="W421" s="5"/>
-    </row>
-    <row r="422" spans="1:23">
+    </row>
+    <row r="422" spans="1:22">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -12901,9 +12469,8 @@
       <c r="T422" s="5"/>
       <c r="U422" s="5"/>
       <c r="V422" s="5"/>
-      <c r="W422" s="5"/>
-    </row>
-    <row r="423" spans="1:23">
+    </row>
+    <row r="423" spans="1:22">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -12926,9 +12493,8 @@
       <c r="T423" s="5"/>
       <c r="U423" s="5"/>
       <c r="V423" s="5"/>
-      <c r="W423" s="5"/>
-    </row>
-    <row r="424" spans="1:23">
+    </row>
+    <row r="424" spans="1:22">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -12951,9 +12517,8 @@
       <c r="T424" s="5"/>
       <c r="U424" s="5"/>
       <c r="V424" s="5"/>
-      <c r="W424" s="5"/>
-    </row>
-    <row r="425" spans="1:23">
+    </row>
+    <row r="425" spans="1:22">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -12976,9 +12541,8 @@
       <c r="T425" s="5"/>
       <c r="U425" s="5"/>
       <c r="V425" s="5"/>
-      <c r="W425" s="5"/>
-    </row>
-    <row r="426" spans="1:23">
+    </row>
+    <row r="426" spans="1:22">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -13001,9 +12565,8 @@
       <c r="T426" s="5"/>
       <c r="U426" s="5"/>
       <c r="V426" s="5"/>
-      <c r="W426" s="5"/>
-    </row>
-    <row r="427" spans="1:23">
+    </row>
+    <row r="427" spans="1:22">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -13026,9 +12589,8 @@
       <c r="T427" s="5"/>
       <c r="U427" s="5"/>
       <c r="V427" s="5"/>
-      <c r="W427" s="5"/>
-    </row>
-    <row r="428" spans="1:23">
+    </row>
+    <row r="428" spans="1:22">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -13051,9 +12613,8 @@
       <c r="T428" s="5"/>
       <c r="U428" s="5"/>
       <c r="V428" s="5"/>
-      <c r="W428" s="5"/>
-    </row>
-    <row r="429" spans="1:23">
+    </row>
+    <row r="429" spans="1:22">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -13076,9 +12637,8 @@
       <c r="T429" s="5"/>
       <c r="U429" s="5"/>
       <c r="V429" s="5"/>
-      <c r="W429" s="5"/>
-    </row>
-    <row r="430" spans="1:23">
+    </row>
+    <row r="430" spans="1:22">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -13101,9 +12661,8 @@
       <c r="T430" s="5"/>
       <c r="U430" s="5"/>
       <c r="V430" s="5"/>
-      <c r="W430" s="5"/>
-    </row>
-    <row r="431" spans="1:23">
+    </row>
+    <row r="431" spans="1:22">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -13126,9 +12685,8 @@
       <c r="T431" s="5"/>
       <c r="U431" s="5"/>
       <c r="V431" s="5"/>
-      <c r="W431" s="5"/>
-    </row>
-    <row r="432" spans="1:23">
+    </row>
+    <row r="432" spans="1:22">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -13151,9 +12709,8 @@
       <c r="T432" s="5"/>
       <c r="U432" s="5"/>
       <c r="V432" s="5"/>
-      <c r="W432" s="5"/>
-    </row>
-    <row r="433" spans="1:23">
+    </row>
+    <row r="433" spans="1:22">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
@@ -13176,9 +12733,8 @@
       <c r="T433" s="5"/>
       <c r="U433" s="5"/>
       <c r="V433" s="5"/>
-      <c r="W433" s="5"/>
-    </row>
-    <row r="434" spans="1:23">
+    </row>
+    <row r="434" spans="1:22">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -13201,9 +12757,8 @@
       <c r="T434" s="5"/>
       <c r="U434" s="5"/>
       <c r="V434" s="5"/>
-      <c r="W434" s="5"/>
-    </row>
-    <row r="435" spans="1:23">
+    </row>
+    <row r="435" spans="1:22">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
@@ -13226,9 +12781,8 @@
       <c r="T435" s="5"/>
       <c r="U435" s="5"/>
       <c r="V435" s="5"/>
-      <c r="W435" s="5"/>
-    </row>
-    <row r="436" spans="1:23">
+    </row>
+    <row r="436" spans="1:22">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -13251,9 +12805,8 @@
       <c r="T436" s="5"/>
       <c r="U436" s="5"/>
       <c r="V436" s="5"/>
-      <c r="W436" s="5"/>
-    </row>
-    <row r="437" spans="1:23">
+    </row>
+    <row r="437" spans="1:22">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
@@ -13276,9 +12829,8 @@
       <c r="T437" s="5"/>
       <c r="U437" s="5"/>
       <c r="V437" s="5"/>
-      <c r="W437" s="5"/>
-    </row>
-    <row r="438" spans="1:23">
+    </row>
+    <row r="438" spans="1:22">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
@@ -13301,9 +12853,8 @@
       <c r="T438" s="5"/>
       <c r="U438" s="5"/>
       <c r="V438" s="5"/>
-      <c r="W438" s="5"/>
-    </row>
-    <row r="439" spans="1:23">
+    </row>
+    <row r="439" spans="1:22">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
@@ -13326,9 +12877,8 @@
       <c r="T439" s="5"/>
       <c r="U439" s="5"/>
       <c r="V439" s="5"/>
-      <c r="W439" s="5"/>
-    </row>
-    <row r="440" spans="1:23">
+    </row>
+    <row r="440" spans="1:22">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
@@ -13351,9 +12901,8 @@
       <c r="T440" s="5"/>
       <c r="U440" s="5"/>
       <c r="V440" s="5"/>
-      <c r="W440" s="5"/>
-    </row>
-    <row r="441" spans="1:23">
+    </row>
+    <row r="441" spans="1:22">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
@@ -13376,9 +12925,8 @@
       <c r="T441" s="5"/>
       <c r="U441" s="5"/>
       <c r="V441" s="5"/>
-      <c r="W441" s="5"/>
-    </row>
-    <row r="442" spans="1:23">
+    </row>
+    <row r="442" spans="1:22">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
@@ -13401,9 +12949,8 @@
       <c r="T442" s="5"/>
       <c r="U442" s="5"/>
       <c r="V442" s="5"/>
-      <c r="W442" s="5"/>
-    </row>
-    <row r="443" spans="1:23">
+    </row>
+    <row r="443" spans="1:22">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
@@ -13426,9 +12973,8 @@
       <c r="T443" s="5"/>
       <c r="U443" s="5"/>
       <c r="V443" s="5"/>
-      <c r="W443" s="5"/>
-    </row>
-    <row r="444" spans="1:23">
+    </row>
+    <row r="444" spans="1:22">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
@@ -13451,9 +12997,8 @@
       <c r="T444" s="5"/>
       <c r="U444" s="5"/>
       <c r="V444" s="5"/>
-      <c r="W444" s="5"/>
-    </row>
-    <row r="445" spans="1:23">
+    </row>
+    <row r="445" spans="1:22">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
@@ -13476,9 +13021,8 @@
       <c r="T445" s="5"/>
       <c r="U445" s="5"/>
       <c r="V445" s="5"/>
-      <c r="W445" s="5"/>
-    </row>
-    <row r="446" spans="1:23">
+    </row>
+    <row r="446" spans="1:22">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
@@ -13501,9 +13045,8 @@
       <c r="T446" s="5"/>
       <c r="U446" s="5"/>
       <c r="V446" s="5"/>
-      <c r="W446" s="5"/>
-    </row>
-    <row r="447" spans="1:23">
+    </row>
+    <row r="447" spans="1:22">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
@@ -13526,9 +13069,8 @@
       <c r="T447" s="5"/>
       <c r="U447" s="5"/>
       <c r="V447" s="5"/>
-      <c r="W447" s="5"/>
-    </row>
-    <row r="448" spans="1:23">
+    </row>
+    <row r="448" spans="1:22">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
@@ -13551,9 +13093,8 @@
       <c r="T448" s="5"/>
       <c r="U448" s="5"/>
       <c r="V448" s="5"/>
-      <c r="W448" s="5"/>
-    </row>
-    <row r="449" spans="1:23">
+    </row>
+    <row r="449" spans="1:22">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
@@ -13576,9 +13117,8 @@
       <c r="T449" s="5"/>
       <c r="U449" s="5"/>
       <c r="V449" s="5"/>
-      <c r="W449" s="5"/>
-    </row>
-    <row r="450" spans="1:23">
+    </row>
+    <row r="450" spans="1:22">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
@@ -13601,9 +13141,8 @@
       <c r="T450" s="5"/>
       <c r="U450" s="5"/>
       <c r="V450" s="5"/>
-      <c r="W450" s="5"/>
-    </row>
-    <row r="451" spans="1:23">
+    </row>
+    <row r="451" spans="1:22">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
@@ -13626,9 +13165,8 @@
       <c r="T451" s="5"/>
       <c r="U451" s="5"/>
       <c r="V451" s="5"/>
-      <c r="W451" s="5"/>
-    </row>
-    <row r="452" spans="1:23">
+    </row>
+    <row r="452" spans="1:22">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
@@ -13651,9 +13189,8 @@
       <c r="T452" s="5"/>
       <c r="U452" s="5"/>
       <c r="V452" s="5"/>
-      <c r="W452" s="5"/>
-    </row>
-    <row r="453" spans="1:23">
+    </row>
+    <row r="453" spans="1:22">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
@@ -13676,9 +13213,8 @@
       <c r="T453" s="5"/>
       <c r="U453" s="5"/>
       <c r="V453" s="5"/>
-      <c r="W453" s="5"/>
-    </row>
-    <row r="454" spans="1:23">
+    </row>
+    <row r="454" spans="1:22">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -13701,9 +13237,8 @@
       <c r="T454" s="5"/>
       <c r="U454" s="5"/>
       <c r="V454" s="5"/>
-      <c r="W454" s="5"/>
-    </row>
-    <row r="455" spans="1:23">
+    </row>
+    <row r="455" spans="1:22">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
@@ -13726,9 +13261,8 @@
       <c r="T455" s="5"/>
       <c r="U455" s="5"/>
       <c r="V455" s="5"/>
-      <c r="W455" s="5"/>
-    </row>
-    <row r="456" spans="1:23">
+    </row>
+    <row r="456" spans="1:22">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
@@ -13751,9 +13285,8 @@
       <c r="T456" s="5"/>
       <c r="U456" s="5"/>
       <c r="V456" s="5"/>
-      <c r="W456" s="5"/>
-    </row>
-    <row r="457" spans="1:23">
+    </row>
+    <row r="457" spans="1:22">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
@@ -13776,9 +13309,8 @@
       <c r="T457" s="5"/>
       <c r="U457" s="5"/>
       <c r="V457" s="5"/>
-      <c r="W457" s="5"/>
-    </row>
-    <row r="458" spans="1:23">
+    </row>
+    <row r="458" spans="1:22">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
@@ -13801,9 +13333,8 @@
       <c r="T458" s="5"/>
       <c r="U458" s="5"/>
       <c r="V458" s="5"/>
-      <c r="W458" s="5"/>
-    </row>
-    <row r="459" spans="1:23">
+    </row>
+    <row r="459" spans="1:22">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
@@ -13826,9 +13357,8 @@
       <c r="T459" s="5"/>
       <c r="U459" s="5"/>
       <c r="V459" s="5"/>
-      <c r="W459" s="5"/>
-    </row>
-    <row r="460" spans="1:23">
+    </row>
+    <row r="460" spans="1:22">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
@@ -13851,9 +13381,8 @@
       <c r="T460" s="5"/>
       <c r="U460" s="5"/>
       <c r="V460" s="5"/>
-      <c r="W460" s="5"/>
-    </row>
-    <row r="461" spans="1:23">
+    </row>
+    <row r="461" spans="1:22">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
@@ -13876,9 +13405,8 @@
       <c r="T461" s="5"/>
       <c r="U461" s="5"/>
       <c r="V461" s="5"/>
-      <c r="W461" s="5"/>
-    </row>
-    <row r="462" spans="1:23">
+    </row>
+    <row r="462" spans="1:22">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
@@ -13901,9 +13429,8 @@
       <c r="T462" s="5"/>
       <c r="U462" s="5"/>
       <c r="V462" s="5"/>
-      <c r="W462" s="5"/>
-    </row>
-    <row r="463" spans="1:23">
+    </row>
+    <row r="463" spans="1:22">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
@@ -13926,9 +13453,8 @@
       <c r="T463" s="5"/>
       <c r="U463" s="5"/>
       <c r="V463" s="5"/>
-      <c r="W463" s="5"/>
-    </row>
-    <row r="464" spans="1:23">
+    </row>
+    <row r="464" spans="1:22">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
@@ -13951,9 +13477,8 @@
       <c r="T464" s="5"/>
       <c r="U464" s="5"/>
       <c r="V464" s="5"/>
-      <c r="W464" s="5"/>
-    </row>
-    <row r="465" spans="1:23">
+    </row>
+    <row r="465" spans="1:22">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
@@ -13976,9 +13501,8 @@
       <c r="T465" s="5"/>
       <c r="U465" s="5"/>
       <c r="V465" s="5"/>
-      <c r="W465" s="5"/>
-    </row>
-    <row r="466" spans="1:23">
+    </row>
+    <row r="466" spans="1:22">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
@@ -14001,9 +13525,8 @@
       <c r="T466" s="5"/>
       <c r="U466" s="5"/>
       <c r="V466" s="5"/>
-      <c r="W466" s="5"/>
-    </row>
-    <row r="467" spans="1:23">
+    </row>
+    <row r="467" spans="1:22">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
@@ -14026,9 +13549,8 @@
       <c r="T467" s="5"/>
       <c r="U467" s="5"/>
       <c r="V467" s="5"/>
-      <c r="W467" s="5"/>
-    </row>
-    <row r="468" spans="1:23">
+    </row>
+    <row r="468" spans="1:22">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
@@ -14051,9 +13573,8 @@
       <c r="T468" s="5"/>
       <c r="U468" s="5"/>
       <c r="V468" s="5"/>
-      <c r="W468" s="5"/>
-    </row>
-    <row r="469" spans="1:23">
+    </row>
+    <row r="469" spans="1:22">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
@@ -14076,9 +13597,8 @@
       <c r="T469" s="5"/>
       <c r="U469" s="5"/>
       <c r="V469" s="5"/>
-      <c r="W469" s="5"/>
-    </row>
-    <row r="470" spans="1:23">
+    </row>
+    <row r="470" spans="1:22">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
@@ -14101,9 +13621,8 @@
       <c r="T470" s="5"/>
       <c r="U470" s="5"/>
       <c r="V470" s="5"/>
-      <c r="W470" s="5"/>
-    </row>
-    <row r="471" spans="1:23">
+    </row>
+    <row r="471" spans="1:22">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
@@ -14126,9 +13645,8 @@
       <c r="T471" s="5"/>
       <c r="U471" s="5"/>
       <c r="V471" s="5"/>
-      <c r="W471" s="5"/>
-    </row>
-    <row r="472" spans="1:23">
+    </row>
+    <row r="472" spans="1:22">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -14151,9 +13669,8 @@
       <c r="T472" s="5"/>
       <c r="U472" s="5"/>
       <c r="V472" s="5"/>
-      <c r="W472" s="5"/>
-    </row>
-    <row r="473" spans="1:23">
+    </row>
+    <row r="473" spans="1:22">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
@@ -14176,9 +13693,8 @@
       <c r="T473" s="5"/>
       <c r="U473" s="5"/>
       <c r="V473" s="5"/>
-      <c r="W473" s="5"/>
-    </row>
-    <row r="474" spans="1:23">
+    </row>
+    <row r="474" spans="1:22">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
@@ -14201,9 +13717,8 @@
       <c r="T474" s="5"/>
       <c r="U474" s="5"/>
       <c r="V474" s="5"/>
-      <c r="W474" s="5"/>
-    </row>
-    <row r="475" spans="1:23">
+    </row>
+    <row r="475" spans="1:22">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
@@ -14226,9 +13741,8 @@
       <c r="T475" s="5"/>
       <c r="U475" s="5"/>
       <c r="V475" s="5"/>
-      <c r="W475" s="5"/>
-    </row>
-    <row r="476" spans="1:23">
+    </row>
+    <row r="476" spans="1:22">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
@@ -14251,9 +13765,8 @@
       <c r="T476" s="5"/>
       <c r="U476" s="5"/>
       <c r="V476" s="5"/>
-      <c r="W476" s="5"/>
-    </row>
-    <row r="477" spans="1:23">
+    </row>
+    <row r="477" spans="1:22">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
@@ -14276,9 +13789,8 @@
       <c r="T477" s="5"/>
       <c r="U477" s="5"/>
       <c r="V477" s="5"/>
-      <c r="W477" s="5"/>
-    </row>
-    <row r="478" spans="1:23">
+    </row>
+    <row r="478" spans="1:22">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
@@ -14301,9 +13813,8 @@
       <c r="T478" s="5"/>
       <c r="U478" s="5"/>
       <c r="V478" s="5"/>
-      <c r="W478" s="5"/>
-    </row>
-    <row r="479" spans="1:23">
+    </row>
+    <row r="479" spans="1:22">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
@@ -14326,9 +13837,8 @@
       <c r="T479" s="5"/>
       <c r="U479" s="5"/>
       <c r="V479" s="5"/>
-      <c r="W479" s="5"/>
-    </row>
-    <row r="480" spans="1:23">
+    </row>
+    <row r="480" spans="1:22">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
@@ -14351,9 +13861,8 @@
       <c r="T480" s="5"/>
       <c r="U480" s="5"/>
       <c r="V480" s="5"/>
-      <c r="W480" s="5"/>
-    </row>
-    <row r="481" spans="1:23">
+    </row>
+    <row r="481" spans="1:22">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
@@ -14376,9 +13885,8 @@
       <c r="T481" s="5"/>
       <c r="U481" s="5"/>
       <c r="V481" s="5"/>
-      <c r="W481" s="5"/>
-    </row>
-    <row r="482" spans="1:23">
+    </row>
+    <row r="482" spans="1:22">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
@@ -14401,9 +13909,8 @@
       <c r="T482" s="5"/>
       <c r="U482" s="5"/>
       <c r="V482" s="5"/>
-      <c r="W482" s="5"/>
-    </row>
-    <row r="483" spans="1:23">
+    </row>
+    <row r="483" spans="1:22">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
@@ -14426,9 +13933,8 @@
       <c r="T483" s="5"/>
       <c r="U483" s="5"/>
       <c r="V483" s="5"/>
-      <c r="W483" s="5"/>
-    </row>
-    <row r="484" spans="1:23">
+    </row>
+    <row r="484" spans="1:22">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
@@ -14451,9 +13957,8 @@
       <c r="T484" s="5"/>
       <c r="U484" s="5"/>
       <c r="V484" s="5"/>
-      <c r="W484" s="5"/>
-    </row>
-    <row r="485" spans="1:23">
+    </row>
+    <row r="485" spans="1:22">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
@@ -14476,9 +13981,8 @@
       <c r="T485" s="5"/>
       <c r="U485" s="5"/>
       <c r="V485" s="5"/>
-      <c r="W485" s="5"/>
-    </row>
-    <row r="486" spans="1:23">
+    </row>
+    <row r="486" spans="1:22">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
@@ -14501,9 +14005,8 @@
       <c r="T486" s="5"/>
       <c r="U486" s="5"/>
       <c r="V486" s="5"/>
-      <c r="W486" s="5"/>
-    </row>
-    <row r="487" spans="1:23">
+    </row>
+    <row r="487" spans="1:22">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
@@ -14526,9 +14029,8 @@
       <c r="T487" s="5"/>
       <c r="U487" s="5"/>
       <c r="V487" s="5"/>
-      <c r="W487" s="5"/>
-    </row>
-    <row r="488" spans="1:23">
+    </row>
+    <row r="488" spans="1:22">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
@@ -14551,9 +14053,8 @@
       <c r="T488" s="5"/>
       <c r="U488" s="5"/>
       <c r="V488" s="5"/>
-      <c r="W488" s="5"/>
-    </row>
-    <row r="489" spans="1:23">
+    </row>
+    <row r="489" spans="1:22">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
@@ -14576,9 +14077,8 @@
       <c r="T489" s="5"/>
       <c r="U489" s="5"/>
       <c r="V489" s="5"/>
-      <c r="W489" s="5"/>
-    </row>
-    <row r="490" spans="1:23">
+    </row>
+    <row r="490" spans="1:22">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
@@ -14601,9 +14101,8 @@
       <c r="T490" s="5"/>
       <c r="U490" s="5"/>
       <c r="V490" s="5"/>
-      <c r="W490" s="5"/>
-    </row>
-    <row r="491" spans="1:23">
+    </row>
+    <row r="491" spans="1:22">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
@@ -14626,9 +14125,8 @@
       <c r="T491" s="5"/>
       <c r="U491" s="5"/>
       <c r="V491" s="5"/>
-      <c r="W491" s="5"/>
-    </row>
-    <row r="492" spans="1:23">
+    </row>
+    <row r="492" spans="1:22">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
@@ -14651,9 +14149,8 @@
       <c r="T492" s="5"/>
       <c r="U492" s="5"/>
       <c r="V492" s="5"/>
-      <c r="W492" s="5"/>
-    </row>
-    <row r="493" spans="1:23">
+    </row>
+    <row r="493" spans="1:22">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
@@ -14676,9 +14173,8 @@
       <c r="T493" s="5"/>
       <c r="U493" s="5"/>
       <c r="V493" s="5"/>
-      <c r="W493" s="5"/>
-    </row>
-    <row r="494" spans="1:23">
+    </row>
+    <row r="494" spans="1:22">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
@@ -14701,9 +14197,8 @@
       <c r="T494" s="5"/>
       <c r="U494" s="5"/>
       <c r="V494" s="5"/>
-      <c r="W494" s="5"/>
-    </row>
-    <row r="495" spans="1:23">
+    </row>
+    <row r="495" spans="1:22">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
@@ -14726,9 +14221,8 @@
       <c r="T495" s="5"/>
       <c r="U495" s="5"/>
       <c r="V495" s="5"/>
-      <c r="W495" s="5"/>
-    </row>
-    <row r="496" spans="1:23">
+    </row>
+    <row r="496" spans="1:22">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
@@ -14751,9 +14245,8 @@
       <c r="T496" s="5"/>
       <c r="U496" s="5"/>
       <c r="V496" s="5"/>
-      <c r="W496" s="5"/>
-    </row>
-    <row r="497" spans="1:23">
+    </row>
+    <row r="497" spans="1:22">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
@@ -14776,9 +14269,8 @@
       <c r="T497" s="5"/>
       <c r="U497" s="5"/>
       <c r="V497" s="5"/>
-      <c r="W497" s="5"/>
-    </row>
-    <row r="498" spans="1:23">
+    </row>
+    <row r="498" spans="1:22">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
@@ -14801,9 +14293,8 @@
       <c r="T498" s="5"/>
       <c r="U498" s="5"/>
       <c r="V498" s="5"/>
-      <c r="W498" s="5"/>
-    </row>
-    <row r="499" spans="1:23">
+    </row>
+    <row r="499" spans="1:22">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
@@ -14826,9 +14317,8 @@
       <c r="T499" s="5"/>
       <c r="U499" s="5"/>
       <c r="V499" s="5"/>
-      <c r="W499" s="5"/>
-    </row>
-    <row r="500" spans="1:23">
+    </row>
+    <row r="500" spans="1:22">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
@@ -14851,7 +14341,6 @@
       <c r="T500" s="5"/>
       <c r="U500" s="5"/>
       <c r="V500" s="5"/>
-      <c r="W500" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/我的创作/炒股/交易运行状态/新化股份.xlsx
+++ b/我的创作/炒股/交易运行状态/新化股份.xlsx
@@ -75,7 +75,7 @@
     <t>上部</t>
   </si>
   <si>
-    <t>中间</t>
+    <t>中部</t>
   </si>
   <si>
     <t>下部</t>
@@ -86,10 +86,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -102,21 +102,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,9 +110,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,9 +124,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,9 +145,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,7 +178,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,23 +201,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,7 +210,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,7 +225,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,16 +244,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,7 +260,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,13 +320,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,79 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +392,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,31 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,25 +440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,19 +463,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,16 +479,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,17 +523,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,8 +537,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,152 +562,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,6 +736,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2119,8 +2128,8 @@
   <sheetPr/>
   <dimension ref="A1:V500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2359,7 +2368,7 @@
       <c r="N4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="P4" s="5"/>

--- a/我的创作/炒股/交易运行状态/新化股份.xlsx
+++ b/我的创作/炒股/交易运行状态/新化股份.xlsx
@@ -86,11 +86,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -102,25 +102,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,26 +122,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,7 +139,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,9 +169,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,7 +201,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,22 +209,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,8 +222,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,13 +266,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +302,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,91 +362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,13 +380,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,37 +422,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,8 +463,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,37 +473,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,8 +507,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,153 +542,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2129,7 +2129,7 @@
   <dimension ref="A1:V500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/我的创作/炒股/交易运行状态/新化股份.xlsx
+++ b/我的创作/炒股/交易运行状态/新化股份.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>日期</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>最低价</t>
-  </si>
-  <si>
-    <t>上三分之一</t>
-  </si>
-  <si>
-    <t>下三分之一</t>
   </si>
   <si>
     <t>当前止损线</t>
@@ -69,16 +63,13 @@
 (处于下部应该警惕)</t>
   </si>
   <si>
+    <t>最低价是否下移</t>
+  </si>
+  <si>
     <t>否</t>
   </si>
   <si>
-    <t>上部</t>
-  </si>
-  <si>
-    <t>中部</t>
-  </si>
-  <si>
-    <t>下部</t>
+    <t>是</t>
   </si>
 </sst>
 </file>
@@ -86,11 +77,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,13 +89,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,11 +106,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,29 +129,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,25 +137,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,15 +160,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +183,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -238,8 +213,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,7 +257,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,25 +323,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,145 +431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,43 +454,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,21 +465,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,99 +498,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,56 +649,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,17 +717,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2126,10 +2114,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:V500"/>
+  <dimension ref="A1:T500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2139,19 +2127,18 @@
     <col min="3" max="3" width="8.91964285714286" customWidth="1"/>
     <col min="4" max="4" width="7.58035714285714" customWidth="1"/>
     <col min="5" max="5" width="8.63392857142857" customWidth="1"/>
-    <col min="6" max="6" width="13.3839285714286" customWidth="1"/>
-    <col min="7" max="7" width="12.7946428571429" customWidth="1"/>
-    <col min="8" max="8" width="12.6428571428571" customWidth="1"/>
-    <col min="9" max="9" width="13.0892857142857" customWidth="1"/>
-    <col min="10" max="10" width="19.7857142857143" customWidth="1"/>
-    <col min="11" max="11" width="30.0625" customWidth="1"/>
-    <col min="12" max="12" width="40.4732142857143" customWidth="1"/>
-    <col min="13" max="13" width="25.4464285714286" customWidth="1"/>
-    <col min="14" max="14" width="28.7142857142857" customWidth="1"/>
-    <col min="15" max="15" width="30.0625" customWidth="1"/>
+    <col min="6" max="6" width="12.6428571428571" customWidth="1"/>
+    <col min="7" max="7" width="13.0892857142857" customWidth="1"/>
+    <col min="8" max="8" width="19.7857142857143" customWidth="1"/>
+    <col min="9" max="9" width="30.0625" customWidth="1"/>
+    <col min="10" max="10" width="40.4732142857143" customWidth="1"/>
+    <col min="11" max="11" width="25.4464285714286" customWidth="1"/>
+    <col min="12" max="12" width="28.7142857142857" customWidth="1"/>
+    <col min="13" max="13" width="30.0625" customWidth="1"/>
+    <col min="14" max="14" width="18.4464285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" spans="1:22">
+    <row r="1" ht="36" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2173,13 +2160,13 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="8" t="s">
@@ -2191,21 +2178,17 @@
       <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-    </row>
-    <row r="2" spans="1:22">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="3">
         <v>44522</v>
       </c>
@@ -2222,48 +2205,43 @@
         <v>32.49</v>
       </c>
       <c r="F2" s="4">
-        <f>D2-(D2-C2)/3</f>
-        <v>33.45</v>
+        <v>30.89</v>
       </c>
       <c r="G2" s="4">
-        <f>E2+(D2-C2)/3</f>
-        <v>32.94</v>
-      </c>
-      <c r="H2" s="4">
-        <v>30.89</v>
-      </c>
-      <c r="I2" s="4">
-        <f>H2/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL10000,44,FALSE))</f>
+        <f>F2/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL10000,44,FALSE))</f>
         <v>32.65</v>
       </c>
-      <c r="J2" s="9">
-        <f>I2+I2*VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL1000,44,FALSE)*2</f>
+      <c r="H2" s="7">
+        <f>G2+G2*VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL1000,44,FALSE)*2</f>
         <v>36.17</v>
       </c>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="K2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>15</v>
+      <c r="M2" s="5" t="str">
+        <f>IF(B2&gt;(D2-(D2-C2)/3),"上部",IF(B2&gt;(E2+(D2-C2)/3),"中部","下部"))</f>
+        <v>上部</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-    </row>
-    <row r="3" spans="1:22">
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="3">
         <v>44523</v>
       </c>
@@ -2280,48 +2258,43 @@
         <v>33.33</v>
       </c>
       <c r="F3" s="4">
-        <f>D3-(D3-C3)/3</f>
-        <v>34.06</v>
+        <v>30.89</v>
       </c>
       <c r="G3" s="4">
-        <f>E3+(D3-C3)/3</f>
-        <v>33.56</v>
-      </c>
-      <c r="H3" s="4">
-        <v>30.89</v>
-      </c>
-      <c r="I3" s="4">
-        <f>H3/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL10001,44,FALSE))</f>
+        <f>F3/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL10001,44,FALSE))</f>
         <v>32.65</v>
       </c>
-      <c r="J3" s="9">
-        <f>I3+I3*VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL1001,44,FALSE)*2</f>
+      <c r="H3" s="7">
+        <f>G3+G3*VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL1001,44,FALSE)*2</f>
         <v>36.17</v>
       </c>
+      <c r="I3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="K3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>15</v>
+      <c r="M3" s="5" t="str">
+        <f>IF(B3&gt;(D3-(D3-C3)/3),"上部",IF(B3&gt;(E3+(D3-C3)/3),"中部","下部"))</f>
+        <v>中部</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-    </row>
-    <row r="4" spans="1:22">
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="3">
         <v>44524</v>
       </c>
@@ -2338,48 +2311,43 @@
         <v>33.26</v>
       </c>
       <c r="F4" s="4">
-        <f>D4-(D4-C4)/3</f>
-        <v>34.44</v>
+        <v>30.89</v>
       </c>
       <c r="G4" s="4">
-        <f>E4+(D4-C4)/3</f>
-        <v>33.48</v>
-      </c>
-      <c r="H4" s="4">
-        <v>30.89</v>
-      </c>
-      <c r="I4" s="4">
-        <f>H4/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A5:BL10002,44,FALSE))</f>
+        <f>F4/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A5:BL10002,44,FALSE))</f>
         <v>32.65</v>
       </c>
-      <c r="J4" s="9">
-        <f>I4+I4*VLOOKUP([1]入场指标!A6,[1]入场指标!A6:BL1002,44,FALSE)*2</f>
+      <c r="H4" s="7">
+        <f>G4+G4*VLOOKUP([1]入场指标!A6,[1]入场指标!A6:BL1002,44,FALSE)*2</f>
         <v>36.17</v>
       </c>
+      <c r="I4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="K4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="9" t="str">
+        <f>IF(B4&gt;(D4-(D4-C4)/3),"上部",IF(B4&gt;(E4+(D4-C4)/3),"中部","下部"))</f>
+        <v>下部</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-    </row>
-    <row r="5" spans="1:22">
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="3">
         <v>44525</v>
       </c>
@@ -2390,8 +2358,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -2402,10 +2370,8 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-    </row>
-    <row r="6" spans="1:22">
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="3">
         <v>44526</v>
       </c>
@@ -2416,8 +2382,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -2428,10 +2394,8 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="1:22">
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="3">
         <v>44527</v>
       </c>
@@ -2442,8 +2406,8 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -2454,10 +2418,8 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="1:22">
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="3">
         <v>44528</v>
       </c>
@@ -2468,8 +2430,8 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -2480,10 +2442,8 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="1:22">
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="3">
         <v>44529</v>
       </c>
@@ -2494,8 +2454,8 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -2506,10 +2466,8 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-    </row>
-    <row r="10" spans="1:22">
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="3">
         <v>44530</v>
       </c>
@@ -2520,8 +2478,8 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -2532,10 +2490,8 @@
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:22">
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="3">
         <v>44531</v>
       </c>
@@ -2546,8 +2502,8 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -2558,10 +2514,8 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="1:22">
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="3">
         <v>44532</v>
       </c>
@@ -2572,8 +2526,8 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -2584,10 +2538,8 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-    </row>
-    <row r="13" spans="1:22">
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="3">
         <v>44533</v>
       </c>
@@ -2598,8 +2550,8 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -2610,10 +2562,8 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="1:22">
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="3">
         <v>44534</v>
       </c>
@@ -2624,8 +2574,8 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -2636,10 +2586,8 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-    </row>
-    <row r="15" spans="1:22">
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="3">
         <v>44535</v>
       </c>
@@ -2650,8 +2598,8 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -2662,10 +2610,8 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-    </row>
-    <row r="16" spans="1:22">
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="3">
         <v>44536</v>
       </c>
@@ -2676,8 +2622,8 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -2688,10 +2634,8 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-    </row>
-    <row r="17" spans="1:22">
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="3">
         <v>44537</v>
       </c>
@@ -2702,8 +2646,8 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -2714,10 +2658,8 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="1:22">
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="3">
         <v>44538</v>
       </c>
@@ -2728,8 +2670,8 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -2740,10 +2682,8 @@
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="1:22">
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="3">
         <v>44539</v>
       </c>
@@ -2754,8 +2694,8 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -2766,10 +2706,8 @@
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="1:22">
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="3">
         <v>44540</v>
       </c>
@@ -2780,8 +2718,8 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -2792,10 +2730,8 @@
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="1:22">
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="3">
         <v>44541</v>
       </c>
@@ -2806,8 +2742,8 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -2818,10 +2754,8 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-    </row>
-    <row r="22" spans="1:22">
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="3">
         <v>44542</v>
       </c>
@@ -2832,8 +2766,8 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -2844,10 +2778,8 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-    </row>
-    <row r="23" spans="1:22">
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="3">
         <v>44543</v>
       </c>
@@ -2858,8 +2790,8 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -2870,10 +2802,8 @@
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-    </row>
-    <row r="24" spans="1:22">
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="3">
         <v>44544</v>
       </c>
@@ -2884,8 +2814,8 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -2896,10 +2826,8 @@
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-    </row>
-    <row r="25" spans="1:22">
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="3">
         <v>44545</v>
       </c>
@@ -2910,8 +2838,8 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -2922,10 +2850,8 @@
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-    </row>
-    <row r="26" spans="1:22">
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="3">
         <v>44546</v>
       </c>
@@ -2936,8 +2862,8 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -2948,10 +2874,8 @@
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-    </row>
-    <row r="27" spans="1:22">
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="3">
         <v>44547</v>
       </c>
@@ -2962,8 +2886,8 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -2974,10 +2898,8 @@
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-    </row>
-    <row r="28" spans="1:22">
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="3">
         <v>44548</v>
       </c>
@@ -2988,8 +2910,8 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -3000,10 +2922,8 @@
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-    </row>
-    <row r="29" spans="1:22">
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="3">
         <v>44549</v>
       </c>
@@ -3014,8 +2934,8 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -3026,10 +2946,8 @@
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-    </row>
-    <row r="30" spans="1:22">
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="3">
         <v>44550</v>
       </c>
@@ -3040,8 +2958,8 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -3052,10 +2970,8 @@
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-    </row>
-    <row r="31" spans="1:22">
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="3">
         <v>44551</v>
       </c>
@@ -3066,8 +2982,8 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -3078,10 +2994,8 @@
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-    </row>
-    <row r="32" spans="1:22">
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="3">
         <v>44552</v>
       </c>
@@ -3092,8 +3006,8 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -3104,10 +3018,8 @@
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-    </row>
-    <row r="33" spans="1:22">
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="3">
         <v>44553</v>
       </c>
@@ -3118,8 +3030,8 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -3130,10 +3042,8 @@
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-    </row>
-    <row r="34" spans="1:22">
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="3">
         <v>44554</v>
       </c>
@@ -3144,8 +3054,8 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -3156,10 +3066,8 @@
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-    </row>
-    <row r="35" spans="1:22">
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="3">
         <v>44555</v>
       </c>
@@ -3170,8 +3078,8 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -3182,10 +3090,8 @@
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-    </row>
-    <row r="36" spans="1:22">
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="3">
         <v>44556</v>
       </c>
@@ -3196,8 +3102,8 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -3208,10 +3114,8 @@
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-    </row>
-    <row r="37" spans="1:22">
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="3">
         <v>44557</v>
       </c>
@@ -3222,8 +3126,8 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -3234,10 +3138,8 @@
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-    </row>
-    <row r="38" spans="1:22">
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="3">
         <v>44558</v>
       </c>
@@ -3248,8 +3150,8 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -3260,10 +3162,8 @@
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-    </row>
-    <row r="39" spans="1:22">
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -3284,10 +3184,8 @@
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-    </row>
-    <row r="40" spans="1:22">
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3308,10 +3206,8 @@
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-    </row>
-    <row r="41" spans="1:22">
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3332,10 +3228,8 @@
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-    </row>
-    <row r="42" spans="1:22">
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3356,10 +3250,8 @@
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-    </row>
-    <row r="43" spans="1:22">
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -3380,10 +3272,8 @@
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-    </row>
-    <row r="44" spans="1:22">
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3404,10 +3294,8 @@
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-    </row>
-    <row r="45" spans="1:22">
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3428,10 +3316,8 @@
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-    </row>
-    <row r="46" spans="1:22">
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3452,10 +3338,8 @@
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-    </row>
-    <row r="47" spans="1:22">
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3476,10 +3360,8 @@
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-    </row>
-    <row r="48" spans="1:22">
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -3500,10 +3382,8 @@
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-    </row>
-    <row r="49" spans="1:22">
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -3524,10 +3404,8 @@
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-    </row>
-    <row r="50" spans="1:22">
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -3548,10 +3426,8 @@
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-    </row>
-    <row r="51" spans="1:22">
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -3572,10 +3448,8 @@
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-    </row>
-    <row r="52" spans="1:22">
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -3596,10 +3470,8 @@
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-    </row>
-    <row r="53" spans="1:22">
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -3620,10 +3492,8 @@
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-    </row>
-    <row r="54" spans="1:22">
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -3644,10 +3514,8 @@
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-    </row>
-    <row r="55" spans="1:22">
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -3668,10 +3536,8 @@
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-    </row>
-    <row r="56" spans="1:22">
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -3692,10 +3558,8 @@
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-    </row>
-    <row r="57" spans="1:22">
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -3716,10 +3580,8 @@
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-    </row>
-    <row r="58" spans="1:22">
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -3740,10 +3602,8 @@
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-    </row>
-    <row r="59" spans="1:22">
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -3764,10 +3624,8 @@
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-    </row>
-    <row r="60" spans="1:22">
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -3788,10 +3646,8 @@
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-    </row>
-    <row r="61" spans="1:22">
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -3812,10 +3668,8 @@
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-    </row>
-    <row r="62" spans="1:22">
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -3836,10 +3690,8 @@
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-    </row>
-    <row r="63" spans="1:22">
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -3860,10 +3712,8 @@
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
-    </row>
-    <row r="64" spans="1:22">
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -3884,10 +3734,8 @@
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-    </row>
-    <row r="65" spans="1:22">
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -3908,10 +3756,8 @@
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-    </row>
-    <row r="66" spans="1:22">
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3932,10 +3778,8 @@
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-    </row>
-    <row r="67" spans="1:22">
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3956,10 +3800,8 @@
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-    </row>
-    <row r="68" spans="1:22">
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3980,10 +3822,8 @@
       <c r="R68" s="5"/>
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-    </row>
-    <row r="69" spans="1:22">
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -4004,10 +3844,8 @@
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-    </row>
-    <row r="70" spans="1:22">
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -4028,10 +3866,8 @@
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-    </row>
-    <row r="71" spans="1:22">
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -4052,10 +3888,8 @@
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-    </row>
-    <row r="72" spans="1:22">
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -4076,10 +3910,8 @@
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-    </row>
-    <row r="73" spans="1:22">
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -4100,10 +3932,8 @@
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-    </row>
-    <row r="74" spans="1:22">
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -4124,10 +3954,8 @@
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
-      <c r="U74" s="5"/>
-      <c r="V74" s="5"/>
-    </row>
-    <row r="75" spans="1:22">
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -4148,10 +3976,8 @@
       <c r="R75" s="5"/>
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
-    </row>
-    <row r="76" spans="1:22">
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -4172,10 +3998,8 @@
       <c r="R76" s="5"/>
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-    </row>
-    <row r="77" spans="1:22">
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -4196,10 +4020,8 @@
       <c r="R77" s="5"/>
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
-      <c r="U77" s="5"/>
-      <c r="V77" s="5"/>
-    </row>
-    <row r="78" spans="1:22">
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -4220,10 +4042,8 @@
       <c r="R78" s="5"/>
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-    </row>
-    <row r="79" spans="1:22">
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -4244,10 +4064,8 @@
       <c r="R79" s="5"/>
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
-      <c r="V79" s="5"/>
-    </row>
-    <row r="80" spans="1:22">
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -4268,10 +4086,8 @@
       <c r="R80" s="5"/>
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
-      <c r="U80" s="5"/>
-      <c r="V80" s="5"/>
-    </row>
-    <row r="81" spans="1:22">
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -4292,10 +4108,8 @@
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
-      <c r="V81" s="5"/>
-    </row>
-    <row r="82" spans="1:22">
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -4316,10 +4130,8 @@
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-    </row>
-    <row r="83" spans="1:22">
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -4340,10 +4152,8 @@
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
       <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-    </row>
-    <row r="84" spans="1:22">
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -4364,10 +4174,8 @@
       <c r="R84" s="5"/>
       <c r="S84" s="5"/>
       <c r="T84" s="5"/>
-      <c r="U84" s="5"/>
-      <c r="V84" s="5"/>
-    </row>
-    <row r="85" spans="1:22">
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -4388,10 +4196,8 @@
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
       <c r="T85" s="5"/>
-      <c r="U85" s="5"/>
-      <c r="V85" s="5"/>
-    </row>
-    <row r="86" spans="1:22">
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -4412,10 +4218,8 @@
       <c r="R86" s="5"/>
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
-      <c r="U86" s="5"/>
-      <c r="V86" s="5"/>
-    </row>
-    <row r="87" spans="1:22">
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -4436,10 +4240,8 @@
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
       <c r="T87" s="5"/>
-      <c r="U87" s="5"/>
-      <c r="V87" s="5"/>
-    </row>
-    <row r="88" spans="1:22">
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -4460,10 +4262,8 @@
       <c r="R88" s="5"/>
       <c r="S88" s="5"/>
       <c r="T88" s="5"/>
-      <c r="U88" s="5"/>
-      <c r="V88" s="5"/>
-    </row>
-    <row r="89" spans="1:22">
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -4484,10 +4284,8 @@
       <c r="R89" s="5"/>
       <c r="S89" s="5"/>
       <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="5"/>
-    </row>
-    <row r="90" spans="1:22">
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -4508,10 +4306,8 @@
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
       <c r="T90" s="5"/>
-      <c r="U90" s="5"/>
-      <c r="V90" s="5"/>
-    </row>
-    <row r="91" spans="1:22">
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -4532,10 +4328,8 @@
       <c r="R91" s="5"/>
       <c r="S91" s="5"/>
       <c r="T91" s="5"/>
-      <c r="U91" s="5"/>
-      <c r="V91" s="5"/>
-    </row>
-    <row r="92" spans="1:22">
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -4556,10 +4350,8 @@
       <c r="R92" s="5"/>
       <c r="S92" s="5"/>
       <c r="T92" s="5"/>
-      <c r="U92" s="5"/>
-      <c r="V92" s="5"/>
-    </row>
-    <row r="93" spans="1:22">
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -4580,10 +4372,8 @@
       <c r="R93" s="5"/>
       <c r="S93" s="5"/>
       <c r="T93" s="5"/>
-      <c r="U93" s="5"/>
-      <c r="V93" s="5"/>
-    </row>
-    <row r="94" spans="1:22">
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -4604,10 +4394,8 @@
       <c r="R94" s="5"/>
       <c r="S94" s="5"/>
       <c r="T94" s="5"/>
-      <c r="U94" s="5"/>
-      <c r="V94" s="5"/>
-    </row>
-    <row r="95" spans="1:22">
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -4628,10 +4416,8 @@
       <c r="R95" s="5"/>
       <c r="S95" s="5"/>
       <c r="T95" s="5"/>
-      <c r="U95" s="5"/>
-      <c r="V95" s="5"/>
-    </row>
-    <row r="96" spans="1:22">
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -4652,10 +4438,8 @@
       <c r="R96" s="5"/>
       <c r="S96" s="5"/>
       <c r="T96" s="5"/>
-      <c r="U96" s="5"/>
-      <c r="V96" s="5"/>
-    </row>
-    <row r="97" spans="1:22">
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -4676,10 +4460,8 @@
       <c r="R97" s="5"/>
       <c r="S97" s="5"/>
       <c r="T97" s="5"/>
-      <c r="U97" s="5"/>
-      <c r="V97" s="5"/>
-    </row>
-    <row r="98" spans="1:22">
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -4700,10 +4482,8 @@
       <c r="R98" s="5"/>
       <c r="S98" s="5"/>
       <c r="T98" s="5"/>
-      <c r="U98" s="5"/>
-      <c r="V98" s="5"/>
-    </row>
-    <row r="99" spans="1:22">
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -4724,10 +4504,8 @@
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
       <c r="T99" s="5"/>
-      <c r="U99" s="5"/>
-      <c r="V99" s="5"/>
-    </row>
-    <row r="100" spans="1:22">
+    </row>
+    <row r="100" spans="1:20">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4748,10 +4526,8 @@
       <c r="R100" s="5"/>
       <c r="S100" s="5"/>
       <c r="T100" s="5"/>
-      <c r="U100" s="5"/>
-      <c r="V100" s="5"/>
-    </row>
-    <row r="101" spans="1:22">
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -4772,10 +4548,8 @@
       <c r="R101" s="5"/>
       <c r="S101" s="5"/>
       <c r="T101" s="5"/>
-      <c r="U101" s="5"/>
-      <c r="V101" s="5"/>
-    </row>
-    <row r="102" spans="1:22">
+    </row>
+    <row r="102" spans="1:20">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -4796,10 +4570,8 @@
       <c r="R102" s="5"/>
       <c r="S102" s="5"/>
       <c r="T102" s="5"/>
-      <c r="U102" s="5"/>
-      <c r="V102" s="5"/>
-    </row>
-    <row r="103" spans="1:22">
+    </row>
+    <row r="103" spans="1:20">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -4820,10 +4592,8 @@
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
       <c r="T103" s="5"/>
-      <c r="U103" s="5"/>
-      <c r="V103" s="5"/>
-    </row>
-    <row r="104" spans="1:22">
+    </row>
+    <row r="104" spans="1:20">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -4844,10 +4614,8 @@
       <c r="R104" s="5"/>
       <c r="S104" s="5"/>
       <c r="T104" s="5"/>
-      <c r="U104" s="5"/>
-      <c r="V104" s="5"/>
-    </row>
-    <row r="105" spans="1:22">
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -4868,10 +4636,8 @@
       <c r="R105" s="5"/>
       <c r="S105" s="5"/>
       <c r="T105" s="5"/>
-      <c r="U105" s="5"/>
-      <c r="V105" s="5"/>
-    </row>
-    <row r="106" spans="1:22">
+    </row>
+    <row r="106" spans="1:20">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -4892,10 +4658,8 @@
       <c r="R106" s="5"/>
       <c r="S106" s="5"/>
       <c r="T106" s="5"/>
-      <c r="U106" s="5"/>
-      <c r="V106" s="5"/>
-    </row>
-    <row r="107" spans="1:22">
+    </row>
+    <row r="107" spans="1:20">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -4916,10 +4680,8 @@
       <c r="R107" s="5"/>
       <c r="S107" s="5"/>
       <c r="T107" s="5"/>
-      <c r="U107" s="5"/>
-      <c r="V107" s="5"/>
-    </row>
-    <row r="108" spans="1:22">
+    </row>
+    <row r="108" spans="1:20">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -4940,10 +4702,8 @@
       <c r="R108" s="5"/>
       <c r="S108" s="5"/>
       <c r="T108" s="5"/>
-      <c r="U108" s="5"/>
-      <c r="V108" s="5"/>
-    </row>
-    <row r="109" spans="1:22">
+    </row>
+    <row r="109" spans="1:20">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -4964,10 +4724,8 @@
       <c r="R109" s="5"/>
       <c r="S109" s="5"/>
       <c r="T109" s="5"/>
-      <c r="U109" s="5"/>
-      <c r="V109" s="5"/>
-    </row>
-    <row r="110" spans="1:22">
+    </row>
+    <row r="110" spans="1:20">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -4988,10 +4746,8 @@
       <c r="R110" s="5"/>
       <c r="S110" s="5"/>
       <c r="T110" s="5"/>
-      <c r="U110" s="5"/>
-      <c r="V110" s="5"/>
-    </row>
-    <row r="111" spans="1:22">
+    </row>
+    <row r="111" spans="1:20">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -5012,10 +4768,8 @@
       <c r="R111" s="5"/>
       <c r="S111" s="5"/>
       <c r="T111" s="5"/>
-      <c r="U111" s="5"/>
-      <c r="V111" s="5"/>
-    </row>
-    <row r="112" spans="1:22">
+    </row>
+    <row r="112" spans="1:20">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5036,10 +4790,8 @@
       <c r="R112" s="5"/>
       <c r="S112" s="5"/>
       <c r="T112" s="5"/>
-      <c r="U112" s="5"/>
-      <c r="V112" s="5"/>
-    </row>
-    <row r="113" spans="1:22">
+    </row>
+    <row r="113" spans="1:20">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -5060,10 +4812,8 @@
       <c r="R113" s="5"/>
       <c r="S113" s="5"/>
       <c r="T113" s="5"/>
-      <c r="U113" s="5"/>
-      <c r="V113" s="5"/>
-    </row>
-    <row r="114" spans="1:22">
+    </row>
+    <row r="114" spans="1:20">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -5084,10 +4834,8 @@
       <c r="R114" s="5"/>
       <c r="S114" s="5"/>
       <c r="T114" s="5"/>
-      <c r="U114" s="5"/>
-      <c r="V114" s="5"/>
-    </row>
-    <row r="115" spans="1:22">
+    </row>
+    <row r="115" spans="1:20">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -5108,10 +4856,8 @@
       <c r="R115" s="5"/>
       <c r="S115" s="5"/>
       <c r="T115" s="5"/>
-      <c r="U115" s="5"/>
-      <c r="V115" s="5"/>
-    </row>
-    <row r="116" spans="1:22">
+    </row>
+    <row r="116" spans="1:20">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5132,10 +4878,8 @@
       <c r="R116" s="5"/>
       <c r="S116" s="5"/>
       <c r="T116" s="5"/>
-      <c r="U116" s="5"/>
-      <c r="V116" s="5"/>
-    </row>
-    <row r="117" spans="1:22">
+    </row>
+    <row r="117" spans="1:20">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -5156,10 +4900,8 @@
       <c r="R117" s="5"/>
       <c r="S117" s="5"/>
       <c r="T117" s="5"/>
-      <c r="U117" s="5"/>
-      <c r="V117" s="5"/>
-    </row>
-    <row r="118" spans="1:22">
+    </row>
+    <row r="118" spans="1:20">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -5180,10 +4922,8 @@
       <c r="R118" s="5"/>
       <c r="S118" s="5"/>
       <c r="T118" s="5"/>
-      <c r="U118" s="5"/>
-      <c r="V118" s="5"/>
-    </row>
-    <row r="119" spans="1:22">
+    </row>
+    <row r="119" spans="1:20">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -5204,10 +4944,8 @@
       <c r="R119" s="5"/>
       <c r="S119" s="5"/>
       <c r="T119" s="5"/>
-      <c r="U119" s="5"/>
-      <c r="V119" s="5"/>
-    </row>
-    <row r="120" spans="1:22">
+    </row>
+    <row r="120" spans="1:20">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -5228,10 +4966,8 @@
       <c r="R120" s="5"/>
       <c r="S120" s="5"/>
       <c r="T120" s="5"/>
-      <c r="U120" s="5"/>
-      <c r="V120" s="5"/>
-    </row>
-    <row r="121" spans="1:22">
+    </row>
+    <row r="121" spans="1:20">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -5252,10 +4988,8 @@
       <c r="R121" s="5"/>
       <c r="S121" s="5"/>
       <c r="T121" s="5"/>
-      <c r="U121" s="5"/>
-      <c r="V121" s="5"/>
-    </row>
-    <row r="122" spans="1:22">
+    </row>
+    <row r="122" spans="1:20">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -5276,10 +5010,8 @@
       <c r="R122" s="5"/>
       <c r="S122" s="5"/>
       <c r="T122" s="5"/>
-      <c r="U122" s="5"/>
-      <c r="V122" s="5"/>
-    </row>
-    <row r="123" spans="1:22">
+    </row>
+    <row r="123" spans="1:20">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -5300,10 +5032,8 @@
       <c r="R123" s="5"/>
       <c r="S123" s="5"/>
       <c r="T123" s="5"/>
-      <c r="U123" s="5"/>
-      <c r="V123" s="5"/>
-    </row>
-    <row r="124" spans="1:22">
+    </row>
+    <row r="124" spans="1:20">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -5324,10 +5054,8 @@
       <c r="R124" s="5"/>
       <c r="S124" s="5"/>
       <c r="T124" s="5"/>
-      <c r="U124" s="5"/>
-      <c r="V124" s="5"/>
-    </row>
-    <row r="125" spans="1:22">
+    </row>
+    <row r="125" spans="1:20">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -5348,10 +5076,8 @@
       <c r="R125" s="5"/>
       <c r="S125" s="5"/>
       <c r="T125" s="5"/>
-      <c r="U125" s="5"/>
-      <c r="V125" s="5"/>
-    </row>
-    <row r="126" spans="1:22">
+    </row>
+    <row r="126" spans="1:20">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -5372,10 +5098,8 @@
       <c r="R126" s="5"/>
       <c r="S126" s="5"/>
       <c r="T126" s="5"/>
-      <c r="U126" s="5"/>
-      <c r="V126" s="5"/>
-    </row>
-    <row r="127" spans="1:22">
+    </row>
+    <row r="127" spans="1:20">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -5396,10 +5120,8 @@
       <c r="R127" s="5"/>
       <c r="S127" s="5"/>
       <c r="T127" s="5"/>
-      <c r="U127" s="5"/>
-      <c r="V127" s="5"/>
-    </row>
-    <row r="128" spans="1:22">
+    </row>
+    <row r="128" spans="1:20">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -5420,10 +5142,8 @@
       <c r="R128" s="5"/>
       <c r="S128" s="5"/>
       <c r="T128" s="5"/>
-      <c r="U128" s="5"/>
-      <c r="V128" s="5"/>
-    </row>
-    <row r="129" spans="1:22">
+    </row>
+    <row r="129" spans="1:20">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -5444,10 +5164,8 @@
       <c r="R129" s="5"/>
       <c r="S129" s="5"/>
       <c r="T129" s="5"/>
-      <c r="U129" s="5"/>
-      <c r="V129" s="5"/>
-    </row>
-    <row r="130" spans="1:22">
+    </row>
+    <row r="130" spans="1:20">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -5468,10 +5186,8 @@
       <c r="R130" s="5"/>
       <c r="S130" s="5"/>
       <c r="T130" s="5"/>
-      <c r="U130" s="5"/>
-      <c r="V130" s="5"/>
-    </row>
-    <row r="131" spans="1:22">
+    </row>
+    <row r="131" spans="1:20">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -5492,10 +5208,8 @@
       <c r="R131" s="5"/>
       <c r="S131" s="5"/>
       <c r="T131" s="5"/>
-      <c r="U131" s="5"/>
-      <c r="V131" s="5"/>
-    </row>
-    <row r="132" spans="1:22">
+    </row>
+    <row r="132" spans="1:20">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -5516,10 +5230,8 @@
       <c r="R132" s="5"/>
       <c r="S132" s="5"/>
       <c r="T132" s="5"/>
-      <c r="U132" s="5"/>
-      <c r="V132" s="5"/>
-    </row>
-    <row r="133" spans="1:22">
+    </row>
+    <row r="133" spans="1:20">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -5540,10 +5252,8 @@
       <c r="R133" s="5"/>
       <c r="S133" s="5"/>
       <c r="T133" s="5"/>
-      <c r="U133" s="5"/>
-      <c r="V133" s="5"/>
-    </row>
-    <row r="134" spans="1:22">
+    </row>
+    <row r="134" spans="1:20">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -5564,10 +5274,8 @@
       <c r="R134" s="5"/>
       <c r="S134" s="5"/>
       <c r="T134" s="5"/>
-      <c r="U134" s="5"/>
-      <c r="V134" s="5"/>
-    </row>
-    <row r="135" spans="1:22">
+    </row>
+    <row r="135" spans="1:20">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -5588,10 +5296,8 @@
       <c r="R135" s="5"/>
       <c r="S135" s="5"/>
       <c r="T135" s="5"/>
-      <c r="U135" s="5"/>
-      <c r="V135" s="5"/>
-    </row>
-    <row r="136" spans="1:22">
+    </row>
+    <row r="136" spans="1:20">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -5612,10 +5318,8 @@
       <c r="R136" s="5"/>
       <c r="S136" s="5"/>
       <c r="T136" s="5"/>
-      <c r="U136" s="5"/>
-      <c r="V136" s="5"/>
-    </row>
-    <row r="137" spans="1:22">
+    </row>
+    <row r="137" spans="1:20">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -5636,10 +5340,8 @@
       <c r="R137" s="5"/>
       <c r="S137" s="5"/>
       <c r="T137" s="5"/>
-      <c r="U137" s="5"/>
-      <c r="V137" s="5"/>
-    </row>
-    <row r="138" spans="1:22">
+    </row>
+    <row r="138" spans="1:20">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -5660,10 +5362,8 @@
       <c r="R138" s="5"/>
       <c r="S138" s="5"/>
       <c r="T138" s="5"/>
-      <c r="U138" s="5"/>
-      <c r="V138" s="5"/>
-    </row>
-    <row r="139" spans="1:22">
+    </row>
+    <row r="139" spans="1:20">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -5684,10 +5384,8 @@
       <c r="R139" s="5"/>
       <c r="S139" s="5"/>
       <c r="T139" s="5"/>
-      <c r="U139" s="5"/>
-      <c r="V139" s="5"/>
-    </row>
-    <row r="140" spans="1:22">
+    </row>
+    <row r="140" spans="1:20">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -5708,10 +5406,8 @@
       <c r="R140" s="5"/>
       <c r="S140" s="5"/>
       <c r="T140" s="5"/>
-      <c r="U140" s="5"/>
-      <c r="V140" s="5"/>
-    </row>
-    <row r="141" spans="1:22">
+    </row>
+    <row r="141" spans="1:20">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -5732,10 +5428,8 @@
       <c r="R141" s="5"/>
       <c r="S141" s="5"/>
       <c r="T141" s="5"/>
-      <c r="U141" s="5"/>
-      <c r="V141" s="5"/>
-    </row>
-    <row r="142" spans="1:22">
+    </row>
+    <row r="142" spans="1:20">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -5756,10 +5450,8 @@
       <c r="R142" s="5"/>
       <c r="S142" s="5"/>
       <c r="T142" s="5"/>
-      <c r="U142" s="5"/>
-      <c r="V142" s="5"/>
-    </row>
-    <row r="143" spans="1:22">
+    </row>
+    <row r="143" spans="1:20">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -5780,10 +5472,8 @@
       <c r="R143" s="5"/>
       <c r="S143" s="5"/>
       <c r="T143" s="5"/>
-      <c r="U143" s="5"/>
-      <c r="V143" s="5"/>
-    </row>
-    <row r="144" spans="1:22">
+    </row>
+    <row r="144" spans="1:20">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -5804,10 +5494,8 @@
       <c r="R144" s="5"/>
       <c r="S144" s="5"/>
       <c r="T144" s="5"/>
-      <c r="U144" s="5"/>
-      <c r="V144" s="5"/>
-    </row>
-    <row r="145" spans="1:22">
+    </row>
+    <row r="145" spans="1:20">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -5828,10 +5516,8 @@
       <c r="R145" s="5"/>
       <c r="S145" s="5"/>
       <c r="T145" s="5"/>
-      <c r="U145" s="5"/>
-      <c r="V145" s="5"/>
-    </row>
-    <row r="146" spans="1:22">
+    </row>
+    <row r="146" spans="1:20">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -5852,10 +5538,8 @@
       <c r="R146" s="5"/>
       <c r="S146" s="5"/>
       <c r="T146" s="5"/>
-      <c r="U146" s="5"/>
-      <c r="V146" s="5"/>
-    </row>
-    <row r="147" spans="1:22">
+    </row>
+    <row r="147" spans="1:20">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -5876,10 +5560,8 @@
       <c r="R147" s="5"/>
       <c r="S147" s="5"/>
       <c r="T147" s="5"/>
-      <c r="U147" s="5"/>
-      <c r="V147" s="5"/>
-    </row>
-    <row r="148" spans="1:22">
+    </row>
+    <row r="148" spans="1:20">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -5900,10 +5582,8 @@
       <c r="R148" s="5"/>
       <c r="S148" s="5"/>
       <c r="T148" s="5"/>
-      <c r="U148" s="5"/>
-      <c r="V148" s="5"/>
-    </row>
-    <row r="149" spans="1:22">
+    </row>
+    <row r="149" spans="1:20">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -5924,10 +5604,8 @@
       <c r="R149" s="5"/>
       <c r="S149" s="5"/>
       <c r="T149" s="5"/>
-      <c r="U149" s="5"/>
-      <c r="V149" s="5"/>
-    </row>
-    <row r="150" spans="1:22">
+    </row>
+    <row r="150" spans="1:20">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -5948,10 +5626,8 @@
       <c r="R150" s="5"/>
       <c r="S150" s="5"/>
       <c r="T150" s="5"/>
-      <c r="U150" s="5"/>
-      <c r="V150" s="5"/>
-    </row>
-    <row r="151" spans="1:22">
+    </row>
+    <row r="151" spans="1:20">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -5972,10 +5648,8 @@
       <c r="R151" s="5"/>
       <c r="S151" s="5"/>
       <c r="T151" s="5"/>
-      <c r="U151" s="5"/>
-      <c r="V151" s="5"/>
-    </row>
-    <row r="152" spans="1:22">
+    </row>
+    <row r="152" spans="1:20">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -5996,10 +5670,8 @@
       <c r="R152" s="5"/>
       <c r="S152" s="5"/>
       <c r="T152" s="5"/>
-      <c r="U152" s="5"/>
-      <c r="V152" s="5"/>
-    </row>
-    <row r="153" spans="1:22">
+    </row>
+    <row r="153" spans="1:20">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -6020,10 +5692,8 @@
       <c r="R153" s="5"/>
       <c r="S153" s="5"/>
       <c r="T153" s="5"/>
-      <c r="U153" s="5"/>
-      <c r="V153" s="5"/>
-    </row>
-    <row r="154" spans="1:22">
+    </row>
+    <row r="154" spans="1:20">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -6044,10 +5714,8 @@
       <c r="R154" s="5"/>
       <c r="S154" s="5"/>
       <c r="T154" s="5"/>
-      <c r="U154" s="5"/>
-      <c r="V154" s="5"/>
-    </row>
-    <row r="155" spans="1:22">
+    </row>
+    <row r="155" spans="1:20">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -6068,10 +5736,8 @@
       <c r="R155" s="5"/>
       <c r="S155" s="5"/>
       <c r="T155" s="5"/>
-      <c r="U155" s="5"/>
-      <c r="V155" s="5"/>
-    </row>
-    <row r="156" spans="1:22">
+    </row>
+    <row r="156" spans="1:20">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -6092,10 +5758,8 @@
       <c r="R156" s="5"/>
       <c r="S156" s="5"/>
       <c r="T156" s="5"/>
-      <c r="U156" s="5"/>
-      <c r="V156" s="5"/>
-    </row>
-    <row r="157" spans="1:22">
+    </row>
+    <row r="157" spans="1:20">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -6116,10 +5780,8 @@
       <c r="R157" s="5"/>
       <c r="S157" s="5"/>
       <c r="T157" s="5"/>
-      <c r="U157" s="5"/>
-      <c r="V157" s="5"/>
-    </row>
-    <row r="158" spans="1:22">
+    </row>
+    <row r="158" spans="1:20">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -6140,10 +5802,8 @@
       <c r="R158" s="5"/>
       <c r="S158" s="5"/>
       <c r="T158" s="5"/>
-      <c r="U158" s="5"/>
-      <c r="V158" s="5"/>
-    </row>
-    <row r="159" spans="1:22">
+    </row>
+    <row r="159" spans="1:20">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -6164,10 +5824,8 @@
       <c r="R159" s="5"/>
       <c r="S159" s="5"/>
       <c r="T159" s="5"/>
-      <c r="U159" s="5"/>
-      <c r="V159" s="5"/>
-    </row>
-    <row r="160" spans="1:22">
+    </row>
+    <row r="160" spans="1:20">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -6188,10 +5846,8 @@
       <c r="R160" s="5"/>
       <c r="S160" s="5"/>
       <c r="T160" s="5"/>
-      <c r="U160" s="5"/>
-      <c r="V160" s="5"/>
-    </row>
-    <row r="161" spans="1:22">
+    </row>
+    <row r="161" spans="1:20">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -6212,10 +5868,8 @@
       <c r="R161" s="5"/>
       <c r="S161" s="5"/>
       <c r="T161" s="5"/>
-      <c r="U161" s="5"/>
-      <c r="V161" s="5"/>
-    </row>
-    <row r="162" spans="1:22">
+    </row>
+    <row r="162" spans="1:20">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -6236,10 +5890,8 @@
       <c r="R162" s="5"/>
       <c r="S162" s="5"/>
       <c r="T162" s="5"/>
-      <c r="U162" s="5"/>
-      <c r="V162" s="5"/>
-    </row>
-    <row r="163" spans="1:22">
+    </row>
+    <row r="163" spans="1:20">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -6260,10 +5912,8 @@
       <c r="R163" s="5"/>
       <c r="S163" s="5"/>
       <c r="T163" s="5"/>
-      <c r="U163" s="5"/>
-      <c r="V163" s="5"/>
-    </row>
-    <row r="164" spans="1:22">
+    </row>
+    <row r="164" spans="1:20">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -6284,10 +5934,8 @@
       <c r="R164" s="5"/>
       <c r="S164" s="5"/>
       <c r="T164" s="5"/>
-      <c r="U164" s="5"/>
-      <c r="V164" s="5"/>
-    </row>
-    <row r="165" spans="1:22">
+    </row>
+    <row r="165" spans="1:20">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -6308,10 +5956,8 @@
       <c r="R165" s="5"/>
       <c r="S165" s="5"/>
       <c r="T165" s="5"/>
-      <c r="U165" s="5"/>
-      <c r="V165" s="5"/>
-    </row>
-    <row r="166" spans="1:22">
+    </row>
+    <row r="166" spans="1:20">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -6332,10 +5978,8 @@
       <c r="R166" s="5"/>
       <c r="S166" s="5"/>
       <c r="T166" s="5"/>
-      <c r="U166" s="5"/>
-      <c r="V166" s="5"/>
-    </row>
-    <row r="167" spans="1:22">
+    </row>
+    <row r="167" spans="1:20">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -6356,10 +6000,8 @@
       <c r="R167" s="5"/>
       <c r="S167" s="5"/>
       <c r="T167" s="5"/>
-      <c r="U167" s="5"/>
-      <c r="V167" s="5"/>
-    </row>
-    <row r="168" spans="1:22">
+    </row>
+    <row r="168" spans="1:20">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -6380,10 +6022,8 @@
       <c r="R168" s="5"/>
       <c r="S168" s="5"/>
       <c r="T168" s="5"/>
-      <c r="U168" s="5"/>
-      <c r="V168" s="5"/>
-    </row>
-    <row r="169" spans="1:22">
+    </row>
+    <row r="169" spans="1:20">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -6404,10 +6044,8 @@
       <c r="R169" s="5"/>
       <c r="S169" s="5"/>
       <c r="T169" s="5"/>
-      <c r="U169" s="5"/>
-      <c r="V169" s="5"/>
-    </row>
-    <row r="170" spans="1:22">
+    </row>
+    <row r="170" spans="1:20">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -6428,10 +6066,8 @@
       <c r="R170" s="5"/>
       <c r="S170" s="5"/>
       <c r="T170" s="5"/>
-      <c r="U170" s="5"/>
-      <c r="V170" s="5"/>
-    </row>
-    <row r="171" spans="1:22">
+    </row>
+    <row r="171" spans="1:20">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -6452,10 +6088,8 @@
       <c r="R171" s="5"/>
       <c r="S171" s="5"/>
       <c r="T171" s="5"/>
-      <c r="U171" s="5"/>
-      <c r="V171" s="5"/>
-    </row>
-    <row r="172" spans="1:22">
+    </row>
+    <row r="172" spans="1:20">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -6476,10 +6110,8 @@
       <c r="R172" s="5"/>
       <c r="S172" s="5"/>
       <c r="T172" s="5"/>
-      <c r="U172" s="5"/>
-      <c r="V172" s="5"/>
-    </row>
-    <row r="173" spans="1:22">
+    </row>
+    <row r="173" spans="1:20">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -6500,10 +6132,8 @@
       <c r="R173" s="5"/>
       <c r="S173" s="5"/>
       <c r="T173" s="5"/>
-      <c r="U173" s="5"/>
-      <c r="V173" s="5"/>
-    </row>
-    <row r="174" spans="1:22">
+    </row>
+    <row r="174" spans="1:20">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -6524,10 +6154,8 @@
       <c r="R174" s="5"/>
       <c r="S174" s="5"/>
       <c r="T174" s="5"/>
-      <c r="U174" s="5"/>
-      <c r="V174" s="5"/>
-    </row>
-    <row r="175" spans="1:22">
+    </row>
+    <row r="175" spans="1:20">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -6548,10 +6176,8 @@
       <c r="R175" s="5"/>
       <c r="S175" s="5"/>
       <c r="T175" s="5"/>
-      <c r="U175" s="5"/>
-      <c r="V175" s="5"/>
-    </row>
-    <row r="176" spans="1:22">
+    </row>
+    <row r="176" spans="1:20">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -6572,10 +6198,8 @@
       <c r="R176" s="5"/>
       <c r="S176" s="5"/>
       <c r="T176" s="5"/>
-      <c r="U176" s="5"/>
-      <c r="V176" s="5"/>
-    </row>
-    <row r="177" spans="1:22">
+    </row>
+    <row r="177" spans="1:20">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -6596,10 +6220,8 @@
       <c r="R177" s="5"/>
       <c r="S177" s="5"/>
       <c r="T177" s="5"/>
-      <c r="U177" s="5"/>
-      <c r="V177" s="5"/>
-    </row>
-    <row r="178" spans="1:22">
+    </row>
+    <row r="178" spans="1:20">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -6620,10 +6242,8 @@
       <c r="R178" s="5"/>
       <c r="S178" s="5"/>
       <c r="T178" s="5"/>
-      <c r="U178" s="5"/>
-      <c r="V178" s="5"/>
-    </row>
-    <row r="179" spans="1:22">
+    </row>
+    <row r="179" spans="1:20">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -6644,10 +6264,8 @@
       <c r="R179" s="5"/>
       <c r="S179" s="5"/>
       <c r="T179" s="5"/>
-      <c r="U179" s="5"/>
-      <c r="V179" s="5"/>
-    </row>
-    <row r="180" spans="1:22">
+    </row>
+    <row r="180" spans="1:20">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -6668,10 +6286,8 @@
       <c r="R180" s="5"/>
       <c r="S180" s="5"/>
       <c r="T180" s="5"/>
-      <c r="U180" s="5"/>
-      <c r="V180" s="5"/>
-    </row>
-    <row r="181" spans="1:22">
+    </row>
+    <row r="181" spans="1:20">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -6692,10 +6308,8 @@
       <c r="R181" s="5"/>
       <c r="S181" s="5"/>
       <c r="T181" s="5"/>
-      <c r="U181" s="5"/>
-      <c r="V181" s="5"/>
-    </row>
-    <row r="182" spans="1:22">
+    </row>
+    <row r="182" spans="1:20">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -6716,10 +6330,8 @@
       <c r="R182" s="5"/>
       <c r="S182" s="5"/>
       <c r="T182" s="5"/>
-      <c r="U182" s="5"/>
-      <c r="V182" s="5"/>
-    </row>
-    <row r="183" spans="1:22">
+    </row>
+    <row r="183" spans="1:20">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -6740,10 +6352,8 @@
       <c r="R183" s="5"/>
       <c r="S183" s="5"/>
       <c r="T183" s="5"/>
-      <c r="U183" s="5"/>
-      <c r="V183" s="5"/>
-    </row>
-    <row r="184" spans="1:22">
+    </row>
+    <row r="184" spans="1:20">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -6764,10 +6374,8 @@
       <c r="R184" s="5"/>
       <c r="S184" s="5"/>
       <c r="T184" s="5"/>
-      <c r="U184" s="5"/>
-      <c r="V184" s="5"/>
-    </row>
-    <row r="185" spans="1:22">
+    </row>
+    <row r="185" spans="1:20">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -6788,10 +6396,8 @@
       <c r="R185" s="5"/>
       <c r="S185" s="5"/>
       <c r="T185" s="5"/>
-      <c r="U185" s="5"/>
-      <c r="V185" s="5"/>
-    </row>
-    <row r="186" spans="1:22">
+    </row>
+    <row r="186" spans="1:20">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -6812,10 +6418,8 @@
       <c r="R186" s="5"/>
       <c r="S186" s="5"/>
       <c r="T186" s="5"/>
-      <c r="U186" s="5"/>
-      <c r="V186" s="5"/>
-    </row>
-    <row r="187" spans="1:22">
+    </row>
+    <row r="187" spans="1:20">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -6836,10 +6440,8 @@
       <c r="R187" s="5"/>
       <c r="S187" s="5"/>
       <c r="T187" s="5"/>
-      <c r="U187" s="5"/>
-      <c r="V187" s="5"/>
-    </row>
-    <row r="188" spans="1:22">
+    </row>
+    <row r="188" spans="1:20">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -6860,10 +6462,8 @@
       <c r="R188" s="5"/>
       <c r="S188" s="5"/>
       <c r="T188" s="5"/>
-      <c r="U188" s="5"/>
-      <c r="V188" s="5"/>
-    </row>
-    <row r="189" spans="1:22">
+    </row>
+    <row r="189" spans="1:20">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -6884,10 +6484,8 @@
       <c r="R189" s="5"/>
       <c r="S189" s="5"/>
       <c r="T189" s="5"/>
-      <c r="U189" s="5"/>
-      <c r="V189" s="5"/>
-    </row>
-    <row r="190" spans="1:22">
+    </row>
+    <row r="190" spans="1:20">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -6908,10 +6506,8 @@
       <c r="R190" s="5"/>
       <c r="S190" s="5"/>
       <c r="T190" s="5"/>
-      <c r="U190" s="5"/>
-      <c r="V190" s="5"/>
-    </row>
-    <row r="191" spans="1:22">
+    </row>
+    <row r="191" spans="1:20">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -6932,10 +6528,8 @@
       <c r="R191" s="5"/>
       <c r="S191" s="5"/>
       <c r="T191" s="5"/>
-      <c r="U191" s="5"/>
-      <c r="V191" s="5"/>
-    </row>
-    <row r="192" spans="1:22">
+    </row>
+    <row r="192" spans="1:20">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -6956,10 +6550,8 @@
       <c r="R192" s="5"/>
       <c r="S192" s="5"/>
       <c r="T192" s="5"/>
-      <c r="U192" s="5"/>
-      <c r="V192" s="5"/>
-    </row>
-    <row r="193" spans="1:22">
+    </row>
+    <row r="193" spans="1:20">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -6980,10 +6572,8 @@
       <c r="R193" s="5"/>
       <c r="S193" s="5"/>
       <c r="T193" s="5"/>
-      <c r="U193" s="5"/>
-      <c r="V193" s="5"/>
-    </row>
-    <row r="194" spans="1:22">
+    </row>
+    <row r="194" spans="1:20">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -7004,10 +6594,8 @@
       <c r="R194" s="5"/>
       <c r="S194" s="5"/>
       <c r="T194" s="5"/>
-      <c r="U194" s="5"/>
-      <c r="V194" s="5"/>
-    </row>
-    <row r="195" spans="1:22">
+    </row>
+    <row r="195" spans="1:20">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -7028,10 +6616,8 @@
       <c r="R195" s="5"/>
       <c r="S195" s="5"/>
       <c r="T195" s="5"/>
-      <c r="U195" s="5"/>
-      <c r="V195" s="5"/>
-    </row>
-    <row r="196" spans="1:22">
+    </row>
+    <row r="196" spans="1:20">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -7052,10 +6638,8 @@
       <c r="R196" s="5"/>
       <c r="S196" s="5"/>
       <c r="T196" s="5"/>
-      <c r="U196" s="5"/>
-      <c r="V196" s="5"/>
-    </row>
-    <row r="197" spans="1:22">
+    </row>
+    <row r="197" spans="1:20">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -7076,10 +6660,8 @@
       <c r="R197" s="5"/>
       <c r="S197" s="5"/>
       <c r="T197" s="5"/>
-      <c r="U197" s="5"/>
-      <c r="V197" s="5"/>
-    </row>
-    <row r="198" spans="1:22">
+    </row>
+    <row r="198" spans="1:20">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -7100,10 +6682,8 @@
       <c r="R198" s="5"/>
       <c r="S198" s="5"/>
       <c r="T198" s="5"/>
-      <c r="U198" s="5"/>
-      <c r="V198" s="5"/>
-    </row>
-    <row r="199" spans="1:22">
+    </row>
+    <row r="199" spans="1:20">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -7124,10 +6704,8 @@
       <c r="R199" s="5"/>
       <c r="S199" s="5"/>
       <c r="T199" s="5"/>
-      <c r="U199" s="5"/>
-      <c r="V199" s="5"/>
-    </row>
-    <row r="200" spans="1:22">
+    </row>
+    <row r="200" spans="1:20">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -7148,10 +6726,8 @@
       <c r="R200" s="5"/>
       <c r="S200" s="5"/>
       <c r="T200" s="5"/>
-      <c r="U200" s="5"/>
-      <c r="V200" s="5"/>
-    </row>
-    <row r="201" spans="1:22">
+    </row>
+    <row r="201" spans="1:20">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -7172,10 +6748,8 @@
       <c r="R201" s="5"/>
       <c r="S201" s="5"/>
       <c r="T201" s="5"/>
-      <c r="U201" s="5"/>
-      <c r="V201" s="5"/>
-    </row>
-    <row r="202" spans="1:22">
+    </row>
+    <row r="202" spans="1:20">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -7196,10 +6770,8 @@
       <c r="R202" s="5"/>
       <c r="S202" s="5"/>
       <c r="T202" s="5"/>
-      <c r="U202" s="5"/>
-      <c r="V202" s="5"/>
-    </row>
-    <row r="203" spans="1:22">
+    </row>
+    <row r="203" spans="1:20">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -7220,10 +6792,8 @@
       <c r="R203" s="5"/>
       <c r="S203" s="5"/>
       <c r="T203" s="5"/>
-      <c r="U203" s="5"/>
-      <c r="V203" s="5"/>
-    </row>
-    <row r="204" spans="1:22">
+    </row>
+    <row r="204" spans="1:20">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -7244,10 +6814,8 @@
       <c r="R204" s="5"/>
       <c r="S204" s="5"/>
       <c r="T204" s="5"/>
-      <c r="U204" s="5"/>
-      <c r="V204" s="5"/>
-    </row>
-    <row r="205" spans="1:22">
+    </row>
+    <row r="205" spans="1:20">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -7268,10 +6836,8 @@
       <c r="R205" s="5"/>
       <c r="S205" s="5"/>
       <c r="T205" s="5"/>
-      <c r="U205" s="5"/>
-      <c r="V205" s="5"/>
-    </row>
-    <row r="206" spans="1:22">
+    </row>
+    <row r="206" spans="1:20">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -7292,10 +6858,8 @@
       <c r="R206" s="5"/>
       <c r="S206" s="5"/>
       <c r="T206" s="5"/>
-      <c r="U206" s="5"/>
-      <c r="V206" s="5"/>
-    </row>
-    <row r="207" spans="1:22">
+    </row>
+    <row r="207" spans="1:20">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -7316,10 +6880,8 @@
       <c r="R207" s="5"/>
       <c r="S207" s="5"/>
       <c r="T207" s="5"/>
-      <c r="U207" s="5"/>
-      <c r="V207" s="5"/>
-    </row>
-    <row r="208" spans="1:22">
+    </row>
+    <row r="208" spans="1:20">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -7340,10 +6902,8 @@
       <c r="R208" s="5"/>
       <c r="S208" s="5"/>
       <c r="T208" s="5"/>
-      <c r="U208" s="5"/>
-      <c r="V208" s="5"/>
-    </row>
-    <row r="209" spans="1:22">
+    </row>
+    <row r="209" spans="1:20">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -7364,10 +6924,8 @@
       <c r="R209" s="5"/>
       <c r="S209" s="5"/>
       <c r="T209" s="5"/>
-      <c r="U209" s="5"/>
-      <c r="V209" s="5"/>
-    </row>
-    <row r="210" spans="1:22">
+    </row>
+    <row r="210" spans="1:20">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -7388,10 +6946,8 @@
       <c r="R210" s="5"/>
       <c r="S210" s="5"/>
       <c r="T210" s="5"/>
-      <c r="U210" s="5"/>
-      <c r="V210" s="5"/>
-    </row>
-    <row r="211" spans="1:22">
+    </row>
+    <row r="211" spans="1:20">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -7412,10 +6968,8 @@
       <c r="R211" s="5"/>
       <c r="S211" s="5"/>
       <c r="T211" s="5"/>
-      <c r="U211" s="5"/>
-      <c r="V211" s="5"/>
-    </row>
-    <row r="212" spans="1:22">
+    </row>
+    <row r="212" spans="1:20">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -7436,10 +6990,8 @@
       <c r="R212" s="5"/>
       <c r="S212" s="5"/>
       <c r="T212" s="5"/>
-      <c r="U212" s="5"/>
-      <c r="V212" s="5"/>
-    </row>
-    <row r="213" spans="1:22">
+    </row>
+    <row r="213" spans="1:20">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -7460,10 +7012,8 @@
       <c r="R213" s="5"/>
       <c r="S213" s="5"/>
       <c r="T213" s="5"/>
-      <c r="U213" s="5"/>
-      <c r="V213" s="5"/>
-    </row>
-    <row r="214" spans="1:22">
+    </row>
+    <row r="214" spans="1:20">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -7484,10 +7034,8 @@
       <c r="R214" s="5"/>
       <c r="S214" s="5"/>
       <c r="T214" s="5"/>
-      <c r="U214" s="5"/>
-      <c r="V214" s="5"/>
-    </row>
-    <row r="215" spans="1:22">
+    </row>
+    <row r="215" spans="1:20">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -7508,10 +7056,8 @@
       <c r="R215" s="5"/>
       <c r="S215" s="5"/>
       <c r="T215" s="5"/>
-      <c r="U215" s="5"/>
-      <c r="V215" s="5"/>
-    </row>
-    <row r="216" spans="1:22">
+    </row>
+    <row r="216" spans="1:20">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -7532,10 +7078,8 @@
       <c r="R216" s="5"/>
       <c r="S216" s="5"/>
       <c r="T216" s="5"/>
-      <c r="U216" s="5"/>
-      <c r="V216" s="5"/>
-    </row>
-    <row r="217" spans="1:22">
+    </row>
+    <row r="217" spans="1:20">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -7556,10 +7100,8 @@
       <c r="R217" s="5"/>
       <c r="S217" s="5"/>
       <c r="T217" s="5"/>
-      <c r="U217" s="5"/>
-      <c r="V217" s="5"/>
-    </row>
-    <row r="218" spans="1:22">
+    </row>
+    <row r="218" spans="1:20">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -7580,10 +7122,8 @@
       <c r="R218" s="5"/>
       <c r="S218" s="5"/>
       <c r="T218" s="5"/>
-      <c r="U218" s="5"/>
-      <c r="V218" s="5"/>
-    </row>
-    <row r="219" spans="1:22">
+    </row>
+    <row r="219" spans="1:20">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -7604,10 +7144,8 @@
       <c r="R219" s="5"/>
       <c r="S219" s="5"/>
       <c r="T219" s="5"/>
-      <c r="U219" s="5"/>
-      <c r="V219" s="5"/>
-    </row>
-    <row r="220" spans="1:22">
+    </row>
+    <row r="220" spans="1:20">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -7628,10 +7166,8 @@
       <c r="R220" s="5"/>
       <c r="S220" s="5"/>
       <c r="T220" s="5"/>
-      <c r="U220" s="5"/>
-      <c r="V220" s="5"/>
-    </row>
-    <row r="221" spans="1:22">
+    </row>
+    <row r="221" spans="1:20">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -7652,10 +7188,8 @@
       <c r="R221" s="5"/>
       <c r="S221" s="5"/>
       <c r="T221" s="5"/>
-      <c r="U221" s="5"/>
-      <c r="V221" s="5"/>
-    </row>
-    <row r="222" spans="1:22">
+    </row>
+    <row r="222" spans="1:20">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -7676,10 +7210,8 @@
       <c r="R222" s="5"/>
       <c r="S222" s="5"/>
       <c r="T222" s="5"/>
-      <c r="U222" s="5"/>
-      <c r="V222" s="5"/>
-    </row>
-    <row r="223" spans="1:22">
+    </row>
+    <row r="223" spans="1:20">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -7700,10 +7232,8 @@
       <c r="R223" s="5"/>
       <c r="S223" s="5"/>
       <c r="T223" s="5"/>
-      <c r="U223" s="5"/>
-      <c r="V223" s="5"/>
-    </row>
-    <row r="224" spans="1:22">
+    </row>
+    <row r="224" spans="1:20">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -7724,10 +7254,8 @@
       <c r="R224" s="5"/>
       <c r="S224" s="5"/>
       <c r="T224" s="5"/>
-      <c r="U224" s="5"/>
-      <c r="V224" s="5"/>
-    </row>
-    <row r="225" spans="1:22">
+    </row>
+    <row r="225" spans="1:20">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -7748,10 +7276,8 @@
       <c r="R225" s="5"/>
       <c r="S225" s="5"/>
       <c r="T225" s="5"/>
-      <c r="U225" s="5"/>
-      <c r="V225" s="5"/>
-    </row>
-    <row r="226" spans="1:22">
+    </row>
+    <row r="226" spans="1:20">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -7772,10 +7298,8 @@
       <c r="R226" s="5"/>
       <c r="S226" s="5"/>
       <c r="T226" s="5"/>
-      <c r="U226" s="5"/>
-      <c r="V226" s="5"/>
-    </row>
-    <row r="227" spans="1:22">
+    </row>
+    <row r="227" spans="1:20">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -7796,10 +7320,8 @@
       <c r="R227" s="5"/>
       <c r="S227" s="5"/>
       <c r="T227" s="5"/>
-      <c r="U227" s="5"/>
-      <c r="V227" s="5"/>
-    </row>
-    <row r="228" spans="1:22">
+    </row>
+    <row r="228" spans="1:20">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -7820,10 +7342,8 @@
       <c r="R228" s="5"/>
       <c r="S228" s="5"/>
       <c r="T228" s="5"/>
-      <c r="U228" s="5"/>
-      <c r="V228" s="5"/>
-    </row>
-    <row r="229" spans="1:22">
+    </row>
+    <row r="229" spans="1:20">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -7844,10 +7364,8 @@
       <c r="R229" s="5"/>
       <c r="S229" s="5"/>
       <c r="T229" s="5"/>
-      <c r="U229" s="5"/>
-      <c r="V229" s="5"/>
-    </row>
-    <row r="230" spans="1:22">
+    </row>
+    <row r="230" spans="1:20">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -7868,10 +7386,8 @@
       <c r="R230" s="5"/>
       <c r="S230" s="5"/>
       <c r="T230" s="5"/>
-      <c r="U230" s="5"/>
-      <c r="V230" s="5"/>
-    </row>
-    <row r="231" spans="1:22">
+    </row>
+    <row r="231" spans="1:20">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -7892,10 +7408,8 @@
       <c r="R231" s="5"/>
       <c r="S231" s="5"/>
       <c r="T231" s="5"/>
-      <c r="U231" s="5"/>
-      <c r="V231" s="5"/>
-    </row>
-    <row r="232" spans="1:22">
+    </row>
+    <row r="232" spans="1:20">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -7916,10 +7430,8 @@
       <c r="R232" s="5"/>
       <c r="S232" s="5"/>
       <c r="T232" s="5"/>
-      <c r="U232" s="5"/>
-      <c r="V232" s="5"/>
-    </row>
-    <row r="233" spans="1:22">
+    </row>
+    <row r="233" spans="1:20">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -7940,10 +7452,8 @@
       <c r="R233" s="5"/>
       <c r="S233" s="5"/>
       <c r="T233" s="5"/>
-      <c r="U233" s="5"/>
-      <c r="V233" s="5"/>
-    </row>
-    <row r="234" spans="1:22">
+    </row>
+    <row r="234" spans="1:20">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -7964,10 +7474,8 @@
       <c r="R234" s="5"/>
       <c r="S234" s="5"/>
       <c r="T234" s="5"/>
-      <c r="U234" s="5"/>
-      <c r="V234" s="5"/>
-    </row>
-    <row r="235" spans="1:22">
+    </row>
+    <row r="235" spans="1:20">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -7988,10 +7496,8 @@
       <c r="R235" s="5"/>
       <c r="S235" s="5"/>
       <c r="T235" s="5"/>
-      <c r="U235" s="5"/>
-      <c r="V235" s="5"/>
-    </row>
-    <row r="236" spans="1:22">
+    </row>
+    <row r="236" spans="1:20">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -8012,10 +7518,8 @@
       <c r="R236" s="5"/>
       <c r="S236" s="5"/>
       <c r="T236" s="5"/>
-      <c r="U236" s="5"/>
-      <c r="V236" s="5"/>
-    </row>
-    <row r="237" spans="1:22">
+    </row>
+    <row r="237" spans="1:20">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -8036,10 +7540,8 @@
       <c r="R237" s="5"/>
       <c r="S237" s="5"/>
       <c r="T237" s="5"/>
-      <c r="U237" s="5"/>
-      <c r="V237" s="5"/>
-    </row>
-    <row r="238" spans="1:22">
+    </row>
+    <row r="238" spans="1:20">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -8060,10 +7562,8 @@
       <c r="R238" s="5"/>
       <c r="S238" s="5"/>
       <c r="T238" s="5"/>
-      <c r="U238" s="5"/>
-      <c r="V238" s="5"/>
-    </row>
-    <row r="239" spans="1:22">
+    </row>
+    <row r="239" spans="1:20">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -8084,10 +7584,8 @@
       <c r="R239" s="5"/>
       <c r="S239" s="5"/>
       <c r="T239" s="5"/>
-      <c r="U239" s="5"/>
-      <c r="V239" s="5"/>
-    </row>
-    <row r="240" spans="1:22">
+    </row>
+    <row r="240" spans="1:20">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -8108,10 +7606,8 @@
       <c r="R240" s="5"/>
       <c r="S240" s="5"/>
       <c r="T240" s="5"/>
-      <c r="U240" s="5"/>
-      <c r="V240" s="5"/>
-    </row>
-    <row r="241" spans="1:22">
+    </row>
+    <row r="241" spans="1:20">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -8132,10 +7628,8 @@
       <c r="R241" s="5"/>
       <c r="S241" s="5"/>
       <c r="T241" s="5"/>
-      <c r="U241" s="5"/>
-      <c r="V241" s="5"/>
-    </row>
-    <row r="242" spans="1:22">
+    </row>
+    <row r="242" spans="1:20">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -8156,10 +7650,8 @@
       <c r="R242" s="5"/>
       <c r="S242" s="5"/>
       <c r="T242" s="5"/>
-      <c r="U242" s="5"/>
-      <c r="V242" s="5"/>
-    </row>
-    <row r="243" spans="1:22">
+    </row>
+    <row r="243" spans="1:20">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -8180,10 +7672,8 @@
       <c r="R243" s="5"/>
       <c r="S243" s="5"/>
       <c r="T243" s="5"/>
-      <c r="U243" s="5"/>
-      <c r="V243" s="5"/>
-    </row>
-    <row r="244" spans="1:22">
+    </row>
+    <row r="244" spans="1:20">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -8204,10 +7694,8 @@
       <c r="R244" s="5"/>
       <c r="S244" s="5"/>
       <c r="T244" s="5"/>
-      <c r="U244" s="5"/>
-      <c r="V244" s="5"/>
-    </row>
-    <row r="245" spans="1:22">
+    </row>
+    <row r="245" spans="1:20">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -8228,10 +7716,8 @@
       <c r="R245" s="5"/>
       <c r="S245" s="5"/>
       <c r="T245" s="5"/>
-      <c r="U245" s="5"/>
-      <c r="V245" s="5"/>
-    </row>
-    <row r="246" spans="1:22">
+    </row>
+    <row r="246" spans="1:20">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -8252,10 +7738,8 @@
       <c r="R246" s="5"/>
       <c r="S246" s="5"/>
       <c r="T246" s="5"/>
-      <c r="U246" s="5"/>
-      <c r="V246" s="5"/>
-    </row>
-    <row r="247" spans="1:22">
+    </row>
+    <row r="247" spans="1:20">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -8276,10 +7760,8 @@
       <c r="R247" s="5"/>
       <c r="S247" s="5"/>
       <c r="T247" s="5"/>
-      <c r="U247" s="5"/>
-      <c r="V247" s="5"/>
-    </row>
-    <row r="248" spans="1:22">
+    </row>
+    <row r="248" spans="1:20">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -8300,10 +7782,8 @@
       <c r="R248" s="5"/>
       <c r="S248" s="5"/>
       <c r="T248" s="5"/>
-      <c r="U248" s="5"/>
-      <c r="V248" s="5"/>
-    </row>
-    <row r="249" spans="1:22">
+    </row>
+    <row r="249" spans="1:20">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -8324,10 +7804,8 @@
       <c r="R249" s="5"/>
       <c r="S249" s="5"/>
       <c r="T249" s="5"/>
-      <c r="U249" s="5"/>
-      <c r="V249" s="5"/>
-    </row>
-    <row r="250" spans="1:22">
+    </row>
+    <row r="250" spans="1:20">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -8348,10 +7826,8 @@
       <c r="R250" s="5"/>
       <c r="S250" s="5"/>
       <c r="T250" s="5"/>
-      <c r="U250" s="5"/>
-      <c r="V250" s="5"/>
-    </row>
-    <row r="251" spans="1:22">
+    </row>
+    <row r="251" spans="1:20">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -8372,10 +7848,8 @@
       <c r="R251" s="5"/>
       <c r="S251" s="5"/>
       <c r="T251" s="5"/>
-      <c r="U251" s="5"/>
-      <c r="V251" s="5"/>
-    </row>
-    <row r="252" spans="1:22">
+    </row>
+    <row r="252" spans="1:20">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -8396,10 +7870,8 @@
       <c r="R252" s="5"/>
       <c r="S252" s="5"/>
       <c r="T252" s="5"/>
-      <c r="U252" s="5"/>
-      <c r="V252" s="5"/>
-    </row>
-    <row r="253" spans="1:22">
+    </row>
+    <row r="253" spans="1:20">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -8420,10 +7892,8 @@
       <c r="R253" s="5"/>
       <c r="S253" s="5"/>
       <c r="T253" s="5"/>
-      <c r="U253" s="5"/>
-      <c r="V253" s="5"/>
-    </row>
-    <row r="254" spans="1:22">
+    </row>
+    <row r="254" spans="1:20">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -8444,10 +7914,8 @@
       <c r="R254" s="5"/>
       <c r="S254" s="5"/>
       <c r="T254" s="5"/>
-      <c r="U254" s="5"/>
-      <c r="V254" s="5"/>
-    </row>
-    <row r="255" spans="1:22">
+    </row>
+    <row r="255" spans="1:20">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -8468,10 +7936,8 @@
       <c r="R255" s="5"/>
       <c r="S255" s="5"/>
       <c r="T255" s="5"/>
-      <c r="U255" s="5"/>
-      <c r="V255" s="5"/>
-    </row>
-    <row r="256" spans="1:22">
+    </row>
+    <row r="256" spans="1:20">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -8492,10 +7958,8 @@
       <c r="R256" s="5"/>
       <c r="S256" s="5"/>
       <c r="T256" s="5"/>
-      <c r="U256" s="5"/>
-      <c r="V256" s="5"/>
-    </row>
-    <row r="257" spans="1:22">
+    </row>
+    <row r="257" spans="1:20">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -8516,10 +7980,8 @@
       <c r="R257" s="5"/>
       <c r="S257" s="5"/>
       <c r="T257" s="5"/>
-      <c r="U257" s="5"/>
-      <c r="V257" s="5"/>
-    </row>
-    <row r="258" spans="1:22">
+    </row>
+    <row r="258" spans="1:20">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -8540,10 +8002,8 @@
       <c r="R258" s="5"/>
       <c r="S258" s="5"/>
       <c r="T258" s="5"/>
-      <c r="U258" s="5"/>
-      <c r="V258" s="5"/>
-    </row>
-    <row r="259" spans="1:22">
+    </row>
+    <row r="259" spans="1:20">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -8564,10 +8024,8 @@
       <c r="R259" s="5"/>
       <c r="S259" s="5"/>
       <c r="T259" s="5"/>
-      <c r="U259" s="5"/>
-      <c r="V259" s="5"/>
-    </row>
-    <row r="260" spans="1:22">
+    </row>
+    <row r="260" spans="1:20">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -8588,10 +8046,8 @@
       <c r="R260" s="5"/>
       <c r="S260" s="5"/>
       <c r="T260" s="5"/>
-      <c r="U260" s="5"/>
-      <c r="V260" s="5"/>
-    </row>
-    <row r="261" spans="1:22">
+    </row>
+    <row r="261" spans="1:20">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -8612,10 +8068,8 @@
       <c r="R261" s="5"/>
       <c r="S261" s="5"/>
       <c r="T261" s="5"/>
-      <c r="U261" s="5"/>
-      <c r="V261" s="5"/>
-    </row>
-    <row r="262" spans="1:22">
+    </row>
+    <row r="262" spans="1:20">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -8636,10 +8090,8 @@
       <c r="R262" s="5"/>
       <c r="S262" s="5"/>
       <c r="T262" s="5"/>
-      <c r="U262" s="5"/>
-      <c r="V262" s="5"/>
-    </row>
-    <row r="263" spans="1:22">
+    </row>
+    <row r="263" spans="1:20">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -8660,10 +8112,8 @@
       <c r="R263" s="5"/>
       <c r="S263" s="5"/>
       <c r="T263" s="5"/>
-      <c r="U263" s="5"/>
-      <c r="V263" s="5"/>
-    </row>
-    <row r="264" spans="1:22">
+    </row>
+    <row r="264" spans="1:20">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -8684,10 +8134,8 @@
       <c r="R264" s="5"/>
       <c r="S264" s="5"/>
       <c r="T264" s="5"/>
-      <c r="U264" s="5"/>
-      <c r="V264" s="5"/>
-    </row>
-    <row r="265" spans="1:22">
+    </row>
+    <row r="265" spans="1:20">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -8708,10 +8156,8 @@
       <c r="R265" s="5"/>
       <c r="S265" s="5"/>
       <c r="T265" s="5"/>
-      <c r="U265" s="5"/>
-      <c r="V265" s="5"/>
-    </row>
-    <row r="266" spans="1:22">
+    </row>
+    <row r="266" spans="1:20">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -8732,10 +8178,8 @@
       <c r="R266" s="5"/>
       <c r="S266" s="5"/>
       <c r="T266" s="5"/>
-      <c r="U266" s="5"/>
-      <c r="V266" s="5"/>
-    </row>
-    <row r="267" spans="1:22">
+    </row>
+    <row r="267" spans="1:20">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -8756,10 +8200,8 @@
       <c r="R267" s="5"/>
       <c r="S267" s="5"/>
       <c r="T267" s="5"/>
-      <c r="U267" s="5"/>
-      <c r="V267" s="5"/>
-    </row>
-    <row r="268" spans="1:22">
+    </row>
+    <row r="268" spans="1:20">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -8780,10 +8222,8 @@
       <c r="R268" s="5"/>
       <c r="S268" s="5"/>
       <c r="T268" s="5"/>
-      <c r="U268" s="5"/>
-      <c r="V268" s="5"/>
-    </row>
-    <row r="269" spans="1:22">
+    </row>
+    <row r="269" spans="1:20">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -8804,10 +8244,8 @@
       <c r="R269" s="5"/>
       <c r="S269" s="5"/>
       <c r="T269" s="5"/>
-      <c r="U269" s="5"/>
-      <c r="V269" s="5"/>
-    </row>
-    <row r="270" spans="1:22">
+    </row>
+    <row r="270" spans="1:20">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -8828,10 +8266,8 @@
       <c r="R270" s="5"/>
       <c r="S270" s="5"/>
       <c r="T270" s="5"/>
-      <c r="U270" s="5"/>
-      <c r="V270" s="5"/>
-    </row>
-    <row r="271" spans="1:22">
+    </row>
+    <row r="271" spans="1:20">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -8852,10 +8288,8 @@
       <c r="R271" s="5"/>
       <c r="S271" s="5"/>
       <c r="T271" s="5"/>
-      <c r="U271" s="5"/>
-      <c r="V271" s="5"/>
-    </row>
-    <row r="272" spans="1:22">
+    </row>
+    <row r="272" spans="1:20">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -8876,10 +8310,8 @@
       <c r="R272" s="5"/>
       <c r="S272" s="5"/>
       <c r="T272" s="5"/>
-      <c r="U272" s="5"/>
-      <c r="V272" s="5"/>
-    </row>
-    <row r="273" spans="1:22">
+    </row>
+    <row r="273" spans="1:20">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -8900,10 +8332,8 @@
       <c r="R273" s="5"/>
       <c r="S273" s="5"/>
       <c r="T273" s="5"/>
-      <c r="U273" s="5"/>
-      <c r="V273" s="5"/>
-    </row>
-    <row r="274" spans="1:22">
+    </row>
+    <row r="274" spans="1:20">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -8924,10 +8354,8 @@
       <c r="R274" s="5"/>
       <c r="S274" s="5"/>
       <c r="T274" s="5"/>
-      <c r="U274" s="5"/>
-      <c r="V274" s="5"/>
-    </row>
-    <row r="275" spans="1:22">
+    </row>
+    <row r="275" spans="1:20">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -8948,10 +8376,8 @@
       <c r="R275" s="5"/>
       <c r="S275" s="5"/>
       <c r="T275" s="5"/>
-      <c r="U275" s="5"/>
-      <c r="V275" s="5"/>
-    </row>
-    <row r="276" spans="1:22">
+    </row>
+    <row r="276" spans="1:20">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -8972,10 +8398,8 @@
       <c r="R276" s="5"/>
       <c r="S276" s="5"/>
       <c r="T276" s="5"/>
-      <c r="U276" s="5"/>
-      <c r="V276" s="5"/>
-    </row>
-    <row r="277" spans="1:22">
+    </row>
+    <row r="277" spans="1:20">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -8996,10 +8420,8 @@
       <c r="R277" s="5"/>
       <c r="S277" s="5"/>
       <c r="T277" s="5"/>
-      <c r="U277" s="5"/>
-      <c r="V277" s="5"/>
-    </row>
-    <row r="278" spans="1:22">
+    </row>
+    <row r="278" spans="1:20">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -9020,10 +8442,8 @@
       <c r="R278" s="5"/>
       <c r="S278" s="5"/>
       <c r="T278" s="5"/>
-      <c r="U278" s="5"/>
-      <c r="V278" s="5"/>
-    </row>
-    <row r="279" spans="1:22">
+    </row>
+    <row r="279" spans="1:20">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -9044,10 +8464,8 @@
       <c r="R279" s="5"/>
       <c r="S279" s="5"/>
       <c r="T279" s="5"/>
-      <c r="U279" s="5"/>
-      <c r="V279" s="5"/>
-    </row>
-    <row r="280" spans="1:22">
+    </row>
+    <row r="280" spans="1:20">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -9068,10 +8486,8 @@
       <c r="R280" s="5"/>
       <c r="S280" s="5"/>
       <c r="T280" s="5"/>
-      <c r="U280" s="5"/>
-      <c r="V280" s="5"/>
-    </row>
-    <row r="281" spans="1:22">
+    </row>
+    <row r="281" spans="1:20">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -9092,10 +8508,8 @@
       <c r="R281" s="5"/>
       <c r="S281" s="5"/>
       <c r="T281" s="5"/>
-      <c r="U281" s="5"/>
-      <c r="V281" s="5"/>
-    </row>
-    <row r="282" spans="1:22">
+    </row>
+    <row r="282" spans="1:20">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -9116,10 +8530,8 @@
       <c r="R282" s="5"/>
       <c r="S282" s="5"/>
       <c r="T282" s="5"/>
-      <c r="U282" s="5"/>
-      <c r="V282" s="5"/>
-    </row>
-    <row r="283" spans="1:22">
+    </row>
+    <row r="283" spans="1:20">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -9140,10 +8552,8 @@
       <c r="R283" s="5"/>
       <c r="S283" s="5"/>
       <c r="T283" s="5"/>
-      <c r="U283" s="5"/>
-      <c r="V283" s="5"/>
-    </row>
-    <row r="284" spans="1:22">
+    </row>
+    <row r="284" spans="1:20">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -9164,10 +8574,8 @@
       <c r="R284" s="5"/>
       <c r="S284" s="5"/>
       <c r="T284" s="5"/>
-      <c r="U284" s="5"/>
-      <c r="V284" s="5"/>
-    </row>
-    <row r="285" spans="1:22">
+    </row>
+    <row r="285" spans="1:20">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -9188,10 +8596,8 @@
       <c r="R285" s="5"/>
       <c r="S285" s="5"/>
       <c r="T285" s="5"/>
-      <c r="U285" s="5"/>
-      <c r="V285" s="5"/>
-    </row>
-    <row r="286" spans="1:22">
+    </row>
+    <row r="286" spans="1:20">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -9212,10 +8618,8 @@
       <c r="R286" s="5"/>
       <c r="S286" s="5"/>
       <c r="T286" s="5"/>
-      <c r="U286" s="5"/>
-      <c r="V286" s="5"/>
-    </row>
-    <row r="287" spans="1:22">
+    </row>
+    <row r="287" spans="1:20">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -9236,10 +8640,8 @@
       <c r="R287" s="5"/>
       <c r="S287" s="5"/>
       <c r="T287" s="5"/>
-      <c r="U287" s="5"/>
-      <c r="V287" s="5"/>
-    </row>
-    <row r="288" spans="1:22">
+    </row>
+    <row r="288" spans="1:20">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -9260,10 +8662,8 @@
       <c r="R288" s="5"/>
       <c r="S288" s="5"/>
       <c r="T288" s="5"/>
-      <c r="U288" s="5"/>
-      <c r="V288" s="5"/>
-    </row>
-    <row r="289" spans="1:22">
+    </row>
+    <row r="289" spans="1:20">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -9284,10 +8684,8 @@
       <c r="R289" s="5"/>
       <c r="S289" s="5"/>
       <c r="T289" s="5"/>
-      <c r="U289" s="5"/>
-      <c r="V289" s="5"/>
-    </row>
-    <row r="290" spans="1:22">
+    </row>
+    <row r="290" spans="1:20">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -9308,10 +8706,8 @@
       <c r="R290" s="5"/>
       <c r="S290" s="5"/>
       <c r="T290" s="5"/>
-      <c r="U290" s="5"/>
-      <c r="V290" s="5"/>
-    </row>
-    <row r="291" spans="1:22">
+    </row>
+    <row r="291" spans="1:20">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -9332,10 +8728,8 @@
       <c r="R291" s="5"/>
       <c r="S291" s="5"/>
       <c r="T291" s="5"/>
-      <c r="U291" s="5"/>
-      <c r="V291" s="5"/>
-    </row>
-    <row r="292" spans="1:22">
+    </row>
+    <row r="292" spans="1:20">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -9356,10 +8750,8 @@
       <c r="R292" s="5"/>
       <c r="S292" s="5"/>
       <c r="T292" s="5"/>
-      <c r="U292" s="5"/>
-      <c r="V292" s="5"/>
-    </row>
-    <row r="293" spans="1:22">
+    </row>
+    <row r="293" spans="1:20">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -9380,10 +8772,8 @@
       <c r="R293" s="5"/>
       <c r="S293" s="5"/>
       <c r="T293" s="5"/>
-      <c r="U293" s="5"/>
-      <c r="V293" s="5"/>
-    </row>
-    <row r="294" spans="1:22">
+    </row>
+    <row r="294" spans="1:20">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -9404,10 +8794,8 @@
       <c r="R294" s="5"/>
       <c r="S294" s="5"/>
       <c r="T294" s="5"/>
-      <c r="U294" s="5"/>
-      <c r="V294" s="5"/>
-    </row>
-    <row r="295" spans="1:22">
+    </row>
+    <row r="295" spans="1:20">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -9428,10 +8816,8 @@
       <c r="R295" s="5"/>
       <c r="S295" s="5"/>
       <c r="T295" s="5"/>
-      <c r="U295" s="5"/>
-      <c r="V295" s="5"/>
-    </row>
-    <row r="296" spans="1:22">
+    </row>
+    <row r="296" spans="1:20">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -9452,10 +8838,8 @@
       <c r="R296" s="5"/>
       <c r="S296" s="5"/>
       <c r="T296" s="5"/>
-      <c r="U296" s="5"/>
-      <c r="V296" s="5"/>
-    </row>
-    <row r="297" spans="1:22">
+    </row>
+    <row r="297" spans="1:20">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -9476,10 +8860,8 @@
       <c r="R297" s="5"/>
       <c r="S297" s="5"/>
       <c r="T297" s="5"/>
-      <c r="U297" s="5"/>
-      <c r="V297" s="5"/>
-    </row>
-    <row r="298" spans="1:22">
+    </row>
+    <row r="298" spans="1:20">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -9500,10 +8882,8 @@
       <c r="R298" s="5"/>
       <c r="S298" s="5"/>
       <c r="T298" s="5"/>
-      <c r="U298" s="5"/>
-      <c r="V298" s="5"/>
-    </row>
-    <row r="299" spans="1:22">
+    </row>
+    <row r="299" spans="1:20">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -9524,10 +8904,8 @@
       <c r="R299" s="5"/>
       <c r="S299" s="5"/>
       <c r="T299" s="5"/>
-      <c r="U299" s="5"/>
-      <c r="V299" s="5"/>
-    </row>
-    <row r="300" spans="1:22">
+    </row>
+    <row r="300" spans="1:20">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -9548,10 +8926,8 @@
       <c r="R300" s="5"/>
       <c r="S300" s="5"/>
       <c r="T300" s="5"/>
-      <c r="U300" s="5"/>
-      <c r="V300" s="5"/>
-    </row>
-    <row r="301" spans="1:22">
+    </row>
+    <row r="301" spans="1:20">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -9572,10 +8948,8 @@
       <c r="R301" s="5"/>
       <c r="S301" s="5"/>
       <c r="T301" s="5"/>
-      <c r="U301" s="5"/>
-      <c r="V301" s="5"/>
-    </row>
-    <row r="302" spans="1:22">
+    </row>
+    <row r="302" spans="1:20">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -9596,10 +8970,8 @@
       <c r="R302" s="5"/>
       <c r="S302" s="5"/>
       <c r="T302" s="5"/>
-      <c r="U302" s="5"/>
-      <c r="V302" s="5"/>
-    </row>
-    <row r="303" spans="1:22">
+    </row>
+    <row r="303" spans="1:20">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -9620,10 +8992,8 @@
       <c r="R303" s="5"/>
       <c r="S303" s="5"/>
       <c r="T303" s="5"/>
-      <c r="U303" s="5"/>
-      <c r="V303" s="5"/>
-    </row>
-    <row r="304" spans="1:22">
+    </row>
+    <row r="304" spans="1:20">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -9644,10 +9014,8 @@
       <c r="R304" s="5"/>
       <c r="S304" s="5"/>
       <c r="T304" s="5"/>
-      <c r="U304" s="5"/>
-      <c r="V304" s="5"/>
-    </row>
-    <row r="305" spans="1:22">
+    </row>
+    <row r="305" spans="1:20">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -9668,10 +9036,8 @@
       <c r="R305" s="5"/>
       <c r="S305" s="5"/>
       <c r="T305" s="5"/>
-      <c r="U305" s="5"/>
-      <c r="V305" s="5"/>
-    </row>
-    <row r="306" spans="1:22">
+    </row>
+    <row r="306" spans="1:20">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -9692,10 +9058,8 @@
       <c r="R306" s="5"/>
       <c r="S306" s="5"/>
       <c r="T306" s="5"/>
-      <c r="U306" s="5"/>
-      <c r="V306" s="5"/>
-    </row>
-    <row r="307" spans="1:22">
+    </row>
+    <row r="307" spans="1:20">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -9716,10 +9080,8 @@
       <c r="R307" s="5"/>
       <c r="S307" s="5"/>
       <c r="T307" s="5"/>
-      <c r="U307" s="5"/>
-      <c r="V307" s="5"/>
-    </row>
-    <row r="308" spans="1:22">
+    </row>
+    <row r="308" spans="1:20">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -9740,10 +9102,8 @@
       <c r="R308" s="5"/>
       <c r="S308" s="5"/>
       <c r="T308" s="5"/>
-      <c r="U308" s="5"/>
-      <c r="V308" s="5"/>
-    </row>
-    <row r="309" spans="1:22">
+    </row>
+    <row r="309" spans="1:20">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -9764,10 +9124,8 @@
       <c r="R309" s="5"/>
       <c r="S309" s="5"/>
       <c r="T309" s="5"/>
-      <c r="U309" s="5"/>
-      <c r="V309" s="5"/>
-    </row>
-    <row r="310" spans="1:22">
+    </row>
+    <row r="310" spans="1:20">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -9788,10 +9146,8 @@
       <c r="R310" s="5"/>
       <c r="S310" s="5"/>
       <c r="T310" s="5"/>
-      <c r="U310" s="5"/>
-      <c r="V310" s="5"/>
-    </row>
-    <row r="311" spans="1:22">
+    </row>
+    <row r="311" spans="1:20">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -9812,10 +9168,8 @@
       <c r="R311" s="5"/>
       <c r="S311" s="5"/>
       <c r="T311" s="5"/>
-      <c r="U311" s="5"/>
-      <c r="V311" s="5"/>
-    </row>
-    <row r="312" spans="1:22">
+    </row>
+    <row r="312" spans="1:20">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -9836,10 +9190,8 @@
       <c r="R312" s="5"/>
       <c r="S312" s="5"/>
       <c r="T312" s="5"/>
-      <c r="U312" s="5"/>
-      <c r="V312" s="5"/>
-    </row>
-    <row r="313" spans="1:22">
+    </row>
+    <row r="313" spans="1:20">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -9860,10 +9212,8 @@
       <c r="R313" s="5"/>
       <c r="S313" s="5"/>
       <c r="T313" s="5"/>
-      <c r="U313" s="5"/>
-      <c r="V313" s="5"/>
-    </row>
-    <row r="314" spans="1:22">
+    </row>
+    <row r="314" spans="1:20">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -9884,10 +9234,8 @@
       <c r="R314" s="5"/>
       <c r="S314" s="5"/>
       <c r="T314" s="5"/>
-      <c r="U314" s="5"/>
-      <c r="V314" s="5"/>
-    </row>
-    <row r="315" spans="1:22">
+    </row>
+    <row r="315" spans="1:20">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -9908,10 +9256,8 @@
       <c r="R315" s="5"/>
       <c r="S315" s="5"/>
       <c r="T315" s="5"/>
-      <c r="U315" s="5"/>
-      <c r="V315" s="5"/>
-    </row>
-    <row r="316" spans="1:22">
+    </row>
+    <row r="316" spans="1:20">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -9932,10 +9278,8 @@
       <c r="R316" s="5"/>
       <c r="S316" s="5"/>
       <c r="T316" s="5"/>
-      <c r="U316" s="5"/>
-      <c r="V316" s="5"/>
-    </row>
-    <row r="317" spans="1:22">
+    </row>
+    <row r="317" spans="1:20">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -9956,10 +9300,8 @@
       <c r="R317" s="5"/>
       <c r="S317" s="5"/>
       <c r="T317" s="5"/>
-      <c r="U317" s="5"/>
-      <c r="V317" s="5"/>
-    </row>
-    <row r="318" spans="1:22">
+    </row>
+    <row r="318" spans="1:20">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -9980,10 +9322,8 @@
       <c r="R318" s="5"/>
       <c r="S318" s="5"/>
       <c r="T318" s="5"/>
-      <c r="U318" s="5"/>
-      <c r="V318" s="5"/>
-    </row>
-    <row r="319" spans="1:22">
+    </row>
+    <row r="319" spans="1:20">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -10004,10 +9344,8 @@
       <c r="R319" s="5"/>
       <c r="S319" s="5"/>
       <c r="T319" s="5"/>
-      <c r="U319" s="5"/>
-      <c r="V319" s="5"/>
-    </row>
-    <row r="320" spans="1:22">
+    </row>
+    <row r="320" spans="1:20">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -10028,10 +9366,8 @@
       <c r="R320" s="5"/>
       <c r="S320" s="5"/>
       <c r="T320" s="5"/>
-      <c r="U320" s="5"/>
-      <c r="V320" s="5"/>
-    </row>
-    <row r="321" spans="1:22">
+    </row>
+    <row r="321" spans="1:20">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -10052,10 +9388,8 @@
       <c r="R321" s="5"/>
       <c r="S321" s="5"/>
       <c r="T321" s="5"/>
-      <c r="U321" s="5"/>
-      <c r="V321" s="5"/>
-    </row>
-    <row r="322" spans="1:22">
+    </row>
+    <row r="322" spans="1:20">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -10076,10 +9410,8 @@
       <c r="R322" s="5"/>
       <c r="S322" s="5"/>
       <c r="T322" s="5"/>
-      <c r="U322" s="5"/>
-      <c r="V322" s="5"/>
-    </row>
-    <row r="323" spans="1:22">
+    </row>
+    <row r="323" spans="1:20">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -10100,10 +9432,8 @@
       <c r="R323" s="5"/>
       <c r="S323" s="5"/>
       <c r="T323" s="5"/>
-      <c r="U323" s="5"/>
-      <c r="V323" s="5"/>
-    </row>
-    <row r="324" spans="1:22">
+    </row>
+    <row r="324" spans="1:20">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -10124,10 +9454,8 @@
       <c r="R324" s="5"/>
       <c r="S324" s="5"/>
       <c r="T324" s="5"/>
-      <c r="U324" s="5"/>
-      <c r="V324" s="5"/>
-    </row>
-    <row r="325" spans="1:22">
+    </row>
+    <row r="325" spans="1:20">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -10148,10 +9476,8 @@
       <c r="R325" s="5"/>
       <c r="S325" s="5"/>
       <c r="T325" s="5"/>
-      <c r="U325" s="5"/>
-      <c r="V325" s="5"/>
-    </row>
-    <row r="326" spans="1:22">
+    </row>
+    <row r="326" spans="1:20">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -10172,10 +9498,8 @@
       <c r="R326" s="5"/>
       <c r="S326" s="5"/>
       <c r="T326" s="5"/>
-      <c r="U326" s="5"/>
-      <c r="V326" s="5"/>
-    </row>
-    <row r="327" spans="1:22">
+    </row>
+    <row r="327" spans="1:20">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -10196,10 +9520,8 @@
       <c r="R327" s="5"/>
       <c r="S327" s="5"/>
       <c r="T327" s="5"/>
-      <c r="U327" s="5"/>
-      <c r="V327" s="5"/>
-    </row>
-    <row r="328" spans="1:22">
+    </row>
+    <row r="328" spans="1:20">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -10220,10 +9542,8 @@
       <c r="R328" s="5"/>
       <c r="S328" s="5"/>
       <c r="T328" s="5"/>
-      <c r="U328" s="5"/>
-      <c r="V328" s="5"/>
-    </row>
-    <row r="329" spans="1:22">
+    </row>
+    <row r="329" spans="1:20">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -10244,10 +9564,8 @@
       <c r="R329" s="5"/>
       <c r="S329" s="5"/>
       <c r="T329" s="5"/>
-      <c r="U329" s="5"/>
-      <c r="V329" s="5"/>
-    </row>
-    <row r="330" spans="1:22">
+    </row>
+    <row r="330" spans="1:20">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -10268,10 +9586,8 @@
       <c r="R330" s="5"/>
       <c r="S330" s="5"/>
       <c r="T330" s="5"/>
-      <c r="U330" s="5"/>
-      <c r="V330" s="5"/>
-    </row>
-    <row r="331" spans="1:22">
+    </row>
+    <row r="331" spans="1:20">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -10292,10 +9608,8 @@
       <c r="R331" s="5"/>
       <c r="S331" s="5"/>
       <c r="T331" s="5"/>
-      <c r="U331" s="5"/>
-      <c r="V331" s="5"/>
-    </row>
-    <row r="332" spans="1:22">
+    </row>
+    <row r="332" spans="1:20">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -10316,10 +9630,8 @@
       <c r="R332" s="5"/>
       <c r="S332" s="5"/>
       <c r="T332" s="5"/>
-      <c r="U332" s="5"/>
-      <c r="V332" s="5"/>
-    </row>
-    <row r="333" spans="1:22">
+    </row>
+    <row r="333" spans="1:20">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -10340,10 +9652,8 @@
       <c r="R333" s="5"/>
       <c r="S333" s="5"/>
       <c r="T333" s="5"/>
-      <c r="U333" s="5"/>
-      <c r="V333" s="5"/>
-    </row>
-    <row r="334" spans="1:22">
+    </row>
+    <row r="334" spans="1:20">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -10364,10 +9674,8 @@
       <c r="R334" s="5"/>
       <c r="S334" s="5"/>
       <c r="T334" s="5"/>
-      <c r="U334" s="5"/>
-      <c r="V334" s="5"/>
-    </row>
-    <row r="335" spans="1:22">
+    </row>
+    <row r="335" spans="1:20">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -10388,10 +9696,8 @@
       <c r="R335" s="5"/>
       <c r="S335" s="5"/>
       <c r="T335" s="5"/>
-      <c r="U335" s="5"/>
-      <c r="V335" s="5"/>
-    </row>
-    <row r="336" spans="1:22">
+    </row>
+    <row r="336" spans="1:20">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -10412,10 +9718,8 @@
       <c r="R336" s="5"/>
       <c r="S336" s="5"/>
       <c r="T336" s="5"/>
-      <c r="U336" s="5"/>
-      <c r="V336" s="5"/>
-    </row>
-    <row r="337" spans="1:22">
+    </row>
+    <row r="337" spans="1:20">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -10436,10 +9740,8 @@
       <c r="R337" s="5"/>
       <c r="S337" s="5"/>
       <c r="T337" s="5"/>
-      <c r="U337" s="5"/>
-      <c r="V337" s="5"/>
-    </row>
-    <row r="338" spans="1:22">
+    </row>
+    <row r="338" spans="1:20">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -10460,10 +9762,8 @@
       <c r="R338" s="5"/>
       <c r="S338" s="5"/>
       <c r="T338" s="5"/>
-      <c r="U338" s="5"/>
-      <c r="V338" s="5"/>
-    </row>
-    <row r="339" spans="1:22">
+    </row>
+    <row r="339" spans="1:20">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -10484,10 +9784,8 @@
       <c r="R339" s="5"/>
       <c r="S339" s="5"/>
       <c r="T339" s="5"/>
-      <c r="U339" s="5"/>
-      <c r="V339" s="5"/>
-    </row>
-    <row r="340" spans="1:22">
+    </row>
+    <row r="340" spans="1:20">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -10508,10 +9806,8 @@
       <c r="R340" s="5"/>
       <c r="S340" s="5"/>
       <c r="T340" s="5"/>
-      <c r="U340" s="5"/>
-      <c r="V340" s="5"/>
-    </row>
-    <row r="341" spans="1:22">
+    </row>
+    <row r="341" spans="1:20">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -10532,10 +9828,8 @@
       <c r="R341" s="5"/>
       <c r="S341" s="5"/>
       <c r="T341" s="5"/>
-      <c r="U341" s="5"/>
-      <c r="V341" s="5"/>
-    </row>
-    <row r="342" spans="1:22">
+    </row>
+    <row r="342" spans="1:20">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -10556,10 +9850,8 @@
       <c r="R342" s="5"/>
       <c r="S342" s="5"/>
       <c r="T342" s="5"/>
-      <c r="U342" s="5"/>
-      <c r="V342" s="5"/>
-    </row>
-    <row r="343" spans="1:22">
+    </row>
+    <row r="343" spans="1:20">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -10580,10 +9872,8 @@
       <c r="R343" s="5"/>
       <c r="S343" s="5"/>
       <c r="T343" s="5"/>
-      <c r="U343" s="5"/>
-      <c r="V343" s="5"/>
-    </row>
-    <row r="344" spans="1:22">
+    </row>
+    <row r="344" spans="1:20">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -10604,10 +9894,8 @@
       <c r="R344" s="5"/>
       <c r="S344" s="5"/>
       <c r="T344" s="5"/>
-      <c r="U344" s="5"/>
-      <c r="V344" s="5"/>
-    </row>
-    <row r="345" spans="1:22">
+    </row>
+    <row r="345" spans="1:20">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -10628,10 +9916,8 @@
       <c r="R345" s="5"/>
       <c r="S345" s="5"/>
       <c r="T345" s="5"/>
-      <c r="U345" s="5"/>
-      <c r="V345" s="5"/>
-    </row>
-    <row r="346" spans="1:22">
+    </row>
+    <row r="346" spans="1:20">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -10652,10 +9938,8 @@
       <c r="R346" s="5"/>
       <c r="S346" s="5"/>
       <c r="T346" s="5"/>
-      <c r="U346" s="5"/>
-      <c r="V346" s="5"/>
-    </row>
-    <row r="347" spans="1:22">
+    </row>
+    <row r="347" spans="1:20">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -10676,10 +9960,8 @@
       <c r="R347" s="5"/>
       <c r="S347" s="5"/>
       <c r="T347" s="5"/>
-      <c r="U347" s="5"/>
-      <c r="V347" s="5"/>
-    </row>
-    <row r="348" spans="1:22">
+    </row>
+    <row r="348" spans="1:20">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -10700,10 +9982,8 @@
       <c r="R348" s="5"/>
       <c r="S348" s="5"/>
       <c r="T348" s="5"/>
-      <c r="U348" s="5"/>
-      <c r="V348" s="5"/>
-    </row>
-    <row r="349" spans="1:22">
+    </row>
+    <row r="349" spans="1:20">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -10724,10 +10004,8 @@
       <c r="R349" s="5"/>
       <c r="S349" s="5"/>
       <c r="T349" s="5"/>
-      <c r="U349" s="5"/>
-      <c r="V349" s="5"/>
-    </row>
-    <row r="350" spans="1:22">
+    </row>
+    <row r="350" spans="1:20">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -10748,10 +10026,8 @@
       <c r="R350" s="5"/>
       <c r="S350" s="5"/>
       <c r="T350" s="5"/>
-      <c r="U350" s="5"/>
-      <c r="V350" s="5"/>
-    </row>
-    <row r="351" spans="1:22">
+    </row>
+    <row r="351" spans="1:20">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -10772,10 +10048,8 @@
       <c r="R351" s="5"/>
       <c r="S351" s="5"/>
       <c r="T351" s="5"/>
-      <c r="U351" s="5"/>
-      <c r="V351" s="5"/>
-    </row>
-    <row r="352" spans="1:22">
+    </row>
+    <row r="352" spans="1:20">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -10796,10 +10070,8 @@
       <c r="R352" s="5"/>
       <c r="S352" s="5"/>
       <c r="T352" s="5"/>
-      <c r="U352" s="5"/>
-      <c r="V352" s="5"/>
-    </row>
-    <row r="353" spans="1:22">
+    </row>
+    <row r="353" spans="1:20">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -10820,10 +10092,8 @@
       <c r="R353" s="5"/>
       <c r="S353" s="5"/>
       <c r="T353" s="5"/>
-      <c r="U353" s="5"/>
-      <c r="V353" s="5"/>
-    </row>
-    <row r="354" spans="1:22">
+    </row>
+    <row r="354" spans="1:20">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -10844,10 +10114,8 @@
       <c r="R354" s="5"/>
       <c r="S354" s="5"/>
       <c r="T354" s="5"/>
-      <c r="U354" s="5"/>
-      <c r="V354" s="5"/>
-    </row>
-    <row r="355" spans="1:22">
+    </row>
+    <row r="355" spans="1:20">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -10868,10 +10136,8 @@
       <c r="R355" s="5"/>
       <c r="S355" s="5"/>
       <c r="T355" s="5"/>
-      <c r="U355" s="5"/>
-      <c r="V355" s="5"/>
-    </row>
-    <row r="356" spans="1:22">
+    </row>
+    <row r="356" spans="1:20">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -10892,10 +10158,8 @@
       <c r="R356" s="5"/>
       <c r="S356" s="5"/>
       <c r="T356" s="5"/>
-      <c r="U356" s="5"/>
-      <c r="V356" s="5"/>
-    </row>
-    <row r="357" spans="1:22">
+    </row>
+    <row r="357" spans="1:20">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -10916,10 +10180,8 @@
       <c r="R357" s="5"/>
       <c r="S357" s="5"/>
       <c r="T357" s="5"/>
-      <c r="U357" s="5"/>
-      <c r="V357" s="5"/>
-    </row>
-    <row r="358" spans="1:22">
+    </row>
+    <row r="358" spans="1:20">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -10940,10 +10202,8 @@
       <c r="R358" s="5"/>
       <c r="S358" s="5"/>
       <c r="T358" s="5"/>
-      <c r="U358" s="5"/>
-      <c r="V358" s="5"/>
-    </row>
-    <row r="359" spans="1:22">
+    </row>
+    <row r="359" spans="1:20">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -10964,10 +10224,8 @@
       <c r="R359" s="5"/>
       <c r="S359" s="5"/>
       <c r="T359" s="5"/>
-      <c r="U359" s="5"/>
-      <c r="V359" s="5"/>
-    </row>
-    <row r="360" spans="1:22">
+    </row>
+    <row r="360" spans="1:20">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -10988,10 +10246,8 @@
       <c r="R360" s="5"/>
       <c r="S360" s="5"/>
       <c r="T360" s="5"/>
-      <c r="U360" s="5"/>
-      <c r="V360" s="5"/>
-    </row>
-    <row r="361" spans="1:22">
+    </row>
+    <row r="361" spans="1:20">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -11012,10 +10268,8 @@
       <c r="R361" s="5"/>
       <c r="S361" s="5"/>
       <c r="T361" s="5"/>
-      <c r="U361" s="5"/>
-      <c r="V361" s="5"/>
-    </row>
-    <row r="362" spans="1:22">
+    </row>
+    <row r="362" spans="1:20">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -11036,10 +10290,8 @@
       <c r="R362" s="5"/>
       <c r="S362" s="5"/>
       <c r="T362" s="5"/>
-      <c r="U362" s="5"/>
-      <c r="V362" s="5"/>
-    </row>
-    <row r="363" spans="1:22">
+    </row>
+    <row r="363" spans="1:20">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -11060,10 +10312,8 @@
       <c r="R363" s="5"/>
       <c r="S363" s="5"/>
       <c r="T363" s="5"/>
-      <c r="U363" s="5"/>
-      <c r="V363" s="5"/>
-    </row>
-    <row r="364" spans="1:22">
+    </row>
+    <row r="364" spans="1:20">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -11084,10 +10334,8 @@
       <c r="R364" s="5"/>
       <c r="S364" s="5"/>
       <c r="T364" s="5"/>
-      <c r="U364" s="5"/>
-      <c r="V364" s="5"/>
-    </row>
-    <row r="365" spans="1:22">
+    </row>
+    <row r="365" spans="1:20">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -11108,10 +10356,8 @@
       <c r="R365" s="5"/>
       <c r="S365" s="5"/>
       <c r="T365" s="5"/>
-      <c r="U365" s="5"/>
-      <c r="V365" s="5"/>
-    </row>
-    <row r="366" spans="1:22">
+    </row>
+    <row r="366" spans="1:20">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -11132,10 +10378,8 @@
       <c r="R366" s="5"/>
       <c r="S366" s="5"/>
       <c r="T366" s="5"/>
-      <c r="U366" s="5"/>
-      <c r="V366" s="5"/>
-    </row>
-    <row r="367" spans="1:22">
+    </row>
+    <row r="367" spans="1:20">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -11156,10 +10400,8 @@
       <c r="R367" s="5"/>
       <c r="S367" s="5"/>
       <c r="T367" s="5"/>
-      <c r="U367" s="5"/>
-      <c r="V367" s="5"/>
-    </row>
-    <row r="368" spans="1:22">
+    </row>
+    <row r="368" spans="1:20">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -11180,10 +10422,8 @@
       <c r="R368" s="5"/>
       <c r="S368" s="5"/>
       <c r="T368" s="5"/>
-      <c r="U368" s="5"/>
-      <c r="V368" s="5"/>
-    </row>
-    <row r="369" spans="1:22">
+    </row>
+    <row r="369" spans="1:20">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -11204,10 +10444,8 @@
       <c r="R369" s="5"/>
       <c r="S369" s="5"/>
       <c r="T369" s="5"/>
-      <c r="U369" s="5"/>
-      <c r="V369" s="5"/>
-    </row>
-    <row r="370" spans="1:22">
+    </row>
+    <row r="370" spans="1:20">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -11228,10 +10466,8 @@
       <c r="R370" s="5"/>
       <c r="S370" s="5"/>
       <c r="T370" s="5"/>
-      <c r="U370" s="5"/>
-      <c r="V370" s="5"/>
-    </row>
-    <row r="371" spans="1:22">
+    </row>
+    <row r="371" spans="1:20">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -11252,10 +10488,8 @@
       <c r="R371" s="5"/>
       <c r="S371" s="5"/>
       <c r="T371" s="5"/>
-      <c r="U371" s="5"/>
-      <c r="V371" s="5"/>
-    </row>
-    <row r="372" spans="1:22">
+    </row>
+    <row r="372" spans="1:20">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -11276,10 +10510,8 @@
       <c r="R372" s="5"/>
       <c r="S372" s="5"/>
       <c r="T372" s="5"/>
-      <c r="U372" s="5"/>
-      <c r="V372" s="5"/>
-    </row>
-    <row r="373" spans="1:22">
+    </row>
+    <row r="373" spans="1:20">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -11300,10 +10532,8 @@
       <c r="R373" s="5"/>
       <c r="S373" s="5"/>
       <c r="T373" s="5"/>
-      <c r="U373" s="5"/>
-      <c r="V373" s="5"/>
-    </row>
-    <row r="374" spans="1:22">
+    </row>
+    <row r="374" spans="1:20">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -11324,10 +10554,8 @@
       <c r="R374" s="5"/>
       <c r="S374" s="5"/>
       <c r="T374" s="5"/>
-      <c r="U374" s="5"/>
-      <c r="V374" s="5"/>
-    </row>
-    <row r="375" spans="1:22">
+    </row>
+    <row r="375" spans="1:20">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -11348,10 +10576,8 @@
       <c r="R375" s="5"/>
       <c r="S375" s="5"/>
       <c r="T375" s="5"/>
-      <c r="U375" s="5"/>
-      <c r="V375" s="5"/>
-    </row>
-    <row r="376" spans="1:22">
+    </row>
+    <row r="376" spans="1:20">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -11372,10 +10598,8 @@
       <c r="R376" s="5"/>
       <c r="S376" s="5"/>
       <c r="T376" s="5"/>
-      <c r="U376" s="5"/>
-      <c r="V376" s="5"/>
-    </row>
-    <row r="377" spans="1:22">
+    </row>
+    <row r="377" spans="1:20">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -11396,10 +10620,8 @@
       <c r="R377" s="5"/>
       <c r="S377" s="5"/>
       <c r="T377" s="5"/>
-      <c r="U377" s="5"/>
-      <c r="V377" s="5"/>
-    </row>
-    <row r="378" spans="1:22">
+    </row>
+    <row r="378" spans="1:20">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -11420,10 +10642,8 @@
       <c r="R378" s="5"/>
       <c r="S378" s="5"/>
       <c r="T378" s="5"/>
-      <c r="U378" s="5"/>
-      <c r="V378" s="5"/>
-    </row>
-    <row r="379" spans="1:22">
+    </row>
+    <row r="379" spans="1:20">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -11444,10 +10664,8 @@
       <c r="R379" s="5"/>
       <c r="S379" s="5"/>
       <c r="T379" s="5"/>
-      <c r="U379" s="5"/>
-      <c r="V379" s="5"/>
-    </row>
-    <row r="380" spans="1:22">
+    </row>
+    <row r="380" spans="1:20">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -11468,10 +10686,8 @@
       <c r="R380" s="5"/>
       <c r="S380" s="5"/>
       <c r="T380" s="5"/>
-      <c r="U380" s="5"/>
-      <c r="V380" s="5"/>
-    </row>
-    <row r="381" spans="1:22">
+    </row>
+    <row r="381" spans="1:20">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -11492,10 +10708,8 @@
       <c r="R381" s="5"/>
       <c r="S381" s="5"/>
       <c r="T381" s="5"/>
-      <c r="U381" s="5"/>
-      <c r="V381" s="5"/>
-    </row>
-    <row r="382" spans="1:22">
+    </row>
+    <row r="382" spans="1:20">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -11516,10 +10730,8 @@
       <c r="R382" s="5"/>
       <c r="S382" s="5"/>
       <c r="T382" s="5"/>
-      <c r="U382" s="5"/>
-      <c r="V382" s="5"/>
-    </row>
-    <row r="383" spans="1:22">
+    </row>
+    <row r="383" spans="1:20">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -11540,10 +10752,8 @@
       <c r="R383" s="5"/>
       <c r="S383" s="5"/>
       <c r="T383" s="5"/>
-      <c r="U383" s="5"/>
-      <c r="V383" s="5"/>
-    </row>
-    <row r="384" spans="1:22">
+    </row>
+    <row r="384" spans="1:20">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -11564,10 +10774,8 @@
       <c r="R384" s="5"/>
       <c r="S384" s="5"/>
       <c r="T384" s="5"/>
-      <c r="U384" s="5"/>
-      <c r="V384" s="5"/>
-    </row>
-    <row r="385" spans="1:22">
+    </row>
+    <row r="385" spans="1:20">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -11588,10 +10796,8 @@
       <c r="R385" s="5"/>
       <c r="S385" s="5"/>
       <c r="T385" s="5"/>
-      <c r="U385" s="5"/>
-      <c r="V385" s="5"/>
-    </row>
-    <row r="386" spans="1:22">
+    </row>
+    <row r="386" spans="1:20">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -11612,10 +10818,8 @@
       <c r="R386" s="5"/>
       <c r="S386" s="5"/>
       <c r="T386" s="5"/>
-      <c r="U386" s="5"/>
-      <c r="V386" s="5"/>
-    </row>
-    <row r="387" spans="1:22">
+    </row>
+    <row r="387" spans="1:20">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -11636,10 +10840,8 @@
       <c r="R387" s="5"/>
       <c r="S387" s="5"/>
       <c r="T387" s="5"/>
-      <c r="U387" s="5"/>
-      <c r="V387" s="5"/>
-    </row>
-    <row r="388" spans="1:22">
+    </row>
+    <row r="388" spans="1:20">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -11660,10 +10862,8 @@
       <c r="R388" s="5"/>
       <c r="S388" s="5"/>
       <c r="T388" s="5"/>
-      <c r="U388" s="5"/>
-      <c r="V388" s="5"/>
-    </row>
-    <row r="389" spans="1:22">
+    </row>
+    <row r="389" spans="1:20">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -11684,10 +10884,8 @@
       <c r="R389" s="5"/>
       <c r="S389" s="5"/>
       <c r="T389" s="5"/>
-      <c r="U389" s="5"/>
-      <c r="V389" s="5"/>
-    </row>
-    <row r="390" spans="1:22">
+    </row>
+    <row r="390" spans="1:20">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -11708,10 +10906,8 @@
       <c r="R390" s="5"/>
       <c r="S390" s="5"/>
       <c r="T390" s="5"/>
-      <c r="U390" s="5"/>
-      <c r="V390" s="5"/>
-    </row>
-    <row r="391" spans="1:22">
+    </row>
+    <row r="391" spans="1:20">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -11732,10 +10928,8 @@
       <c r="R391" s="5"/>
       <c r="S391" s="5"/>
       <c r="T391" s="5"/>
-      <c r="U391" s="5"/>
-      <c r="V391" s="5"/>
-    </row>
-    <row r="392" spans="1:22">
+    </row>
+    <row r="392" spans="1:20">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -11756,10 +10950,8 @@
       <c r="R392" s="5"/>
       <c r="S392" s="5"/>
       <c r="T392" s="5"/>
-      <c r="U392" s="5"/>
-      <c r="V392" s="5"/>
-    </row>
-    <row r="393" spans="1:22">
+    </row>
+    <row r="393" spans="1:20">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -11780,10 +10972,8 @@
       <c r="R393" s="5"/>
       <c r="S393" s="5"/>
       <c r="T393" s="5"/>
-      <c r="U393" s="5"/>
-      <c r="V393" s="5"/>
-    </row>
-    <row r="394" spans="1:22">
+    </row>
+    <row r="394" spans="1:20">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -11804,10 +10994,8 @@
       <c r="R394" s="5"/>
       <c r="S394" s="5"/>
       <c r="T394" s="5"/>
-      <c r="U394" s="5"/>
-      <c r="V394" s="5"/>
-    </row>
-    <row r="395" spans="1:22">
+    </row>
+    <row r="395" spans="1:20">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -11828,10 +11016,8 @@
       <c r="R395" s="5"/>
       <c r="S395" s="5"/>
       <c r="T395" s="5"/>
-      <c r="U395" s="5"/>
-      <c r="V395" s="5"/>
-    </row>
-    <row r="396" spans="1:22">
+    </row>
+    <row r="396" spans="1:20">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -11852,10 +11038,8 @@
       <c r="R396" s="5"/>
       <c r="S396" s="5"/>
       <c r="T396" s="5"/>
-      <c r="U396" s="5"/>
-      <c r="V396" s="5"/>
-    </row>
-    <row r="397" spans="1:22">
+    </row>
+    <row r="397" spans="1:20">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -11876,10 +11060,8 @@
       <c r="R397" s="5"/>
       <c r="S397" s="5"/>
       <c r="T397" s="5"/>
-      <c r="U397" s="5"/>
-      <c r="V397" s="5"/>
-    </row>
-    <row r="398" spans="1:22">
+    </row>
+    <row r="398" spans="1:20">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -11900,10 +11082,8 @@
       <c r="R398" s="5"/>
       <c r="S398" s="5"/>
       <c r="T398" s="5"/>
-      <c r="U398" s="5"/>
-      <c r="V398" s="5"/>
-    </row>
-    <row r="399" spans="1:22">
+    </row>
+    <row r="399" spans="1:20">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -11924,10 +11104,8 @@
       <c r="R399" s="5"/>
       <c r="S399" s="5"/>
       <c r="T399" s="5"/>
-      <c r="U399" s="5"/>
-      <c r="V399" s="5"/>
-    </row>
-    <row r="400" spans="1:22">
+    </row>
+    <row r="400" spans="1:20">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -11948,10 +11126,8 @@
       <c r="R400" s="5"/>
       <c r="S400" s="5"/>
       <c r="T400" s="5"/>
-      <c r="U400" s="5"/>
-      <c r="V400" s="5"/>
-    </row>
-    <row r="401" spans="1:22">
+    </row>
+    <row r="401" spans="1:20">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -11972,10 +11148,8 @@
       <c r="R401" s="5"/>
       <c r="S401" s="5"/>
       <c r="T401" s="5"/>
-      <c r="U401" s="5"/>
-      <c r="V401" s="5"/>
-    </row>
-    <row r="402" spans="1:22">
+    </row>
+    <row r="402" spans="1:20">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -11996,10 +11170,8 @@
       <c r="R402" s="5"/>
       <c r="S402" s="5"/>
       <c r="T402" s="5"/>
-      <c r="U402" s="5"/>
-      <c r="V402" s="5"/>
-    </row>
-    <row r="403" spans="1:22">
+    </row>
+    <row r="403" spans="1:20">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -12020,10 +11192,8 @@
       <c r="R403" s="5"/>
       <c r="S403" s="5"/>
       <c r="T403" s="5"/>
-      <c r="U403" s="5"/>
-      <c r="V403" s="5"/>
-    </row>
-    <row r="404" spans="1:22">
+    </row>
+    <row r="404" spans="1:20">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -12044,10 +11214,8 @@
       <c r="R404" s="5"/>
       <c r="S404" s="5"/>
       <c r="T404" s="5"/>
-      <c r="U404" s="5"/>
-      <c r="V404" s="5"/>
-    </row>
-    <row r="405" spans="1:22">
+    </row>
+    <row r="405" spans="1:20">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -12068,10 +11236,8 @@
       <c r="R405" s="5"/>
       <c r="S405" s="5"/>
       <c r="T405" s="5"/>
-      <c r="U405" s="5"/>
-      <c r="V405" s="5"/>
-    </row>
-    <row r="406" spans="1:22">
+    </row>
+    <row r="406" spans="1:20">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -12092,10 +11258,8 @@
       <c r="R406" s="5"/>
       <c r="S406" s="5"/>
       <c r="T406" s="5"/>
-      <c r="U406" s="5"/>
-      <c r="V406" s="5"/>
-    </row>
-    <row r="407" spans="1:22">
+    </row>
+    <row r="407" spans="1:20">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -12116,10 +11280,8 @@
       <c r="R407" s="5"/>
       <c r="S407" s="5"/>
       <c r="T407" s="5"/>
-      <c r="U407" s="5"/>
-      <c r="V407" s="5"/>
-    </row>
-    <row r="408" spans="1:22">
+    </row>
+    <row r="408" spans="1:20">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -12140,10 +11302,8 @@
       <c r="R408" s="5"/>
       <c r="S408" s="5"/>
       <c r="T408" s="5"/>
-      <c r="U408" s="5"/>
-      <c r="V408" s="5"/>
-    </row>
-    <row r="409" spans="1:22">
+    </row>
+    <row r="409" spans="1:20">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -12164,10 +11324,8 @@
       <c r="R409" s="5"/>
       <c r="S409" s="5"/>
       <c r="T409" s="5"/>
-      <c r="U409" s="5"/>
-      <c r="V409" s="5"/>
-    </row>
-    <row r="410" spans="1:22">
+    </row>
+    <row r="410" spans="1:20">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -12188,10 +11346,8 @@
       <c r="R410" s="5"/>
       <c r="S410" s="5"/>
       <c r="T410" s="5"/>
-      <c r="U410" s="5"/>
-      <c r="V410" s="5"/>
-    </row>
-    <row r="411" spans="1:22">
+    </row>
+    <row r="411" spans="1:20">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -12212,10 +11368,8 @@
       <c r="R411" s="5"/>
       <c r="S411" s="5"/>
       <c r="T411" s="5"/>
-      <c r="U411" s="5"/>
-      <c r="V411" s="5"/>
-    </row>
-    <row r="412" spans="1:22">
+    </row>
+    <row r="412" spans="1:20">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -12236,10 +11390,8 @@
       <c r="R412" s="5"/>
       <c r="S412" s="5"/>
       <c r="T412" s="5"/>
-      <c r="U412" s="5"/>
-      <c r="V412" s="5"/>
-    </row>
-    <row r="413" spans="1:22">
+    </row>
+    <row r="413" spans="1:20">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -12260,10 +11412,8 @@
       <c r="R413" s="5"/>
       <c r="S413" s="5"/>
       <c r="T413" s="5"/>
-      <c r="U413" s="5"/>
-      <c r="V413" s="5"/>
-    </row>
-    <row r="414" spans="1:22">
+    </row>
+    <row r="414" spans="1:20">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -12284,10 +11434,8 @@
       <c r="R414" s="5"/>
       <c r="S414" s="5"/>
       <c r="T414" s="5"/>
-      <c r="U414" s="5"/>
-      <c r="V414" s="5"/>
-    </row>
-    <row r="415" spans="1:22">
+    </row>
+    <row r="415" spans="1:20">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -12308,10 +11456,8 @@
       <c r="R415" s="5"/>
       <c r="S415" s="5"/>
       <c r="T415" s="5"/>
-      <c r="U415" s="5"/>
-      <c r="V415" s="5"/>
-    </row>
-    <row r="416" spans="1:22">
+    </row>
+    <row r="416" spans="1:20">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -12332,10 +11478,8 @@
       <c r="R416" s="5"/>
       <c r="S416" s="5"/>
       <c r="T416" s="5"/>
-      <c r="U416" s="5"/>
-      <c r="V416" s="5"/>
-    </row>
-    <row r="417" spans="1:22">
+    </row>
+    <row r="417" spans="1:20">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -12356,10 +11500,8 @@
       <c r="R417" s="5"/>
       <c r="S417" s="5"/>
       <c r="T417" s="5"/>
-      <c r="U417" s="5"/>
-      <c r="V417" s="5"/>
-    </row>
-    <row r="418" spans="1:22">
+    </row>
+    <row r="418" spans="1:20">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -12380,10 +11522,8 @@
       <c r="R418" s="5"/>
       <c r="S418" s="5"/>
       <c r="T418" s="5"/>
-      <c r="U418" s="5"/>
-      <c r="V418" s="5"/>
-    </row>
-    <row r="419" spans="1:22">
+    </row>
+    <row r="419" spans="1:20">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -12404,10 +11544,8 @@
       <c r="R419" s="5"/>
       <c r="S419" s="5"/>
       <c r="T419" s="5"/>
-      <c r="U419" s="5"/>
-      <c r="V419" s="5"/>
-    </row>
-    <row r="420" spans="1:22">
+    </row>
+    <row r="420" spans="1:20">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -12428,10 +11566,8 @@
       <c r="R420" s="5"/>
       <c r="S420" s="5"/>
       <c r="T420" s="5"/>
-      <c r="U420" s="5"/>
-      <c r="V420" s="5"/>
-    </row>
-    <row r="421" spans="1:22">
+    </row>
+    <row r="421" spans="1:20">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -12452,10 +11588,8 @@
       <c r="R421" s="5"/>
       <c r="S421" s="5"/>
       <c r="T421" s="5"/>
-      <c r="U421" s="5"/>
-      <c r="V421" s="5"/>
-    </row>
-    <row r="422" spans="1:22">
+    </row>
+    <row r="422" spans="1:20">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -12476,10 +11610,8 @@
       <c r="R422" s="5"/>
       <c r="S422" s="5"/>
       <c r="T422" s="5"/>
-      <c r="U422" s="5"/>
-      <c r="V422" s="5"/>
-    </row>
-    <row r="423" spans="1:22">
+    </row>
+    <row r="423" spans="1:20">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -12500,10 +11632,8 @@
       <c r="R423" s="5"/>
       <c r="S423" s="5"/>
       <c r="T423" s="5"/>
-      <c r="U423" s="5"/>
-      <c r="V423" s="5"/>
-    </row>
-    <row r="424" spans="1:22">
+    </row>
+    <row r="424" spans="1:20">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -12524,10 +11654,8 @@
       <c r="R424" s="5"/>
       <c r="S424" s="5"/>
       <c r="T424" s="5"/>
-      <c r="U424" s="5"/>
-      <c r="V424" s="5"/>
-    </row>
-    <row r="425" spans="1:22">
+    </row>
+    <row r="425" spans="1:20">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -12548,10 +11676,8 @@
       <c r="R425" s="5"/>
       <c r="S425" s="5"/>
       <c r="T425" s="5"/>
-      <c r="U425" s="5"/>
-      <c r="V425" s="5"/>
-    </row>
-    <row r="426" spans="1:22">
+    </row>
+    <row r="426" spans="1:20">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -12572,10 +11698,8 @@
       <c r="R426" s="5"/>
       <c r="S426" s="5"/>
       <c r="T426" s="5"/>
-      <c r="U426" s="5"/>
-      <c r="V426" s="5"/>
-    </row>
-    <row r="427" spans="1:22">
+    </row>
+    <row r="427" spans="1:20">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -12596,10 +11720,8 @@
       <c r="R427" s="5"/>
       <c r="S427" s="5"/>
       <c r="T427" s="5"/>
-      <c r="U427" s="5"/>
-      <c r="V427" s="5"/>
-    </row>
-    <row r="428" spans="1:22">
+    </row>
+    <row r="428" spans="1:20">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -12620,10 +11742,8 @@
       <c r="R428" s="5"/>
       <c r="S428" s="5"/>
       <c r="T428" s="5"/>
-      <c r="U428" s="5"/>
-      <c r="V428" s="5"/>
-    </row>
-    <row r="429" spans="1:22">
+    </row>
+    <row r="429" spans="1:20">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -12644,10 +11764,8 @@
       <c r="R429" s="5"/>
       <c r="S429" s="5"/>
       <c r="T429" s="5"/>
-      <c r="U429" s="5"/>
-      <c r="V429" s="5"/>
-    </row>
-    <row r="430" spans="1:22">
+    </row>
+    <row r="430" spans="1:20">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -12668,10 +11786,8 @@
       <c r="R430" s="5"/>
       <c r="S430" s="5"/>
       <c r="T430" s="5"/>
-      <c r="U430" s="5"/>
-      <c r="V430" s="5"/>
-    </row>
-    <row r="431" spans="1:22">
+    </row>
+    <row r="431" spans="1:20">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -12692,10 +11808,8 @@
       <c r="R431" s="5"/>
       <c r="S431" s="5"/>
       <c r="T431" s="5"/>
-      <c r="U431" s="5"/>
-      <c r="V431" s="5"/>
-    </row>
-    <row r="432" spans="1:22">
+    </row>
+    <row r="432" spans="1:20">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -12716,10 +11830,8 @@
       <c r="R432" s="5"/>
       <c r="S432" s="5"/>
       <c r="T432" s="5"/>
-      <c r="U432" s="5"/>
-      <c r="V432" s="5"/>
-    </row>
-    <row r="433" spans="1:22">
+    </row>
+    <row r="433" spans="1:20">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
@@ -12740,10 +11852,8 @@
       <c r="R433" s="5"/>
       <c r="S433" s="5"/>
       <c r="T433" s="5"/>
-      <c r="U433" s="5"/>
-      <c r="V433" s="5"/>
-    </row>
-    <row r="434" spans="1:22">
+    </row>
+    <row r="434" spans="1:20">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -12764,10 +11874,8 @@
       <c r="R434" s="5"/>
       <c r="S434" s="5"/>
       <c r="T434" s="5"/>
-      <c r="U434" s="5"/>
-      <c r="V434" s="5"/>
-    </row>
-    <row r="435" spans="1:22">
+    </row>
+    <row r="435" spans="1:20">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
@@ -12788,10 +11896,8 @@
       <c r="R435" s="5"/>
       <c r="S435" s="5"/>
       <c r="T435" s="5"/>
-      <c r="U435" s="5"/>
-      <c r="V435" s="5"/>
-    </row>
-    <row r="436" spans="1:22">
+    </row>
+    <row r="436" spans="1:20">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -12812,10 +11918,8 @@
       <c r="R436" s="5"/>
       <c r="S436" s="5"/>
       <c r="T436" s="5"/>
-      <c r="U436" s="5"/>
-      <c r="V436" s="5"/>
-    </row>
-    <row r="437" spans="1:22">
+    </row>
+    <row r="437" spans="1:20">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
@@ -12836,10 +11940,8 @@
       <c r="R437" s="5"/>
       <c r="S437" s="5"/>
       <c r="T437" s="5"/>
-      <c r="U437" s="5"/>
-      <c r="V437" s="5"/>
-    </row>
-    <row r="438" spans="1:22">
+    </row>
+    <row r="438" spans="1:20">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
@@ -12860,10 +11962,8 @@
       <c r="R438" s="5"/>
       <c r="S438" s="5"/>
       <c r="T438" s="5"/>
-      <c r="U438" s="5"/>
-      <c r="V438" s="5"/>
-    </row>
-    <row r="439" spans="1:22">
+    </row>
+    <row r="439" spans="1:20">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
@@ -12884,10 +11984,8 @@
       <c r="R439" s="5"/>
       <c r="S439" s="5"/>
       <c r="T439" s="5"/>
-      <c r="U439" s="5"/>
-      <c r="V439" s="5"/>
-    </row>
-    <row r="440" spans="1:22">
+    </row>
+    <row r="440" spans="1:20">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
@@ -12908,10 +12006,8 @@
       <c r="R440" s="5"/>
       <c r="S440" s="5"/>
       <c r="T440" s="5"/>
-      <c r="U440" s="5"/>
-      <c r="V440" s="5"/>
-    </row>
-    <row r="441" spans="1:22">
+    </row>
+    <row r="441" spans="1:20">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
@@ -12932,10 +12028,8 @@
       <c r="R441" s="5"/>
       <c r="S441" s="5"/>
       <c r="T441" s="5"/>
-      <c r="U441" s="5"/>
-      <c r="V441" s="5"/>
-    </row>
-    <row r="442" spans="1:22">
+    </row>
+    <row r="442" spans="1:20">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
@@ -12956,10 +12050,8 @@
       <c r="R442" s="5"/>
       <c r="S442" s="5"/>
       <c r="T442" s="5"/>
-      <c r="U442" s="5"/>
-      <c r="V442" s="5"/>
-    </row>
-    <row r="443" spans="1:22">
+    </row>
+    <row r="443" spans="1:20">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
@@ -12980,10 +12072,8 @@
       <c r="R443" s="5"/>
       <c r="S443" s="5"/>
       <c r="T443" s="5"/>
-      <c r="U443" s="5"/>
-      <c r="V443" s="5"/>
-    </row>
-    <row r="444" spans="1:22">
+    </row>
+    <row r="444" spans="1:20">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
@@ -13004,10 +12094,8 @@
       <c r="R444" s="5"/>
       <c r="S444" s="5"/>
       <c r="T444" s="5"/>
-      <c r="U444" s="5"/>
-      <c r="V444" s="5"/>
-    </row>
-    <row r="445" spans="1:22">
+    </row>
+    <row r="445" spans="1:20">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
@@ -13028,10 +12116,8 @@
       <c r="R445" s="5"/>
       <c r="S445" s="5"/>
       <c r="T445" s="5"/>
-      <c r="U445" s="5"/>
-      <c r="V445" s="5"/>
-    </row>
-    <row r="446" spans="1:22">
+    </row>
+    <row r="446" spans="1:20">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
@@ -13052,10 +12138,8 @@
       <c r="R446" s="5"/>
       <c r="S446" s="5"/>
       <c r="T446" s="5"/>
-      <c r="U446" s="5"/>
-      <c r="V446" s="5"/>
-    </row>
-    <row r="447" spans="1:22">
+    </row>
+    <row r="447" spans="1:20">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
@@ -13076,10 +12160,8 @@
       <c r="R447" s="5"/>
       <c r="S447" s="5"/>
       <c r="T447" s="5"/>
-      <c r="U447" s="5"/>
-      <c r="V447" s="5"/>
-    </row>
-    <row r="448" spans="1:22">
+    </row>
+    <row r="448" spans="1:20">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
@@ -13100,10 +12182,8 @@
       <c r="R448" s="5"/>
       <c r="S448" s="5"/>
       <c r="T448" s="5"/>
-      <c r="U448" s="5"/>
-      <c r="V448" s="5"/>
-    </row>
-    <row r="449" spans="1:22">
+    </row>
+    <row r="449" spans="1:20">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
@@ -13124,10 +12204,8 @@
       <c r="R449" s="5"/>
       <c r="S449" s="5"/>
       <c r="T449" s="5"/>
-      <c r="U449" s="5"/>
-      <c r="V449" s="5"/>
-    </row>
-    <row r="450" spans="1:22">
+    </row>
+    <row r="450" spans="1:20">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
@@ -13148,10 +12226,8 @@
       <c r="R450" s="5"/>
       <c r="S450" s="5"/>
       <c r="T450" s="5"/>
-      <c r="U450" s="5"/>
-      <c r="V450" s="5"/>
-    </row>
-    <row r="451" spans="1:22">
+    </row>
+    <row r="451" spans="1:20">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
@@ -13172,10 +12248,8 @@
       <c r="R451" s="5"/>
       <c r="S451" s="5"/>
       <c r="T451" s="5"/>
-      <c r="U451" s="5"/>
-      <c r="V451" s="5"/>
-    </row>
-    <row r="452" spans="1:22">
+    </row>
+    <row r="452" spans="1:20">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
@@ -13196,10 +12270,8 @@
       <c r="R452" s="5"/>
       <c r="S452" s="5"/>
       <c r="T452" s="5"/>
-      <c r="U452" s="5"/>
-      <c r="V452" s="5"/>
-    </row>
-    <row r="453" spans="1:22">
+    </row>
+    <row r="453" spans="1:20">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
@@ -13220,10 +12292,8 @@
       <c r="R453" s="5"/>
       <c r="S453" s="5"/>
       <c r="T453" s="5"/>
-      <c r="U453" s="5"/>
-      <c r="V453" s="5"/>
-    </row>
-    <row r="454" spans="1:22">
+    </row>
+    <row r="454" spans="1:20">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -13244,10 +12314,8 @@
       <c r="R454" s="5"/>
       <c r="S454" s="5"/>
       <c r="T454" s="5"/>
-      <c r="U454" s="5"/>
-      <c r="V454" s="5"/>
-    </row>
-    <row r="455" spans="1:22">
+    </row>
+    <row r="455" spans="1:20">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
@@ -13268,10 +12336,8 @@
       <c r="R455" s="5"/>
       <c r="S455" s="5"/>
       <c r="T455" s="5"/>
-      <c r="U455" s="5"/>
-      <c r="V455" s="5"/>
-    </row>
-    <row r="456" spans="1:22">
+    </row>
+    <row r="456" spans="1:20">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
@@ -13292,10 +12358,8 @@
       <c r="R456" s="5"/>
       <c r="S456" s="5"/>
       <c r="T456" s="5"/>
-      <c r="U456" s="5"/>
-      <c r="V456" s="5"/>
-    </row>
-    <row r="457" spans="1:22">
+    </row>
+    <row r="457" spans="1:20">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
@@ -13316,10 +12380,8 @@
       <c r="R457" s="5"/>
       <c r="S457" s="5"/>
       <c r="T457" s="5"/>
-      <c r="U457" s="5"/>
-      <c r="V457" s="5"/>
-    </row>
-    <row r="458" spans="1:22">
+    </row>
+    <row r="458" spans="1:20">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
@@ -13340,10 +12402,8 @@
       <c r="R458" s="5"/>
       <c r="S458" s="5"/>
       <c r="T458" s="5"/>
-      <c r="U458" s="5"/>
-      <c r="V458" s="5"/>
-    </row>
-    <row r="459" spans="1:22">
+    </row>
+    <row r="459" spans="1:20">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
@@ -13364,10 +12424,8 @@
       <c r="R459" s="5"/>
       <c r="S459" s="5"/>
       <c r="T459" s="5"/>
-      <c r="U459" s="5"/>
-      <c r="V459" s="5"/>
-    </row>
-    <row r="460" spans="1:22">
+    </row>
+    <row r="460" spans="1:20">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
@@ -13388,10 +12446,8 @@
       <c r="R460" s="5"/>
       <c r="S460" s="5"/>
       <c r="T460" s="5"/>
-      <c r="U460" s="5"/>
-      <c r="V460" s="5"/>
-    </row>
-    <row r="461" spans="1:22">
+    </row>
+    <row r="461" spans="1:20">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
@@ -13412,10 +12468,8 @@
       <c r="R461" s="5"/>
       <c r="S461" s="5"/>
       <c r="T461" s="5"/>
-      <c r="U461" s="5"/>
-      <c r="V461" s="5"/>
-    </row>
-    <row r="462" spans="1:22">
+    </row>
+    <row r="462" spans="1:20">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
@@ -13436,10 +12490,8 @@
       <c r="R462" s="5"/>
       <c r="S462" s="5"/>
       <c r="T462" s="5"/>
-      <c r="U462" s="5"/>
-      <c r="V462" s="5"/>
-    </row>
-    <row r="463" spans="1:22">
+    </row>
+    <row r="463" spans="1:20">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
@@ -13460,10 +12512,8 @@
       <c r="R463" s="5"/>
       <c r="S463" s="5"/>
       <c r="T463" s="5"/>
-      <c r="U463" s="5"/>
-      <c r="V463" s="5"/>
-    </row>
-    <row r="464" spans="1:22">
+    </row>
+    <row r="464" spans="1:20">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
@@ -13484,10 +12534,8 @@
       <c r="R464" s="5"/>
       <c r="S464" s="5"/>
       <c r="T464" s="5"/>
-      <c r="U464" s="5"/>
-      <c r="V464" s="5"/>
-    </row>
-    <row r="465" spans="1:22">
+    </row>
+    <row r="465" spans="1:20">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
@@ -13508,10 +12556,8 @@
       <c r="R465" s="5"/>
       <c r="S465" s="5"/>
       <c r="T465" s="5"/>
-      <c r="U465" s="5"/>
-      <c r="V465" s="5"/>
-    </row>
-    <row r="466" spans="1:22">
+    </row>
+    <row r="466" spans="1:20">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
@@ -13532,10 +12578,8 @@
       <c r="R466" s="5"/>
       <c r="S466" s="5"/>
       <c r="T466" s="5"/>
-      <c r="U466" s="5"/>
-      <c r="V466" s="5"/>
-    </row>
-    <row r="467" spans="1:22">
+    </row>
+    <row r="467" spans="1:20">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
@@ -13556,10 +12600,8 @@
       <c r="R467" s="5"/>
       <c r="S467" s="5"/>
       <c r="T467" s="5"/>
-      <c r="U467" s="5"/>
-      <c r="V467" s="5"/>
-    </row>
-    <row r="468" spans="1:22">
+    </row>
+    <row r="468" spans="1:20">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
@@ -13580,10 +12622,8 @@
       <c r="R468" s="5"/>
       <c r="S468" s="5"/>
       <c r="T468" s="5"/>
-      <c r="U468" s="5"/>
-      <c r="V468" s="5"/>
-    </row>
-    <row r="469" spans="1:22">
+    </row>
+    <row r="469" spans="1:20">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
@@ -13604,10 +12644,8 @@
       <c r="R469" s="5"/>
       <c r="S469" s="5"/>
       <c r="T469" s="5"/>
-      <c r="U469" s="5"/>
-      <c r="V469" s="5"/>
-    </row>
-    <row r="470" spans="1:22">
+    </row>
+    <row r="470" spans="1:20">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
@@ -13628,10 +12666,8 @@
       <c r="R470" s="5"/>
       <c r="S470" s="5"/>
       <c r="T470" s="5"/>
-      <c r="U470" s="5"/>
-      <c r="V470" s="5"/>
-    </row>
-    <row r="471" spans="1:22">
+    </row>
+    <row r="471" spans="1:20">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
@@ -13652,10 +12688,8 @@
       <c r="R471" s="5"/>
       <c r="S471" s="5"/>
       <c r="T471" s="5"/>
-      <c r="U471" s="5"/>
-      <c r="V471" s="5"/>
-    </row>
-    <row r="472" spans="1:22">
+    </row>
+    <row r="472" spans="1:20">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -13676,10 +12710,8 @@
       <c r="R472" s="5"/>
       <c r="S472" s="5"/>
       <c r="T472" s="5"/>
-      <c r="U472" s="5"/>
-      <c r="V472" s="5"/>
-    </row>
-    <row r="473" spans="1:22">
+    </row>
+    <row r="473" spans="1:20">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
@@ -13700,10 +12732,8 @@
       <c r="R473" s="5"/>
       <c r="S473" s="5"/>
       <c r="T473" s="5"/>
-      <c r="U473" s="5"/>
-      <c r="V473" s="5"/>
-    </row>
-    <row r="474" spans="1:22">
+    </row>
+    <row r="474" spans="1:20">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
@@ -13724,10 +12754,8 @@
       <c r="R474" s="5"/>
       <c r="S474" s="5"/>
       <c r="T474" s="5"/>
-      <c r="U474" s="5"/>
-      <c r="V474" s="5"/>
-    </row>
-    <row r="475" spans="1:22">
+    </row>
+    <row r="475" spans="1:20">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
@@ -13748,10 +12776,8 @@
       <c r="R475" s="5"/>
       <c r="S475" s="5"/>
       <c r="T475" s="5"/>
-      <c r="U475" s="5"/>
-      <c r="V475" s="5"/>
-    </row>
-    <row r="476" spans="1:22">
+    </row>
+    <row r="476" spans="1:20">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
@@ -13772,10 +12798,8 @@
       <c r="R476" s="5"/>
       <c r="S476" s="5"/>
       <c r="T476" s="5"/>
-      <c r="U476" s="5"/>
-      <c r="V476" s="5"/>
-    </row>
-    <row r="477" spans="1:22">
+    </row>
+    <row r="477" spans="1:20">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
@@ -13796,10 +12820,8 @@
       <c r="R477" s="5"/>
       <c r="S477" s="5"/>
       <c r="T477" s="5"/>
-      <c r="U477" s="5"/>
-      <c r="V477" s="5"/>
-    </row>
-    <row r="478" spans="1:22">
+    </row>
+    <row r="478" spans="1:20">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
@@ -13820,10 +12842,8 @@
       <c r="R478" s="5"/>
       <c r="S478" s="5"/>
       <c r="T478" s="5"/>
-      <c r="U478" s="5"/>
-      <c r="V478" s="5"/>
-    </row>
-    <row r="479" spans="1:22">
+    </row>
+    <row r="479" spans="1:20">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
@@ -13844,10 +12864,8 @@
       <c r="R479" s="5"/>
       <c r="S479" s="5"/>
       <c r="T479" s="5"/>
-      <c r="U479" s="5"/>
-      <c r="V479" s="5"/>
-    </row>
-    <row r="480" spans="1:22">
+    </row>
+    <row r="480" spans="1:20">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
@@ -13868,10 +12886,8 @@
       <c r="R480" s="5"/>
       <c r="S480" s="5"/>
       <c r="T480" s="5"/>
-      <c r="U480" s="5"/>
-      <c r="V480" s="5"/>
-    </row>
-    <row r="481" spans="1:22">
+    </row>
+    <row r="481" spans="1:20">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
@@ -13892,10 +12908,8 @@
       <c r="R481" s="5"/>
       <c r="S481" s="5"/>
       <c r="T481" s="5"/>
-      <c r="U481" s="5"/>
-      <c r="V481" s="5"/>
-    </row>
-    <row r="482" spans="1:22">
+    </row>
+    <row r="482" spans="1:20">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
@@ -13916,10 +12930,8 @@
       <c r="R482" s="5"/>
       <c r="S482" s="5"/>
       <c r="T482" s="5"/>
-      <c r="U482" s="5"/>
-      <c r="V482" s="5"/>
-    </row>
-    <row r="483" spans="1:22">
+    </row>
+    <row r="483" spans="1:20">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
@@ -13940,10 +12952,8 @@
       <c r="R483" s="5"/>
       <c r="S483" s="5"/>
       <c r="T483" s="5"/>
-      <c r="U483" s="5"/>
-      <c r="V483" s="5"/>
-    </row>
-    <row r="484" spans="1:22">
+    </row>
+    <row r="484" spans="1:20">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
@@ -13964,10 +12974,8 @@
       <c r="R484" s="5"/>
       <c r="S484" s="5"/>
       <c r="T484" s="5"/>
-      <c r="U484" s="5"/>
-      <c r="V484" s="5"/>
-    </row>
-    <row r="485" spans="1:22">
+    </row>
+    <row r="485" spans="1:20">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
@@ -13988,10 +12996,8 @@
       <c r="R485" s="5"/>
       <c r="S485" s="5"/>
       <c r="T485" s="5"/>
-      <c r="U485" s="5"/>
-      <c r="V485" s="5"/>
-    </row>
-    <row r="486" spans="1:22">
+    </row>
+    <row r="486" spans="1:20">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
@@ -14012,10 +13018,8 @@
       <c r="R486" s="5"/>
       <c r="S486" s="5"/>
       <c r="T486" s="5"/>
-      <c r="U486" s="5"/>
-      <c r="V486" s="5"/>
-    </row>
-    <row r="487" spans="1:22">
+    </row>
+    <row r="487" spans="1:20">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
@@ -14036,10 +13040,8 @@
       <c r="R487" s="5"/>
       <c r="S487" s="5"/>
       <c r="T487" s="5"/>
-      <c r="U487" s="5"/>
-      <c r="V487" s="5"/>
-    </row>
-    <row r="488" spans="1:22">
+    </row>
+    <row r="488" spans="1:20">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
@@ -14060,10 +13062,8 @@
       <c r="R488" s="5"/>
       <c r="S488" s="5"/>
       <c r="T488" s="5"/>
-      <c r="U488" s="5"/>
-      <c r="V488" s="5"/>
-    </row>
-    <row r="489" spans="1:22">
+    </row>
+    <row r="489" spans="1:20">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
@@ -14084,10 +13084,8 @@
       <c r="R489" s="5"/>
       <c r="S489" s="5"/>
       <c r="T489" s="5"/>
-      <c r="U489" s="5"/>
-      <c r="V489" s="5"/>
-    </row>
-    <row r="490" spans="1:22">
+    </row>
+    <row r="490" spans="1:20">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
@@ -14108,10 +13106,8 @@
       <c r="R490" s="5"/>
       <c r="S490" s="5"/>
       <c r="T490" s="5"/>
-      <c r="U490" s="5"/>
-      <c r="V490" s="5"/>
-    </row>
-    <row r="491" spans="1:22">
+    </row>
+    <row r="491" spans="1:20">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
@@ -14132,10 +13128,8 @@
       <c r="R491" s="5"/>
       <c r="S491" s="5"/>
       <c r="T491" s="5"/>
-      <c r="U491" s="5"/>
-      <c r="V491" s="5"/>
-    </row>
-    <row r="492" spans="1:22">
+    </row>
+    <row r="492" spans="1:20">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
@@ -14156,10 +13150,8 @@
       <c r="R492" s="5"/>
       <c r="S492" s="5"/>
       <c r="T492" s="5"/>
-      <c r="U492" s="5"/>
-      <c r="V492" s="5"/>
-    </row>
-    <row r="493" spans="1:22">
+    </row>
+    <row r="493" spans="1:20">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
@@ -14180,10 +13172,8 @@
       <c r="R493" s="5"/>
       <c r="S493" s="5"/>
       <c r="T493" s="5"/>
-      <c r="U493" s="5"/>
-      <c r="V493" s="5"/>
-    </row>
-    <row r="494" spans="1:22">
+    </row>
+    <row r="494" spans="1:20">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
@@ -14204,10 +13194,8 @@
       <c r="R494" s="5"/>
       <c r="S494" s="5"/>
       <c r="T494" s="5"/>
-      <c r="U494" s="5"/>
-      <c r="V494" s="5"/>
-    </row>
-    <row r="495" spans="1:22">
+    </row>
+    <row r="495" spans="1:20">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
@@ -14228,10 +13216,8 @@
       <c r="R495" s="5"/>
       <c r="S495" s="5"/>
       <c r="T495" s="5"/>
-      <c r="U495" s="5"/>
-      <c r="V495" s="5"/>
-    </row>
-    <row r="496" spans="1:22">
+    </row>
+    <row r="496" spans="1:20">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
@@ -14252,10 +13238,8 @@
       <c r="R496" s="5"/>
       <c r="S496" s="5"/>
       <c r="T496" s="5"/>
-      <c r="U496" s="5"/>
-      <c r="V496" s="5"/>
-    </row>
-    <row r="497" spans="1:22">
+    </row>
+    <row r="497" spans="1:20">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
@@ -14276,10 +13260,8 @@
       <c r="R497" s="5"/>
       <c r="S497" s="5"/>
       <c r="T497" s="5"/>
-      <c r="U497" s="5"/>
-      <c r="V497" s="5"/>
-    </row>
-    <row r="498" spans="1:22">
+    </row>
+    <row r="498" spans="1:20">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
@@ -14300,10 +13282,8 @@
       <c r="R498" s="5"/>
       <c r="S498" s="5"/>
       <c r="T498" s="5"/>
-      <c r="U498" s="5"/>
-      <c r="V498" s="5"/>
-    </row>
-    <row r="499" spans="1:22">
+    </row>
+    <row r="499" spans="1:20">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
@@ -14324,10 +13304,8 @@
       <c r="R499" s="5"/>
       <c r="S499" s="5"/>
       <c r="T499" s="5"/>
-      <c r="U499" s="5"/>
-      <c r="V499" s="5"/>
-    </row>
-    <row r="500" spans="1:22">
+    </row>
+    <row r="500" spans="1:20">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
@@ -14348,8 +13326,6 @@
       <c r="R500" s="5"/>
       <c r="S500" s="5"/>
       <c r="T500" s="5"/>
-      <c r="U500" s="5"/>
-      <c r="V500" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/我的创作/炒股/交易运行状态/新化股份.xlsx
+++ b/我的创作/炒股/交易运行状态/新化股份.xlsx
@@ -78,10 +78,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -93,43 +93,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,17 +114,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,9 +137,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,7 +216,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,40 +229,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,7 +257,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,67 +293,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,91 +317,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +330,114 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,8 +454,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,22 +464,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,31 +500,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,8 +528,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,148 +553,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -845,7 +845,7 @@
             <v>21.88</v>
           </cell>
           <cell r="P4">
-            <v>25.14</v>
+            <v>26.5</v>
           </cell>
           <cell r="Q4">
             <v>22.1</v>
@@ -855,6 +855,12 @@
           </cell>
           <cell r="S4">
             <v>24</v>
+          </cell>
+          <cell r="T4">
+            <v>26.2</v>
+          </cell>
+          <cell r="U4">
+            <v>24.52</v>
           </cell>
         </row>
         <row r="4">
@@ -868,92 +874,89 @@
             <v>0.265771812080537</v>
           </cell>
           <cell r="AA4">
-            <v>0.120922832140016</v>
+            <v>0.166037735849057</v>
           </cell>
           <cell r="AB4">
             <v>0.0909090909090909</v>
           </cell>
-          <cell r="AC4" t="e">
-            <v>#DIV/0!</v>
+          <cell r="AC4">
+            <v>0.0641221374045801</v>
           </cell>
         </row>
         <row r="4">
           <cell r="AE4" t="str">
-            <v>4T</v>
+            <v>5T</v>
           </cell>
           <cell r="AF4" t="str">
-            <v>减少不明显，空头依然较强</v>
-          </cell>
-          <cell r="AG4" t="str">
-            <v>形态清晰</v>
-          </cell>
-          <cell r="AH4" t="str">
-            <v>可以</v>
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          </cell>
+          <cell r="AG4">
+            <v>28.15</v>
+          </cell>
+          <cell r="AH4">
+            <v>21.87</v>
           </cell>
           <cell r="AI4">
-            <v>28.15</v>
+            <v>6.28</v>
           </cell>
           <cell r="AJ4">
-            <v>21.87</v>
+            <v>26.2</v>
           </cell>
           <cell r="AK4">
-            <v>6.28</v>
+            <v>24.68</v>
           </cell>
           <cell r="AL4">
+            <v>32.49</v>
+          </cell>
+          <cell r="AM4">
+            <v>152</v>
+          </cell>
+          <cell r="AN4">
+            <v>200</v>
+          </cell>
+          <cell r="AO4">
+            <v>4.13815789473685</v>
+          </cell>
+          <cell r="AP4">
+            <v>0.0580152671755725</v>
+          </cell>
+          <cell r="AQ4">
+            <v>0.240076335877863</v>
+          </cell>
+          <cell r="AR4">
+            <v>150.88</v>
+          </cell>
+          <cell r="AS4" t="str">
+            <v>不宜入场</v>
+          </cell>
+          <cell r="AT4">
+            <v>44523</v>
+          </cell>
+          <cell r="AU4">
             <v>26.2</v>
           </cell>
-          <cell r="AM4">
-            <v>24.68</v>
-          </cell>
-          <cell r="AN4">
-            <v>32.49</v>
-          </cell>
-          <cell r="AO4">
-            <v>152</v>
-          </cell>
-          <cell r="AP4">
+          <cell r="AV4">
             <v>200</v>
           </cell>
-          <cell r="AQ4">
-            <v>4.13815789473685</v>
-          </cell>
-          <cell r="AR4">
-            <v>0.0580152671755725</v>
-          </cell>
-          <cell r="AS4">
-            <v>0.240076335877863</v>
-          </cell>
-          <cell r="AT4">
-            <v>150.88</v>
-          </cell>
-          <cell r="AU4">
-            <v>44523</v>
-          </cell>
-          <cell r="AV4">
-            <v>26.2</v>
-          </cell>
           <cell r="AW4">
-            <v>200</v>
+            <v>5</v>
           </cell>
           <cell r="AX4">
-            <v>5</v>
+            <v>0.1048</v>
           </cell>
           <cell r="AY4">
-            <v>0.1048</v>
+            <v>5245.1048</v>
           </cell>
           <cell r="AZ4">
-            <v>5245.1048</v>
+            <v>309.1048</v>
           </cell>
           <cell r="BA4">
-            <v>309.1048</v>
+            <v>26.5</v>
           </cell>
           <cell r="BB4">
-            <v>26.5</v>
+            <v>25.21</v>
           </cell>
           <cell r="BC4">
-            <v>25.21</v>
-          </cell>
-          <cell r="BD4">
             <v>0.232558139534884</v>
           </cell>
         </row>
@@ -1040,78 +1043,75 @@
             <v>4T</v>
           </cell>
           <cell r="AF5" t="str">
-            <v>减少一般，空头仍然较强</v>
-          </cell>
-          <cell r="AG5" t="str">
-            <v>不是很清晰</v>
-          </cell>
-          <cell r="AH5" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩保持不变</v>
+          </cell>
+          <cell r="AG5">
+            <v>35.48</v>
+          </cell>
+          <cell r="AH5">
+            <v>31.36</v>
+          </cell>
+          <cell r="AI5">
+            <v>4.12</v>
+          </cell>
+          <cell r="AJ5">
+            <v>34.12</v>
+          </cell>
+          <cell r="AK5">
+            <v>32.53</v>
+          </cell>
+          <cell r="AL5">
+            <v>39.33</v>
+          </cell>
+          <cell r="AM5">
+            <v>159</v>
+          </cell>
+          <cell r="AN5">
+            <v>100</v>
+          </cell>
+          <cell r="AO5">
+            <v>3.27672955974844</v>
+          </cell>
+          <cell r="AP5">
+            <v>0.0466002344665884</v>
+          </cell>
+          <cell r="AQ5">
+            <v>0.152696365767878</v>
+          </cell>
+          <cell r="AR5">
+            <v>37.41</v>
+          </cell>
+          <cell r="AS5" t="str">
             <v>可以</v>
           </cell>
-          <cell r="AI5">
-            <v>35.48</v>
-          </cell>
-          <cell r="AJ5">
-            <v>31.36</v>
-          </cell>
-          <cell r="AK5">
-            <v>4.12</v>
-          </cell>
-          <cell r="AL5">
-            <v>34.12</v>
-          </cell>
-          <cell r="AM5">
-            <v>32.53</v>
-          </cell>
-          <cell r="AN5">
-            <v>39.33</v>
-          </cell>
-          <cell r="AO5">
-            <v>159</v>
-          </cell>
-          <cell r="AP5">
+          <cell r="AT5">
+            <v>44523</v>
+          </cell>
+          <cell r="AU5">
+            <v>33.73</v>
+          </cell>
+          <cell r="AV5">
             <v>100</v>
           </cell>
-          <cell r="AQ5">
-            <v>3.27672955974844</v>
-          </cell>
-          <cell r="AR5">
-            <v>0.0466002344665884</v>
-          </cell>
-          <cell r="AS5">
-            <v>0.152696365767878</v>
-          </cell>
-          <cell r="AT5">
-            <v>37.41</v>
-          </cell>
-          <cell r="AU5">
-            <v>44523</v>
-          </cell>
-          <cell r="AV5">
-            <v>33.73</v>
-          </cell>
           <cell r="AW5">
-            <v>100</v>
+            <v>5</v>
           </cell>
           <cell r="AX5">
-            <v>5</v>
+            <v>0.06746</v>
           </cell>
           <cell r="AY5">
-            <v>0.06746</v>
+            <v>3378.06746</v>
           </cell>
           <cell r="AZ5">
-            <v>3378.06746</v>
+            <v>125.06746</v>
           </cell>
           <cell r="BA5">
-            <v>125.06746</v>
+            <v>35.36</v>
           </cell>
           <cell r="BB5">
-            <v>35.36</v>
+            <v>33.1</v>
           </cell>
           <cell r="BC5">
-            <v>33.1</v>
-          </cell>
-          <cell r="BD5">
             <v>0.721238938053099</v>
           </cell>
         </row>
@@ -1166,9 +1166,6 @@
           <cell r="Q6">
             <v>30.89</v>
           </cell>
-          <cell r="R6">
-            <v>32.65</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="X6" t="str">
@@ -1183,8 +1180,9 @@
           <cell r="AA6">
             <v>0.124184859654097</v>
           </cell>
-        </row>
-        <row r="6">
+          <cell r="AB6" t="e">
+            <v>#DIV/0!</v>
+          </cell>
           <cell r="AC6" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -1194,78 +1192,75 @@
             <v>3T</v>
           </cell>
           <cell r="AF6" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
-          <cell r="AG6" t="str">
-            <v>不是很清晰</v>
-          </cell>
-          <cell r="AH6" t="str">
+            <v>成交量一直随价格收缩逐级减少，最后随着价格收缩期间空头几乎被榨干</v>
+          </cell>
+          <cell r="AG6">
+            <v>36.21</v>
+          </cell>
+          <cell r="AH6">
+            <v>27.35</v>
+          </cell>
+          <cell r="AI6">
+            <v>8.86</v>
+          </cell>
+          <cell r="AJ6">
+            <v>32.65</v>
+          </cell>
+          <cell r="AK6">
+            <v>30.89</v>
+          </cell>
+          <cell r="AL6">
+            <v>36.22</v>
+          </cell>
+          <cell r="AM6">
+            <v>176</v>
+          </cell>
+          <cell r="AN6">
+            <v>100</v>
+          </cell>
+          <cell r="AO6">
+            <v>2.02840909090909</v>
+          </cell>
+          <cell r="AP6">
+            <v>0.0539050535987748</v>
+          </cell>
+          <cell r="AQ6">
+            <v>0.109341500765697</v>
+          </cell>
+          <cell r="AR6">
+            <v>28.82</v>
+          </cell>
+          <cell r="AS6" t="str">
             <v>可以</v>
           </cell>
-          <cell r="AI6">
-            <v>36.21</v>
-          </cell>
-          <cell r="AJ6">
-            <v>27.35</v>
-          </cell>
-          <cell r="AK6">
-            <v>8.86</v>
-          </cell>
-          <cell r="AL6">
-            <v>32.65</v>
-          </cell>
-          <cell r="AM6">
-            <v>30.89</v>
-          </cell>
-          <cell r="AN6">
-            <v>36.22</v>
-          </cell>
-          <cell r="AO6">
-            <v>176</v>
-          </cell>
-          <cell r="AP6">
+          <cell r="AT6">
+            <v>44522</v>
+          </cell>
+          <cell r="AU6">
+            <v>32.7</v>
+          </cell>
+          <cell r="AV6">
             <v>100</v>
           </cell>
-          <cell r="AQ6">
-            <v>2.02840909090909</v>
-          </cell>
-          <cell r="AR6">
-            <v>0.0539050535987748</v>
-          </cell>
-          <cell r="AS6">
-            <v>0.109341500765697</v>
-          </cell>
-          <cell r="AT6">
-            <v>28.82</v>
-          </cell>
-          <cell r="AU6">
-            <v>44522</v>
-          </cell>
-          <cell r="AV6">
-            <v>32.7</v>
-          </cell>
           <cell r="AW6">
-            <v>100</v>
+            <v>5</v>
           </cell>
           <cell r="AX6">
-            <v>5</v>
+            <v>0.0654</v>
           </cell>
           <cell r="AY6">
-            <v>0.0654</v>
+            <v>3275.0654</v>
           </cell>
           <cell r="AZ6">
-            <v>3275.0654</v>
+            <v>186.0654</v>
           </cell>
           <cell r="BA6">
-            <v>186.0654</v>
+            <v>33.9</v>
           </cell>
           <cell r="BB6">
-            <v>33.9</v>
+            <v>32.49</v>
           </cell>
           <cell r="BC6">
-            <v>32.49</v>
-          </cell>
-          <cell r="BD6">
             <v>0.851063829787233</v>
           </cell>
         </row>
@@ -1334,151 +1329,175 @@
           <cell r="AA7">
             <v>0.0550161812297734</v>
           </cell>
+          <cell r="AB7" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AC7" t="e">
+            <v>#DIV/0!</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="AE7" t="str">
             <v>3T</v>
           </cell>
           <cell r="AF7" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
-          <cell r="AG7" t="str">
-            <v>清晰</v>
-          </cell>
-          <cell r="AH7" t="str">
-            <v>可以</v>
+            <v>由于价格收缩不明显，成交量收缩情况不予考虑</v>
+          </cell>
+          <cell r="AG7">
+            <v>32.43</v>
+          </cell>
+          <cell r="AH7">
+            <v>26.16</v>
           </cell>
           <cell r="AI7">
-            <v>32.43</v>
+            <v>6.27</v>
           </cell>
           <cell r="AJ7">
-            <v>26.16</v>
+            <v>30.66</v>
           </cell>
           <cell r="AK7">
-            <v>6.27</v>
+            <v>29.35</v>
           </cell>
           <cell r="AL7">
-            <v>30.66</v>
+            <v>38.71</v>
           </cell>
           <cell r="AM7">
-            <v>29.35</v>
+            <v>131</v>
           </cell>
           <cell r="AN7">
-            <v>38.71</v>
+            <v>200</v>
           </cell>
           <cell r="AO7">
-            <v>131</v>
+            <v>6.14503816793894</v>
           </cell>
           <cell r="AP7">
-            <v>200</v>
+            <v>0.042726679712981</v>
           </cell>
           <cell r="AQ7">
-            <v>6.14503816793894</v>
+            <v>0.262557077625571</v>
           </cell>
           <cell r="AR7">
-            <v>0.042726679712981</v>
-          </cell>
-          <cell r="AS7">
-            <v>0.262557077625571</v>
+            <v>38.46</v>
+          </cell>
+          <cell r="AS7" t="str">
+            <v>不宜入场</v>
           </cell>
           <cell r="AT7">
-            <v>38.46</v>
+            <v>44524</v>
           </cell>
           <cell r="AU7">
-            <v>44524</v>
+            <v>30.54</v>
           </cell>
           <cell r="AV7">
-            <v>30.54</v>
+            <v>100</v>
           </cell>
           <cell r="AW7">
+            <v>5</v>
+          </cell>
+          <cell r="AX7">
+            <v>0.06108</v>
+          </cell>
+          <cell r="AY7">
+            <v>3059.06108</v>
+          </cell>
+          <cell r="AZ7">
+            <v>124.06108</v>
+          </cell>
+          <cell r="BA7">
+            <v>30.72</v>
+          </cell>
+          <cell r="BB7">
+            <v>29.33</v>
+          </cell>
+          <cell r="BC7">
+            <v>0.129496402877698</v>
+          </cell>
+          <cell r="BD7">
+            <v>44525</v>
+          </cell>
+          <cell r="BE7">
+            <v>30.15</v>
+          </cell>
+          <cell r="BF7">
             <v>100</v>
           </cell>
-          <cell r="AX7">
+          <cell r="BG7">
             <v>5</v>
           </cell>
-          <cell r="AY7">
-            <v>0.06108</v>
-          </cell>
-          <cell r="AZ7">
-            <v>3059.06108</v>
-          </cell>
-          <cell r="BA7">
-            <v>124.06108</v>
-          </cell>
-          <cell r="BB7">
-            <v>30.72</v>
-          </cell>
-          <cell r="BC7">
-            <v>29.33</v>
-          </cell>
-          <cell r="BD7">
-            <v>0.129496402877698</v>
+          <cell r="BH7">
+            <v>3.075</v>
+          </cell>
+          <cell r="BI7">
+            <v>3006.925</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>000006</v>
+            <v>000010</v>
           </cell>
           <cell r="B8">
-            <v>44522</v>
+            <v>44524</v>
           </cell>
           <cell r="C8" t="str">
-            <v>000722(湖南发展)</v>
+            <v>603663(三祥新材)</v>
           </cell>
           <cell r="D8">
-            <v>7.01</v>
+            <v>18.26</v>
           </cell>
           <cell r="E8">
-            <v>7.12</v>
+            <v>19.01</v>
           </cell>
           <cell r="F8">
-            <v>7.44</v>
+            <v>21.05</v>
           </cell>
           <cell r="G8">
-            <v>7.74</v>
+            <v>23.2</v>
           </cell>
           <cell r="H8">
-            <v>5.47</v>
+            <v>13.04</v>
           </cell>
           <cell r="I8">
-            <v>9.59</v>
+            <v>26.64</v>
           </cell>
           <cell r="J8">
-            <v>0.414990859232176</v>
+            <v>0.779141104294479</v>
           </cell>
           <cell r="K8">
-            <v>0.192909280500521</v>
+            <v>0.129129129129129</v>
           </cell>
         </row>
         <row r="8">
           <cell r="M8">
-            <v>6.06</v>
+            <v>18.5</v>
           </cell>
           <cell r="N8">
-            <v>8.34</v>
+            <v>22.39</v>
           </cell>
           <cell r="O8">
-            <v>6.68</v>
+            <v>18.85</v>
           </cell>
           <cell r="P8">
-            <v>7.95</v>
+            <v>23.56</v>
           </cell>
           <cell r="Q8">
-            <v>7.31</v>
+            <v>20.89</v>
           </cell>
         </row>
         <row r="8">
           <cell r="X8" t="str">
-            <v>24w</v>
+            <v>12w</v>
           </cell>
           <cell r="Y8">
-            <v>0.368091762252346</v>
+            <v>0.305555555555556</v>
           </cell>
           <cell r="Z8">
-            <v>0.199040767386091</v>
+            <v>0.158106297454221</v>
           </cell>
           <cell r="AA8">
-            <v>0.0805031446540881</v>
+            <v>0.113327674023769</v>
+          </cell>
+          <cell r="AB8" t="e">
+            <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="8">
@@ -1486,366 +1505,694 @@
             <v>3T</v>
           </cell>
           <cell r="AF8" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
-          <cell r="AG8" t="str">
-            <v>略清晰</v>
-          </cell>
-          <cell r="AH8" t="str">
+            <v>成</v>
+          </cell>
+          <cell r="AG8">
+            <v>25.19</v>
+          </cell>
+          <cell r="AH8">
+            <v>17.73</v>
+          </cell>
+          <cell r="AI8">
+            <v>7.46</v>
+          </cell>
+          <cell r="AJ8">
+            <v>23.56</v>
+          </cell>
+          <cell r="AK8">
+            <v>22.12</v>
+          </cell>
+          <cell r="AL8">
+            <v>26.91</v>
+          </cell>
+          <cell r="AM8">
+            <v>144</v>
+          </cell>
+          <cell r="AN8">
+            <v>200</v>
+          </cell>
+          <cell r="AO8">
+            <v>2.32638888888889</v>
+          </cell>
+          <cell r="AP8">
+            <v>0.0611205432937181</v>
+          </cell>
+          <cell r="AQ8">
+            <v>0.142190152801358</v>
+          </cell>
+          <cell r="AR8">
+            <v>53.49</v>
+          </cell>
+          <cell r="AS8" t="str">
             <v>可以</v>
-          </cell>
-          <cell r="AI8">
-            <v>8.43</v>
-          </cell>
-          <cell r="AJ8">
-            <v>6.78</v>
-          </cell>
-          <cell r="AK8">
-            <v>1.65</v>
-          </cell>
-          <cell r="AL8">
-            <v>8.03</v>
-          </cell>
-          <cell r="AM8">
-            <v>7.66</v>
-          </cell>
-          <cell r="AN8">
-            <v>9.31</v>
-          </cell>
-          <cell r="AO8">
-            <v>36.9999999999999</v>
-          </cell>
-          <cell r="AP8">
-            <v>800</v>
-          </cell>
-          <cell r="AQ8">
-            <v>3.45945945945947</v>
-          </cell>
-          <cell r="AR8">
-            <v>0.046077210460772</v>
-          </cell>
-          <cell r="AS8">
-            <v>0.159402241594023</v>
-          </cell>
-          <cell r="AT8">
-            <v>32.3</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>000007</v>
+            <v>000014</v>
           </cell>
           <cell r="B9">
-            <v>44523</v>
+            <v>44524</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>600392(盛和资源)</v>
+          </cell>
+          <cell r="D9">
+            <v>20.14</v>
+          </cell>
+          <cell r="E9">
+            <v>20.65</v>
+          </cell>
+          <cell r="F9">
+            <v>20.97</v>
+          </cell>
+          <cell r="G9">
+            <v>21.52</v>
+          </cell>
+          <cell r="H9">
+            <v>7.07</v>
+          </cell>
+          <cell r="I9">
+            <v>29.28</v>
+          </cell>
+          <cell r="J9">
+            <v>2.04384724186704</v>
+          </cell>
+          <cell r="K9">
+            <v>0.265027322404372</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="M9">
+            <v>18.34</v>
+          </cell>
+          <cell r="N9">
+            <v>21.65</v>
+          </cell>
+          <cell r="O9">
+            <v>18.61</v>
+          </cell>
+          <cell r="P9">
+            <v>21.14</v>
+          </cell>
+          <cell r="Q9">
+            <v>18.86</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="X9" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Y9">
+            <v>0.373633879781421</v>
+          </cell>
+          <cell r="Z9">
+            <v>0.140415704387991</v>
+          </cell>
+          <cell r="AA9">
+            <v>0.107852412488174</v>
+          </cell>
+          <cell r="AB9" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AE9" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF9" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AM9">
+            <v>0</v>
+          </cell>
+          <cell r="AN9" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AO9" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AS9" t="str">
+            <v>不宜入场</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>000008</v>
+            <v>000015</v>
+          </cell>
+          <cell r="B10">
+            <v>44524</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>600399(抚顺特钢)</v>
+          </cell>
+          <cell r="D10">
+            <v>19.9</v>
+          </cell>
+          <cell r="E10">
+            <v>20.73</v>
+          </cell>
+          <cell r="F10">
+            <v>22.88</v>
+          </cell>
+          <cell r="G10">
+            <v>23.53</v>
+          </cell>
+          <cell r="H10">
+            <v>7.25</v>
+          </cell>
+          <cell r="I10">
+            <v>29.3</v>
+          </cell>
+          <cell r="J10">
+            <v>2.24551724137931</v>
+          </cell>
+          <cell r="K10">
+            <v>0.196928327645051</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="M10">
+            <v>19.05</v>
+          </cell>
+          <cell r="N10">
+            <v>22.91</v>
+          </cell>
+          <cell r="O10">
+            <v>19.73</v>
+          </cell>
+          <cell r="P10">
+            <v>25.5</v>
+          </cell>
+          <cell r="Q10">
+            <v>23.12</v>
+          </cell>
+          <cell r="R10">
+            <v>26.45</v>
+          </cell>
+          <cell r="S10">
+            <v>23.48</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="X10" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Y10">
+            <v>0.349829351535836</v>
+          </cell>
+          <cell r="Z10">
+            <v>0.138804015713662</v>
+          </cell>
+          <cell r="AA10">
+            <v>0.0933333333333333</v>
+          </cell>
+          <cell r="AB10">
+            <v>0.112287334593573</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AE10" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF10" t="str">
+            <v>略明显</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AJ10">
+            <v>25.15</v>
+          </cell>
+          <cell r="AK10">
+            <v>23.48</v>
+          </cell>
+          <cell r="AL10">
+            <v>27.83</v>
+          </cell>
+          <cell r="AM10">
+            <v>167</v>
+          </cell>
+          <cell r="AN10">
+            <v>100</v>
+          </cell>
+          <cell r="AO10">
+            <v>1.60479041916168</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>000009</v>
+            <v>000017</v>
+          </cell>
+          <cell r="B11">
+            <v>44524</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>601677(明泰铝业)</v>
+          </cell>
+          <cell r="D11">
+            <v>26.7</v>
+          </cell>
+          <cell r="E11">
+            <v>28.65</v>
+          </cell>
+          <cell r="F11">
+            <v>33.16</v>
+          </cell>
+          <cell r="G11">
+            <v>36.11</v>
+          </cell>
+          <cell r="H11">
+            <v>11.38</v>
+          </cell>
+          <cell r="I11">
+            <v>41.75</v>
+          </cell>
+          <cell r="J11">
+            <v>2.17311072056239</v>
+          </cell>
+          <cell r="K11">
+            <v>0.135089820359281</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="M11">
+            <v>28.85</v>
+          </cell>
+          <cell r="N11">
+            <v>35.46</v>
+          </cell>
+          <cell r="O11">
+            <v>29.05</v>
+          </cell>
+          <cell r="P11">
+            <v>34.35</v>
+          </cell>
+          <cell r="Q11">
+            <v>31.5</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="X11" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Y11">
+            <v>0.308982035928144</v>
+          </cell>
+          <cell r="Z11">
+            <v>0.180767061477721</v>
+          </cell>
+          <cell r="AA11">
+            <v>0.0829694323144105</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AE11" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF11" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AJ11">
+            <v>37.13</v>
+          </cell>
+          <cell r="AK11">
+            <v>35.6</v>
+          </cell>
+          <cell r="AL11">
+            <v>38.61</v>
+          </cell>
+          <cell r="AM11">
+            <v>153</v>
+          </cell>
+          <cell r="AN11">
+            <v>100</v>
+          </cell>
+          <cell r="AO11">
+            <v>0.967320261437906</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AS11" t="str">
+            <v>可以</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>000010</v>
+            <v>000018</v>
+          </cell>
+          <cell r="B12">
+            <v>44524</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>002223(鱼跃医疗)</v>
+          </cell>
+          <cell r="D12">
+            <v>32.91</v>
+          </cell>
+          <cell r="E12">
+            <v>33.52</v>
+          </cell>
+          <cell r="F12">
+            <v>34.71</v>
+          </cell>
+          <cell r="G12">
+            <v>36.09</v>
+          </cell>
+          <cell r="H12">
+            <v>25.12</v>
+          </cell>
+          <cell r="I12">
+            <v>41.77</v>
+          </cell>
+          <cell r="J12">
+            <v>0.436703821656051</v>
+          </cell>
+          <cell r="K12">
+            <v>0.135982762748384</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="M12">
+            <v>30.46</v>
+          </cell>
+          <cell r="N12">
+            <v>36.94</v>
+          </cell>
+          <cell r="O12">
+            <v>33.59</v>
+          </cell>
+          <cell r="P12">
+            <v>37.1</v>
+          </cell>
+          <cell r="Q12">
+            <v>34.44</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="X12" t="str">
+            <v>16w</v>
+          </cell>
+          <cell r="Y12">
+            <v>0.270768494134546</v>
+          </cell>
+          <cell r="Z12">
+            <v>0.0906876015159717</v>
+          </cell>
+          <cell r="AA12">
+            <v>0.0716981132075473</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AE12" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF12" t="str">
+            <v>不是很明显</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AJ12">
+            <v>37.09</v>
+          </cell>
+          <cell r="AK12">
+            <v>35.25</v>
+          </cell>
+          <cell r="AL12">
+            <v>38.8</v>
+          </cell>
+          <cell r="AM12">
+            <v>184</v>
+          </cell>
+          <cell r="AN12">
+            <v>100</v>
+          </cell>
+          <cell r="AO12">
+            <v>0.929347826086951</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AS12" t="str">
+            <v>可以</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>000011</v>
+            <v>000019</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>000012</v>
+            <v>000020</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>000013</v>
+            <v>000021</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>000014</v>
+            <v>000022</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>000015</v>
+            <v>000023</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>000016</v>
+            <v>000024</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>000017</v>
+            <v>000025</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>000018</v>
+            <v>000026</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>000019</v>
+            <v>000027</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>000020</v>
+            <v>000028</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>000021</v>
+            <v>000029</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>000022</v>
+            <v>000030</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>000023</v>
+            <v>000031</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>000024</v>
+            <v>000032</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>000025</v>
+            <v>000033</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>000026</v>
+            <v>000034</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>000027</v>
+            <v>000035</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>000028</v>
+            <v>000036</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>000029</v>
+            <v>000037</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>000030</v>
+            <v>000038</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>000031</v>
+            <v>000039</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>000032</v>
+            <v>000040</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>000033</v>
+            <v>000041</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>000034</v>
+            <v>000042</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>000035</v>
+            <v>000043</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>000036</v>
+            <v>000044</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>000037</v>
+            <v>000045</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>000038</v>
+            <v>000046</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>000039</v>
+            <v>000047</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>000040</v>
+            <v>000048</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>000041</v>
+            <v>000049</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>000042</v>
+            <v>000050</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>000043</v>
+            <v>000051</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>000044</v>
+            <v>000052</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>000045</v>
+            <v>000053</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>000046</v>
+            <v>000054</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>000047</v>
+            <v>000055</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>000048</v>
+            <v>000056</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>000049</v>
+            <v>000057</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>000050</v>
+            <v>000058</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>000051</v>
+            <v>000059</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>000052</v>
+            <v>000060</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>000053</v>
+            <v>000061</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>000054</v>
+            <v>000062</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>000055</v>
+            <v>000063</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>000056</v>
+            <v>000064</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>000057</v>
+            <v>000065</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>000058</v>
+            <v>000066</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>000059</v>
+            <v>000067</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>000060</v>
+            <v>000068</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>000061</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>000062</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>000063</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>000064</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>000065</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>000066</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>000067</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>000068</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
             <v>000069</v>
           </cell>
         </row>
@@ -2116,8 +2463,8 @@
   <sheetPr/>
   <dimension ref="A1:T500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2208,11 +2555,11 @@
         <v>30.89</v>
       </c>
       <c r="G2" s="4">
-        <f>F2/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL10000,44,FALSE))</f>
+        <f>F2/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL10000,42,FALSE))</f>
         <v>32.65</v>
       </c>
       <c r="H2" s="7">
-        <f>G2+G2*VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL1000,44,FALSE)*2</f>
+        <f>G2+G2*VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL1000,42,FALSE)*2</f>
         <v>36.17</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -2261,11 +2608,11 @@
         <v>30.89</v>
       </c>
       <c r="G3" s="4">
-        <f>F3/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL10001,44,FALSE))</f>
+        <f>F3/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL10001,42,FALSE))</f>
         <v>32.65</v>
       </c>
       <c r="H3" s="7">
-        <f>G3+G3*VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL1001,44,FALSE)*2</f>
+        <f>G3+G3*VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL1001,42,FALSE)*2</f>
         <v>36.17</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -2314,11 +2661,11 @@
         <v>30.89</v>
       </c>
       <c r="G4" s="4">
-        <f>F4/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A5:BL10002,44,FALSE))</f>
+        <f>F4/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A5:BL10002,42,FALSE))</f>
         <v>32.65</v>
       </c>
       <c r="H4" s="7">
-        <f>G4+G4*VLOOKUP([1]入场指标!A6,[1]入场指标!A6:BL1002,44,FALSE)*2</f>
+        <f>G4+G4*VLOOKUP([1]入场指标!A6,[1]入场指标!A6:BL1002,42,FALSE)*2</f>
         <v>36.17</v>
       </c>
       <c r="I4" s="5" t="s">

--- a/我的创作/炒股/交易运行状态/新化股份.xlsx
+++ b/我的创作/炒股/交易运行状态/新化股份.xlsx
@@ -77,11 +77,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -114,13 +114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -129,25 +122,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,8 +153,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,30 +191,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -229,14 +212,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,13 +257,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,19 +275,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +317,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,13 +353,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,31 +371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,55 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,17 +407,68 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,6 +505,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -499,36 +529,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -548,90 +554,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,65 +661,65 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,6 +748,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,7 +822,7 @@
       <sheetName val="账户动态"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="4">
           <cell r="A4" t="str">
             <v>000001</v>
@@ -2197,7 +2221,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2463,8 +2487,8 @@
   <sheetPr/>
   <dimension ref="A1:T500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2665,7 +2689,7 @@
         <v>32.65</v>
       </c>
       <c r="H4" s="7">
-        <f>G4+G4*VLOOKUP([1]入场指标!A6,[1]入场指标!A6:BL1002,42,FALSE)*2</f>
+        <f>G4+G4*VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL1002,42,FALSE)*2</f>
         <v>36.17</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -2698,19 +2722,48 @@
       <c r="A5" s="3">
         <v>44525</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="B5" s="4">
+        <v>32.85</v>
+      </c>
+      <c r="C5" s="4">
+        <v>33.3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>33.38</v>
+      </c>
+      <c r="E5" s="4">
+        <v>32.59</v>
+      </c>
+      <c r="F5" s="4">
+        <v>30.89</v>
+      </c>
+      <c r="G5" s="4">
+        <f>F5/(1-VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL10003,42,FALSE))</f>
+        <v>32.65</v>
+      </c>
+      <c r="H5" s="4">
+        <f>G5+G5*VLOOKUP([1]入场指标!A6,[1]入场指标!A4:BL1002,42,FALSE)*2</f>
+        <v>36.17</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="10" t="str">
+        <f>IF(B5&gt;(D5-(D5-C5)/3),"上部",IF(B5&gt;(E5+(D5-C5)/3),"中部","下部"))</f>
+        <v>中部</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>

--- a/我的创作/炒股/交易运行状态/新化股份.xlsx
+++ b/我的创作/炒股/交易运行状态/新化股份.xlsx
@@ -448,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -457,18 +457,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.15"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.15"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.15"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -583,7 +597,7 @@
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,7 +630,7 @@
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,19 +648,19 @@
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,7 +696,7 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,13 +714,13 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,11 +729,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,10 +761,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2704,11 +2730,11 @@
       <c r="L4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="9" t="str">
+      <c r="M4" s="10" t="str">
         <f>IF(B4&gt;(D4-(D4-C4)/3),"上部",IF(B4&gt;(E4+(D4-C4)/3),"中部","下部"))</f>
         <v>下部</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="O4" s="5"/>
@@ -2754,14 +2780,14 @@
       <c r="K5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="10" t="str">
+      <c r="M5" s="12" t="str">
         <f>IF(B5&gt;(D5-(D5-C5)/3),"上部",IF(B5&gt;(E5+(D5-C5)/3),"中部","下部"))</f>
         <v>中部</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="O5" s="5"/>
@@ -2786,7 +2812,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
